--- a/responses.xlsx
+++ b/responses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="1040">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="1140">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -81,6 +81,12 @@
     <x:t xml:space="preserve">Would you like to receive physical copy of this booklet?</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Project Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Project Type</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">k.b.siebers@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -3145,6 +3151,300 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Density Functional Theory, 2D Heterostructures, Proximity Effects</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">v.r.m.benning@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Vincent Benning</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Vincent Rudolf Mathieu Benning</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dr. Freddy T. Rabouw, Prof dr. Alfons van Blaaderen, Prof dr. ir. Bert M. Weckhuysen</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dr., Prof. dr., Prof dr. ir.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/VincentPF_Vincent%20Benning.tiff</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0F0C9EAC-896E-4189-A082-348BDB72C1FB%7D&amp;file=references_debyebooklet_Vincent%20Benning.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B81C777A3-2733-455C-AC4F-8D48696EC48E%7D&amp;file=DebyeBookletDiscription_Vincent%20Benning.docx&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Energy transfer, Microscopy, Photon statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/DebyeBookletImg_withcaption_Vincent%20Benning.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Figure 1: a) Solar spectrum on earth’s surface. The blue curve shows the total irradiance, while the orange and red curves show the maximum fraction of the solar energy that can be converted to electricity by a conventional Si solar cell and by a Si solar panel in conjunction with CsPbX3:Yb3+, respectively. b) A quantum-cutting material as CsPbX3:Yb3+ creates two sets of charge carries in a semiconductor material by converting a single high-energy photon (blue) into two lower energy photons (red).</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">i.b.dogruyuksel@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Itır Bakış Dogru Yüksel</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Itır Bakış Doğru Yüksel</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Refeyn Ltd.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Prof. Allard Mosk, Assist. Prof. Sanli Faez</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Bakis_It%C4%B1r%20Bak%C4%B1%C5%9F%20Dogru%20Y%C3%BCk.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B726A5841-29FE-4CF2-BAED-AAC194A86740%7D&amp;file=Debye%20booklet%20abstract_It%C4%B1r%20Bak%C4%B1%C5%9F%20Dogru%20Y%C3%BCk.docx&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Particle trapping, ion accumulation, label-free imaging</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/Picture1_It%C4%B1r%20Bak%C4%B1%C5%9F%20Dogru%20Y%C3%BCk.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Figure 1 Particle movement around nanocracks: (a) before, (b) during, and (c) after applying an electric field (Scale bar: 10 µm).</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">t.arens@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tjom Arens</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Condensed Matter and Interfaces (CMI);Inorganic Chemistry and Catalysis (ICC);</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NWO VIDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">dr. Freddy Rabouw, Prof. dr. Alfons van Blaaderen, Prof. dr. ir. Bert Weckhuysen</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/self%20picture_Tjom%20Arens.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BBA8A385C-A398-476E-B56D-02257A7975A0%7D&amp;file=Debye%20booklet%20G3_Tjom%20Arens%201.docx&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quantum dots, Single-particle spectroscopy, Time-correlated single-photon counting</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/Picture%201_Tjom%20Arens.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 1. Schematic representation of a photon triplet with exciton photons following three consecutive laser pulses. The * represents the reference photon, τ1 is the delay time of photon 1 with respect to reference photon 2 (~–0.4 us) and τ2 is the delay time of photon 3 with respect to the reference photon 2 (~0.4 us). 2. Photon triplet consisting of an exciton photon and bi-exciton photons following consecutive laser pulses. 3. Photon triplet with tri-exciton photons following a single laser pulse. 4. 2D histogram of all photon triplets, each peak in the histogram represents a different triplet scenario, the position of 1,2 and 3 in the histogram are shown by the matching colored boxes. 5. Zoom in of the peak belonging to scenario 1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">s.melnikov@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Stanislav Melnikov</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/image_2023-11-22_141655592_Stanislav%20Melnikov.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BF39CBFA5-7216-46F8-818E-1F5446AA4285%7D&amp;file=Electrophilic%20aromatic%20substitution_Stanislav%20Melnikov.docx&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Organometallic chemistry, Homogeneous catalysis, C-H activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/image_2023-11-22_141840904_Stanislav%20Melnikov.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Figure 1: a) SNAr in arenes with electron withdrawing groups. b) Nucleophilic aromatic addition in transition metal arene complexes. c) This project: tBuPN-Ru complexes to mediate SNArH</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">t.dezaire@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Thomas Dezaire</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CBE JU</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Prof. dr. Pieter C.A. Bruijnincx, dr. Florian Meirer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Profielfoto%20UU_Thomas%20Dezaire.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B925800DD-883C-4F1F-80C2-18E44462F7B2%7D&amp;file=Booklet%20Debye%202023%20contribution%20Thomas%20Dezair_Thomas%20Dezaire.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B560CCAED-17D3-43B3-B310-014FA38E4F10%7D&amp;file=List%20of%20references%20Debye%20booklet%20Thomas%20Dezai_Thomas%20Dezaire.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chemometrics, Operando spectroscopy, Lignin depolymerization</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">k.s.kotalgi@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Karan Kotalgi</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NWO, NWA-ORC, BatteryNL Consortium</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Prof. dr. Petra de Jongh, dr. Peter Ngene</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/IMG-20230122-1_Karan%20Kotalgi.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B15751114-F5F7-402C-8E59-7212B8382657%7D&amp;file=Karan%20Kotalgi%20-%20Debye%20booklet_Karan%20Kotalgi.doc&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Lithium-ion batteries, High-voltage cathodes, Thin film coatings</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/Figures_compiled_Karan%20Kotalgi.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Figure 1: (a) CEI formation below 4.2V, (b) CEI growth after operating at potentials above 4.2V, (c) a representation of CEI growth and the known side-products forming on the cathode electrode surface Figure 2: Advantages and disadvantages of thin film coating the surface of cathode material</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">d.jain@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Disha Jain</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Disha_DB_Disha%20Jain.tiff</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BEE5A7CBB-8A40-40BC-B43D-02DB149DF8B9%7D&amp;file=Disha_Debye_booklet_Disha%20Jain.doc&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Coke deposition, Operando Spectroscopy, DFT</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">d.villaronsalgado@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">David Villarón Salgado</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">David Villaron Salgado</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">human frontiers science program</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Danny Broere</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/picture_David%20Villar%C3%B3n%20Salga.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BD3171663-6C5A-4593-80F2-144BE3B0620D%7D&amp;file=David%20Villar%C3%B3n%20Booklet%202023_David%20Villar%C3%B3n%20Salga.docx&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Microglia, RNA target, Molecular photoswitches</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/SCHEME_David%20Villar%C3%B3n%20Salga.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">b.o.grabbet@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Björn Grabbet</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Prof. dr. P.C.A. Bruijnincx, dr. A. A. Thevenon</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/PXL_20220129_142605946.PORTRAIT~3_Bj%C3%B6rn%20Grabbet.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2BDC07A4-DEED-4A17-8B0F-0B99F6496699%7D&amp;file=Debye_booklet_bj%C3%B6rn_grabbet_project_Bj%C3%B6rn%20Grabbet.doc&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Organic synthesis, homogeneous catalysis, ROCOP </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/Screen-Shot-2022-09-15-at-11.01.29-1536x875_Bj%C3%B6rn%20Grabbet.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Figure 1: Cooperative effort of the Thevenon group towards circularity.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">w.zhang2@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Weizhe Zhang</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">prof. dr. Pieter C. A. Bruijnincx, dr. Arnaud Thevenon</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Photo_Weizhe_Weizhe%20Zhang.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B028172C7-6C14-450B-BC91-DB2946A95150%7D&amp;file=Weizhe_booklet%20Debye_2023_Weizhe%20Zhang.doc&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Electrocatalysis, plastic recycling, CO2 reduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/Figure_Weizhe%20Zhang.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Figure 1: Oxidative cleavage if plastic waste and paired reaction with CO2 reduction. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">e.harsevoort@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Eva Harsevoort</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NWO, since December 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Eva%20picture_Eva%20Harsevoort.tiff</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0538EBF5-EB35-4937-9011-6696693E7085%7D&amp;file=Booklet%20Debye%20-%20Eva%20Harsevoort_Eva%20Harsevoort.doc&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monomer Synthesis, Ring-Opening Polymerization, Chemical Recycling to Monomer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/picture%20debye%202_Eva%20Harsevoort.tiff</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Figure 1: Tunable polymers suitable for Chemical Recycling to Monomer (CRM) are synthesized through lactone ring opening polymerization (ROP). Tg, glass transition temperature. Tm, melting temperature. Td, decomposition temperature. Tc, ceiling temperature</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">n.h.wensink@uu.nl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Niels Wensink</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ministerie van Infrastructuur en Waterstaat</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">prof. dr. Pieter Bruijnincx, dr. Arnaud Thevenon-Kozub</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/IMG_3195-3-01_Niels%20Wensink.tiff</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B7C872B1A-BEC8-46C8-BE84-5079AD9172A9%7D&amp;file=Debye%20Booklet%20Niels%20Wensink_Niels%20Wensink.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BB51BE4A2-4487-4504-A5E3-D4433E0D27A8%7D&amp;file=References%20Niels%20Wensink_Niels%20Wensink.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Organic synthesis, Polymer synthesis, Biodegradation</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3241,9 +3541,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R125" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:R125"/>
-  <x:tableColumns count="18">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T137" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:T137"/>
+  <x:tableColumns count="20">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
     <x:tableColumn id="3" uniqueName="3" name="Completion time" dataDxfId="3"/>
@@ -3262,6 +3562,8 @@
     <x:tableColumn id="16" uniqueName="16" name="Figure (optional)" dataDxfId="0"/>
     <x:tableColumn id="17" uniqueName="17" name="Figure Caption (optional)" dataDxfId="0"/>
     <x:tableColumn id="18" uniqueName="18" name="Would you like to receive physical copy of this booklet?" dataDxfId="0"/>
+    <x:tableColumn id="19" uniqueName="19" name="Project Title" dataDxfId="0"/>
+    <x:tableColumn id="20" uniqueName="20" name="Project Type" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -3567,7 +3869,7 @@
   <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="L17" sqref="L17"/>
+      <x:selection activeCell="A1" sqref="A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,6 +3892,8 @@
     <x:col min="16" max="16" width="20" hidden="0" bestFit="1" customWidth="1"/>
     <x:col min="17" max="17" width="20" hidden="0" bestFit="1" customWidth="1"/>
     <x:col min="18" max="18" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="19" max="19" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="20" max="20" width="20" hidden="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" hidden="0">
@@ -3647,6 +3951,12 @@
       <x:c r="R1" s="10" t="s">
         <x:v>17</x:v>
       </x:c>
+      <x:c r="S1" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" hidden="0">
       <x:c r="A2">
@@ -3659,46 +3969,48 @@
         <x:v>45215.4861574074</x:v>
       </x:c>
       <x:c r="D2" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="2"/>
       <x:c r="G2" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I2" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K2" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L2" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M2" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N2" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O2" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P2" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q2" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R2" s="10" t="s"/>
+      <x:c r="S2" s="10" t="s"/>
+      <x:c r="T2" s="10" t="s"/>
     </x:row>
     <x:row r="3" hidden="0">
       <x:c r="A3">
@@ -3711,42 +4023,44 @@
         <x:v>45218.4471412037</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E3" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F3" s="2"/>
       <x:c r="G3" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H3" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I3" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J3" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K3" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L3" s="10" t="s"/>
       <x:c r="M3" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N3" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O3" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P3" s="10" t="s"/>
       <x:c r="Q3" s="10" t="s"/>
       <x:c r="R3" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S3" s="10" t="s"/>
+      <x:c r="T3" s="10" t="s"/>
     </x:row>
     <x:row r="4" hidden="0">
       <x:c r="A4">
@@ -3759,48 +4073,50 @@
         <x:v>45221.9565277778</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F4" s="2">
         <x:v>45233.4545833333</x:v>
       </x:c>
       <x:c r="G4" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H4" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I4" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J4" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K4" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L4" s="10" t="s"/>
       <x:c r="M4" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N4" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O4" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="P4" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q4" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="R4" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S4" s="10" t="s"/>
+      <x:c r="T4" s="10" t="s"/>
     </x:row>
     <x:row r="5" hidden="0">
       <x:c r="A5">
@@ -3813,44 +4129,46 @@
         <x:v>45222.4228935185</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F5" s="2"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L5" s="10" t="s"/>
       <x:c r="M5" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N5" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O5" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P5" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="Q5" s="10" t="s"/>
       <x:c r="R5" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S5" s="10" t="s"/>
+      <x:c r="T5" s="10" t="s"/>
     </x:row>
     <x:row r="6" hidden="0">
       <x:c r="A6">
@@ -3863,42 +4181,44 @@
         <x:v>45223.6482060185</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="2"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H6" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I6" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J6" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K6" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L6" s="10" t="s"/>
       <x:c r="M6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N6" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="O6" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="P6" s="10" t="s"/>
       <x:c r="Q6" s="10" t="s"/>
       <x:c r="R6" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S6" s="10" t="s"/>
+      <x:c r="T6" s="10" t="s"/>
     </x:row>
     <x:row r="7" hidden="0">
       <x:c r="A7">
@@ -3911,42 +4231,44 @@
         <x:v>45224.6045023148</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F7" s="2"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H7" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I7" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J7" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L7" s="10" t="s"/>
       <x:c r="M7" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N7" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O7" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P7" s="10" t="s"/>
       <x:c r="Q7" s="10" t="s"/>
       <x:c r="R7" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S7" s="10" t="s"/>
+      <x:c r="T7" s="10" t="s"/>
     </x:row>
     <x:row r="8" hidden="0">
       <x:c r="A8">
@@ -3959,42 +4281,44 @@
         <x:v>45226.608599537</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F8" s="2"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H8" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J8" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K8" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L8" s="10" t="s"/>
       <x:c r="M8" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N8" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O8" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P8" s="10" t="s"/>
       <x:c r="Q8" s="10" t="s"/>
       <x:c r="R8" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S8" s="10" t="s"/>
+      <x:c r="T8" s="10" t="s"/>
     </x:row>
     <x:row r="9" hidden="0">
       <x:c r="A9">
@@ -4007,48 +4331,50 @@
         <x:v>45229.6358912037</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F9" s="2"/>
       <x:c r="G9" s="10" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H9" s="10" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="H9" s="10" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="I9" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J9" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K9" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L9" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M9" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N9" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O9" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P9" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q9" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="R9" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S9" s="10" t="s"/>
+      <x:c r="T9" s="10" t="s"/>
     </x:row>
     <x:row r="10" hidden="0">
       <x:c r="A10">
@@ -4061,46 +4387,48 @@
         <x:v>45230.401099537</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F10" s="2"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H10" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J10" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K10" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L10" s="10" t="s"/>
       <x:c r="M10" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O10" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P10" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="Q10" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="R10" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S10" s="10" t="s"/>
+      <x:c r="T10" s="10" t="s"/>
     </x:row>
     <x:row r="11" hidden="0">
       <x:c r="A11">
@@ -4113,44 +4441,46 @@
         <x:v>45231.6841087963</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E11" s="10" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F11" s="2"/>
       <x:c r="G11" s="10" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H11" s="10" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="H11" s="10" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="I11" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J11" s="10" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K11" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L11" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M11" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N11" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="O11" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P11" s="10" t="s"/>
       <x:c r="Q11" s="10" t="s"/>
       <x:c r="R11" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S11" s="10" t="s"/>
+      <x:c r="T11" s="10" t="s"/>
     </x:row>
     <x:row r="12" hidden="0">
       <x:c r="A12">
@@ -4163,42 +4493,44 @@
         <x:v>45231.7012731481</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E12" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F12" s="2"/>
       <x:c r="G12" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H12" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I12" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J12" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K12" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s"/>
       <x:c r="M12" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O12" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="P12" s="10" t="s"/>
       <x:c r="Q12" s="10" t="s"/>
       <x:c r="R12" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S12" s="10" t="s"/>
+      <x:c r="T12" s="10" t="s"/>
     </x:row>
     <x:row r="13" hidden="0">
       <x:c r="A13">
@@ -4211,46 +4543,48 @@
         <x:v>45231.7252430556</x:v>
       </x:c>
       <x:c r="D13" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E13" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F13" s="2"/>
       <x:c r="G13" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H13" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I13" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J13" s="10" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="K13" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="L13" s="10" t="s"/>
       <x:c r="M13" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N13" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="O13" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="P13" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="Q13" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="R13" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S13" s="10" t="s"/>
+      <x:c r="T13" s="10" t="s"/>
     </x:row>
     <x:row r="14" hidden="0">
       <x:c r="A14">
@@ -4263,42 +4597,44 @@
         <x:v>45232.5819212963</x:v>
       </x:c>
       <x:c r="D14" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E14" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F14" s="2"/>
       <x:c r="G14" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H14" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I14" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J14" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="K14" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="L14" s="10" t="s"/>
       <x:c r="M14" s="10" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="N14" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="O14" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="P14" s="10" t="s"/>
       <x:c r="Q14" s="10" t="s"/>
       <x:c r="R14" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S14" s="10" t="s"/>
+      <x:c r="T14" s="10" t="s"/>
     </x:row>
     <x:row r="15" hidden="0">
       <x:c r="A15">
@@ -4311,46 +4647,48 @@
         <x:v>45233.3324189815</x:v>
       </x:c>
       <x:c r="D15" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E15" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F15" s="2"/>
       <x:c r="G15" s="10" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H15" s="10" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="H15" s="10" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="I15" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J15" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K15" s="10" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="L15" s="10" t="s"/>
       <x:c r="M15" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N15" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O15" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="P15" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="Q15" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="R15" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S15" s="10" t="s"/>
+      <x:c r="T15" s="10" t="s"/>
     </x:row>
     <x:row r="16" hidden="0">
       <x:c r="A16">
@@ -4363,46 +4701,48 @@
         <x:v>45233.5962384259</x:v>
       </x:c>
       <x:c r="D16" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E16" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F16" s="2"/>
       <x:c r="G16" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H16" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I16" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J16" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K16" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L16" s="10" t="s"/>
       <x:c r="M16" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="O16" s="10" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P16" s="10" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="Q16" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="R16" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S16" s="10" t="s"/>
+      <x:c r="T16" s="10" t="s"/>
     </x:row>
     <x:row r="17" hidden="0">
       <x:c r="A17">
@@ -4415,46 +4755,48 @@
         <x:v>45236.4244907407</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E17" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F17" s="2"/>
       <x:c r="G17" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H17" s="10" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J17" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K17" s="10" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="L17" s="10" t="s"/>
       <x:c r="M17" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="N17" s="10" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O17" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P17" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="Q17" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="R17" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S17" s="10" t="s"/>
+      <x:c r="T17" s="10" t="s"/>
     </x:row>
     <x:row r="18" hidden="0">
       <x:c r="A18">
@@ -4467,42 +4809,44 @@
         <x:v>45236.5677777778</x:v>
       </x:c>
       <x:c r="D18" s="10" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E18" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F18" s="2"/>
       <x:c r="G18" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H18" s="10" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I18" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J18" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="K18" s="10" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L18" s="10" t="s"/>
       <x:c r="M18" s="10" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N18" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="O18" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P18" s="10" t="s"/>
       <x:c r="Q18" s="10" t="s"/>
       <x:c r="R18" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S18" s="10" t="s"/>
+      <x:c r="T18" s="10" t="s"/>
     </x:row>
     <x:row r="19" hidden="0">
       <x:c r="A19">
@@ -4515,46 +4859,48 @@
         <x:v>45236.5889930556</x:v>
       </x:c>
       <x:c r="D19" s="10" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E19" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F19" s="2"/>
       <x:c r="G19" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H19" s="10" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I19" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J19" s="10" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="K19" s="10" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L19" s="10" t="s"/>
       <x:c r="M19" s="10" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N19" s="10" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O19" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P19" s="10" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q19" s="10" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="R19" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S19" s="10" t="s"/>
+      <x:c r="T19" s="10" t="s"/>
     </x:row>
     <x:row r="20" hidden="0">
       <x:c r="A20">
@@ -4567,46 +4913,48 @@
         <x:v>45236.8302777778</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E20" s="10" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F20" s="2"/>
       <x:c r="G20" s="10" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H20" s="10" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="H20" s="10" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="I20" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J20" s="10" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="K20" s="10" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="L20" s="10" t="s"/>
       <x:c r="M20" s="10" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="O20" s="10" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="P20" s="10" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="Q20" s="10" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="R20" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S20" s="10" t="s"/>
+      <x:c r="T20" s="10" t="s"/>
     </x:row>
     <x:row r="21" hidden="0">
       <x:c r="A21">
@@ -4619,42 +4967,44 @@
         <x:v>45237.6540509259</x:v>
       </x:c>
       <x:c r="D21" s="10" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E21" s="10" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F21" s="2"/>
       <x:c r="G21" s="10" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H21" s="10" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I21" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J21" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="K21" s="10" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="L21" s="10" t="s"/>
       <x:c r="M21" s="10" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="N21" s="10" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="O21" s="10" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="P21" s="10" t="s"/>
       <x:c r="Q21" s="10" t="s"/>
       <x:c r="R21" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S21" s="10" t="s"/>
+      <x:c r="T21" s="10" t="s"/>
     </x:row>
     <x:row r="22" hidden="0">
       <x:c r="A22">
@@ -4667,46 +5017,48 @@
         <x:v>45237.6940856481</x:v>
       </x:c>
       <x:c r="D22" s="10" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E22" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F22" s="2"/>
       <x:c r="G22" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H22" s="10" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I22" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J22" s="10" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="K22" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="L22" s="10" t="s"/>
       <x:c r="M22" s="10" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="N22" s="10" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="O22" s="10" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="P22" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="Q22" s="10" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="R22" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S22" s="10" t="s"/>
+      <x:c r="T22" s="10" t="s"/>
     </x:row>
     <x:row r="23" hidden="0">
       <x:c r="A23">
@@ -4719,46 +5071,48 @@
         <x:v>45237.7449537037</x:v>
       </x:c>
       <x:c r="D23" s="10" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E23" s="10" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F23" s="2"/>
       <x:c r="G23" s="10" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H23" s="10" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I23" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J23" s="10" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="K23" s="10" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="L23" s="10" t="s"/>
       <x:c r="M23" s="10" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="N23" s="10" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="O23" s="10" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="P23" s="10" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="Q23" s="10" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="R23" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S23" s="10" t="s"/>
+      <x:c r="T23" s="10" t="s"/>
     </x:row>
     <x:row r="24" hidden="0">
       <x:c r="A24">
@@ -4771,46 +5125,48 @@
         <x:v>45238.4122453704</x:v>
       </x:c>
       <x:c r="D24" s="10" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E24" s="10" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F24" s="2"/>
       <x:c r="G24" s="10" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="H24" s="10" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="I24" s="10" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="J24" s="10" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="K24" s="10" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="L24" s="10" t="s"/>
       <x:c r="M24" s="10" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="N24" s="10" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="O24" s="10" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="P24" s="10" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="Q24" s="10" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="R24" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S24" s="10" t="s"/>
+      <x:c r="T24" s="10" t="s"/>
     </x:row>
     <x:row r="25" hidden="0">
       <x:c r="A25">
@@ -4823,46 +5179,48 @@
         <x:v>45238.5109259259</x:v>
       </x:c>
       <x:c r="D25" s="10" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E25" s="10" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F25" s="2"/>
       <x:c r="G25" s="10" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="H25" s="10" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I25" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J25" s="10" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="K25" s="10" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="L25" s="10" t="s"/>
       <x:c r="M25" s="10" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="N25" s="10" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="O25" s="10" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="P25" s="10" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="Q25" s="10" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="R25" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S25" s="10" t="s"/>
+      <x:c r="T25" s="10" t="s"/>
     </x:row>
     <x:row r="26" hidden="0">
       <x:c r="A26">
@@ -4875,42 +5233,44 @@
         <x:v>45238.5386342593</x:v>
       </x:c>
       <x:c r="D26" s="10" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E26" s="10" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F26" s="2"/>
       <x:c r="G26" s="10" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="H26" s="10" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="H26" s="10" t="s">
-        <x:v>225</x:v>
-      </x:c>
       <x:c r="I26" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J26" s="10" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="K26" s="10" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="L26" s="10" t="s"/>
       <x:c r="M26" s="10" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N26" s="10" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="O26" s="10" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="P26" s="10" t="s"/>
       <x:c r="Q26" s="10" t="s"/>
       <x:c r="R26" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S26" s="10" t="s"/>
+      <x:c r="T26" s="10" t="s"/>
     </x:row>
     <x:row r="27" hidden="0">
       <x:c r="A27">
@@ -4923,42 +5283,44 @@
         <x:v>45239.6762847222</x:v>
       </x:c>
       <x:c r="D27" s="10" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E27" s="10" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F27" s="2"/>
       <x:c r="G27" s="10" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="H27" s="10" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="H27" s="10" t="s">
-        <x:v>232</x:v>
-      </x:c>
       <x:c r="I27" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J27" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K27" s="10" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="L27" s="10" t="s"/>
       <x:c r="M27" s="10" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="N27" s="10" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O27" s="10" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="P27" s="10" t="s"/>
       <x:c r="Q27" s="10" t="s"/>
       <x:c r="R27" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S27" s="10" t="s"/>
+      <x:c r="T27" s="10" t="s"/>
     </x:row>
     <x:row r="28" hidden="0">
       <x:c r="A28">
@@ -4971,46 +5333,48 @@
         <x:v>45239.7019212963</x:v>
       </x:c>
       <x:c r="D28" s="10" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E28" s="10" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F28" s="2"/>
       <x:c r="G28" s="10" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="H28" s="10" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="I28" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J28" s="10" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="K28" s="10" t="s">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="L28" s="10" t="s"/>
       <x:c r="M28" s="10" t="s">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="N28" s="10" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="O28" s="10" t="s">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="P28" s="10" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="Q28" s="10" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="R28" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S28" s="10" t="s"/>
+      <x:c r="T28" s="10" t="s"/>
     </x:row>
     <x:row r="29" hidden="0">
       <x:c r="A29">
@@ -5023,44 +5387,46 @@
         <x:v>45239.7052662037</x:v>
       </x:c>
       <x:c r="D29" s="10" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E29" s="10" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F29" s="2"/>
       <x:c r="G29" s="10" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="H29" s="10" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I29" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J29" s="10" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K29" s="10" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="L29" s="10" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="M29" s="10" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="N29" s="10" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="O29" s="10" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="P29" s="10" t="s"/>
       <x:c r="Q29" s="10" t="s"/>
       <x:c r="R29" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S29" s="10" t="s"/>
+      <x:c r="T29" s="10" t="s"/>
     </x:row>
     <x:row r="30" hidden="0">
       <x:c r="A30">
@@ -5073,46 +5439,48 @@
         <x:v>45239.7862615741</x:v>
       </x:c>
       <x:c r="D30" s="10" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E30" s="10" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F30" s="2"/>
       <x:c r="G30" s="10" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="H30" s="10" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="I30" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J30" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K30" s="10" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="L30" s="10" t="s"/>
       <x:c r="M30" s="10" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="N30" s="10" t="s">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="O30" s="10" t="s">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="P30" s="10" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="Q30" s="10" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="R30" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S30" s="10" t="s"/>
+      <x:c r="T30" s="10" t="s"/>
     </x:row>
     <x:row r="31" hidden="0">
       <x:c r="A31">
@@ -5125,46 +5493,48 @@
         <x:v>45240.3525</x:v>
       </x:c>
       <x:c r="D31" s="10" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E31" s="10" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F31" s="2"/>
       <x:c r="G31" s="10" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H31" s="10" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="I31" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J31" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K31" s="10" t="s">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="L31" s="10" t="s"/>
       <x:c r="M31" s="10" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N31" s="10" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="O31" s="10" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="P31" s="10" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="Q31" s="10" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="R31" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S31" s="10" t="s"/>
+      <x:c r="T31" s="10" t="s"/>
     </x:row>
     <x:row r="32" hidden="0">
       <x:c r="A32">
@@ -5177,46 +5547,48 @@
         <x:v>45240.6742476852</x:v>
       </x:c>
       <x:c r="D32" s="10" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="E32" s="10" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F32" s="2"/>
       <x:c r="G32" s="10" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="H32" s="10" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="I32" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J32" s="10" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="K32" s="10" t="s">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="L32" s="10" t="s"/>
       <x:c r="M32" s="10" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="N32" s="10" t="s">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="O32" s="10" t="s">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="P32" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="Q32" s="10" t="s">
-        <x:v>280</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="R32" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S32" s="10" t="s"/>
+      <x:c r="T32" s="10" t="s"/>
     </x:row>
     <x:row r="33" hidden="0">
       <x:c r="A33">
@@ -5229,46 +5601,48 @@
         <x:v>45243.5032060185</x:v>
       </x:c>
       <x:c r="D33" s="10" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E33" s="10" t="s">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F33" s="2"/>
       <x:c r="G33" s="10" t="s">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="H33" s="10" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="I33" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J33" s="10" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="K33" s="10" t="s">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="L33" s="10" t="s"/>
       <x:c r="M33" s="10" t="s">
-        <x:v>285</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="N33" s="10" t="s">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="O33" s="10" t="s">
-        <x:v>287</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="P33" s="10" t="s">
-        <x:v>288</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="Q33" s="10" t="s">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="R33" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S33" s="10" t="s"/>
+      <x:c r="T33" s="10" t="s"/>
     </x:row>
     <x:row r="34" hidden="0">
       <x:c r="A34">
@@ -5281,42 +5655,44 @@
         <x:v>45243.5759375</x:v>
       </x:c>
       <x:c r="D34" s="10" t="s">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E34" s="10" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F34" s="2"/>
       <x:c r="G34" s="10" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H34" s="10" t="s">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="I34" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J34" s="10" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="K34" s="10" t="s">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="L34" s="10" t="s"/>
       <x:c r="M34" s="10" t="s">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="N34" s="10" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="O34" s="10" t="s">
-        <x:v>295</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="P34" s="10" t="s"/>
       <x:c r="Q34" s="10" t="s"/>
       <x:c r="R34" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S34" s="10" t="s"/>
+      <x:c r="T34" s="10" t="s"/>
     </x:row>
     <x:row r="35" hidden="0">
       <x:c r="A35">
@@ -5329,46 +5705,48 @@
         <x:v>45243.6893634259</x:v>
       </x:c>
       <x:c r="D35" s="10" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E35" s="10" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F35" s="2"/>
       <x:c r="G35" s="10" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="H35" s="10" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="I35" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J35" s="10" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="K35" s="10" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L35" s="10" t="s"/>
       <x:c r="M35" s="10" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="N35" s="10" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="O35" s="10" t="s">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="P35" s="10" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="Q35" s="10" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="R35" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S35" s="10" t="s"/>
+      <x:c r="T35" s="10" t="s"/>
     </x:row>
     <x:row r="36" hidden="0">
       <x:c r="A36">
@@ -5381,48 +5759,50 @@
         <x:v>45243.7121296296</x:v>
       </x:c>
       <x:c r="D36" s="10" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E36" s="10" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F36" s="2"/>
       <x:c r="G36" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="H36" s="10" t="s">
         <x:v>307</x:v>
       </x:c>
-      <x:c r="H36" s="10" t="s">
-        <x:v>305</x:v>
-      </x:c>
       <x:c r="I36" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J36" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K36" s="10" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="L36" s="10" t="s">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="M36" s="10" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="N36" s="10" t="s">
-        <x:v>311</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="O36" s="10" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="P36" s="10" t="s">
-        <x:v>313</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="Q36" s="10" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="R36" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S36" s="10" t="s"/>
+      <x:c r="T36" s="10" t="s"/>
     </x:row>
     <x:row r="37" hidden="0">
       <x:c r="A37">
@@ -5435,44 +5815,46 @@
         <x:v>45243.896412037</x:v>
       </x:c>
       <x:c r="D37" s="10" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E37" s="10" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F37" s="2"/>
       <x:c r="G37" s="10" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="H37" s="10" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="I37" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J37" s="7" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="K37" s="10" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="L37" s="10" t="s"/>
       <x:c r="M37" s="10" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="N37" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="O37" s="10" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="P37" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="Q37" s="10" t="s"/>
       <x:c r="R37" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S37" s="10" t="s"/>
+      <x:c r="T37" s="10" t="s"/>
     </x:row>
     <x:row r="38" hidden="0">
       <x:c r="A38">
@@ -5485,46 +5867,48 @@
         <x:v>45244.379537037</x:v>
       </x:c>
       <x:c r="D38" s="10" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E38" s="10" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F38" s="2"/>
       <x:c r="G38" s="10" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="H38" s="10" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="I38" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J38" s="10" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="K38" s="10" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="L38" s="10" t="s"/>
       <x:c r="M38" s="10" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="N38" s="10" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="O38" s="10" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="P38" s="10" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="Q38" s="10" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="R38" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S38" s="10" t="s"/>
+      <x:c r="T38" s="10" t="s"/>
     </x:row>
     <x:row r="39" hidden="0">
       <x:c r="A39">
@@ -5537,46 +5921,48 @@
         <x:v>45244.5576273148</x:v>
       </x:c>
       <x:c r="D39" s="10" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="E39" s="10" t="s">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F39" s="2"/>
       <x:c r="G39" s="10" t="s">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H39" s="10" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="I39" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J39" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K39" s="10" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="L39" s="10" t="s"/>
       <x:c r="M39" s="10" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="N39" s="10" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="O39" s="10" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="P39" s="10" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="Q39" s="10" t="s">
-        <x:v>338</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="R39" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S39" s="10" t="s"/>
+      <x:c r="T39" s="10" t="s"/>
     </x:row>
     <x:row r="40" hidden="0">
       <x:c r="A40">
@@ -5589,46 +5975,48 @@
         <x:v>45244.6159259259</x:v>
       </x:c>
       <x:c r="D40" s="10" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="E40" s="10" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="F40" s="2"/>
       <x:c r="G40" s="10" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="H40" s="10" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="I40" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J40" s="10" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="K40" s="10" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="L40" s="10" t="s"/>
       <x:c r="M40" s="10" t="s">
-        <x:v>343</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="N40" s="10" t="s">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="O40" s="10" t="s">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="P40" s="10" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="Q40" s="10" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="R40" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S40" s="10" t="s"/>
+      <x:c r="T40" s="10" t="s"/>
     </x:row>
     <x:row r="41" hidden="0">
       <x:c r="A41">
@@ -5641,46 +6029,48 @@
         <x:v>45244.6318287037</x:v>
       </x:c>
       <x:c r="D41" s="10" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E41" s="10" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F41" s="2"/>
       <x:c r="G41" s="10" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="H41" s="10" t="s">
         <x:v>350</x:v>
       </x:c>
-      <x:c r="H41" s="10" t="s">
-        <x:v>348</x:v>
-      </x:c>
       <x:c r="I41" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J41" s="10" t="s">
-        <x:v>351</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="K41" s="10" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="L41" s="10" t="s"/>
       <x:c r="M41" s="10" t="s">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="N41" s="10" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="O41" s="10" t="s">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="P41" s="10" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="Q41" s="10" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="R41" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S41" s="10" t="s"/>
+      <x:c r="T41" s="10" t="s"/>
     </x:row>
     <x:row r="42" hidden="0">
       <x:c r="A42">
@@ -5693,42 +6083,44 @@
         <x:v>45245.4331481481</x:v>
       </x:c>
       <x:c r="D42" s="10" t="s">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E42" s="10" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="F42" s="2"/>
       <x:c r="G42" s="10" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="H42" s="10" t="s">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="I42" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J42" s="10" t="s">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="K42" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L42" s="10" t="s"/>
       <x:c r="M42" s="10" t="s">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="N42" s="10" t="s">
-        <x:v>362</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="O42" s="10" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="P42" s="10" t="s"/>
       <x:c r="Q42" s="10" t="s"/>
       <x:c r="R42" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S42" s="10" t="s"/>
+      <x:c r="T42" s="10" t="s"/>
     </x:row>
     <x:row r="43" hidden="0">
       <x:c r="A43">
@@ -5741,46 +6133,48 @@
         <x:v>45245.4426967593</x:v>
       </x:c>
       <x:c r="D43" s="10" t="s">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F43" s="2"/>
       <x:c r="G43" s="10" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H43" s="10" t="s">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="I43" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J43" s="10" t="s">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="K43" s="10" t="s">
-        <x:v>367</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="L43" s="10" t="s"/>
       <x:c r="M43" s="10" t="s">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="N43" s="10" t="s">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="O43" s="10" t="s">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="P43" s="10" t="s">
-        <x:v>371</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="Q43" s="10" t="s">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="R43" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S43" s="10" t="s"/>
+      <x:c r="T43" s="10" t="s"/>
     </x:row>
     <x:row r="44" hidden="0">
       <x:c r="A44">
@@ -5793,42 +6187,44 @@
         <x:v>45245.4825</x:v>
       </x:c>
       <x:c r="D44" s="10" t="s">
-        <x:v>373</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E44" s="10" t="s">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F44" s="2"/>
       <x:c r="G44" s="10" t="s">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="H44" s="10" t="s">
-        <x:v>373</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="I44" s="10" t="s">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="J44" s="10" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="K44" s="10" t="s">
-        <x:v>377</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="L44" s="10" t="s"/>
       <x:c r="M44" s="10" t="s">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="N44" s="10" t="s">
-        <x:v>379</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="O44" s="10" t="s">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="P44" s="10" t="s"/>
       <x:c r="Q44" s="10" t="s"/>
       <x:c r="R44" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S44" s="10" t="s"/>
+      <x:c r="T44" s="10" t="s"/>
     </x:row>
     <x:row r="45" hidden="0">
       <x:c r="A45">
@@ -5841,44 +6237,46 @@
         <x:v>45245.4992476852</x:v>
       </x:c>
       <x:c r="D45" s="10" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E45" s="10" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="F45" s="2"/>
       <x:c r="G45" s="10" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="H45" s="10" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="I45" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J45" s="10" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K45" s="10" t="s">
-        <x:v>383</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="L45" s="10" t="s">
-        <x:v>384</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="M45" s="10" t="s">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="N45" s="10" t="s">
-        <x:v>386</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="O45" s="10" t="s">
-        <x:v>387</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="P45" s="10" t="s"/>
       <x:c r="Q45" s="10" t="s"/>
       <x:c r="R45" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S45" s="10" t="s"/>
+      <x:c r="T45" s="10" t="s"/>
     </x:row>
     <x:row r="46" hidden="0">
       <x:c r="A46">
@@ -5891,48 +6289,50 @@
         <x:v>45245.5286111111</x:v>
       </x:c>
       <x:c r="D46" s="10" t="s">
-        <x:v>388</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E46" s="10" t="s">
-        <x:v>389</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="F46" s="2">
         <x:v>45246.5836342593</x:v>
       </x:c>
       <x:c r="G46" s="10" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="H46" s="10" t="s">
         <x:v>390</x:v>
       </x:c>
-      <x:c r="H46" s="10" t="s">
-        <x:v>388</x:v>
-      </x:c>
       <x:c r="I46" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J46" s="10" t="s">
-        <x:v>392</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="K46" s="10" t="s">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="L46" s="10" t="s"/>
       <x:c r="M46" s="10" t="s">
-        <x:v>394</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="N46" s="10" t="s">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="O46" s="10" t="s">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="P46" s="10" t="s">
-        <x:v>397</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="Q46" s="10" t="s">
-        <x:v>398</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="R46" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S46" s="10" t="s"/>
+      <x:c r="T46" s="10" t="s"/>
     </x:row>
     <x:row r="47" hidden="0">
       <x:c r="A47">
@@ -5945,46 +6345,48 @@
         <x:v>45245.5311458333</x:v>
       </x:c>
       <x:c r="D47" s="10" t="s">
-        <x:v>399</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="E47" s="10" t="s">
-        <x:v>400</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="F47" s="2"/>
       <x:c r="G47" s="10" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="H47" s="10" t="s">
         <x:v>401</x:v>
       </x:c>
-      <x:c r="H47" s="10" t="s">
-        <x:v>399</x:v>
-      </x:c>
       <x:c r="I47" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J47" s="7" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="K47" s="10" t="s">
-        <x:v>402</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="L47" s="10" t="s"/>
       <x:c r="M47" s="10" t="s">
-        <x:v>403</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="N47" s="10" t="s">
-        <x:v>404</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="O47" s="10" t="s">
-        <x:v>405</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="P47" s="10" t="s">
-        <x:v>406</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="Q47" s="10" t="s">
-        <x:v>407</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="R47" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S47" s="10" t="s"/>
+      <x:c r="T47" s="10" t="s"/>
     </x:row>
     <x:row r="48" hidden="0">
       <x:c r="A48">
@@ -5997,46 +6399,48 @@
         <x:v>45245.5907523148</x:v>
       </x:c>
       <x:c r="D48" s="10" t="s">
-        <x:v>408</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="E48" s="10" t="s">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F48" s="2"/>
       <x:c r="G48" s="10" t="s">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="H48" s="10" t="s">
-        <x:v>408</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="I48" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J48" s="10" t="s">
-        <x:v>410</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="K48" s="10" t="s">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="L48" s="10" t="s"/>
       <x:c r="M48" s="10" t="s">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="N48" s="10" t="s">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="O48" s="10" t="s">
-        <x:v>414</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="P48" s="10" t="s">
-        <x:v>415</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="Q48" s="10" t="s">
-        <x:v>416</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="R48" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S48" s="10" t="s"/>
+      <x:c r="T48" s="10" t="s"/>
     </x:row>
     <x:row r="49" hidden="0">
       <x:c r="A49">
@@ -6049,44 +6453,46 @@
         <x:v>45245.6072337963</x:v>
       </x:c>
       <x:c r="D49" s="10" t="s">
-        <x:v>417</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="E49" s="10" t="s">
-        <x:v>418</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F49" s="2"/>
       <x:c r="G49" s="10" t="s">
-        <x:v>418</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="H49" s="10" t="s">
-        <x:v>417</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="I49" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J49" s="10" t="s">
-        <x:v>419</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="K49" s="10" t="s">
-        <x:v>420</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="L49" s="10" t="s">
-        <x:v>421</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="M49" s="10" t="s">
-        <x:v>422</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="N49" s="10" t="s">
-        <x:v>423</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="O49" s="10" t="s">
-        <x:v>424</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="P49" s="10" t="s"/>
       <x:c r="Q49" s="10" t="s"/>
       <x:c r="R49" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S49" s="10" t="s"/>
+      <x:c r="T49" s="10" t="s"/>
     </x:row>
     <x:row r="50" hidden="0">
       <x:c r="A50">
@@ -6099,46 +6505,48 @@
         <x:v>45245.6122569444</x:v>
       </x:c>
       <x:c r="D50" s="10" t="s">
-        <x:v>425</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="E50" s="10" t="s">
-        <x:v>426</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="F50" s="2"/>
       <x:c r="G50" s="10" t="s">
-        <x:v>426</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="H50" s="10" t="s">
-        <x:v>425</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="I50" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J50" s="10" t="s">
-        <x:v>427</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="K50" s="10" t="s">
-        <x:v>428</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="L50" s="10" t="s"/>
       <x:c r="M50" s="10" t="s">
-        <x:v>429</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="N50" s="10" t="s">
-        <x:v>430</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="O50" s="10" t="s">
-        <x:v>431</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="P50" s="10" t="s">
-        <x:v>432</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="Q50" s="10" t="s">
-        <x:v>433</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="R50" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S50" s="10" t="s"/>
+      <x:c r="T50" s="10" t="s"/>
     </x:row>
     <x:row r="51" hidden="0">
       <x:c r="A51">
@@ -6151,42 +6559,44 @@
         <x:v>45245.6666435185</x:v>
       </x:c>
       <x:c r="D51" s="10" t="s">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E51" s="10" t="s">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="F51" s="2"/>
       <x:c r="G51" s="10" t="s">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="H51" s="10" t="s">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="I51" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J51" s="10" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="K51" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="L51" s="10" t="s"/>
       <x:c r="M51" s="10" t="s">
-        <x:v>437</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="N51" s="10" t="s">
-        <x:v>438</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="O51" s="10" t="s">
-        <x:v>439</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="P51" s="10" t="s"/>
       <x:c r="Q51" s="10" t="s"/>
       <x:c r="R51" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S51" s="10" t="s"/>
+      <x:c r="T51" s="10" t="s"/>
     </x:row>
     <x:row r="52" hidden="0">
       <x:c r="A52">
@@ -6199,46 +6609,48 @@
         <x:v>45245.6950115741</x:v>
       </x:c>
       <x:c r="D52" s="10" t="s">
-        <x:v>440</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="E52" s="10" t="s">
-        <x:v>441</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="F52" s="2"/>
       <x:c r="G52" s="10" t="s">
-        <x:v>441</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="H52" s="10" t="s">
-        <x:v>440</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="I52" s="10" t="s">
-        <x:v>442</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="J52" s="10" t="s">
-        <x:v>443</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="K52" s="10" t="s">
-        <x:v>444</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="L52" s="10" t="s"/>
       <x:c r="M52" s="10" t="s">
-        <x:v>445</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="N52" s="10" t="s">
-        <x:v>446</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="O52" s="10" t="s">
-        <x:v>447</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="P52" s="10" t="s">
-        <x:v>448</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="Q52" s="10" t="s">
-        <x:v>449</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="R52" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S52" s="10" t="s"/>
+      <x:c r="T52" s="10" t="s"/>
     </x:row>
     <x:row r="53" hidden="0">
       <x:c r="A53">
@@ -6251,46 +6663,48 @@
         <x:v>45245.7537152778</x:v>
       </x:c>
       <x:c r="D53" s="10" t="s">
-        <x:v>450</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="E53" s="10" t="s">
-        <x:v>451</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="F53" s="2"/>
       <x:c r="G53" s="10" t="s">
-        <x:v>451</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="H53" s="10" t="s">
-        <x:v>450</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="I53" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J53" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K53" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="L53" s="10" t="s"/>
       <x:c r="M53" s="10" t="s">
-        <x:v>453</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="N53" s="10" t="s">
-        <x:v>454</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="O53" s="10" t="s">
-        <x:v>455</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="P53" s="10" t="s">
-        <x:v>456</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="Q53" s="10" t="s">
-        <x:v>457</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="R53" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S53" s="10" t="s"/>
+      <x:c r="T53" s="10" t="s"/>
     </x:row>
     <x:row r="54" hidden="0">
       <x:c r="A54">
@@ -6303,46 +6717,48 @@
         <x:v>45245.9679976852</x:v>
       </x:c>
       <x:c r="D54" s="10" t="s">
-        <x:v>458</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="E54" s="10" t="s">
-        <x:v>459</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="F54" s="2"/>
       <x:c r="G54" s="10" t="s">
-        <x:v>459</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="H54" s="10" t="s">
-        <x:v>460</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="I54" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J54" s="10" t="s">
-        <x:v>461</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="K54" s="10" t="s">
-        <x:v>462</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="L54" s="10" t="s"/>
       <x:c r="M54" s="10" t="s">
-        <x:v>463</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="N54" s="10" t="s">
-        <x:v>464</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="O54" s="10" t="s">
-        <x:v>465</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="P54" s="10" t="s">
-        <x:v>466</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="Q54" s="10" t="s">
-        <x:v>467</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="R54" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S54" s="10" t="s"/>
+      <x:c r="T54" s="10" t="s"/>
     </x:row>
     <x:row r="55" hidden="0">
       <x:c r="A55">
@@ -6355,46 +6771,48 @@
         <x:v>45246.3823726852</x:v>
       </x:c>
       <x:c r="D55" s="10" t="s">
-        <x:v>468</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="E55" s="10" t="s">
-        <x:v>469</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="F55" s="2"/>
       <x:c r="G55" s="10" t="s">
-        <x:v>469</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="H55" s="10" t="s">
-        <x:v>468</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I55" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J55" s="10" t="s">
-        <x:v>470</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="K55" s="10" t="s">
-        <x:v>471</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="L55" s="10" t="s"/>
       <x:c r="M55" s="10" t="s">
-        <x:v>472</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="N55" s="10" t="s">
-        <x:v>473</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="O55" s="10" t="s">
-        <x:v>474</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="P55" s="10" t="s">
-        <x:v>475</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="Q55" s="10" t="s">
-        <x:v>476</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="R55" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S55" s="10" t="s"/>
+      <x:c r="T55" s="10" t="s"/>
     </x:row>
     <x:row r="56" hidden="0">
       <x:c r="A56">
@@ -6407,46 +6825,48 @@
         <x:v>45246.4063773148</x:v>
       </x:c>
       <x:c r="D56" s="10" t="s">
-        <x:v>477</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="E56" s="10" t="s">
-        <x:v>478</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="F56" s="2"/>
       <x:c r="G56" s="10" t="s">
-        <x:v>478</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="H56" s="10" t="s">
-        <x:v>477</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="I56" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J56" s="10" t="s">
-        <x:v>479</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="K56" s="10" t="s">
-        <x:v>480</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="L56" s="10" t="s"/>
       <x:c r="M56" s="10" t="s">
-        <x:v>481</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="N56" s="10" t="s">
-        <x:v>482</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="O56" s="10" t="s">
-        <x:v>483</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="P56" s="10" t="s">
-        <x:v>484</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="Q56" s="10" t="s">
-        <x:v>485</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="R56" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S56" s="10" t="s"/>
+      <x:c r="T56" s="10" t="s"/>
     </x:row>
     <x:row r="57" hidden="0">
       <x:c r="A57">
@@ -6459,48 +6879,50 @@
         <x:v>45246.4066898148</x:v>
       </x:c>
       <x:c r="D57" s="10" t="s">
-        <x:v>486</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="E57" s="10" t="s">
-        <x:v>487</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="F57" s="2">
         <x:v>45246.5399074074</x:v>
       </x:c>
       <x:c r="G57" s="10" t="s">
-        <x:v>487</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="H57" s="10" t="s">
-        <x:v>486</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="I57" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J57" s="10" t="s">
-        <x:v>488</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="K57" s="10" t="s">
-        <x:v>489</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="L57" s="10" t="s"/>
       <x:c r="M57" s="10" t="s">
-        <x:v>490</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="N57" s="10" t="s">
-        <x:v>491</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="O57" s="10" t="s">
-        <x:v>492</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="P57" s="10" t="s">
-        <x:v>493</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="Q57" s="10" t="s">
-        <x:v>494</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="R57" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S57" s="10" t="s"/>
+      <x:c r="T57" s="10" t="s"/>
     </x:row>
     <x:row r="58" hidden="0">
       <x:c r="A58">
@@ -6513,46 +6935,48 @@
         <x:v>45246.4281828704</x:v>
       </x:c>
       <x:c r="D58" s="10" t="s">
-        <x:v>495</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E58" s="10" t="s">
-        <x:v>496</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F58" s="2"/>
       <x:c r="G58" s="10" t="s">
-        <x:v>496</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="H58" s="10" t="s">
-        <x:v>497</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="I58" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J58" s="10" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="K58" s="10" t="s">
-        <x:v>498</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L58" s="10" t="s"/>
       <x:c r="M58" s="10" t="s">
-        <x:v>499</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="N58" s="10" t="s">
-        <x:v>500</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="O58" s="10" t="s">
-        <x:v>501</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="P58" s="10" t="s">
-        <x:v>502</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="Q58" s="10" t="s">
-        <x:v>503</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="R58" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S58" s="10" t="s"/>
+      <x:c r="T58" s="10" t="s"/>
     </x:row>
     <x:row r="59" hidden="0">
       <x:c r="A59">
@@ -6565,48 +6989,50 @@
         <x:v>45246.4298032407</x:v>
       </x:c>
       <x:c r="D59" s="10" t="s">
-        <x:v>504</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="E59" s="10" t="s">
-        <x:v>505</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="F59" s="2"/>
       <x:c r="G59" s="10" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="H59" s="10" t="s">
         <x:v>506</x:v>
       </x:c>
-      <x:c r="H59" s="10" t="s">
-        <x:v>504</x:v>
-      </x:c>
       <x:c r="I59" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J59" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K59" s="10" t="s">
-        <x:v>507</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="L59" s="10" t="s">
-        <x:v>508</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="M59" s="10" t="s">
-        <x:v>509</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="N59" s="10" t="s">
-        <x:v>510</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="O59" s="10" t="s">
-        <x:v>511</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="P59" s="10" t="s">
-        <x:v>512</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="Q59" s="10" t="s">
-        <x:v>513</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="R59" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S59" s="10" t="s"/>
+      <x:c r="T59" s="10" t="s"/>
     </x:row>
     <x:row r="60" hidden="0">
       <x:c r="A60">
@@ -6619,44 +7045,46 @@
         <x:v>45246.454537037</x:v>
       </x:c>
       <x:c r="D60" s="10" t="s">
-        <x:v>514</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="E60" s="10" t="s">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="F60" s="2"/>
       <x:c r="G60" s="10" t="s">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="H60" s="10" t="s">
-        <x:v>514</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="I60" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J60" s="10" t="s">
-        <x:v>516</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="K60" s="10" t="s">
-        <x:v>517</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="L60" s="10" t="s">
-        <x:v>384</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="M60" s="10" t="s">
-        <x:v>518</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="N60" s="10" t="s">
-        <x:v>519</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="O60" s="10" t="s">
-        <x:v>520</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="P60" s="10" t="s"/>
       <x:c r="Q60" s="10" t="s"/>
       <x:c r="R60" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S60" s="10" t="s"/>
+      <x:c r="T60" s="10" t="s"/>
     </x:row>
     <x:row r="61" hidden="0">
       <x:c r="A61">
@@ -6669,46 +7097,48 @@
         <x:v>45246.4577777778</x:v>
       </x:c>
       <x:c r="D61" s="10" t="s">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="E61" s="10" t="s">
-        <x:v>522</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F61" s="2"/>
       <x:c r="G61" s="10" t="s">
-        <x:v>522</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="H61" s="10" t="s">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="I61" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J61" s="10" t="s">
-        <x:v>523</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="K61" s="10" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="L61" s="10" t="s"/>
       <x:c r="M61" s="10" t="s">
-        <x:v>524</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="N61" s="10" t="s">
-        <x:v>525</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="O61" s="10" t="s">
-        <x:v>526</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="P61" s="10" t="s">
-        <x:v>527</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="Q61" s="10" t="s">
-        <x:v>528</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="R61" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S61" s="10" t="s"/>
+      <x:c r="T61" s="10" t="s"/>
     </x:row>
     <x:row r="62" hidden="0">
       <x:c r="A62">
@@ -6721,44 +7151,46 @@
         <x:v>45246.4579050926</x:v>
       </x:c>
       <x:c r="D62" s="10" t="s">
-        <x:v>529</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="E62" s="10" t="s">
-        <x:v>530</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="F62" s="2"/>
       <x:c r="G62" s="10" t="s">
-        <x:v>530</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="H62" s="10" t="s">
-        <x:v>529</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="I62" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J62" s="10" t="s">
-        <x:v>531</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="K62" s="10" t="s">
-        <x:v>532</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="L62" s="10" t="s"/>
       <x:c r="M62" s="10" t="s">
-        <x:v>533</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="N62" s="10" t="s">
-        <x:v>534</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="O62" s="10" t="s">
-        <x:v>535</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="P62" s="10" t="s">
-        <x:v>536</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="Q62" s="10" t="s"/>
       <x:c r="R62" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S62" s="10" t="s"/>
+      <x:c r="T62" s="10" t="s"/>
     </x:row>
     <x:row r="63" hidden="0">
       <x:c r="A63">
@@ -6771,42 +7203,44 @@
         <x:v>45246.4706365741</x:v>
       </x:c>
       <x:c r="D63" s="10" t="s">
-        <x:v>537</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E63" s="10" t="s">
-        <x:v>538</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="F63" s="2"/>
       <x:c r="G63" s="10" t="s">
-        <x:v>538</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="H63" s="10" t="s">
-        <x:v>537</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="I63" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J63" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K63" s="10" t="s">
-        <x:v>539</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="L63" s="10" t="s"/>
       <x:c r="M63" s="10" t="s">
-        <x:v>540</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="N63" s="10" t="s">
-        <x:v>541</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="O63" s="10" t="s">
-        <x:v>542</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="P63" s="10" t="s"/>
       <x:c r="Q63" s="10" t="s"/>
       <x:c r="R63" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S63" s="10" t="s"/>
+      <x:c r="T63" s="10" t="s"/>
     </x:row>
     <x:row r="64" hidden="0">
       <x:c r="A64">
@@ -6819,46 +7253,48 @@
         <x:v>45246.4868634259</x:v>
       </x:c>
       <x:c r="D64" s="10" t="s">
-        <x:v>543</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="E64" s="10" t="s">
-        <x:v>544</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="F64" s="2"/>
       <x:c r="G64" s="10" t="s">
-        <x:v>544</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="H64" s="10" t="s">
-        <x:v>543</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="I64" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J64" s="10" t="s">
-        <x:v>545</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="K64" s="10" t="s">
-        <x:v>546</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="L64" s="10" t="s"/>
       <x:c r="M64" s="10" t="s">
-        <x:v>547</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="N64" s="10" t="s">
-        <x:v>548</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="O64" s="10" t="s">
-        <x:v>549</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="P64" s="10" t="s">
-        <x:v>550</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="Q64" s="10" t="s">
-        <x:v>551</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="R64" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S64" s="10" t="s"/>
+      <x:c r="T64" s="10" t="s"/>
     </x:row>
     <x:row r="65" hidden="0">
       <x:c r="A65">
@@ -6871,44 +7307,46 @@
         <x:v>45246.5186342593</x:v>
       </x:c>
       <x:c r="D65" s="10" t="s">
-        <x:v>552</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="E65" s="10" t="s">
-        <x:v>553</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="F65" s="2">
         <x:v>45246.5195949074</x:v>
       </x:c>
       <x:c r="G65" s="10" t="s">
-        <x:v>553</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="H65" s="10" t="s">
-        <x:v>552</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="I65" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J65" s="10" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="K65" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="L65" s="10" t="s"/>
       <x:c r="M65" s="10" t="s">
-        <x:v>554</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="N65" s="10" t="s">
-        <x:v>555</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="O65" s="10" t="s">
-        <x:v>556</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="P65" s="10" t="s"/>
       <x:c r="Q65" s="10" t="s"/>
       <x:c r="R65" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S65" s="10" t="s"/>
+      <x:c r="T65" s="10" t="s"/>
     </x:row>
     <x:row r="66" hidden="0">
       <x:c r="A66">
@@ -6921,46 +7359,48 @@
         <x:v>45246.5810763889</x:v>
       </x:c>
       <x:c r="D66" s="10" t="s">
-        <x:v>557</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E66" s="10" t="s">
-        <x:v>558</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="F66" s="2"/>
       <x:c r="G66" s="10" t="s">
-        <x:v>558</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="H66" s="10" t="s">
-        <x:v>557</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="I66" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J66" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K66" s="10" t="s">
-        <x:v>559</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="L66" s="10" t="s"/>
       <x:c r="M66" s="10" t="s">
-        <x:v>560</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="N66" s="10" t="s">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="O66" s="10" t="s">
-        <x:v>562</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="P66" s="10" t="s">
-        <x:v>563</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="Q66" s="10" t="s">
-        <x:v>564</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="R66" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S66" s="10" t="s"/>
+      <x:c r="T66" s="10" t="s"/>
     </x:row>
     <x:row r="67" hidden="0">
       <x:c r="A67">
@@ -6973,46 +7413,48 @@
         <x:v>45246.5814699074</x:v>
       </x:c>
       <x:c r="D67" s="10" t="s">
-        <x:v>565</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="E67" s="10" t="s">
-        <x:v>566</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="F67" s="2"/>
       <x:c r="G67" s="10" t="s">
-        <x:v>566</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="H67" s="10" t="s">
-        <x:v>565</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="I67" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J67" s="10" t="s">
-        <x:v>567</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="K67" s="10" t="s">
-        <x:v>568</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="L67" s="10" t="s"/>
       <x:c r="M67" s="10" t="s">
-        <x:v>569</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="N67" s="10" t="s">
-        <x:v>570</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="O67" s="10" t="s">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="P67" s="10" t="s">
-        <x:v>572</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="Q67" s="10" t="s">
-        <x:v>573</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="R67" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S67" s="10" t="s"/>
+      <x:c r="T67" s="10" t="s"/>
     </x:row>
     <x:row r="68" hidden="0">
       <x:c r="A68">
@@ -7025,48 +7467,50 @@
         <x:v>45246.5900925926</x:v>
       </x:c>
       <x:c r="D68" s="10" t="s">
-        <x:v>574</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="E68" s="10" t="s">
-        <x:v>575</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="F68" s="2"/>
       <x:c r="G68" s="10" t="s">
-        <x:v>575</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="H68" s="10" t="s">
-        <x:v>574</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="I68" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J68" s="10" t="s">
-        <x:v>576</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="K68" s="10" t="s">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="L68" s="10" t="s">
-        <x:v>578</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="M68" s="10" t="s">
-        <x:v>579</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="N68" s="10" t="s">
-        <x:v>580</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="O68" s="10" t="s">
-        <x:v>581</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="P68" s="10" t="s">
-        <x:v>582</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="Q68" s="10" t="s">
-        <x:v>583</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="R68" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S68" s="10" t="s"/>
+      <x:c r="T68" s="10" t="s"/>
     </x:row>
     <x:row r="69" hidden="0">
       <x:c r="A69">
@@ -7079,46 +7523,48 @@
         <x:v>45246.6372916667</x:v>
       </x:c>
       <x:c r="D69" s="10" t="s">
-        <x:v>584</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="E69" s="10" t="s">
-        <x:v>585</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="F69" s="2"/>
       <x:c r="G69" s="10" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="H69" s="10" t="s">
         <x:v>586</x:v>
       </x:c>
-      <x:c r="H69" s="10" t="s">
-        <x:v>584</x:v>
-      </x:c>
       <x:c r="I69" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J69" s="10" t="s">
-        <x:v>587</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="K69" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L69" s="10" t="s"/>
       <x:c r="M69" s="10" t="s">
-        <x:v>588</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="N69" s="10" t="s">
-        <x:v>589</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="O69" s="10" t="s">
-        <x:v>590</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="P69" s="10" t="s">
-        <x:v>591</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="Q69" s="10" t="s">
-        <x:v>592</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="R69" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S69" s="10" t="s"/>
+      <x:c r="T69" s="10" t="s"/>
     </x:row>
     <x:row r="70" hidden="0">
       <x:c r="A70">
@@ -7131,46 +7577,48 @@
         <x:v>45246.6408449074</x:v>
       </x:c>
       <x:c r="D70" s="10" t="s">
-        <x:v>593</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="E70" s="10" t="s">
-        <x:v>594</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="F70" s="2"/>
       <x:c r="G70" s="10" t="s">
-        <x:v>594</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="H70" s="10" t="s">
-        <x:v>593</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="I70" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J70" s="10" t="s">
-        <x:v>595</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="K70" s="10" t="s">
-        <x:v>596</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="L70" s="10" t="s"/>
       <x:c r="M70" s="10" t="s">
-        <x:v>597</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="N70" s="10" t="s">
-        <x:v>598</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="O70" s="10" t="s">
-        <x:v>599</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="P70" s="10" t="s">
-        <x:v>600</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="Q70" s="10" t="s">
-        <x:v>601</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="R70" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S70" s="10" t="s"/>
+      <x:c r="T70" s="10" t="s"/>
     </x:row>
     <x:row r="71" hidden="0">
       <x:c r="A71">
@@ -7183,42 +7631,44 @@
         <x:v>45246.6424305556</x:v>
       </x:c>
       <x:c r="D71" s="10" t="s">
-        <x:v>602</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="E71" s="10" t="s">
-        <x:v>603</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="F71" s="2"/>
       <x:c r="G71" s="10" t="s">
-        <x:v>603</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="H71" s="10" t="s">
-        <x:v>602</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="I71" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J71" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K71" s="10" t="s">
-        <x:v>604</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="L71" s="10" t="s"/>
       <x:c r="M71" s="10" t="s">
-        <x:v>605</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="N71" s="10" t="s">
-        <x:v>606</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="O71" s="10" t="s">
-        <x:v>607</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="P71" s="10" t="s"/>
       <x:c r="Q71" s="10" t="s"/>
       <x:c r="R71" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S71" s="10" t="s"/>
+      <x:c r="T71" s="10" t="s"/>
     </x:row>
     <x:row r="72" hidden="0">
       <x:c r="A72">
@@ -7231,46 +7681,48 @@
         <x:v>45246.6849768519</x:v>
       </x:c>
       <x:c r="D72" s="10" t="s">
-        <x:v>608</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="E72" s="10" t="s">
-        <x:v>609</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="F72" s="2"/>
       <x:c r="G72" s="10" t="s">
-        <x:v>609</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="H72" s="10" t="s">
-        <x:v>608</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="I72" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J72" s="10" t="s">
-        <x:v>610</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="K72" s="10" t="s">
-        <x:v>611</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="L72" s="10" t="s"/>
       <x:c r="M72" s="10" t="s">
-        <x:v>612</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="N72" s="10" t="s">
-        <x:v>613</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="O72" s="10" t="s">
-        <x:v>614</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="P72" s="10" t="s">
-        <x:v>615</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="Q72" s="10" t="s">
-        <x:v>616</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="R72" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S72" s="10" t="s"/>
+      <x:c r="T72" s="10" t="s"/>
     </x:row>
     <x:row r="73" hidden="0">
       <x:c r="A73">
@@ -7283,46 +7735,48 @@
         <x:v>45246.6879976852</x:v>
       </x:c>
       <x:c r="D73" s="10" t="s">
-        <x:v>617</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="E73" s="10" t="s">
-        <x:v>618</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="F73" s="2"/>
       <x:c r="G73" s="10" t="s">
-        <x:v>618</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="H73" s="10" t="s">
-        <x:v>617</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="I73" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J73" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K73" s="10" t="s">
-        <x:v>619</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="L73" s="10" t="s"/>
       <x:c r="M73" s="10" t="s">
-        <x:v>620</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="N73" s="10" t="s">
-        <x:v>621</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="O73" s="10" t="s">
-        <x:v>622</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="P73" s="10" t="s">
-        <x:v>623</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="Q73" s="10" t="s">
-        <x:v>624</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="R73" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S73" s="10" t="s"/>
+      <x:c r="T73" s="10" t="s"/>
     </x:row>
     <x:row r="74" hidden="0">
       <x:c r="A74">
@@ -7335,40 +7789,42 @@
         <x:v>45246.6920023148</x:v>
       </x:c>
       <x:c r="D74" s="10" t="s">
-        <x:v>625</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="E74" s="10" t="s">
-        <x:v>626</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F74" s="2"/>
       <x:c r="G74" s="10" t="s">
-        <x:v>626</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="H74" s="10" t="s">
-        <x:v>625</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="I74" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J74" s="10" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="K74" s="10" t="s">
-        <x:v>627</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="L74" s="10" t="s"/>
       <x:c r="M74" s="10" t="s">
-        <x:v>628</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="N74" s="10" t="s">
-        <x:v>629</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="O74" s="10" t="s">
-        <x:v>630</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="P74" s="10" t="s"/>
       <x:c r="Q74" s="10" t="s"/>
       <x:c r="R74" s="10" t="s"/>
+      <x:c r="S74" s="10" t="s"/>
+      <x:c r="T74" s="10" t="s"/>
     </x:row>
     <x:row r="75" hidden="0">
       <x:c r="A75">
@@ -7381,46 +7837,48 @@
         <x:v>45246.7486111111</x:v>
       </x:c>
       <x:c r="D75" s="10" t="s">
-        <x:v>631</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="E75" s="10" t="s">
-        <x:v>632</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="F75" s="2"/>
       <x:c r="G75" s="10" t="s">
-        <x:v>632</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="H75" s="10" t="s">
-        <x:v>633</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="I75" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J75" s="10" t="s">
-        <x:v>634</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="K75" s="10" t="s">
-        <x:v>635</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="L75" s="10" t="s"/>
       <x:c r="M75" s="10" t="s">
-        <x:v>636</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="N75" s="10" t="s">
-        <x:v>637</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="O75" s="10" t="s">
-        <x:v>638</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="P75" s="10" t="s">
-        <x:v>639</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="Q75" s="10" t="s">
-        <x:v>640</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="R75" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S75" s="10" t="s"/>
+      <x:c r="T75" s="10" t="s"/>
     </x:row>
     <x:row r="76" hidden="0">
       <x:c r="A76">
@@ -7433,48 +7891,50 @@
         <x:v>45246.7521990741</x:v>
       </x:c>
       <x:c r="D76" s="10" t="s">
-        <x:v>641</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="E76" s="10" t="s">
-        <x:v>642</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="F76" s="2">
         <x:v>45247.5881597222</x:v>
       </x:c>
       <x:c r="G76" s="10" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="H76" s="10" t="s">
         <x:v>643</x:v>
       </x:c>
-      <x:c r="H76" s="10" t="s">
-        <x:v>641</x:v>
-      </x:c>
       <x:c r="I76" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J76" s="10" t="s">
-        <x:v>644</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="K76" s="10" t="s">
-        <x:v>645</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="L76" s="10" t="s"/>
       <x:c r="M76" s="10" t="s">
-        <x:v>646</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="N76" s="10" t="s">
-        <x:v>647</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="O76" s="10" t="s">
-        <x:v>648</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="P76" s="10" t="s">
-        <x:v>649</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="Q76" s="10" t="s">
-        <x:v>650</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="R76" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S76" s="10" t="s"/>
+      <x:c r="T76" s="10" t="s"/>
     </x:row>
     <x:row r="77" hidden="0">
       <x:c r="A77">
@@ -7487,46 +7947,48 @@
         <x:v>45246.7540740741</x:v>
       </x:c>
       <x:c r="D77" s="10" t="s">
-        <x:v>651</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="E77" s="10" t="s">
-        <x:v>652</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="F77" s="2"/>
       <x:c r="G77" s="10" t="s">
-        <x:v>652</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="H77" s="10" t="s">
-        <x:v>651</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="I77" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J77" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K77" s="10" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="L77" s="10" t="s"/>
       <x:c r="M77" s="10" t="s">
-        <x:v>654</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="N77" s="10" t="s">
-        <x:v>655</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="O77" s="10" t="s">
-        <x:v>656</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="P77" s="10" t="s">
-        <x:v>657</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="Q77" s="10" t="s">
-        <x:v>658</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="R77" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S77" s="10" t="s"/>
+      <x:c r="T77" s="10" t="s"/>
     </x:row>
     <x:row r="78" hidden="0">
       <x:c r="A78">
@@ -7539,46 +8001,48 @@
         <x:v>45246.7554166667</x:v>
       </x:c>
       <x:c r="D78" s="10" t="s">
-        <x:v>659</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="E78" s="10" t="s">
-        <x:v>660</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F78" s="2"/>
       <x:c r="G78" s="10" t="s">
-        <x:v>660</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="H78" s="10" t="s">
-        <x:v>659</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="I78" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J78" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K78" s="10" t="s">
-        <x:v>661</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="L78" s="10" t="s"/>
       <x:c r="M78" s="10" t="s">
-        <x:v>662</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="N78" s="10" t="s">
-        <x:v>663</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="O78" s="10" t="s">
-        <x:v>664</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="P78" s="10" t="s">
-        <x:v>665</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="Q78" s="10" t="s">
-        <x:v>666</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="R78" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S78" s="10" t="s"/>
+      <x:c r="T78" s="10" t="s"/>
     </x:row>
     <x:row r="79" hidden="0">
       <x:c r="A79">
@@ -7591,48 +8055,50 @@
         <x:v>45246.7944212963</x:v>
       </x:c>
       <x:c r="D79" s="10" t="s">
-        <x:v>667</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="E79" s="10" t="s">
-        <x:v>668</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="F79" s="2"/>
       <x:c r="G79" s="10" t="s">
-        <x:v>668</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="H79" s="10" t="s">
-        <x:v>667</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="I79" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J79" s="10" t="s">
-        <x:v>669</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="K79" s="10" t="s">
-        <x:v>670</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="L79" s="10" t="s">
-        <x:v>671</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="M79" s="10" t="s">
-        <x:v>672</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="N79" s="10" t="s">
-        <x:v>673</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="O79" s="10" t="s">
-        <x:v>674</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="P79" s="10" t="s">
-        <x:v>675</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="Q79" s="10" t="s">
-        <x:v>676</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="R79" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S79" s="10" t="s"/>
+      <x:c r="T79" s="10" t="s"/>
     </x:row>
     <x:row r="80" hidden="0">
       <x:c r="A80">
@@ -7645,46 +8111,48 @@
         <x:v>45246.8604861111</x:v>
       </x:c>
       <x:c r="D80" s="10" t="s">
-        <x:v>677</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="E80" s="10" t="s">
-        <x:v>678</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="F80" s="2"/>
       <x:c r="G80" s="10" t="s">
-        <x:v>678</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="H80" s="10" t="s">
-        <x:v>677</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="I80" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J80" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K80" s="10" t="s">
-        <x:v>679</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="L80" s="10" t="s"/>
       <x:c r="M80" s="10" t="s">
-        <x:v>680</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="N80" s="10" t="s">
-        <x:v>681</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="O80" s="10" t="s">
-        <x:v>682</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="P80" s="10" t="s">
-        <x:v>683</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="Q80" s="10" t="s">
-        <x:v>684</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="R80" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S80" s="10" t="s"/>
+      <x:c r="T80" s="10" t="s"/>
     </x:row>
     <x:row r="81" hidden="0">
       <x:c r="A81">
@@ -7697,48 +8165,50 @@
         <x:v>45246.907962963</x:v>
       </x:c>
       <x:c r="D81" s="10" t="s">
-        <x:v>685</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="E81" s="10" t="s">
-        <x:v>686</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="F81" s="2">
         <x:v>45247.5195486111</x:v>
       </x:c>
       <x:c r="G81" s="10" t="s">
-        <x:v>686</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="H81" s="10" t="s">
-        <x:v>685</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="I81" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J81" s="10" t="s">
-        <x:v>687</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="K81" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="L81" s="10" t="s">
-        <x:v>688</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="M81" s="10" t="s">
-        <x:v>689</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="N81" s="10" t="s">
-        <x:v>690</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="O81" s="10" t="s">
-        <x:v>691</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="P81" s="10" t="s">
-        <x:v>692</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="Q81" s="10" t="s"/>
       <x:c r="R81" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S81" s="10" t="s"/>
+      <x:c r="T81" s="10" t="s"/>
     </x:row>
     <x:row r="82" hidden="0">
       <x:c r="A82">
@@ -7751,46 +8221,48 @@
         <x:v>45246.9659837963</x:v>
       </x:c>
       <x:c r="D82" s="10" t="s">
-        <x:v>693</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="E82" s="10" t="s">
-        <x:v>694</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="F82" s="2"/>
       <x:c r="G82" s="10" t="s">
-        <x:v>694</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="H82" s="10" t="s">
-        <x:v>693</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="I82" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J82" s="10" t="s">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="K82" s="10" t="s">
-        <x:v>696</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="L82" s="10" t="s"/>
       <x:c r="M82" s="10" t="s">
-        <x:v>697</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="N82" s="10" t="s">
-        <x:v>698</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="O82" s="10" t="s">
-        <x:v>699</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="P82" s="10" t="s">
-        <x:v>700</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="Q82" s="10" t="s">
-        <x:v>701</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="R82" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S82" s="10" t="s"/>
+      <x:c r="T82" s="10" t="s"/>
     </x:row>
     <x:row r="83" hidden="0">
       <x:c r="A83">
@@ -7803,48 +8275,50 @@
         <x:v>45247.3825231481</x:v>
       </x:c>
       <x:c r="D83" s="10" t="s">
-        <x:v>702</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="E83" s="10" t="s">
-        <x:v>703</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="F83" s="2"/>
       <x:c r="G83" s="10" t="s">
-        <x:v>703</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="H83" s="10" t="s">
-        <x:v>702</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="I83" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J83" s="10" t="s">
-        <x:v>704</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="K83" s="10" t="s">
-        <x:v>705</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="L83" s="10" t="s">
-        <x:v>705</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="M83" s="10" t="s">
-        <x:v>706</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="N83" s="10" t="s">
-        <x:v>707</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="O83" s="10" t="s">
-        <x:v>708</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="P83" s="10" t="s">
-        <x:v>709</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="Q83" s="10" t="s">
-        <x:v>710</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="R83" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S83" s="10" t="s"/>
+      <x:c r="T83" s="10" t="s"/>
     </x:row>
     <x:row r="84" hidden="0">
       <x:c r="A84">
@@ -7857,42 +8331,44 @@
         <x:v>45247.393287037</x:v>
       </x:c>
       <x:c r="D84" s="10" t="s">
-        <x:v>711</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="E84" s="10" t="s">
-        <x:v>712</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F84" s="2"/>
       <x:c r="G84" s="10" t="s">
-        <x:v>712</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="H84" s="10" t="s">
-        <x:v>711</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="I84" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J84" s="10" t="s">
-        <x:v>713</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="K84" s="10" t="s">
-        <x:v>714</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="L84" s="10" t="s"/>
       <x:c r="M84" s="10" t="s">
-        <x:v>715</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="N84" s="10" t="s">
-        <x:v>716</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="O84" s="10" t="s">
-        <x:v>717</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="P84" s="10" t="s"/>
       <x:c r="Q84" s="10" t="s"/>
       <x:c r="R84" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S84" s="10" t="s"/>
+      <x:c r="T84" s="10" t="s"/>
     </x:row>
     <x:row r="85" hidden="0">
       <x:c r="A85">
@@ -7905,46 +8381,48 @@
         <x:v>45247.3986111111</x:v>
       </x:c>
       <x:c r="D85" s="10" t="s">
-        <x:v>718</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="E85" s="10" t="s">
-        <x:v>719</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="F85" s="2"/>
       <x:c r="G85" s="10" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="H85" s="10" t="s">
         <x:v>720</x:v>
       </x:c>
-      <x:c r="H85" s="10" t="s">
-        <x:v>718</x:v>
-      </x:c>
       <x:c r="I85" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J85" s="10" t="s">
-        <x:v>721</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="K85" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="L85" s="10" t="s"/>
       <x:c r="M85" s="10" t="s">
-        <x:v>722</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="N85" s="10" t="s">
-        <x:v>723</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="O85" s="10" t="s">
-        <x:v>724</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="P85" s="10" t="s">
-        <x:v>725</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="Q85" s="10" t="s">
-        <x:v>726</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="R85" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S85" s="10" t="s"/>
+      <x:c r="T85" s="10" t="s"/>
     </x:row>
     <x:row r="86" hidden="0">
       <x:c r="A86">
@@ -7957,46 +8435,48 @@
         <x:v>45247.4057638889</x:v>
       </x:c>
       <x:c r="D86" s="10" t="s">
-        <x:v>727</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="E86" s="10" t="s">
-        <x:v>728</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="F86" s="2"/>
       <x:c r="G86" s="10" t="s">
-        <x:v>728</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="H86" s="10" t="s">
-        <x:v>727</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="I86" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J86" s="7" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="K86" s="10" t="s">
-        <x:v>729</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="L86" s="10" t="s"/>
       <x:c r="M86" s="10" t="s">
-        <x:v>730</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="N86" s="10" t="s">
-        <x:v>731</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="O86" s="10" t="s">
-        <x:v>732</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="P86" s="10" t="s">
-        <x:v>733</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="Q86" s="10" t="s">
-        <x:v>734</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="R86" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S86" s="10" t="s"/>
+      <x:c r="T86" s="10" t="s"/>
     </x:row>
     <x:row r="87" hidden="0">
       <x:c r="A87">
@@ -8009,44 +8489,46 @@
         <x:v>45247.4433333333</x:v>
       </x:c>
       <x:c r="D87" s="10" t="s">
-        <x:v>735</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="E87" s="10" t="s">
-        <x:v>736</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="F87" s="2"/>
       <x:c r="G87" s="10" t="s">
-        <x:v>736</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="H87" s="10" t="s">
-        <x:v>735</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="I87" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J87" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K87" s="10" t="s">
-        <x:v>737</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="L87" s="10" t="s"/>
       <x:c r="M87" s="10" t="s">
-        <x:v>738</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="N87" s="10" t="s">
-        <x:v>739</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="O87" s="10" t="s">
-        <x:v>740</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="P87" s="10" t="s">
-        <x:v>741</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="Q87" s="10" t="s"/>
       <x:c r="R87" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S87" s="10" t="s"/>
+      <x:c r="T87" s="10" t="s"/>
     </x:row>
     <x:row r="88" hidden="0">
       <x:c r="A88">
@@ -8059,46 +8541,48 @@
         <x:v>45247.456724537</x:v>
       </x:c>
       <x:c r="D88" s="10" t="s">
-        <x:v>742</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="E88" s="10" t="s">
-        <x:v>743</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="F88" s="2"/>
       <x:c r="G88" s="10" t="s">
-        <x:v>743</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="H88" s="10" t="s">
-        <x:v>742</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="I88" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J88" s="10" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="K88" s="10" t="s">
-        <x:v>744</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="L88" s="10" t="s"/>
       <x:c r="M88" s="10" t="s">
-        <x:v>745</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="N88" s="10" t="s">
-        <x:v>746</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="O88" s="10" t="s">
-        <x:v>747</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="P88" s="10" t="s">
-        <x:v>748</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="Q88" s="10" t="s">
-        <x:v>749</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="R88" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S88" s="10" t="s"/>
+      <x:c r="T88" s="10" t="s"/>
     </x:row>
     <x:row r="89" hidden="0">
       <x:c r="A89">
@@ -8111,42 +8595,44 @@
         <x:v>45247.462337963</x:v>
       </x:c>
       <x:c r="D89" s="10" t="s">
-        <x:v>750</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="E89" s="10" t="s">
-        <x:v>751</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="F89" s="2"/>
       <x:c r="G89" s="10" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="H89" s="10" t="s">
         <x:v>752</x:v>
       </x:c>
-      <x:c r="H89" s="10" t="s">
-        <x:v>750</x:v>
-      </x:c>
       <x:c r="I89" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J89" s="10" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="K89" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="L89" s="10" t="s"/>
       <x:c r="M89" s="10" t="s">
-        <x:v>753</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="N89" s="10" t="s">
-        <x:v>754</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="O89" s="10" t="s">
-        <x:v>755</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="P89" s="10" t="s"/>
       <x:c r="Q89" s="10" t="s"/>
       <x:c r="R89" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S89" s="10" t="s"/>
+      <x:c r="T89" s="10" t="s"/>
     </x:row>
     <x:row r="90" hidden="0">
       <x:c r="A90">
@@ -8159,46 +8645,48 @@
         <x:v>45247.4719328704</x:v>
       </x:c>
       <x:c r="D90" s="10" t="s">
-        <x:v>756</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="E90" s="10" t="s">
-        <x:v>757</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="F90" s="2"/>
       <x:c r="G90" s="10" t="s">
-        <x:v>757</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="H90" s="10" t="s">
-        <x:v>756</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="I90" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J90" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K90" s="10" t="s">
-        <x:v>758</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="L90" s="10" t="s"/>
       <x:c r="M90" s="10" t="s">
-        <x:v>759</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="N90" s="10" t="s">
-        <x:v>760</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="O90" s="10" t="s">
-        <x:v>761</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="P90" s="10" t="s">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="Q90" s="10" t="s">
-        <x:v>763</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="R90" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S90" s="10" t="s"/>
+      <x:c r="T90" s="10" t="s"/>
     </x:row>
     <x:row r="91" hidden="0">
       <x:c r="A91">
@@ -8211,46 +8699,48 @@
         <x:v>45247.4734027778</x:v>
       </x:c>
       <x:c r="D91" s="10" t="s">
-        <x:v>764</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="E91" s="10" t="s">
-        <x:v>765</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="F91" s="2"/>
       <x:c r="G91" s="10" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="H91" s="10" t="s">
         <x:v>766</x:v>
       </x:c>
-      <x:c r="H91" s="10" t="s">
-        <x:v>764</x:v>
-      </x:c>
       <x:c r="I91" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J91" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K91" s="10" t="s">
-        <x:v>767</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="L91" s="10" t="s"/>
       <x:c r="M91" s="10" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="N91" s="10" t="s">
-        <x:v>769</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="O91" s="10" t="s">
-        <x:v>770</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="P91" s="10" t="s">
-        <x:v>771</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="Q91" s="10" t="s">
-        <x:v>772</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="R91" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S91" s="10" t="s"/>
+      <x:c r="T91" s="10" t="s"/>
     </x:row>
     <x:row r="92" hidden="0">
       <x:c r="A92">
@@ -8263,46 +8753,48 @@
         <x:v>45247.4735532407</x:v>
       </x:c>
       <x:c r="D92" s="10" t="s">
-        <x:v>773</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="E92" s="10" t="s">
-        <x:v>774</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="F92" s="2"/>
       <x:c r="G92" s="10" t="s">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="H92" s="10" t="s">
         <x:v>775</x:v>
       </x:c>
-      <x:c r="H92" s="10" t="s">
-        <x:v>773</x:v>
-      </x:c>
       <x:c r="I92" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J92" s="10" t="s">
-        <x:v>776</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="K92" s="10" t="s">
-        <x:v>777</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="L92" s="10" t="s"/>
       <x:c r="M92" s="10" t="s">
-        <x:v>778</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="N92" s="10" t="s">
-        <x:v>779</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="O92" s="10" t="s">
-        <x:v>780</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="P92" s="10" t="s">
-        <x:v>781</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="Q92" s="10" t="s">
-        <x:v>782</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="R92" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S92" s="10" t="s"/>
+      <x:c r="T92" s="10" t="s"/>
     </x:row>
     <x:row r="93" hidden="0">
       <x:c r="A93">
@@ -8315,42 +8807,44 @@
         <x:v>45247.5034837963</x:v>
       </x:c>
       <x:c r="D93" s="10" t="s">
-        <x:v>783</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="E93" s="10" t="s">
-        <x:v>784</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="F93" s="2"/>
       <x:c r="G93" s="10" t="s">
-        <x:v>784</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="H93" s="10" t="s">
-        <x:v>783</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="I93" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J93" s="10" t="s">
-        <x:v>785</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="K93" s="10" t="s">
-        <x:v>786</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="L93" s="10" t="s"/>
       <x:c r="M93" s="10" t="s">
-        <x:v>787</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="N93" s="10" t="s">
-        <x:v>788</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="O93" s="10" t="s">
-        <x:v>789</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="P93" s="10" t="s"/>
       <x:c r="Q93" s="10" t="s"/>
       <x:c r="R93" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S93" s="10" t="s"/>
+      <x:c r="T93" s="10" t="s"/>
     </x:row>
     <x:row r="94" hidden="0">
       <x:c r="A94">
@@ -8363,44 +8857,46 @@
         <x:v>45247.5179398148</x:v>
       </x:c>
       <x:c r="D94" s="10" t="s">
-        <x:v>790</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="E94" s="10" t="s">
-        <x:v>791</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="F94" s="2"/>
       <x:c r="G94" s="10" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="H94" s="10" t="s">
         <x:v>792</x:v>
       </x:c>
-      <x:c r="H94" s="10" t="s">
-        <x:v>790</x:v>
-      </x:c>
       <x:c r="I94" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J94" s="10" t="s">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="K94" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="L94" s="10" t="s"/>
       <x:c r="M94" s="10" t="s">
-        <x:v>793</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="N94" s="10" t="s">
-        <x:v>794</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="O94" s="10" t="s">
-        <x:v>795</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="P94" s="10" t="s">
-        <x:v>796</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="Q94" s="10" t="s"/>
       <x:c r="R94" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S94" s="10" t="s"/>
+      <x:c r="T94" s="10" t="s"/>
     </x:row>
     <x:row r="95" hidden="0">
       <x:c r="A95">
@@ -8413,42 +8909,44 @@
         <x:v>45247.5367708333</x:v>
       </x:c>
       <x:c r="D95" s="10" t="s">
-        <x:v>797</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="E95" s="10" t="s">
-        <x:v>798</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="F95" s="2"/>
       <x:c r="G95" s="10" t="s">
-        <x:v>798</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="H95" s="10" t="s">
-        <x:v>797</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="I95" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J95" s="10" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="K95" s="10" t="s">
-        <x:v>799</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="L95" s="10" t="s"/>
       <x:c r="M95" s="10" t="s">
-        <x:v>800</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="N95" s="10" t="s">
-        <x:v>801</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="O95" s="10" t="s">
-        <x:v>802</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="P95" s="10" t="s"/>
       <x:c r="Q95" s="10" t="s"/>
       <x:c r="R95" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S95" s="10" t="s"/>
+      <x:c r="T95" s="10" t="s"/>
     </x:row>
     <x:row r="96" hidden="0">
       <x:c r="A96">
@@ -8461,44 +8959,46 @@
         <x:v>45247.5447685185</x:v>
       </x:c>
       <x:c r="D96" s="10" t="s">
-        <x:v>803</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="E96" s="10" t="s">
-        <x:v>804</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="F96" s="2"/>
       <x:c r="G96" s="10" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="H96" s="10" t="s">
         <x:v>805</x:v>
       </x:c>
-      <x:c r="H96" s="10" t="s">
-        <x:v>803</x:v>
-      </x:c>
       <x:c r="I96" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J96" s="10" t="s">
-        <x:v>806</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="K96" s="10" t="s">
-        <x:v>807</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="L96" s="10" t="s">
-        <x:v>807</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="M96" s="10" t="s">
-        <x:v>808</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="N96" s="10" t="s">
-        <x:v>809</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="O96" s="10" t="s">
-        <x:v>810</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="P96" s="10" t="s"/>
       <x:c r="Q96" s="10" t="s"/>
       <x:c r="R96" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S96" s="10" t="s"/>
+      <x:c r="T96" s="10" t="s"/>
     </x:row>
     <x:row r="97" hidden="0">
       <x:c r="A97">
@@ -8511,46 +9011,48 @@
         <x:v>45247.5494907407</x:v>
       </x:c>
       <x:c r="D97" s="10" t="s">
-        <x:v>811</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="E97" s="10" t="s">
-        <x:v>812</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="F97" s="2"/>
       <x:c r="G97" s="10" t="s">
-        <x:v>812</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="H97" s="10" t="s">
-        <x:v>811</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="I97" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J97" s="10" t="s">
-        <x:v>813</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="K97" s="10" t="s">
-        <x:v>814</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="L97" s="10" t="s"/>
       <x:c r="M97" s="10" t="s">
-        <x:v>815</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="N97" s="10" t="s">
-        <x:v>816</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="O97" s="10" t="s">
-        <x:v>817</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="P97" s="10" t="s">
-        <x:v>818</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="Q97" s="10" t="s">
-        <x:v>819</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="R97" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S97" s="10" t="s"/>
+      <x:c r="T97" s="10" t="s"/>
     </x:row>
     <x:row r="98" hidden="0">
       <x:c r="A98">
@@ -8563,42 +9065,44 @@
         <x:v>45247.5880092593</x:v>
       </x:c>
       <x:c r="D98" s="10" t="s">
-        <x:v>820</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="E98" s="10" t="s">
-        <x:v>821</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="F98" s="2"/>
       <x:c r="G98" s="10" t="s">
-        <x:v>821</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="H98" s="10" t="s">
-        <x:v>820</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="I98" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J98" s="10" t="s">
-        <x:v>822</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="K98" s="10" t="s">
-        <x:v>823</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="L98" s="10" t="s"/>
       <x:c r="M98" s="10" t="s">
-        <x:v>824</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="N98" s="10" t="s">
-        <x:v>825</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="O98" s="10" t="s">
-        <x:v>826</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="P98" s="10" t="s"/>
       <x:c r="Q98" s="10" t="s"/>
       <x:c r="R98" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S98" s="10" t="s"/>
+      <x:c r="T98" s="10" t="s"/>
     </x:row>
     <x:row r="99" hidden="0">
       <x:c r="A99">
@@ -8611,48 +9115,50 @@
         <x:v>45247.5969907407</x:v>
       </x:c>
       <x:c r="D99" s="10" t="s">
-        <x:v>827</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="E99" s="10" t="s">
-        <x:v>828</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="F99" s="2"/>
       <x:c r="G99" s="10" t="s">
-        <x:v>828</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="H99" s="10" t="s">
-        <x:v>827</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="I99" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J99" s="10" t="s">
-        <x:v>516</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="K99" s="10" t="s">
-        <x:v>829</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="L99" s="10" t="s">
-        <x:v>830</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="M99" s="10" t="s">
-        <x:v>831</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="N99" s="10" t="s">
-        <x:v>832</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="O99" s="10" t="s">
-        <x:v>833</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="P99" s="10" t="s">
-        <x:v>834</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="Q99" s="10" t="s">
-        <x:v>835</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="R99" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S99" s="10" t="s"/>
+      <x:c r="T99" s="10" t="s"/>
     </x:row>
     <x:row r="100" hidden="0">
       <x:c r="A100">
@@ -8665,46 +9171,48 @@
         <x:v>45247.6238310185</x:v>
       </x:c>
       <x:c r="D100" s="10" t="s">
-        <x:v>836</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="E100" s="10" t="s">
-        <x:v>837</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="F100" s="2"/>
       <x:c r="G100" s="10" t="s">
-        <x:v>837</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="H100" s="10" t="s">
-        <x:v>836</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="I100" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J100" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K100" s="10" t="s">
-        <x:v>838</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="L100" s="10" t="s"/>
       <x:c r="M100" s="10" t="s">
-        <x:v>839</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="N100" s="10" t="s">
-        <x:v>840</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="O100" s="10" t="s">
-        <x:v>841</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="P100" s="10" t="s">
-        <x:v>842</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="Q100" s="10" t="s">
-        <x:v>843</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="R100" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S100" s="10" t="s"/>
+      <x:c r="T100" s="10" t="s"/>
     </x:row>
     <x:row r="101" hidden="0">
       <x:c r="A101">
@@ -8717,46 +9225,48 @@
         <x:v>45247.648287037</x:v>
       </x:c>
       <x:c r="D101" s="10" t="s">
-        <x:v>844</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="E101" s="10" t="s">
-        <x:v>845</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="F101" s="2"/>
       <x:c r="G101" s="10" t="s">
-        <x:v>845</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="H101" s="10" t="s">
-        <x:v>844</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="I101" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J101" s="10" t="s">
-        <x:v>846</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="K101" s="10" t="s">
-        <x:v>847</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="L101" s="10" t="s"/>
       <x:c r="M101" s="10" t="s">
-        <x:v>848</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="N101" s="10" t="s">
-        <x:v>849</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="O101" s="10" t="s">
-        <x:v>850</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="P101" s="10" t="s">
-        <x:v>851</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="Q101" s="10" t="s">
-        <x:v>852</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="R101" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S101" s="10" t="s"/>
+      <x:c r="T101" s="10" t="s"/>
     </x:row>
     <x:row r="102" hidden="0">
       <x:c r="A102">
@@ -8769,42 +9279,44 @@
         <x:v>45247.6578125</x:v>
       </x:c>
       <x:c r="D102" s="10" t="s">
-        <x:v>853</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="E102" s="10" t="s">
-        <x:v>854</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="F102" s="2"/>
       <x:c r="G102" s="10" t="s">
-        <x:v>854</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="H102" s="10" t="s">
-        <x:v>853</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="I102" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J102" s="10" t="s">
-        <x:v>855</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="K102" s="10" t="s">
-        <x:v>856</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="L102" s="10" t="s"/>
       <x:c r="M102" s="10" t="s">
-        <x:v>857</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="N102" s="10" t="s">
-        <x:v>858</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="O102" s="10" t="s">
-        <x:v>859</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="P102" s="10" t="s"/>
       <x:c r="Q102" s="10" t="s"/>
       <x:c r="R102" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S102" s="10" t="s"/>
+      <x:c r="T102" s="10" t="s"/>
     </x:row>
     <x:row r="103" hidden="0">
       <x:c r="A103">
@@ -8817,48 +9329,50 @@
         <x:v>45247.6620601852</x:v>
       </x:c>
       <x:c r="D103" s="10" t="s">
-        <x:v>860</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="E103" s="10" t="s">
-        <x:v>861</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="F103" s="2">
         <x:v>45247.6890162037</x:v>
       </x:c>
       <x:c r="G103" s="10" t="s">
+        <x:v>864</x:v>
+      </x:c>
+      <x:c r="H103" s="10" t="s">
         <x:v>862</x:v>
       </x:c>
-      <x:c r="H103" s="10" t="s">
-        <x:v>860</x:v>
-      </x:c>
       <x:c r="I103" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J103" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K103" s="10" t="s">
-        <x:v>863</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="L103" s="10" t="s"/>
       <x:c r="M103" s="10" t="s">
-        <x:v>864</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="N103" s="10" t="s">
-        <x:v>865</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="O103" s="10" t="s">
-        <x:v>866</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="P103" s="10" t="s">
-        <x:v>867</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="Q103" s="10" t="s">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="R103" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S103" s="10" t="s"/>
+      <x:c r="T103" s="10" t="s"/>
     </x:row>
     <x:row r="104" hidden="0">
       <x:c r="A104">
@@ -8871,46 +9385,48 @@
         <x:v>45247.6624652778</x:v>
       </x:c>
       <x:c r="D104" s="10" t="s">
-        <x:v>869</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="E104" s="10" t="s">
-        <x:v>870</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="F104" s="2"/>
       <x:c r="G104" s="10" t="s">
-        <x:v>870</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="H104" s="10" t="s">
-        <x:v>869</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="I104" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J104" s="10" t="s">
-        <x:v>871</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="K104" s="10" t="s">
-        <x:v>872</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="L104" s="10" t="s"/>
       <x:c r="M104" s="10" t="s">
-        <x:v>873</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="N104" s="10" t="s">
-        <x:v>874</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="O104" s="10" t="s">
-        <x:v>875</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="P104" s="10" t="s">
-        <x:v>876</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="Q104" s="10" t="s">
-        <x:v>877</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="R104" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S104" s="10" t="s"/>
+      <x:c r="T104" s="10" t="s"/>
     </x:row>
     <x:row r="105" hidden="0">
       <x:c r="A105">
@@ -8923,46 +9439,48 @@
         <x:v>45247.664224537</x:v>
       </x:c>
       <x:c r="D105" s="10" t="s">
-        <x:v>878</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="E105" s="10" t="s">
-        <x:v>879</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="F105" s="2"/>
       <x:c r="G105" s="10" t="s">
-        <x:v>879</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="H105" s="10" t="s">
-        <x:v>878</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="I105" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J105" s="10" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="K105" s="10" t="s">
-        <x:v>880</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="L105" s="10" t="s"/>
       <x:c r="M105" s="10" t="s">
-        <x:v>881</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="N105" s="10" t="s">
-        <x:v>882</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="O105" s="10" t="s">
-        <x:v>883</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="P105" s="10" t="s">
-        <x:v>884</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="Q105" s="10" t="s">
-        <x:v>885</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="R105" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S105" s="10" t="s"/>
+      <x:c r="T105" s="10" t="s"/>
     </x:row>
     <x:row r="106" hidden="0">
       <x:c r="A106">
@@ -8975,46 +9493,48 @@
         <x:v>45247.6769444444</x:v>
       </x:c>
       <x:c r="D106" s="10" t="s">
-        <x:v>886</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="E106" s="10" t="s">
-        <x:v>887</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="F106" s="2"/>
       <x:c r="G106" s="10" t="s">
-        <x:v>887</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="H106" s="10" t="s">
-        <x:v>886</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="I106" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J106" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K106" s="10" t="s">
-        <x:v>888</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="L106" s="10" t="s"/>
       <x:c r="M106" s="10" t="s">
-        <x:v>889</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="N106" s="10" t="s">
-        <x:v>890</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="O106" s="10" t="s">
-        <x:v>891</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="P106" s="10" t="s">
-        <x:v>892</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="Q106" s="10" t="s">
-        <x:v>893</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="R106" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S106" s="10" t="s"/>
+      <x:c r="T106" s="10" t="s"/>
     </x:row>
     <x:row r="107" hidden="0">
       <x:c r="A107">
@@ -9027,46 +9547,48 @@
         <x:v>45247.682337963</x:v>
       </x:c>
       <x:c r="D107" s="10" t="s">
-        <x:v>894</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="E107" s="10" t="s">
-        <x:v>895</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="F107" s="2"/>
       <x:c r="G107" s="10" t="s">
+        <x:v>898</x:v>
+      </x:c>
+      <x:c r="H107" s="10" t="s">
         <x:v>896</x:v>
       </x:c>
-      <x:c r="H107" s="10" t="s">
-        <x:v>894</x:v>
-      </x:c>
       <x:c r="I107" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J107" s="10" t="s">
-        <x:v>897</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="K107" s="10" t="s">
-        <x:v>898</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="L107" s="10" t="s"/>
       <x:c r="M107" s="10" t="s">
-        <x:v>899</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="N107" s="10" t="s">
-        <x:v>900</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="O107" s="10" t="s">
-        <x:v>901</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="P107" s="10" t="s">
-        <x:v>902</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="Q107" s="10" t="s">
-        <x:v>903</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="R107" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S107" s="10" t="s"/>
+      <x:c r="T107" s="10" t="s"/>
     </x:row>
     <x:row r="108" hidden="0">
       <x:c r="A108">
@@ -9079,42 +9601,44 @@
         <x:v>45247.6844791667</x:v>
       </x:c>
       <x:c r="D108" s="10" t="s">
-        <x:v>904</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="E108" s="10" t="s">
-        <x:v>905</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="F108" s="2"/>
       <x:c r="G108" s="10" t="s">
-        <x:v>905</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="H108" s="10" t="s">
-        <x:v>904</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="I108" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J108" s="10" t="s">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="K108" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="L108" s="10" t="s"/>
       <x:c r="M108" s="10" t="s">
-        <x:v>906</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="N108" s="10" t="s">
-        <x:v>907</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="O108" s="10" t="s">
-        <x:v>908</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="P108" s="10" t="s"/>
       <x:c r="Q108" s="10" t="s"/>
       <x:c r="R108" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S108" s="10" t="s"/>
+      <x:c r="T108" s="10" t="s"/>
     </x:row>
     <x:row r="109" hidden="0">
       <x:c r="A109">
@@ -9127,46 +9651,48 @@
         <x:v>45247.7084027778</x:v>
       </x:c>
       <x:c r="D109" s="10" t="s">
-        <x:v>909</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="E109" s="10" t="s">
-        <x:v>910</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="F109" s="2"/>
       <x:c r="G109" s="10" t="s">
+        <x:v>913</x:v>
+      </x:c>
+      <x:c r="H109" s="10" t="s">
         <x:v>911</x:v>
       </x:c>
-      <x:c r="H109" s="10" t="s">
-        <x:v>909</x:v>
-      </x:c>
       <x:c r="I109" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J109" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K109" s="10" t="s">
-        <x:v>744</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="L109" s="10" t="s">
-        <x:v>559</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="M109" s="10" t="s">
-        <x:v>912</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="N109" s="10" t="s">
-        <x:v>913</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="O109" s="10" t="s">
-        <x:v>914</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="P109" s="10" t="s">
-        <x:v>915</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="Q109" s="10" t="s"/>
       <x:c r="R109" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S109" s="10" t="s"/>
+      <x:c r="T109" s="10" t="s"/>
     </x:row>
     <x:row r="110" hidden="0">
       <x:c r="A110">
@@ -9179,46 +9705,48 @@
         <x:v>45247.7088773148</x:v>
       </x:c>
       <x:c r="D110" s="10" t="s">
-        <x:v>916</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="E110" s="10" t="s">
-        <x:v>917</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="F110" s="2"/>
       <x:c r="G110" s="10" t="s">
-        <x:v>917</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="H110" s="10" t="s">
-        <x:v>916</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="I110" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J110" s="10" t="s">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="K110" s="10" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="L110" s="10" t="s"/>
       <x:c r="M110" s="10" t="s">
-        <x:v>918</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="N110" s="10" t="s">
-        <x:v>919</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="O110" s="10" t="s">
-        <x:v>920</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="P110" s="10" t="s">
-        <x:v>921</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="Q110" s="10" t="s">
-        <x:v>922</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="R110" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S110" s="10" t="s"/>
+      <x:c r="T110" s="10" t="s"/>
     </x:row>
     <x:row r="111" hidden="0">
       <x:c r="A111">
@@ -9231,48 +9759,50 @@
         <x:v>45247.7262037037</x:v>
       </x:c>
       <x:c r="D111" s="10" t="s">
-        <x:v>923</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="E111" s="10" t="s">
-        <x:v>924</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="F111" s="2"/>
       <x:c r="G111" s="10" t="s">
+        <x:v>927</x:v>
+      </x:c>
+      <x:c r="H111" s="10" t="s">
         <x:v>925</x:v>
       </x:c>
-      <x:c r="H111" s="10" t="s">
-        <x:v>923</x:v>
-      </x:c>
       <x:c r="I111" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J111" s="10" t="s">
-        <x:v>687</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="K111" s="10" t="s">
-        <x:v>627</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="L111" s="10" t="s">
-        <x:v>926</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="M111" s="10" t="s">
-        <x:v>927</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="N111" s="10" t="s">
-        <x:v>928</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="O111" s="10" t="s">
-        <x:v>929</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="P111" s="10" t="s">
-        <x:v>930</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="Q111" s="10" t="s">
-        <x:v>931</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="R111" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S111" s="10" t="s"/>
+      <x:c r="T111" s="10" t="s"/>
     </x:row>
     <x:row r="112" hidden="0">
       <x:c r="A112">
@@ -9285,44 +9815,46 @@
         <x:v>45247.7305208333</x:v>
       </x:c>
       <x:c r="D112" s="10" t="s">
-        <x:v>932</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="E112" s="10" t="s">
-        <x:v>933</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="F112" s="2"/>
       <x:c r="G112" s="10" t="s">
-        <x:v>933</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="H112" s="10" t="s">
-        <x:v>932</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="I112" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J112" s="10" t="s">
-        <x:v>934</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="K112" s="10" t="s">
-        <x:v>935</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="L112" s="10" t="s">
-        <x:v>936</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="M112" s="10" t="s">
-        <x:v>937</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="N112" s="10" t="s">
-        <x:v>938</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="O112" s="10" t="s">
-        <x:v>939</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="P112" s="10" t="s"/>
       <x:c r="Q112" s="10" t="s"/>
       <x:c r="R112" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S112" s="10" t="s"/>
+      <x:c r="T112" s="10" t="s"/>
     </x:row>
     <x:row r="113" hidden="0">
       <x:c r="A113">
@@ -9335,42 +9867,44 @@
         <x:v>45247.7318402778</x:v>
       </x:c>
       <x:c r="D113" s="10" t="s">
-        <x:v>940</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="E113" s="10" t="s">
-        <x:v>941</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="F113" s="2"/>
       <x:c r="G113" s="10" t="s">
-        <x:v>941</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="H113" s="10" t="s">
-        <x:v>940</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="I113" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J113" s="10" t="s">
-        <x:v>942</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="K113" s="10" t="s">
-        <x:v>943</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="L113" s="10" t="s"/>
       <x:c r="M113" s="10" t="s">
-        <x:v>944</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="N113" s="10" t="s">
-        <x:v>945</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="O113" s="10" t="s">
-        <x:v>946</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="P113" s="10" t="s"/>
       <x:c r="Q113" s="10" t="s"/>
       <x:c r="R113" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S113" s="10" t="s"/>
+      <x:c r="T113" s="10" t="s"/>
     </x:row>
     <x:row r="114" hidden="0">
       <x:c r="A114">
@@ -9383,46 +9917,48 @@
         <x:v>45247.7443055556</x:v>
       </x:c>
       <x:c r="D114" s="10" t="s">
-        <x:v>947</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="E114" s="10" t="s">
-        <x:v>948</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="F114" s="2"/>
       <x:c r="G114" s="10" t="s">
-        <x:v>948</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="H114" s="10" t="s">
-        <x:v>947</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="I114" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J114" s="10" t="s">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="K114" s="10" t="s">
-        <x:v>949</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="L114" s="10" t="s"/>
       <x:c r="M114" s="10" t="s">
-        <x:v>950</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="N114" s="10" t="s">
-        <x:v>951</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="O114" s="10" t="s">
-        <x:v>952</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="P114" s="10" t="s">
-        <x:v>953</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="Q114" s="10" t="s">
-        <x:v>954</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="R114" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S114" s="10" t="s"/>
+      <x:c r="T114" s="10" t="s"/>
     </x:row>
     <x:row r="115" hidden="0">
       <x:c r="A115">
@@ -9435,42 +9971,44 @@
         <x:v>45247.7639930556</x:v>
       </x:c>
       <x:c r="D115" s="10" t="s">
-        <x:v>955</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="E115" s="10" t="s">
-        <x:v>956</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="F115" s="2"/>
       <x:c r="G115" s="10" t="s">
-        <x:v>956</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="H115" s="10" t="s">
-        <x:v>955</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="I115" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J115" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K115" s="10" t="s">
-        <x:v>957</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="L115" s="10" t="s"/>
       <x:c r="M115" s="10" t="s">
-        <x:v>958</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="N115" s="10" t="s">
-        <x:v>959</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="O115" s="10" t="s">
-        <x:v>960</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="P115" s="10" t="s"/>
       <x:c r="Q115" s="10" t="s"/>
       <x:c r="R115" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S115" s="10" t="s"/>
+      <x:c r="T115" s="10" t="s"/>
     </x:row>
     <x:row r="116" hidden="0">
       <x:c r="A116">
@@ -9483,44 +10021,46 @@
         <x:v>45247.7928125</x:v>
       </x:c>
       <x:c r="D116" s="10" t="s">
-        <x:v>961</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="E116" s="10" t="s">
-        <x:v>962</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="F116" s="2"/>
       <x:c r="G116" s="10" t="s">
-        <x:v>962</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="H116" s="10" t="s">
-        <x:v>961</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="I116" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J116" s="10" t="s">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="K116" s="10" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="L116" s="10" t="s"/>
       <x:c r="M116" s="10" t="s">
-        <x:v>963</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="N116" s="10" t="s">
-        <x:v>964</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="O116" s="10" t="s">
-        <x:v>965</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="P116" s="10" t="s">
-        <x:v>966</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="Q116" s="10" t="s"/>
       <x:c r="R116" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S116" s="10" t="s"/>
+      <x:c r="T116" s="10" t="s"/>
     </x:row>
     <x:row r="117" hidden="0">
       <x:c r="A117">
@@ -9533,46 +10073,48 @@
         <x:v>45247.8746643519</x:v>
       </x:c>
       <x:c r="D117" s="10" t="s">
-        <x:v>967</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="E117" s="10" t="s">
-        <x:v>968</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="F117" s="2"/>
       <x:c r="G117" s="10" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="H117" s="10" t="s">
         <x:v>969</x:v>
       </x:c>
-      <x:c r="H117" s="10" t="s">
-        <x:v>967</x:v>
-      </x:c>
       <x:c r="I117" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J117" s="10" t="s">
-        <x:v>970</x:v>
+        <x:v>972</x:v>
       </x:c>
       <x:c r="K117" s="10" t="s">
-        <x:v>971</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="L117" s="10" t="s"/>
       <x:c r="M117" s="10" t="s">
-        <x:v>972</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="N117" s="10" t="s">
-        <x:v>973</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="O117" s="10" t="s">
-        <x:v>974</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="P117" s="10" t="s">
-        <x:v>975</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="Q117" s="10" t="s">
-        <x:v>976</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="R117" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S117" s="10" t="s"/>
+      <x:c r="T117" s="10" t="s"/>
     </x:row>
     <x:row r="118" hidden="0">
       <x:c r="A118">
@@ -9585,46 +10127,48 @@
         <x:v>45247.8778935185</x:v>
       </x:c>
       <x:c r="D118" s="10" t="s">
-        <x:v>977</x:v>
+        <x:v>979</x:v>
       </x:c>
       <x:c r="E118" s="10" t="s">
-        <x:v>978</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="F118" s="2"/>
       <x:c r="G118" s="10" t="s">
+        <x:v>981</x:v>
+      </x:c>
+      <x:c r="H118" s="10" t="s">
         <x:v>979</x:v>
       </x:c>
-      <x:c r="H118" s="10" t="s">
-        <x:v>977</x:v>
-      </x:c>
       <x:c r="I118" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J118" s="10" t="s">
-        <x:v>980</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="K118" s="10" t="s">
-        <x:v>981</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="L118" s="10" t="s"/>
       <x:c r="M118" s="10" t="s">
-        <x:v>982</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="N118" s="10" t="s">
-        <x:v>983</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="O118" s="10" t="s">
-        <x:v>984</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="P118" s="10" t="s">
-        <x:v>985</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="Q118" s="10" t="s">
-        <x:v>986</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="R118" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S118" s="10" t="s"/>
+      <x:c r="T118" s="10" t="s"/>
     </x:row>
     <x:row r="119" hidden="0">
       <x:c r="A119">
@@ -9637,46 +10181,48 @@
         <x:v>45247.894837963</x:v>
       </x:c>
       <x:c r="D119" s="10" t="s">
-        <x:v>987</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="E119" s="10" t="s">
-        <x:v>988</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="F119" s="2"/>
       <x:c r="G119" s="10" t="s">
-        <x:v>988</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="H119" s="10" t="s">
-        <x:v>987</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="I119" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J119" s="10" t="s">
-        <x:v>989</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="K119" s="10" t="s">
-        <x:v>990</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="L119" s="10" t="s"/>
       <x:c r="M119" s="10" t="s">
-        <x:v>991</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="N119" s="10" t="s">
-        <x:v>992</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="O119" s="10" t="s">
-        <x:v>993</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="P119" s="10" t="s">
-        <x:v>994</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="Q119" s="10" t="s">
-        <x:v>995</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="R119" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S119" s="10" t="s"/>
+      <x:c r="T119" s="10" t="s"/>
     </x:row>
     <x:row r="120" hidden="0">
       <x:c r="A120">
@@ -9689,46 +10235,48 @@
         <x:v>45247.9276736111</x:v>
       </x:c>
       <x:c r="D120" s="10" t="s">
-        <x:v>996</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="E120" s="10" t="s">
-        <x:v>997</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="F120" s="2"/>
       <x:c r="G120" s="10" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="H120" s="10" t="s">
         <x:v>998</x:v>
       </x:c>
-      <x:c r="H120" s="10" t="s">
-        <x:v>996</x:v>
-      </x:c>
       <x:c r="I120" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J120" s="10" t="s">
-        <x:v>644</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="K120" s="10" t="s">
-        <x:v>999</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="L120" s="10" t="s"/>
       <x:c r="M120" s="10" t="s">
-        <x:v>1000</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="N120" s="10" t="s">
-        <x:v>1001</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="O120" s="10" t="s">
-        <x:v>1002</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="P120" s="10" t="s">
-        <x:v>1003</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="Q120" s="10" t="s">
-        <x:v>1004</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="R120" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S120" s="10" t="s"/>
+      <x:c r="T120" s="10" t="s"/>
     </x:row>
     <x:row r="121" hidden="0">
       <x:c r="A121">
@@ -9741,42 +10289,44 @@
         <x:v>45247.9620023148</x:v>
       </x:c>
       <x:c r="D121" s="10" t="s">
-        <x:v>1005</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="E121" s="10" t="s">
-        <x:v>1006</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="F121" s="2"/>
       <x:c r="G121" s="10" t="s">
+        <x:v>1009</x:v>
+      </x:c>
+      <x:c r="H121" s="10" t="s">
         <x:v>1007</x:v>
       </x:c>
-      <x:c r="H121" s="10" t="s">
-        <x:v>1005</x:v>
-      </x:c>
       <x:c r="I121" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J121" s="10" t="s">
-        <x:v>1008</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="K121" s="10" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="L121" s="10" t="s"/>
       <x:c r="M121" s="10" t="s">
-        <x:v>1009</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="N121" s="10" t="s">
-        <x:v>1010</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="O121" s="10" t="s">
-        <x:v>1011</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="P121" s="10" t="s"/>
       <x:c r="Q121" s="10" t="s"/>
       <x:c r="R121" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S121" s="10" t="s"/>
+      <x:c r="T121" s="10" t="s"/>
     </x:row>
     <x:row r="122" hidden="0">
       <x:c r="A122">
@@ -9789,44 +10339,46 @@
         <x:v>45248.1603472222</x:v>
       </x:c>
       <x:c r="D122" s="10" t="s">
-        <x:v>1012</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="E122" s="10" t="s">
-        <x:v>1013</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="F122" s="2"/>
       <x:c r="G122" s="10" t="s">
-        <x:v>1013</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="H122" s="10" t="s">
-        <x:v>1012</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="I122" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J122" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K122" s="10" t="s">
-        <x:v>1014</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="L122" s="10" t="s"/>
       <x:c r="M122" s="10" t="s">
-        <x:v>1015</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="N122" s="10" t="s">
-        <x:v>1016</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="O122" s="10" t="s">
-        <x:v>1017</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="P122" s="10" t="s">
-        <x:v>1018</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="Q122" s="10" t="s"/>
       <x:c r="R122" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S122" s="10" t="s"/>
+      <x:c r="T122" s="10" t="s"/>
     </x:row>
     <x:row r="123" hidden="0">
       <x:c r="A123">
@@ -9839,46 +10391,48 @@
         <x:v>45250.478125</x:v>
       </x:c>
       <x:c r="D123" s="10" t="s">
-        <x:v>1019</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="E123" s="10" t="s">
-        <x:v>1020</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="F123" s="2"/>
       <x:c r="G123" s="10" t="s">
-        <x:v>1020</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="H123" s="10" t="s">
-        <x:v>1019</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="I123" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J123" s="10" t="s">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="K123" s="10" t="s">
-        <x:v>1021</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="L123" s="10" t="s"/>
       <x:c r="M123" s="10" t="s">
-        <x:v>1022</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="N123" s="10" t="s">
-        <x:v>1023</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="O123" s="10" t="s">
-        <x:v>1024</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="P123" s="10" t="s">
-        <x:v>1025</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="Q123" s="10" t="s">
-        <x:v>1026</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="R123" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S123" s="10" t="s"/>
+      <x:c r="T123" s="10" t="s"/>
     </x:row>
     <x:row r="124" hidden="0">
       <x:c r="A124">
@@ -9891,42 +10445,44 @@
         <x:v>45250.5319444444</x:v>
       </x:c>
       <x:c r="D124" s="10" t="s">
-        <x:v>1027</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="E124" s="10" t="s">
-        <x:v>1028</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F124" s="2"/>
       <x:c r="G124" s="10" t="s">
+        <x:v>1031</x:v>
+      </x:c>
+      <x:c r="H124" s="10" t="s">
         <x:v>1029</x:v>
       </x:c>
-      <x:c r="H124" s="10" t="s">
-        <x:v>1027</x:v>
-      </x:c>
       <x:c r="I124" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J124" s="10" t="s">
-        <x:v>687</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="K124" s="10" t="s">
-        <x:v>1030</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="L124" s="10" t="s"/>
       <x:c r="M124" s="10" t="s">
-        <x:v>1031</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="N124" s="10" t="s">
-        <x:v>1032</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="O124" s="10" t="s">
-        <x:v>1033</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="P124" s="10" t="s"/>
       <x:c r="Q124" s="10" t="s"/>
       <x:c r="R124" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S124" s="10" t="s"/>
+      <x:c r="T124" s="10" t="s"/>
     </x:row>
     <x:row r="125" hidden="0">
       <x:c r="A125">
@@ -9939,48 +10495,688 @@
         <x:v>45250.6602546296</x:v>
       </x:c>
       <x:c r="D125" s="10" t="s">
-        <x:v>1034</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="E125" s="10" t="s">
-        <x:v>1035</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="F125" s="2"/>
       <x:c r="G125" s="10" t="s">
-        <x:v>1035</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="H125" s="10" t="s">
-        <x:v>1034</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="I125" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J125" s="10" t="s">
-        <x:v>989</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="K125" s="10" t="s">
-        <x:v>1036</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="L125" s="10" t="s"/>
       <x:c r="M125" s="10" t="s">
-        <x:v>1037</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="N125" s="10" t="s">
-        <x:v>1038</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="O125" s="10" t="s">
-        <x:v>1039</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="P125" s="10" t="s"/>
       <x:c r="Q125" s="10" t="s"/>
       <x:c r="R125" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S125" s="10" t="s"/>
+      <x:c r="T125" s="10" t="s"/>
+    </x:row>
+    <x:row r="126" hidden="0">
+      <x:c r="A126">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B126" s="2">
+        <x:v>45251.4994560185</x:v>
+      </x:c>
+      <x:c r="C126" s="2">
+        <x:v>45251.5306134259</x:v>
+      </x:c>
+      <x:c r="D126" s="10" t="s">
+        <x:v>1042</x:v>
+      </x:c>
+      <x:c r="E126" s="10" t="s">
+        <x:v>1043</x:v>
+      </x:c>
+      <x:c r="F126" s="2"/>
+      <x:c r="G126" s="10" t="s">
+        <x:v>1044</x:v>
+      </x:c>
+      <x:c r="H126" s="10" t="s">
+        <x:v>1042</x:v>
+      </x:c>
+      <x:c r="I126" s="10" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J126" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K126" s="10" t="s">
+        <x:v>1045</x:v>
+      </x:c>
+      <x:c r="L126" s="10" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+      <x:c r="M126" s="10" t="s">
+        <x:v>1047</x:v>
+      </x:c>
+      <x:c r="N126" s="10" t="s">
+        <x:v>1048</x:v>
+      </x:c>
+      <x:c r="O126" s="10" t="s">
+        <x:v>1049</x:v>
+      </x:c>
+      <x:c r="P126" s="10" t="s">
+        <x:v>1050</x:v>
+      </x:c>
+      <x:c r="Q126" s="10" t="s">
+        <x:v>1051</x:v>
+      </x:c>
+      <x:c r="R126" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S126" s="10" t="s"/>
+      <x:c r="T126" s="10" t="s"/>
+    </x:row>
+    <x:row r="127" hidden="0">
+      <x:c r="A127">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B127" s="2">
+        <x:v>45251.550150463</x:v>
+      </x:c>
+      <x:c r="C127" s="2">
+        <x:v>45251.5543518519</x:v>
+      </x:c>
+      <x:c r="D127" s="10" t="s">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c r="E127" s="10" t="s">
+        <x:v>1053</x:v>
+      </x:c>
+      <x:c r="F127" s="2"/>
+      <x:c r="G127" s="10" t="s">
+        <x:v>1054</x:v>
+      </x:c>
+      <x:c r="H127" s="10" t="s">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c r="I127" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J127" s="10" t="s">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c r="K127" s="10" t="s">
+        <x:v>1056</x:v>
+      </x:c>
+      <x:c r="L127" s="10" t="s"/>
+      <x:c r="M127" s="10" t="s">
+        <x:v>1057</x:v>
+      </x:c>
+      <x:c r="N127" s="10" t="s">
+        <x:v>1058</x:v>
+      </x:c>
+      <x:c r="O127" s="10" t="s">
+        <x:v>1059</x:v>
+      </x:c>
+      <x:c r="P127" s="10" t="s">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c r="Q127" s="10" t="s">
+        <x:v>1061</x:v>
+      </x:c>
+      <x:c r="R127" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S127" s="10" t="s"/>
+      <x:c r="T127" s="10" t="s"/>
+    </x:row>
+    <x:row r="128" hidden="0">
+      <x:c r="A128">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B128" s="2">
+        <x:v>45251.6991435185</x:v>
+      </x:c>
+      <x:c r="C128" s="2">
+        <x:v>45251.7044907407</x:v>
+      </x:c>
+      <x:c r="D128" s="10" t="s">
+        <x:v>1062</x:v>
+      </x:c>
+      <x:c r="E128" s="10" t="s">
+        <x:v>1063</x:v>
+      </x:c>
+      <x:c r="F128" s="2">
+        <x:v>45251.7099884259</x:v>
+      </x:c>
+      <x:c r="G128" s="10" t="s">
+        <x:v>1063</x:v>
+      </x:c>
+      <x:c r="H128" s="10" t="s">
+        <x:v>1062</x:v>
+      </x:c>
+      <x:c r="I128" s="10" t="s">
+        <x:v>1064</x:v>
+      </x:c>
+      <x:c r="J128" s="10" t="s">
+        <x:v>1065</x:v>
+      </x:c>
+      <x:c r="K128" s="10" t="s">
+        <x:v>1066</x:v>
+      </x:c>
+      <x:c r="L128" s="10" t="s"/>
+      <x:c r="M128" s="10" t="s">
+        <x:v>1067</x:v>
+      </x:c>
+      <x:c r="N128" s="10" t="s">
+        <x:v>1068</x:v>
+      </x:c>
+      <x:c r="O128" s="10" t="s">
+        <x:v>1069</x:v>
+      </x:c>
+      <x:c r="P128" s="10" t="s">
+        <x:v>1070</x:v>
+      </x:c>
+      <x:c r="Q128" s="10" t="s">
+        <x:v>1071</x:v>
+      </x:c>
+      <x:c r="R128" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S128" s="10" t="s"/>
+      <x:c r="T128" s="10" t="s"/>
+    </x:row>
+    <x:row r="129" hidden="0">
+      <x:c r="A129">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B129" s="2">
+        <x:v>45252.5940393518</x:v>
+      </x:c>
+      <x:c r="C129" s="2">
+        <x:v>45252.597337963</x:v>
+      </x:c>
+      <x:c r="D129" s="10" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="E129" s="10" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+      <x:c r="F129" s="2"/>
+      <x:c r="G129" s="10" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+      <x:c r="H129" s="10" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="I129" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="J129" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K129" s="10" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="L129" s="10" t="s"/>
+      <x:c r="M129" s="10" t="s">
+        <x:v>1074</x:v>
+      </x:c>
+      <x:c r="N129" s="10" t="s">
+        <x:v>1075</x:v>
+      </x:c>
+      <x:c r="O129" s="10" t="s">
+        <x:v>1076</x:v>
+      </x:c>
+      <x:c r="P129" s="10" t="s">
+        <x:v>1077</x:v>
+      </x:c>
+      <x:c r="Q129" s="10" t="s">
+        <x:v>1078</x:v>
+      </x:c>
+      <x:c r="R129" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S129" s="10" t="s"/>
+      <x:c r="T129" s="10" t="s"/>
+    </x:row>
+    <x:row r="130" hidden="0">
+      <x:c r="A130">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B130" s="2">
+        <x:v>45252.6052893519</x:v>
+      </x:c>
+      <x:c r="C130" s="2">
+        <x:v>45252.6137152778</x:v>
+      </x:c>
+      <x:c r="D130" s="10" t="s">
+        <x:v>1079</x:v>
+      </x:c>
+      <x:c r="E130" s="10" t="s">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c r="F130" s="2"/>
+      <x:c r="G130" s="10" t="s">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c r="H130" s="10" t="s">
+        <x:v>1079</x:v>
+      </x:c>
+      <x:c r="I130" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="J130" s="10" t="s">
+        <x:v>1081</x:v>
+      </x:c>
+      <x:c r="K130" s="10" t="s">
+        <x:v>1082</x:v>
+      </x:c>
+      <x:c r="L130" s="10" t="s"/>
+      <x:c r="M130" s="10" t="s">
+        <x:v>1083</x:v>
+      </x:c>
+      <x:c r="N130" s="10" t="s">
+        <x:v>1084</x:v>
+      </x:c>
+      <x:c r="O130" s="10" t="s">
+        <x:v>1085</x:v>
+      </x:c>
+      <x:c r="P130" s="10" t="s"/>
+      <x:c r="Q130" s="10" t="s"/>
+      <x:c r="R130" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S130" s="10" t="s"/>
+      <x:c r="T130" s="10" t="s"/>
+    </x:row>
+    <x:row r="131" hidden="0">
+      <x:c r="A131">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B131" s="2">
+        <x:v>45254.6962731481</x:v>
+      </x:c>
+      <x:c r="C131" s="2">
+        <x:v>45254.6999074074</x:v>
+      </x:c>
+      <x:c r="D131" s="10" t="s">
+        <x:v>1086</x:v>
+      </x:c>
+      <x:c r="E131" s="10" t="s">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c r="F131" s="2"/>
+      <x:c r="G131" s="10" t="s">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c r="H131" s="10" t="s">
+        <x:v>1086</x:v>
+      </x:c>
+      <x:c r="I131" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J131" s="10" t="s">
+        <x:v>1088</x:v>
+      </x:c>
+      <x:c r="K131" s="10" t="s">
+        <x:v>1089</x:v>
+      </x:c>
+      <x:c r="L131" s="10" t="s"/>
+      <x:c r="M131" s="10" t="s">
+        <x:v>1090</x:v>
+      </x:c>
+      <x:c r="N131" s="10" t="s">
+        <x:v>1091</x:v>
+      </x:c>
+      <x:c r="O131" s="10" t="s">
+        <x:v>1092</x:v>
+      </x:c>
+      <x:c r="P131" s="10" t="s">
+        <x:v>1093</x:v>
+      </x:c>
+      <x:c r="Q131" s="10" t="s">
+        <x:v>1094</x:v>
+      </x:c>
+      <x:c r="R131" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S131" s="10" t="s"/>
+      <x:c r="T131" s="10" t="s"/>
+    </x:row>
+    <x:row r="132" hidden="0">
+      <x:c r="A132">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B132" s="2">
+        <x:v>45259.6532523148</x:v>
+      </x:c>
+      <x:c r="C132" s="2">
+        <x:v>45259.6701273148</x:v>
+      </x:c>
+      <x:c r="D132" s="10" t="s">
+        <x:v>1095</x:v>
+      </x:c>
+      <x:c r="E132" s="10" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="F132" s="2"/>
+      <x:c r="G132" s="10" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="H132" s="10" t="s">
+        <x:v>1095</x:v>
+      </x:c>
+      <x:c r="I132" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J132" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K132" s="10" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="L132" s="10" t="s"/>
+      <x:c r="M132" s="10" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="N132" s="10" t="s">
+        <x:v>1098</x:v>
+      </x:c>
+      <x:c r="O132" s="10" t="s">
+        <x:v>1099</x:v>
+      </x:c>
+      <x:c r="P132" s="10" t="s"/>
+      <x:c r="Q132" s="10" t="s"/>
+      <x:c r="R132" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S132" s="10" t="s"/>
+      <x:c r="T132" s="10" t="s"/>
+    </x:row>
+    <x:row r="133" hidden="0">
+      <x:c r="A133">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B133" s="2">
+        <x:v>45267.6615393519</x:v>
+      </x:c>
+      <x:c r="C133" s="2">
+        <x:v>45267.6642476852</x:v>
+      </x:c>
+      <x:c r="D133" s="10" t="s">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="E133" s="10" t="s">
+        <x:v>1101</x:v>
+      </x:c>
+      <x:c r="F133" s="2"/>
+      <x:c r="G133" s="10" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="H133" s="10" t="s">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="I133" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="J133" s="10" t="s">
+        <x:v>1103</x:v>
+      </x:c>
+      <x:c r="K133" s="10" t="s">
+        <x:v>1104</x:v>
+      </x:c>
+      <x:c r="L133" s="10" t="s"/>
+      <x:c r="M133" s="10" t="s">
+        <x:v>1105</x:v>
+      </x:c>
+      <x:c r="N133" s="10" t="s">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="O133" s="10" t="s">
+        <x:v>1107</x:v>
+      </x:c>
+      <x:c r="P133" s="10" t="s">
+        <x:v>1108</x:v>
+      </x:c>
+      <x:c r="Q133" s="10" t="s"/>
+      <x:c r="R133" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S133" s="10" t="s"/>
+      <x:c r="T133" s="10" t="s"/>
+    </x:row>
+    <x:row r="134" hidden="0">
+      <x:c r="A134">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B134" s="2">
+        <x:v>45267.9376736111</x:v>
+      </x:c>
+      <x:c r="C134" s="2">
+        <x:v>45267.9442013889</x:v>
+      </x:c>
+      <x:c r="D134" s="10" t="s">
+        <x:v>1109</x:v>
+      </x:c>
+      <x:c r="E134" s="10" t="s">
+        <x:v>1110</x:v>
+      </x:c>
+      <x:c r="F134" s="2"/>
+      <x:c r="G134" s="10" t="s">
+        <x:v>1110</x:v>
+      </x:c>
+      <x:c r="H134" s="10" t="s">
+        <x:v>1109</x:v>
+      </x:c>
+      <x:c r="I134" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="J134" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K134" s="10" t="s">
+        <x:v>1111</x:v>
+      </x:c>
+      <x:c r="L134" s="10" t="s"/>
+      <x:c r="M134" s="10" t="s">
+        <x:v>1112</x:v>
+      </x:c>
+      <x:c r="N134" s="10" t="s">
+        <x:v>1113</x:v>
+      </x:c>
+      <x:c r="O134" s="10" t="s">
+        <x:v>1114</x:v>
+      </x:c>
+      <x:c r="P134" s="10" t="s">
+        <x:v>1115</x:v>
+      </x:c>
+      <x:c r="Q134" s="10" t="s">
+        <x:v>1116</x:v>
+      </x:c>
+      <x:c r="R134" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S134" s="10" t="s"/>
+      <x:c r="T134" s="10" t="s"/>
+    </x:row>
+    <x:row r="135" hidden="0">
+      <x:c r="A135">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B135" s="2">
+        <x:v>45268.5479282407</x:v>
+      </x:c>
+      <x:c r="C135" s="2">
+        <x:v>45268.5514467593</x:v>
+      </x:c>
+      <x:c r="D135" s="10" t="s">
+        <x:v>1117</x:v>
+      </x:c>
+      <x:c r="E135" s="10" t="s">
+        <x:v>1118</x:v>
+      </x:c>
+      <x:c r="F135" s="2"/>
+      <x:c r="G135" s="10" t="s">
+        <x:v>1118</x:v>
+      </x:c>
+      <x:c r="H135" s="10" t="s">
+        <x:v>1117</x:v>
+      </x:c>
+      <x:c r="I135" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="J135" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K135" s="10" t="s">
+        <x:v>1119</x:v>
+      </x:c>
+      <x:c r="L135" s="10" t="s"/>
+      <x:c r="M135" s="10" t="s">
+        <x:v>1120</x:v>
+      </x:c>
+      <x:c r="N135" s="10" t="s">
+        <x:v>1121</x:v>
+      </x:c>
+      <x:c r="O135" s="10" t="s">
+        <x:v>1122</x:v>
+      </x:c>
+      <x:c r="P135" s="10" t="s">
+        <x:v>1123</x:v>
+      </x:c>
+      <x:c r="Q135" s="10" t="s">
+        <x:v>1124</x:v>
+      </x:c>
+      <x:c r="R135" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S135" s="10" t="s"/>
+      <x:c r="T135" s="10" t="s"/>
+    </x:row>
+    <x:row r="136" hidden="0">
+      <x:c r="A136">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B136" s="2">
+        <x:v>45268.5712962963</x:v>
+      </x:c>
+      <x:c r="C136" s="2">
+        <x:v>45268.5756481481</x:v>
+      </x:c>
+      <x:c r="D136" s="10" t="s">
+        <x:v>1125</x:v>
+      </x:c>
+      <x:c r="E136" s="10" t="s">
+        <x:v>1126</x:v>
+      </x:c>
+      <x:c r="F136" s="2"/>
+      <x:c r="G136" s="10" t="s">
+        <x:v>1126</x:v>
+      </x:c>
+      <x:c r="H136" s="10" t="s">
+        <x:v>1125</x:v>
+      </x:c>
+      <x:c r="I136" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="J136" s="10" t="s">
+        <x:v>1127</x:v>
+      </x:c>
+      <x:c r="K136" s="10" t="s">
+        <x:v>1082</x:v>
+      </x:c>
+      <x:c r="L136" s="10" t="s"/>
+      <x:c r="M136" s="10" t="s">
+        <x:v>1128</x:v>
+      </x:c>
+      <x:c r="N136" s="10" t="s">
+        <x:v>1129</x:v>
+      </x:c>
+      <x:c r="O136" s="10" t="s">
+        <x:v>1130</x:v>
+      </x:c>
+      <x:c r="P136" s="10" t="s">
+        <x:v>1131</x:v>
+      </x:c>
+      <x:c r="Q136" s="10" t="s">
+        <x:v>1132</x:v>
+      </x:c>
+      <x:c r="R136" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S136" s="10" t="s"/>
+      <x:c r="T136" s="10" t="s"/>
+    </x:row>
+    <x:row r="137" hidden="0">
+      <x:c r="A137">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B137" s="2">
+        <x:v>45268.6794328704</x:v>
+      </x:c>
+      <x:c r="C137" s="2">
+        <x:v>45268.695462963</x:v>
+      </x:c>
+      <x:c r="D137" s="10" t="s">
+        <x:v>1133</x:v>
+      </x:c>
+      <x:c r="E137" s="10" t="s">
+        <x:v>1134</x:v>
+      </x:c>
+      <x:c r="F137" s="2"/>
+      <x:c r="G137" s="10" t="s">
+        <x:v>1134</x:v>
+      </x:c>
+      <x:c r="H137" s="10" t="s">
+        <x:v>1133</x:v>
+      </x:c>
+      <x:c r="I137" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="J137" s="10" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="K137" s="10" t="s">
+        <x:v>1136</x:v>
+      </x:c>
+      <x:c r="L137" s="10" t="s"/>
+      <x:c r="M137" s="10" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="N137" s="10" t="s">
+        <x:v>1138</x:v>
+      </x:c>
+      <x:c r="O137" s="10" t="s">
+        <x:v>1139</x:v>
+      </x:c>
+      <x:c r="P137" s="10" t="s"/>
+      <x:c r="Q137" s="10" t="s"/>
+      <x:c r="R137" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="S137" s="10" t="s"/>
+      <x:c r="T137" s="10" t="s"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R86e9858356314861"/>
+    <x:tablePart r:id="Ra1d043da0e474777"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/responses.xlsx
+++ b/responses.xlsx
@@ -2341,7 +2341,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B9679FC28-1D33-448A-A36A-F75912D4DA09%7D&amp;file=Stringer_Luuk_Debye_Booklet_2023_Text_Final_Luuk%20Stringer.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BF7D1792F-DFEB-4B4C-804A-902E4178A849%7D&amp;file=References%20debye%20booklet_Luuk%20Stringer%201.xlsx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2189C681-29B2-4199-B513-E0FE8B3A4C72%7D&amp;file=Amanda%20template%20booklet%20debye_Amanda%20van%20der%20Sijs.doc&amp;action=default&amp;mobileredirect=true</t>
+    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2189C681-29B2-4199-B513-E0FE8B3A4C72%7D&amp;file=Amanda%20template%20booklet%20debye_Amanda%20van%20der%20Sijs.doc&amp;action=default&amp;mobileredirect=true;references 86 Amanda van der Sijs.xlsx</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BA6F88C11-4F9E-4B96-BD03-D2475894CEE0%7D&amp;file=Zahra_Peimanifatrd_booklet%20Debye_Zahra%20Peimanifard.docx&amp;action=default&amp;mobileredirect=true</t>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1265">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1275">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -282,12 +282,15 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/IMG_2252_Thimo%20Jacobs.jpeg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B084AFF76-000F-4B77-8074-3FB86E572D07%7D&amp;file=Debye%20Booklet%202023_Thimo%20Jacobs.docx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B028A86DA-BC53-4824-8D80-87229E93C6E7%7D&amp;file=Debye%20Booklet%202023_Thimo%20Jacobs%201.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Luminescence Thermometry, Local Heat Effects, CO2 Valorization</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Using Light to Sense the Local Temperature during Catalytic Reactions</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">j.p.jonasse@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -306,7 +309,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Image_Just%20P%C3%A9%20Jonasse.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B243E5F13-311C-47D4-8364-10E9D20D1B83%7D&amp;file=BookletDebye_JustPeJonasse_Just%20P%C3%A9%20Jonasse%201.docx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BAB60F640-2483-4D6D-89A5-69D44257FF2D%7D&amp;file=BookletDebye_JustPeJonasse_Just%20P%C3%A9%20Jonasse%202.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Colloidal synthesis, Transmission electron microscopy, lattice strain</x:t>
@@ -555,7 +558,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Profile%20Pic%20Pim%20(35x45)_Pim%20Witte.png</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BFD1883DC-0546-4373-AEE2-294982019C74%7D&amp;file=Debye%20Booklet%20Pim%20Witte_Pim%20Witte.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BBAB930A6-7455-4069-B2E0-27C845E4E717%7D&amp;file=References%20Pim%20Witte_Pim%20Witte.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BBAB930A6-7455-4069-B2E0-27C845E4E717%7D&amp;file=References%20Pim%20Witte_Pim%20Witte.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B329E0ABE-03E0-414A-B34D-07718283DB63%7D&amp;file=Debye%20Booklet%20Pim%20Witte_Pim%20Witte%201.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Quantum materials, Magnetism, Crystal growth</x:t>
@@ -579,7 +582,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/L%20D%20B%20Mandemaker_45x35_Laurens%20Mandemaker.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BBC22167D-988E-429E-8B77-2D4FBC9650D9%7D&amp;file=Template%20booklet%20Debye_LM_Laurens%20Mandemaker.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B06628E59-55A4-48E8-A555-44C3DE602896%7D&amp;file=Copy%20of%20references_debye_LM_Laurens%20Mandemaker.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B06628E59-55A4-48E8-A555-44C3DE602896%7D&amp;file=Copy%20of%20references_debye_LM_Laurens%20Mandemaker.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B3A3803AB-9CCF-42CB-B178-34585D8535CF%7D&amp;file=Template%20booklet%20Debye_LM_only-text_Laurens%20Mandemaker.doc&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">micro-spectroscopy, nanoplastics, atomic force microscopy</x:t>
@@ -591,6 +594,9 @@
     <x:t xml:space="preserve">Figure 1: Schematic representation of the research line; micro-spectroscopy tools are used to characterize nanoplastics in and from different environments</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Nanoplastics: Generation, detection and characterization</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">p.j.kolbeck@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -612,7 +618,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/PaulineKolbeck_Debye_Booklet_Updated_Pauline%20Kolbeck.jpeg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B8B346D57-63C1-4EF0-9EBF-2E216FE114FF%7D&amp;file=Text_fiducial_DebyeNewsletter_Pauline%20Kolbeck.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BE07A1336-EA96-4CAC-AF52-112DC037411B%7D&amp;file=references_debyenewsletter_PaulineKolbeck_Pauline%20Kolbeck.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BE07A1336-EA96-4CAC-AF52-112DC037411B%7D&amp;file=references_debyenewsletter_PaulineKolbeck_Pauline%20Kolbeck.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B58D8329C-651A-4D7D-8FC1-82099355F329%7D&amp;file=Text_fiducial_DebyeNewsletter_v2_Pauline%20Kolbeck.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">DNA, single molecule, AFM, nanotech</x:t>
@@ -717,9 +723,6 @@
     <x:t xml:space="preserve">Ayla Dekker</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Soft Condensed Matter and Biophysics (SCMB);Organic Chemistry and Catalysis (OCC);</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Science for Sustainability</x:t>
   </x:si>
   <x:si>
@@ -1494,15 +1497,15 @@
     <x:t xml:space="preserve">Topological superconductivity, scanning probe microscopy</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Fe(Se,Te) / topological insulator hybrids: growth and characterization</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">g.h.a.schulpen@uu.nl</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Geert Schulpen</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Nanophotonics (NP);Soft Condensed Matter and Biophysics (SCMB);Van ‘t Hoff Laboratory for Physical and Colloid Chemistry (PCC);</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Science for Sustainability, since December 2022</x:t>
   </x:si>
   <x:si>
@@ -1536,10 +1539,13 @@
     <x:t xml:space="preserve">Prof. dr. ir. Marjolein Dijkstra</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/bitmap_Rodolfo%20Subert.tiff</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BED402335-FA8D-4EEB-A3C5-DF2138E92A7A%7D&amp;file=Template%20booklet%20Debye_Rodolfo%20Subert.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0EA8942E-E5BA-4020-9137-6722DB437764%7D&amp;file=references_template_Rodolfo%20Subert.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">Entropy driven simulations of liquid crystalline modulated phases</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/photo_booklet_subert_Rodolfo%20Subert.tiff</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0EA8942E-E5BA-4020-9137-6722DB437764%7D&amp;file=references_template_Rodolfo%20Subert.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B25BC6C8D-CF45-4BCC-BCEC-515D7661999F%7D&amp;file=Booklet_Subert_Rodolfo%20Subert.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Liquid crystals, Entropy, Anisotropic particles</x:t>
@@ -1551,6 +1557,9 @@
     <x:t xml:space="preserve">: a)-b) Section and top view of a liquid crystal skyrmion in a system of hard banana particles. c) Hexagonal lattice of half skyrmions in a system of hard banana particles.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Modulated liquid crystal phases</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">r.hadidimasouleh@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -1785,9 +1794,6 @@
     <x:t xml:space="preserve">Lars Killian</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">N.A.</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Dr. Arnaud A. Thevenon-Kozub</x:t>
   </x:si>
   <x:si>
@@ -1803,6 +1809,9 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/Figure_Debye_Lars%20Killian.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Figure 1: Overview of the main goal of the project. The synthesis of nanographenes with novel binding pockets for transition metals.</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Synthesis of Novel π-Extended Ligands for the Development of Homogeneous Catalysts</x:t>
   </x:si>
   <x:si>
@@ -1917,7 +1926,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/DebyeBookletProfilePicture-01-01_Rian%20Ligthart.png</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BA14AAA65-1E56-4416-B2D0-6268C87A80EC%7D&amp;file=RianLigthartAbstractDebyeBooklet2023_Rian%20Ligthart%201.docx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B957039BB-DEF6-4157-BD8E-E4D154218AA6%7D&amp;file=RianLigthartAbstractDebyeBooklet2023_short_Rian%20Ligthart.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B4CB8B136-C258-42A5-9987-1D4322733D99%7D&amp;file=RianLigthart2023DebyeBookletReferences_Rian%20Ligthart.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Designer Quantum Materials, Artificial Electronic Lattices, Scanning Tunneling Microscopy (STM)</x:t>
@@ -2253,7 +2262,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/me_Qijun%20Che.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BD3F26B32-E54B-440E-A858-CCD3059AA942%7D&amp;file=Qijun_%20booklet%20Debye%20fdg_Qijun%20Che.doc&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BFAF78C00-00BA-4866-9BE1-0F4B1AB1E31C%7D&amp;file=Qijun_%20booklet%20Debye%20fdg_Qijun%20Che%201.doc&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Operando X-ray spectroscopy, oxygen evolution reaction, RPES</x:t>
@@ -2265,6 +2274,9 @@
     <x:t xml:space="preserve">Figure 1. (a) operando 1s2p RIXS for OER, insert an example of LaCoO3 thin films with 8 unite cells under working conditions. (b) RPES of a nickelate thin film on a SrTiO3 substrate at the Ni 2p resonance. </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">X-ray absorption and resonant photoemission spectroscopy of transition metal oxides </x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">d.n.maaskant@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -2277,7 +2289,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/NM_Nicolette%20Maaskant.tiff</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B8AD0A771-D2B6-422B-860A-DC752C0E0EFF%7D&amp;file=Debye%20Booklet%202023_Nicolette%20-No%20title%20no%20fig_Nicolette%20Maaskant.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BBC491807-E355-4CBE-8930-912D7D5ABA79%7D&amp;file=References_template_Maaskant_Nicolette%20Maaskant.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B8AD0A771-D2B6-422B-860A-DC752C0E0EFF%7D&amp;file=Debye%20Booklet%202023_Nicolette%20-No%20title%20no%20fig_Nicolette%20Maaskant.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BDDBA9690-2837-4149-8715-1C0A183EEAD2%7D&amp;file=References_template_Maaskant_Nicolette%20Maaskant%201.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Photo-assisted catalysis, CO2 hydrogenation, Heterogeneous catalysis</x:t>
@@ -2445,7 +2457,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Stringer_Luuk_Debye_Booklet_2023_Photo_Luuk%20Stringer.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B9679FC28-1D33-448A-A36A-F75912D4DA09%7D&amp;file=Stringer_Luuk_Debye_Booklet_2023_Text_Final_Luuk%20Stringer.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BF7D1792F-DFEB-4B4C-804A-902E4178A849%7D&amp;file=References%20debye%20booklet_Luuk%20Stringer%201.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BF7D1792F-DFEB-4B4C-804A-902E4178A849%7D&amp;file=References%20debye%20booklet_Luuk%20Stringer%201.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B46E50FE4-7812-4C27-B2E7-A77CD7FA599F%7D&amp;file=Debye%20text%20only_Luuk%20Stringer.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Organometallic chemistry, homogeneous catalysis, N2 activation</x:t>
@@ -2481,6 +2493,12 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/debye%20booklet%20svg_Amanda%20van%20der%20Sijs.svg</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Figure 1. DNA as a binary lattice: a schematic overview of various states the system can be in. Using the grand-canonical ensemble, the promoter occupancy by RNA polymerase can be calculated. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">To the next level of transcription: the influence of the accessible genome size</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">z.peimanifard@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -2916,7 +2934,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Seitzinger%20Headshot_Claire%20Seitzinger.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B31A027F5-CEFA-48FD-A318-64785F23CDF2%7D&amp;file=Seitzinger%20booklet%20Debye_2_Claire%20Seitzinger.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B762ABC51-3635-4648-9BDA-83E4EF3954CF%7D&amp;file=Seitzinger%20Debye%20references_template_Claire%20Seitzinger.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B762ABC51-3635-4648-9BDA-83E4EF3954CF%7D&amp;file=Seitzinger%20Debye%20references_template_Claire%20Seitzinger.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B615E8853-295E-4902-A3C0-3A38B78B6ACE%7D&amp;file=project_description%20103%20Claire%20Seitzinger_Claire%20Seitzinger.doc&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Mechanochemistry, plastic recycling, radical chemistry</x:t>
@@ -2940,10 +2958,10 @@
     <x:t xml:space="preserve">Prof. dr. Marjolein Dijkstra </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/221516476_4758720310824704_273907972730117370_Monica%20Conte.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BA4DE2E18-AD56-46BC-B0FB-7307F72D7C5F%7D&amp;file=booklet_content_Monica%20Conte.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B5D35BA8A-BA15-40E5-AAE4-03EC94176E6B%7D&amp;file=references_booklet_Monica%20Conte.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/imresizer-1705676277690_Monica%20Conte.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B5D35BA8A-BA15-40E5-AAE4-03EC94176E6B%7D&amp;file=references_booklet_Monica%20Conte.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B8AA91D8B-F976-488F-80EF-317099381169%7D&amp;file=booklet_content_Monica%20Conte_Monica%20Conte.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Intelligent matter, physical neural networks, machine learning</x:t>
@@ -2955,6 +2973,9 @@
     <x:t xml:space="preserve">A network of 9 nodes linked by 16 variable resistors. The nodes are labelled as "source" or "target" depending on their function [4].</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Developing intelligent matter: Electrical Neural Networks</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">t.reszka@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -2967,7 +2988,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Profile_Thomas%20Reszka.tiff</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B9BC211D4-A9BA-49AE-BEFE-8142E09478FC%7D&amp;file=Thomas%20Reszka%20-%20DeBye%20Booklet%20Abstract_Thomas%20Reszka.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B7AD099E4-4024-4C97-8E9A-86CEB5E748D0%7D&amp;file=Referenties%20Debye_Thomas%20Reszka.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B7AD099E4-4024-4C97-8E9A-86CEB5E748D0%7D&amp;file=Referenties%20Debye_Thomas%20Reszka.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B7634AE23-0B3E-4702-A548-0FB562FF3D5E%7D&amp;file=Thomas%20Reszka%20-%20DeBye%20Booklet%20Abstract%202_Thomas%20Reszka.doc&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Homogeneous catalysis, Defluorination, Oxidation</x:t>
@@ -2979,6 +3000,9 @@
     <x:t xml:space="preserve">Figure 1. a) Examples of fluorinated pollutants from pharmaceuticals, pesticides, and PFAS. b) Bio-inspired oxidation strategy for C(sp2)–F bonds with non-heme oxidation catalysts and hydrogen peroxide as a widely available oxidant. </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Cleavage of C–F Bonds under Oxidative Conditions</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">a.h.kole@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -3021,13 +3045,13 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Image_Debye%20Booklet_Thijs%20ter%20Rele.tiff</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BAD2FA46D-8D3E-43FF-BFA9-1F7FAD8F2056%7D&amp;file=Debye%20Booklet%20text_Thijs%20ter%20Rele.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BE2CD05B8-1534-49A0-8EFE-95DEF93D41ED%7D&amp;file=references_Thijs%20ter%20Rele_debye%20booklet_Thijs%20ter%20Rele.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BE2CD05B8-1534-49A0-8EFE-95DEF93D41ED%7D&amp;file=references_Thijs%20ter%20Rele_debye%20booklet_Thijs%20ter%20Rele.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BAE9680E7-2C05-45F9-8649-83A1BEF5A96C%7D&amp;file=Debye%20Booklet%20text_Thijs%20ter%20Rele_Thijs%20ter%20Rele.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Machine Learning, Colloid Suspensions, Simulations</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Machine Learning many-body potentials for charged colloidal suspensions</x:t>
+    <x:t xml:space="preserve">Like-Charge Attractions of Charged Colloids</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">r.yang1@uu.nl</x:t>
@@ -3096,7 +3120,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Hui%20Wang_Wang%20Hui.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2BE3756A-766F-4E51-BC61-EFDC4FFA8859%7D&amp;file=Revealing%20the%20restructuring%20of%20electrocatalys_Wang%20Hui.doc&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B7FB44299-7D42-4D04-879D-51B2E86523F2%7D&amp;file=Revealing%20the%20restructuring%20of%20electrocatalys_Wang%20Hui%201.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B1EF264C2-C848-4B14-9963-4360A08CBC03%7D&amp;file=references_Wang%20Hui.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">In-situ EC-AFM, CO2 electro-reduction, Surface restructuring</x:t>
@@ -3108,6 +3132,9 @@
     <x:t xml:space="preserve">Figure1: Scheme of in-situ electrochemical-atomic force microscopy</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Revealing the restructuring of electrocatalysts during CO2 electro-reduction with in-situ electrochemical AFM</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">x.yu@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -3201,6 +3228,9 @@
     <x:t xml:space="preserve">Scanning tunneling microscopy, superconductivity, shot-noise</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Correlated electron systems studied with local shot-noise measurements</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">y.lin4@uu.nl</x:t>
   </x:si>
   <x:si>
@@ -3336,7 +3366,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/%E6%9C%AA%E6%A0%87%E9%A2%98-1_Yan%20Jiaorong.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B9A9A390E-1373-412B-9CC6-367B8839C81E%7D&amp;file=Template%20booklet%20Debye%20-%20Jiaorong_Yan%20Jiaorong.doc&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BDAD23F08-5AFB-4A19-9223-B309C9C2BE51%7D&amp;file=references%20-%20Jiaorong_Yan%20Jiaorong.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B9DE7B16C-F78C-40CC-9EE7-66908536B9CA%7D&amp;file=Booklet%20-%20Jiaorong_Yan%20Jiaorong.doc&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">CO oxidation, supported Platinum catalysts, operando spectroscopy </x:t>
@@ -3537,9 +3567,6 @@
     <x:t xml:space="preserve">Tjom Arens</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Condensed Matter and Interfaces (CMI);Inorganic Chemistry and Catalysis (ICC);</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">NWO VIDI</x:t>
   </x:si>
   <x:si>
@@ -3675,7 +3702,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/picture_David%20Villar%C3%B3n%20Salga%201.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BD3171663-6C5A-4593-80F2-144BE3B0620D%7D&amp;file=David%20Villar%C3%B3n%20Booklet%202023_David%20Villar%C3%B3n%20Salga.docx&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B46136941-311C-48EF-90B0-BF8886A7B33E%7D&amp;file=references_David%20Villar%C3%B3n%20Salga.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BD8EC6F30-CC94-4A08-94DB-3773550F9D8C%7D&amp;file=Project%20description%20David%20Villar%C3%B3n_David%20Villar%C3%B3n%20Salga.docx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Microglia, RNA target, Molecular photoswitches</x:t>
@@ -3684,6 +3711,9 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/SCHEME_David%20Villar%C3%B3n%20Salga.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Schematic representation of the phototunable properties of a photoswitchable oligonucleotide for RNA targeting.</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Photoswitchable Oligonucelotides for RNA Targeting </x:t>
   </x:si>
   <x:si>
@@ -3723,7 +3753,7 @@
     <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Photo_Weizhe_2_Weizhe%20Zhang.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B028172C7-6C14-450B-BC91-DB2946A95150%7D&amp;file=Weizhe_booklet%20Debye_2023_Weizhe%20Zhang.doc&amp;action=default&amp;mobileredirect=true</x:t>
+    <x:t xml:space="preserve">https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B67C7392B-AF91-46B2-9D64-66901B60FC7A%7D&amp;file=Weizhe_booklet%20Debye_Project%20description_2023_Weizhe%20Zhang.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2BECB0A5-6668-4534-916F-E5CEF50C5662%7D&amp;file=references_Weizhe_Weizhe%20Zhang.xlsx&amp;action=default&amp;mobileredirect=true</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Electrocatalysis, plastic recycling, CO2 reduction</x:t>
@@ -4691,7 +4721,9 @@
       <x:c r="E8" s="10" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="F8" s="2"/>
+      <x:c r="F8" s="2">
+        <x:v>45308.6992592593</x:v>
+      </x:c>
       <x:c r="G8" s="10" t="s">
         <x:v>81</x:v>
       </x:c>
@@ -4722,8 +4754,12 @@
       <x:c r="R8" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="S8" s="10" t="s"/>
-      <x:c r="T8" s="10" t="s"/>
+      <x:c r="S8" s="10" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="T8" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" hidden="0">
       <x:c r="A9">
@@ -4736,19 +4772,19 @@
         <x:v>45229.6358912037</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F9" s="2">
+        <x:v>45308.6829398148</x:v>
+      </x:c>
+      <x:c r="G9" s="10" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H9" s="10" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="F9" s="2">
-        <x:v>45299.5579282407</x:v>
-      </x:c>
-      <x:c r="G9" s="10" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="H9" s="10" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="I9" s="10" t="s">
         <x:v>55</x:v>
@@ -4757,31 +4793,31 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K9" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L9" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M9" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="N9" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O9" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P9" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="Q9" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="R9" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S9" s="10" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="T9" s="10" t="s">
         <x:v>32</x:v>
@@ -4798,19 +4834,19 @@
         <x:v>45230.401099537</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F10" s="2">
         <x:v>45301.5067013889</x:v>
       </x:c>
       <x:c r="G10" s="10" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H10" s="10" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="H10" s="10" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="I10" s="10" t="s">
         <x:v>55</x:v>
@@ -4823,25 +4859,25 @@
       </x:c>
       <x:c r="L10" s="10" t="s"/>
       <x:c r="M10" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O10" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P10" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="Q10" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="R10" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S10" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="T10" s="10" t="s">
         <x:v>32</x:v>
@@ -4858,38 +4894,38 @@
         <x:v>45231.6841087963</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E11" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F11" s="2"/>
       <x:c r="G11" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H11" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I11" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J11" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K11" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L11" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M11" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N11" s="10" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O11" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P11" s="10" t="s"/>
       <x:c r="Q11" s="10" t="s"/>
@@ -4910,19 +4946,19 @@
         <x:v>45231.7012731481</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E12" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F12" s="2">
         <x:v>45307.7086689815</x:v>
       </x:c>
       <x:c r="G12" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H12" s="10" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="H12" s="10" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="I12" s="10" t="s">
         <x:v>22</x:v>
@@ -4931,17 +4967,17 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K12" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s"/>
       <x:c r="M12" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="O12" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P12" s="10" t="s"/>
       <x:c r="Q12" s="10" t="s"/>
@@ -4949,7 +4985,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S12" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="T12" s="10" t="s">
         <x:v>32</x:v>
@@ -4966,50 +5002,50 @@
         <x:v>45231.7252430556</x:v>
       </x:c>
       <x:c r="D13" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E13" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F13" s="2">
         <x:v>45308.3645717593</x:v>
       </x:c>
       <x:c r="G13" s="10" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H13" s="10" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="H13" s="10" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="I13" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J13" s="10" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K13" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L13" s="10" t="s"/>
       <x:c r="M13" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="N13" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O13" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="P13" s="10" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q13" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="R13" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S13" s="10" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="T13" s="10" t="s">
         <x:v>32</x:v>
@@ -5026,38 +5062,38 @@
         <x:v>45232.5819212963</x:v>
       </x:c>
       <x:c r="D14" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E14" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F14" s="2">
         <x:v>45307.6894444444</x:v>
       </x:c>
       <x:c r="G14" s="10" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="H14" s="10" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="H14" s="10" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="I14" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J14" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K14" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="L14" s="10" t="s"/>
       <x:c r="M14" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="N14" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="O14" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P14" s="10" t="s"/>
       <x:c r="Q14" s="10" t="s"/>
@@ -5065,7 +5101,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S14" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="T14" s="10" t="s">
         <x:v>32</x:v>
@@ -5082,53 +5118,53 @@
         <x:v>45233.3324189815</x:v>
       </x:c>
       <x:c r="D15" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E15" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F15" s="2">
         <x:v>45307.6500810185</x:v>
       </x:c>
       <x:c r="G15" s="10" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H15" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I15" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J15" s="10" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="K15" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="L15" s="10" t="s"/>
       <x:c r="M15" s="10" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="N15" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="O15" s="10" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P15" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="Q15" s="10" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="R15" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S15" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="T15" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="16" hidden="0">
@@ -5142,19 +5178,19 @@
         <x:v>45233.5962384259</x:v>
       </x:c>
       <x:c r="D16" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E16" s="10" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F16" s="2">
         <x:v>45307.6520601852</x:v>
       </x:c>
       <x:c r="G16" s="10" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="H16" s="10" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="H16" s="10" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="I16" s="10" t="s">
         <x:v>55</x:v>
@@ -5163,29 +5199,29 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K16" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L16" s="10" t="s"/>
       <x:c r="M16" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="O16" s="10" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="P16" s="10" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Q16" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="R16" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S16" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="T16" s="10" t="s">
         <x:v>32</x:v>
@@ -5202,19 +5238,19 @@
         <x:v>45236.4244907407</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E17" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F17" s="2">
         <x:v>45299.6830787037</x:v>
       </x:c>
       <x:c r="G17" s="10" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="H17" s="10" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="H17" s="10" t="s">
-        <x:v>161</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
         <x:v>55</x:v>
@@ -5223,29 +5259,29 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K17" s="10" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="L17" s="10" t="s"/>
       <x:c r="M17" s="10" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N17" s="10" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="O17" s="10" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="P17" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="Q17" s="10" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="R17" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S17" s="10" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="T17" s="10" t="s">
         <x:v>32</x:v>
@@ -5262,38 +5298,38 @@
         <x:v>45236.5677777778</x:v>
       </x:c>
       <x:c r="D18" s="10" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E18" s="10" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F18" s="2">
+        <x:v>45308.6752546296</x:v>
+      </x:c>
+      <x:c r="G18" s="10" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="H18" s="10" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="F18" s="2">
-        <x:v>45299.463587963</x:v>
-      </x:c>
-      <x:c r="G18" s="10" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="H18" s="10" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="I18" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J18" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K18" s="10" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="L18" s="10" t="s"/>
       <x:c r="M18" s="10" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="N18" s="10" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="O18" s="10" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="P18" s="10" t="s"/>
       <x:c r="Q18" s="10" t="s"/>
@@ -5301,7 +5337,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S18" s="10" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="T18" s="10" t="s">
         <x:v>32</x:v>
@@ -5318,48 +5354,54 @@
         <x:v>45236.5889930556</x:v>
       </x:c>
       <x:c r="D19" s="10" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E19" s="10" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="F19" s="2">
+        <x:v>45310.394837963</x:v>
+      </x:c>
+      <x:c r="G19" s="10" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="H19" s="10" t="s">
         <x:v>180</x:v>
-      </x:c>
-      <x:c r="F19" s="2"/>
-      <x:c r="G19" s="10" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="H19" s="10" t="s">
-        <x:v>179</x:v>
       </x:c>
       <x:c r="I19" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J19" s="10" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="K19" s="10" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="L19" s="10" t="s"/>
       <x:c r="M19" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N19" s="10" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="O19" s="10" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P19" s="10" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="Q19" s="10" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="R19" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="S19" s="10" t="s"/>
-      <x:c r="T19" s="10" t="s"/>
+      <x:c r="S19" s="10" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="T19" s="10" t="s">
+        <x:v>152</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" hidden="0">
       <x:c r="A20">
@@ -5372,50 +5414,50 @@
         <x:v>45236.8302777778</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E20" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F20" s="2">
-        <x:v>45302.4733449074</x:v>
+        <x:v>45308.6080902778</x:v>
       </x:c>
       <x:c r="G20" s="10" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="H20" s="10" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="H20" s="10" t="s">
-        <x:v>188</x:v>
-      </x:c>
       <x:c r="I20" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J20" s="10" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="K20" s="10" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="L20" s="10" t="s"/>
       <x:c r="M20" s="10" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="O20" s="10" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="P20" s="10" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="Q20" s="10" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="R20" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S20" s="10" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="T20" s="10" t="s">
         <x:v>32</x:v>
@@ -5432,38 +5474,38 @@
         <x:v>45237.6540509259</x:v>
       </x:c>
       <x:c r="D21" s="10" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E21" s="10" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F21" s="2">
         <x:v>45299.5557986111</x:v>
       </x:c>
       <x:c r="G21" s="10" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H21" s="10" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I21" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J21" s="10" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="K21" s="10" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="L21" s="10" t="s"/>
       <x:c r="M21" s="10" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="N21" s="10" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="O21" s="10" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="P21" s="10" t="s"/>
       <x:c r="Q21" s="10" t="s"/>
@@ -5471,7 +5513,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S21" s="10" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="T21" s="10" t="s">
         <x:v>32</x:v>
@@ -5488,50 +5530,50 @@
         <x:v>45237.6940856481</x:v>
       </x:c>
       <x:c r="D22" s="10" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E22" s="10" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F22" s="2">
         <x:v>45300.7005902778</x:v>
       </x:c>
       <x:c r="G22" s="10" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="H22" s="10" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I22" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J22" s="10" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="K22" s="10" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="L22" s="10" t="s"/>
       <x:c r="M22" s="10" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="N22" s="10" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="O22" s="10" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="P22" s="10" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="Q22" s="10" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="R22" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S22" s="10" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="T22" s="10" t="s">
         <x:v>32</x:v>
@@ -5548,50 +5590,50 @@
         <x:v>45237.7449537037</x:v>
       </x:c>
       <x:c r="D23" s="10" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E23" s="10" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F23" s="2">
         <x:v>45300.5321296296</x:v>
       </x:c>
       <x:c r="G23" s="10" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H23" s="10" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I23" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J23" s="10" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="K23" s="10" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="L23" s="10" t="s"/>
       <x:c r="M23" s="10" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="N23" s="10" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="O23" s="10" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="P23" s="10" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="Q23" s="10" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="R23" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="10" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="T23" s="10" t="s">
         <x:v>32</x:v>
@@ -5608,50 +5650,50 @@
         <x:v>45238.4122453704</x:v>
       </x:c>
       <x:c r="D24" s="10" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E24" s="10" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F24" s="2">
-        <x:v>45299.4001388889</x:v>
+        <x:v>45308.652974537</x:v>
       </x:c>
       <x:c r="G24" s="10" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H24" s="10" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I24" s="10" t="s">
-        <x:v>230</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J24" s="10" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="K24" s="10" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="L24" s="10" t="s"/>
       <x:c r="M24" s="10" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="N24" s="10" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="O24" s="10" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P24" s="10" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="Q24" s="10" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="R24" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S24" s="10" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="T24" s="10" t="s">
         <x:v>32</x:v>
@@ -5668,50 +5710,50 @@
         <x:v>45238.5109259259</x:v>
       </x:c>
       <x:c r="D25" s="10" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E25" s="10" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F25" s="2">
         <x:v>45300.4867476852</x:v>
       </x:c>
       <x:c r="G25" s="10" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="H25" s="10" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="H25" s="10" t="s">
-        <x:v>239</x:v>
       </x:c>
       <x:c r="I25" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J25" s="10" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="K25" s="10" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="L25" s="10" t="s"/>
       <x:c r="M25" s="10" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="N25" s="10" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="O25" s="10" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P25" s="10" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="Q25" s="10" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="R25" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S25" s="10" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="T25" s="10" t="s">
         <x:v>32</x:v>
@@ -5728,38 +5770,38 @@
         <x:v>45238.5386342593</x:v>
       </x:c>
       <x:c r="D26" s="10" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E26" s="10" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F26" s="2">
         <x:v>45300.4186921296</x:v>
       </x:c>
       <x:c r="G26" s="10" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H26" s="10" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I26" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J26" s="10" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="K26" s="10" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="L26" s="10" t="s"/>
       <x:c r="M26" s="10" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="N26" s="10" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O26" s="10" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="P26" s="10" t="s"/>
       <x:c r="Q26" s="10" t="s"/>
@@ -5767,7 +5809,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S26" s="10" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="T26" s="10" t="s">
         <x:v>32</x:v>
@@ -5784,19 +5826,19 @@
         <x:v>45239.6762847222</x:v>
       </x:c>
       <x:c r="D27" s="10" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E27" s="10" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F27" s="2">
         <x:v>45300.6564699074</x:v>
       </x:c>
       <x:c r="G27" s="10" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H27" s="10" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="I27" s="10" t="s">
         <x:v>35</x:v>
@@ -5805,29 +5847,29 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K27" s="10" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="L27" s="10" t="s"/>
       <x:c r="M27" s="10" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="N27" s="10" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="O27" s="10" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="P27" s="10" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="Q27" s="10" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="R27" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S27" s="10" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="T27" s="10" t="s">
         <x:v>32</x:v>
@@ -5844,50 +5886,50 @@
         <x:v>45239.7019212963</x:v>
       </x:c>
       <x:c r="D28" s="10" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E28" s="10" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F28" s="2">
         <x:v>45299.5545717593</x:v>
       </x:c>
       <x:c r="G28" s="10" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="H28" s="10" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="H28" s="10" t="s">
-        <x:v>267</x:v>
-      </x:c>
       <x:c r="I28" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J28" s="10" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="K28" s="10" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="L28" s="10" t="s"/>
       <x:c r="M28" s="10" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="N28" s="10" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="O28" s="10" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="P28" s="10" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="Q28" s="10" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="R28" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S28" s="10" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="T28" s="10" t="s">
         <x:v>32</x:v>
@@ -5904,40 +5946,40 @@
         <x:v>45239.7052662037</x:v>
       </x:c>
       <x:c r="D29" s="10" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E29" s="10" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F29" s="2">
         <x:v>45299.3986921296</x:v>
       </x:c>
       <x:c r="G29" s="10" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="H29" s="10" t="s">
         <x:v>278</x:v>
-      </x:c>
-      <x:c r="H29" s="10" t="s">
-        <x:v>277</x:v>
       </x:c>
       <x:c r="I29" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J29" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="K29" s="10" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="L29" s="10" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="M29" s="10" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="N29" s="10" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="O29" s="10" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="P29" s="10" t="s"/>
       <x:c r="Q29" s="10" t="s"/>
@@ -5945,7 +5987,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S29" s="10" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="T29" s="10" t="s">
         <x:v>32</x:v>
@@ -5962,50 +6004,50 @@
         <x:v>45239.7862615741</x:v>
       </x:c>
       <x:c r="D30" s="10" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E30" s="10" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F30" s="2">
         <x:v>45299.5569328704</x:v>
       </x:c>
       <x:c r="G30" s="10" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="H30" s="10" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="H30" s="10" t="s">
-        <x:v>286</x:v>
-      </x:c>
       <x:c r="I30" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J30" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K30" s="10" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="L30" s="10" t="s"/>
       <x:c r="M30" s="10" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="N30" s="10" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="O30" s="10" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="P30" s="10" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="Q30" s="10" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="R30" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S30" s="10" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="T30" s="10" t="s">
         <x:v>32</x:v>
@@ -6022,19 +6064,19 @@
         <x:v>45240.3525</x:v>
       </x:c>
       <x:c r="D31" s="10" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E31" s="10" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="F31" s="2">
         <x:v>45306.3587037037</x:v>
       </x:c>
       <x:c r="G31" s="10" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="H31" s="10" t="s">
         <x:v>296</x:v>
-      </x:c>
-      <x:c r="H31" s="10" t="s">
-        <x:v>295</x:v>
       </x:c>
       <x:c r="I31" s="10" t="s">
         <x:v>22</x:v>
@@ -6043,29 +6085,29 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K31" s="10" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="L31" s="10" t="s"/>
       <x:c r="M31" s="10" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="N31" s="10" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="O31" s="10" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="P31" s="10" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="Q31" s="10" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="R31" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S31" s="10" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="T31" s="10" t="s">
         <x:v>32</x:v>
@@ -6082,50 +6124,50 @@
         <x:v>45240.6742476852</x:v>
       </x:c>
       <x:c r="D32" s="10" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E32" s="10" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F32" s="2">
         <x:v>45307.6232291667</x:v>
       </x:c>
       <x:c r="G32" s="10" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="H32" s="10" t="s">
         <x:v>305</x:v>
-      </x:c>
-      <x:c r="H32" s="10" t="s">
-        <x:v>304</x:v>
       </x:c>
       <x:c r="I32" s="10" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="J32" s="10" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="K32" s="10" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="L32" s="10" t="s"/>
       <x:c r="M32" s="10" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="N32" s="10" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="O32" s="10" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="P32" s="10" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="Q32" s="10" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="R32" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S32" s="10" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="T32" s="10" t="s">
         <x:v>32</x:v>
@@ -6142,50 +6184,50 @@
         <x:v>45243.5032060185</x:v>
       </x:c>
       <x:c r="D33" s="10" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E33" s="10" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F33" s="2">
         <x:v>45307.6280092593</x:v>
       </x:c>
       <x:c r="G33" s="10" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="H33" s="10" t="s">
         <x:v>315</x:v>
-      </x:c>
-      <x:c r="H33" s="10" t="s">
-        <x:v>314</x:v>
       </x:c>
       <x:c r="I33" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J33" s="10" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="K33" s="10" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="L33" s="10" t="s"/>
       <x:c r="M33" s="10" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="N33" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="O33" s="10" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="P33" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="Q33" s="10" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="R33" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S33" s="10" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="T33" s="10" t="s">
         <x:v>32</x:v>
@@ -6202,36 +6244,36 @@
         <x:v>45243.5759375</x:v>
       </x:c>
       <x:c r="D34" s="10" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E34" s="10" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="F34" s="2"/>
       <x:c r="G34" s="10" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="H34" s="10" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="H34" s="10" t="s">
-        <x:v>324</x:v>
       </x:c>
       <x:c r="I34" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J34" s="10" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="K34" s="10" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="L34" s="10" t="s"/>
       <x:c r="M34" s="10" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="N34" s="10" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="O34" s="10" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="P34" s="10" t="s"/>
       <x:c r="Q34" s="10" t="s"/>
@@ -6252,42 +6294,42 @@
         <x:v>45243.6893634259</x:v>
       </x:c>
       <x:c r="D35" s="10" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="E35" s="10" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F35" s="2"/>
       <x:c r="G35" s="10" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="H35" s="10" t="s">
         <x:v>331</x:v>
-      </x:c>
-      <x:c r="H35" s="10" t="s">
-        <x:v>330</x:v>
       </x:c>
       <x:c r="I35" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J35" s="10" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="K35" s="10" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="L35" s="10" t="s"/>
       <x:c r="M35" s="10" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="N35" s="10" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="O35" s="10" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="P35" s="10" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="Q35" s="10" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="R35" s="10" t="s">
         <x:v>30</x:v>
@@ -6306,19 +6348,19 @@
         <x:v>45243.7121296296</x:v>
       </x:c>
       <x:c r="D36" s="10" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E36" s="10" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F36" s="2">
         <x:v>45299.4050347222</x:v>
       </x:c>
       <x:c r="G36" s="10" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="H36" s="10" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="I36" s="10" t="s">
         <x:v>22</x:v>
@@ -6327,31 +6369,31 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K36" s="10" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="L36" s="10" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="M36" s="10" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="N36" s="10" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="O36" s="10" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="P36" s="10" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="Q36" s="10" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="R36" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S36" s="10" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="T36" s="10" t="s">
         <x:v>32</x:v>
@@ -6368,51 +6410,51 @@
         <x:v>45243.896412037</x:v>
       </x:c>
       <x:c r="D37" s="10" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E37" s="10" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F37" s="2">
         <x:v>45303.5989699074</x:v>
       </x:c>
       <x:c r="G37" s="10" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="H37" s="10" t="s">
         <x:v>351</x:v>
-      </x:c>
-      <x:c r="H37" s="10" t="s">
-        <x:v>350</x:v>
       </x:c>
       <x:c r="I37" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J37" s="7" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="K37" s="10" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="L37" s="10" t="s"/>
       <x:c r="M37" s="10" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="N37" s="10" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="O37" s="10" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="P37" s="10" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="Q37" s="10" t="s"/>
       <x:c r="R37" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S37" s="10" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="T37" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="38" hidden="0">
@@ -6426,50 +6468,50 @@
         <x:v>45244.379537037</x:v>
       </x:c>
       <x:c r="D38" s="10" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E38" s="10" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="F38" s="2">
         <x:v>45299.6916319444</x:v>
       </x:c>
       <x:c r="G38" s="10" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="H38" s="10" t="s">
         <x:v>359</x:v>
-      </x:c>
-      <x:c r="H38" s="10" t="s">
-        <x:v>358</x:v>
       </x:c>
       <x:c r="I38" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J38" s="10" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="K38" s="10" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="L38" s="10" t="s"/>
       <x:c r="M38" s="10" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="N38" s="10" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="O38" s="10" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="P38" s="10" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="Q38" s="10" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="R38" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S38" s="10" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="T38" s="10" t="s">
         <x:v>32</x:v>
@@ -6486,50 +6528,50 @@
         <x:v>45244.5576273148</x:v>
       </x:c>
       <x:c r="D39" s="10" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E39" s="10" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F39" s="2">
         <x:v>45299.4544560185</x:v>
       </x:c>
       <x:c r="G39" s="10" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="H39" s="10" t="s">
         <x:v>369</x:v>
-      </x:c>
-      <x:c r="H39" s="10" t="s">
-        <x:v>368</x:v>
       </x:c>
       <x:c r="I39" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J39" s="10" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="K39" s="10" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="L39" s="10" t="s"/>
       <x:c r="M39" s="10" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="N39" s="10" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="O39" s="10" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="P39" s="10" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="Q39" s="10" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="R39" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S39" s="10" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="T39" s="10" t="s">
         <x:v>32</x:v>
@@ -6546,50 +6588,50 @@
         <x:v>45244.6159259259</x:v>
       </x:c>
       <x:c r="D40" s="10" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="E40" s="10" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="F40" s="2">
         <x:v>45303.9796643518</x:v>
       </x:c>
       <x:c r="G40" s="10" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="H40" s="10" t="s">
         <x:v>379</x:v>
-      </x:c>
-      <x:c r="H40" s="10" t="s">
-        <x:v>378</x:v>
       </x:c>
       <x:c r="I40" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J40" s="10" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="K40" s="10" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="L40" s="10" t="s"/>
       <x:c r="M40" s="10" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="N40" s="10" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="O40" s="10" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="P40" s="10" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="Q40" s="10" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="R40" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S40" s="10" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="T40" s="10" t="s">
         <x:v>32</x:v>
@@ -6606,50 +6648,50 @@
         <x:v>45244.6318287037</x:v>
       </x:c>
       <x:c r="D41" s="10" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E41" s="10" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="F41" s="2">
         <x:v>45299.3315856481</x:v>
       </x:c>
       <x:c r="G41" s="10" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H41" s="10" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="I41" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J41" s="10" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="K41" s="10" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="L41" s="10" t="s"/>
       <x:c r="M41" s="10" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="N41" s="10" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="O41" s="10" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="P41" s="10" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="Q41" s="10" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="R41" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S41" s="10" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="T41" s="10" t="s">
         <x:v>32</x:v>
@@ -6666,38 +6708,38 @@
         <x:v>45245.4331481481</x:v>
       </x:c>
       <x:c r="D42" s="10" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E42" s="10" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="F42" s="2">
         <x:v>45300.478125</x:v>
       </x:c>
       <x:c r="G42" s="10" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="H42" s="10" t="s">
         <x:v>400</x:v>
-      </x:c>
-      <x:c r="H42" s="10" t="s">
-        <x:v>399</x:v>
       </x:c>
       <x:c r="I42" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="J42" s="10" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="K42" s="10" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="L42" s="10" t="s"/>
       <x:c r="M42" s="10" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="N42" s="10" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="O42" s="10" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="P42" s="10" t="s"/>
       <x:c r="Q42" s="10" t="s"/>
@@ -6705,7 +6747,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S42" s="10" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="T42" s="10" t="s">
         <x:v>32</x:v>
@@ -6722,50 +6764,50 @@
         <x:v>45245.4426967593</x:v>
       </x:c>
       <x:c r="D43" s="10" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="F43" s="2">
         <x:v>45307.6237847222</x:v>
       </x:c>
       <x:c r="G43" s="10" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="H43" s="10" t="s">
         <x:v>407</x:v>
       </x:c>
-      <x:c r="H43" s="10" t="s">
-        <x:v>406</x:v>
-      </x:c>
       <x:c r="I43" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J43" s="10" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="K43" s="10" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="L43" s="10" t="s"/>
       <x:c r="M43" s="10" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="N43" s="10" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="O43" s="10" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="P43" s="10" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="Q43" s="10" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="R43" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S43" s="10" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="T43" s="10" t="s">
         <x:v>32</x:v>
@@ -6782,38 +6824,38 @@
         <x:v>45245.4825</x:v>
       </x:c>
       <x:c r="D44" s="10" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="E44" s="10" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="F44" s="2">
         <x:v>45300.5141898148</x:v>
       </x:c>
       <x:c r="G44" s="10" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="H44" s="10" t="s">
         <x:v>417</x:v>
       </x:c>
-      <x:c r="H44" s="10" t="s">
-        <x:v>416</x:v>
-      </x:c>
       <x:c r="I44" s="10" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="J44" s="10" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="K44" s="10" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="L44" s="10" t="s"/>
       <x:c r="M44" s="10" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="N44" s="10" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="O44" s="10" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="P44" s="10" t="s"/>
       <x:c r="Q44" s="10" t="s"/>
@@ -6821,7 +6863,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S44" s="10" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="T44" s="10" t="s">
         <x:v>32</x:v>
@@ -6838,40 +6880,40 @@
         <x:v>45245.4992476852</x:v>
       </x:c>
       <x:c r="D45" s="10" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E45" s="10" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="F45" s="2">
         <x:v>45307.6205208333</x:v>
       </x:c>
       <x:c r="G45" s="10" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="H45" s="10" t="s">
         <x:v>426</x:v>
-      </x:c>
-      <x:c r="H45" s="10" t="s">
-        <x:v>425</x:v>
       </x:c>
       <x:c r="I45" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J45" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K45" s="10" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="L45" s="10" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="M45" s="10" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="N45" s="10" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="O45" s="10" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="P45" s="10" t="s"/>
       <x:c r="Q45" s="10" t="s"/>
@@ -6879,7 +6921,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S45" s="10" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="T45" s="10" t="s">
         <x:v>32</x:v>
@@ -6896,53 +6938,53 @@
         <x:v>45245.5286111111</x:v>
       </x:c>
       <x:c r="D46" s="10" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E46" s="10" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="F46" s="2">
         <x:v>45300.621875</x:v>
       </x:c>
       <x:c r="G46" s="10" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="H46" s="10" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="I46" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J46" s="10" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="K46" s="10" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="L46" s="10" t="s"/>
       <x:c r="M46" s="10" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="N46" s="10" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="O46" s="10" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="P46" s="10" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="Q46" s="10" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="R46" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S46" s="10" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="T46" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="47" hidden="0">
@@ -6956,50 +6998,50 @@
         <x:v>45245.5311458333</x:v>
       </x:c>
       <x:c r="D47" s="10" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="E47" s="10" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="F47" s="2">
         <x:v>45303.6715972222</x:v>
       </x:c>
       <x:c r="G47" s="10" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="H47" s="10" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="I47" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J47" s="7" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="K47" s="10" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="L47" s="10" t="s"/>
       <x:c r="M47" s="10" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="N47" s="10" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="O47" s="10" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="P47" s="10" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="Q47" s="10" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="R47" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S47" s="10" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="T47" s="10" t="s">
         <x:v>32</x:v>
@@ -7016,42 +7058,42 @@
         <x:v>45245.5907523148</x:v>
       </x:c>
       <x:c r="D48" s="10" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="E48" s="10" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="F48" s="2"/>
       <x:c r="G48" s="10" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="H48" s="10" t="s">
         <x:v>456</x:v>
-      </x:c>
-      <x:c r="H48" s="10" t="s">
-        <x:v>455</x:v>
       </x:c>
       <x:c r="I48" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J48" s="10" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="K48" s="10" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="L48" s="10" t="s"/>
       <x:c r="M48" s="10" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="N48" s="10" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="O48" s="10" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="P48" s="10" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="Q48" s="10" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="R48" s="10" t="s">
         <x:v>71</x:v>
@@ -7070,40 +7112,40 @@
         <x:v>45245.6072337963</x:v>
       </x:c>
       <x:c r="D49" s="10" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="E49" s="10" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="F49" s="2">
         <x:v>45301.6258680556</x:v>
       </x:c>
       <x:c r="G49" s="10" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="H49" s="10" t="s">
         <x:v>465</x:v>
-      </x:c>
-      <x:c r="H49" s="10" t="s">
-        <x:v>464</x:v>
       </x:c>
       <x:c r="I49" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J49" s="10" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="K49" s="10" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="L49" s="10" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="M49" s="10" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="N49" s="10" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="O49" s="10" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="P49" s="10" t="s"/>
       <x:c r="Q49" s="10" t="s"/>
@@ -7111,7 +7153,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S49" s="10" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="T49" s="10" t="s">
         <x:v>32</x:v>
@@ -7128,50 +7170,50 @@
         <x:v>45245.6122569444</x:v>
       </x:c>
       <x:c r="D50" s="10" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="E50" s="10" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="F50" s="2">
         <x:v>45303.7063078704</x:v>
       </x:c>
       <x:c r="G50" s="10" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="H50" s="10" t="s">
         <x:v>474</x:v>
-      </x:c>
-      <x:c r="H50" s="10" t="s">
-        <x:v>473</x:v>
       </x:c>
       <x:c r="I50" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J50" s="10" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="K50" s="10" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="L50" s="10" t="s"/>
       <x:c r="M50" s="10" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="N50" s="10" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="O50" s="10" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="P50" s="10" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="Q50" s="10" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="R50" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S50" s="10" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="T50" s="10" t="s">
         <x:v>32</x:v>
@@ -7188,44 +7230,50 @@
         <x:v>45245.6666435185</x:v>
       </x:c>
       <x:c r="D51" s="10" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="E51" s="10" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="F51" s="2">
+        <x:v>45309.486724537</x:v>
+      </x:c>
+      <x:c r="G51" s="10" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="H51" s="10" t="s">
         <x:v>484</x:v>
       </x:c>
-      <x:c r="F51" s="2"/>
-      <x:c r="G51" s="10" t="s">
-        <x:v>484</x:v>
-      </x:c>
-      <x:c r="H51" s="10" t="s">
-        <x:v>483</x:v>
-      </x:c>
       <x:c r="I51" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J51" s="10" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="K51" s="10" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="L51" s="10" t="s"/>
       <x:c r="M51" s="10" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="N51" s="10" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="O51" s="10" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="P51" s="10" t="s"/>
       <x:c r="Q51" s="10" t="s"/>
       <x:c r="R51" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="S51" s="10" t="s"/>
-      <x:c r="T51" s="10" t="s"/>
+      <x:c r="S51" s="10" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="T51" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" hidden="0">
       <x:c r="A52">
@@ -7238,50 +7286,50 @@
         <x:v>45245.6950115741</x:v>
       </x:c>
       <x:c r="D52" s="10" t="s">
-        <x:v>489</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="E52" s="10" t="s">
-        <x:v>490</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="F52" s="2">
-        <x:v>45307.6609606481</x:v>
+        <x:v>45309.5072685185</x:v>
       </x:c>
       <x:c r="G52" s="10" t="s">
-        <x:v>490</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="H52" s="10" t="s">
-        <x:v>489</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="I52" s="10" t="s">
-        <x:v>491</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J52" s="10" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="K52" s="10" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="L52" s="10" t="s"/>
       <x:c r="M52" s="10" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="N52" s="10" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="O52" s="10" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="P52" s="10" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="Q52" s="10" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="R52" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S52" s="10" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="T52" s="10" t="s">
         <x:v>32</x:v>
@@ -7298,48 +7346,56 @@
         <x:v>45245.7537152778</x:v>
       </x:c>
       <x:c r="D53" s="10" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="E53" s="10" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="F53" s="2">
+        <x:v>45308.7799652778</x:v>
+      </x:c>
+      <x:c r="G53" s="10" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="H53" s="10" t="s">
         <x:v>501</x:v>
       </x:c>
-      <x:c r="F53" s="2"/>
-      <x:c r="G53" s="10" t="s">
-        <x:v>501</x:v>
-      </x:c>
-      <x:c r="H53" s="10" t="s">
-        <x:v>500</x:v>
-      </x:c>
       <x:c r="I53" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J53" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K53" s="10" t="s">
-        <x:v>502</x:v>
-      </x:c>
-      <x:c r="L53" s="10" t="s"/>
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="L53" s="10" t="s">
+        <x:v>504</x:v>
+      </x:c>
       <x:c r="M53" s="10" t="s">
-        <x:v>503</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="N53" s="10" t="s">
-        <x:v>504</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="O53" s="10" t="s">
-        <x:v>505</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="P53" s="10" t="s">
-        <x:v>506</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="Q53" s="10" t="s">
-        <x:v>507</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="R53" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="S53" s="10" t="s"/>
-      <x:c r="T53" s="10" t="s"/>
+      <x:c r="S53" s="10" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="T53" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="54" hidden="0">
       <x:c r="A54">
@@ -7352,42 +7408,42 @@
         <x:v>45245.9679976852</x:v>
       </x:c>
       <x:c r="D54" s="10" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E54" s="10" t="s">
-        <x:v>509</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="F54" s="2"/>
       <x:c r="G54" s="10" t="s">
-        <x:v>509</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="H54" s="10" t="s">
-        <x:v>510</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="I54" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J54" s="10" t="s">
-        <x:v>511</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="K54" s="10" t="s">
-        <x:v>512</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="L54" s="10" t="s"/>
       <x:c r="M54" s="10" t="s">
-        <x:v>513</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="N54" s="10" t="s">
-        <x:v>514</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="O54" s="10" t="s">
-        <x:v>515</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="P54" s="10" t="s">
-        <x:v>516</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="Q54" s="10" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="R54" s="10" t="s">
         <x:v>71</x:v>
@@ -7406,42 +7462,42 @@
         <x:v>45246.3823726852</x:v>
       </x:c>
       <x:c r="D55" s="10" t="s">
-        <x:v>518</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="E55" s="10" t="s">
-        <x:v>519</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="F55" s="2"/>
       <x:c r="G55" s="10" t="s">
-        <x:v>519</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="H55" s="10" t="s">
-        <x:v>518</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="I55" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J55" s="10" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="K55" s="10" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="L55" s="10" t="s"/>
       <x:c r="M55" s="10" t="s">
-        <x:v>522</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="N55" s="10" t="s">
-        <x:v>523</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="O55" s="10" t="s">
-        <x:v>524</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="P55" s="10" t="s">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="Q55" s="10" t="s">
-        <x:v>526</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="R55" s="10" t="s">
         <x:v>71</x:v>
@@ -7460,42 +7516,42 @@
         <x:v>45246.4063773148</x:v>
       </x:c>
       <x:c r="D56" s="10" t="s">
-        <x:v>527</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="E56" s="10" t="s">
-        <x:v>528</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="F56" s="2"/>
       <x:c r="G56" s="10" t="s">
-        <x:v>528</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="H56" s="10" t="s">
-        <x:v>527</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="I56" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J56" s="10" t="s">
-        <x:v>529</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="K56" s="10" t="s">
-        <x:v>530</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="L56" s="10" t="s"/>
       <x:c r="M56" s="10" t="s">
-        <x:v>531</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="N56" s="10" t="s">
-        <x:v>532</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="O56" s="10" t="s">
-        <x:v>533</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="P56" s="10" t="s">
-        <x:v>534</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="Q56" s="10" t="s">
-        <x:v>535</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="R56" s="10" t="s">
         <x:v>30</x:v>
@@ -7514,50 +7570,50 @@
         <x:v>45246.4066898148</x:v>
       </x:c>
       <x:c r="D57" s="10" t="s">
-        <x:v>536</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E57" s="10" t="s">
-        <x:v>537</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="F57" s="2">
         <x:v>45300.4968171296</x:v>
       </x:c>
       <x:c r="G57" s="10" t="s">
-        <x:v>537</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="H57" s="10" t="s">
-        <x:v>536</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="I57" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J57" s="10" t="s">
-        <x:v>538</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="K57" s="10" t="s">
-        <x:v>539</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="L57" s="10" t="s"/>
       <x:c r="M57" s="10" t="s">
-        <x:v>540</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="N57" s="10" t="s">
-        <x:v>541</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="O57" s="10" t="s">
-        <x:v>542</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="P57" s="10" t="s">
-        <x:v>543</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="Q57" s="10" t="s">
-        <x:v>544</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="R57" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S57" s="10" t="s">
-        <x:v>545</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="T57" s="10" t="s">
         <x:v>32</x:v>
@@ -7574,50 +7630,50 @@
         <x:v>45246.4281828704</x:v>
       </x:c>
       <x:c r="D58" s="10" t="s">
-        <x:v>546</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="E58" s="10" t="s">
-        <x:v>547</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="F58" s="2">
         <x:v>45299.4050115741</x:v>
       </x:c>
       <x:c r="G58" s="10" t="s">
-        <x:v>547</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="H58" s="10" t="s">
-        <x:v>548</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="I58" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J58" s="10" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="K58" s="10" t="s">
-        <x:v>549</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="L58" s="10" t="s"/>
       <x:c r="M58" s="10" t="s">
-        <x:v>550</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="N58" s="10" t="s">
-        <x:v>551</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="O58" s="10" t="s">
-        <x:v>552</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="P58" s="10" t="s">
-        <x:v>553</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="Q58" s="10" t="s">
-        <x:v>554</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="R58" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S58" s="10" t="s">
-        <x:v>555</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="T58" s="10" t="s">
         <x:v>32</x:v>
@@ -7634,52 +7690,52 @@
         <x:v>45246.4298032407</x:v>
       </x:c>
       <x:c r="D59" s="10" t="s">
-        <x:v>556</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E59" s="10" t="s">
-        <x:v>557</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="F59" s="2">
         <x:v>45307.6205555556</x:v>
       </x:c>
       <x:c r="G59" s="10" t="s">
-        <x:v>558</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="H59" s="10" t="s">
-        <x:v>556</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="I59" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J59" s="10" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="K59" s="10" t="s">
-        <x:v>559</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="L59" s="10" t="s">
-        <x:v>560</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="M59" s="10" t="s">
-        <x:v>561</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="N59" s="10" t="s">
-        <x:v>562</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="O59" s="10" t="s">
-        <x:v>563</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="P59" s="10" t="s">
-        <x:v>564</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="Q59" s="10" t="s">
-        <x:v>565</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="R59" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S59" s="10" t="s">
-        <x:v>566</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="T59" s="10" t="s">
         <x:v>32</x:v>
@@ -7696,40 +7752,40 @@
         <x:v>45246.454537037</x:v>
       </x:c>
       <x:c r="D60" s="10" t="s">
-        <x:v>567</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="E60" s="10" t="s">
-        <x:v>568</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="F60" s="2">
         <x:v>45299.4591319444</x:v>
       </x:c>
       <x:c r="G60" s="10" t="s">
-        <x:v>568</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="H60" s="10" t="s">
-        <x:v>567</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="I60" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J60" s="10" t="s">
-        <x:v>569</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="K60" s="10" t="s">
-        <x:v>570</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="L60" s="10" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="M60" s="10" t="s">
-        <x:v>571</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="N60" s="10" t="s">
-        <x:v>572</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="O60" s="10" t="s">
-        <x:v>573</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="P60" s="10" t="s"/>
       <x:c r="Q60" s="10" t="s"/>
@@ -7737,7 +7793,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S60" s="10" t="s">
-        <x:v>574</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="T60" s="10" t="s">
         <x:v>32</x:v>
@@ -7754,50 +7810,50 @@
         <x:v>45246.4577777778</x:v>
       </x:c>
       <x:c r="D61" s="10" t="s">
-        <x:v>575</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="E61" s="10" t="s">
-        <x:v>576</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="F61" s="2">
         <x:v>45306.3346875</x:v>
       </x:c>
       <x:c r="G61" s="10" t="s">
-        <x:v>576</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="H61" s="10" t="s">
-        <x:v>575</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="I61" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J61" s="10" t="s">
-        <x:v>577</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="K61" s="10" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="L61" s="10" t="s"/>
       <x:c r="M61" s="10" t="s">
-        <x:v>578</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="N61" s="10" t="s">
-        <x:v>579</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="O61" s="10" t="s">
-        <x:v>580</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="P61" s="10" t="s">
-        <x:v>581</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="Q61" s="10" t="s">
-        <x:v>582</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="R61" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S61" s="10" t="s">
-        <x:v>583</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="T61" s="10" t="s">
         <x:v>32</x:v>
@@ -7814,48 +7870,50 @@
         <x:v>45246.4579050926</x:v>
       </x:c>
       <x:c r="D62" s="10" t="s">
-        <x:v>584</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="E62" s="10" t="s">
-        <x:v>585</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="F62" s="2">
-        <x:v>45299.4506481481</x:v>
+        <x:v>45313.4042824074</x:v>
       </x:c>
       <x:c r="G62" s="10" t="s">
-        <x:v>585</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="H62" s="10" t="s">
-        <x:v>584</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="I62" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J62" s="10" t="s">
-        <x:v>586</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K62" s="10" t="s">
-        <x:v>587</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="L62" s="10" t="s"/>
       <x:c r="M62" s="10" t="s">
-        <x:v>588</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="N62" s="10" t="s">
-        <x:v>589</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="O62" s="10" t="s">
-        <x:v>590</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="P62" s="10" t="s">
-        <x:v>591</x:v>
-      </x:c>
-      <x:c r="Q62" s="10" t="s"/>
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="Q62" s="10" t="s">
+        <x:v>594</x:v>
+      </x:c>
       <x:c r="R62" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S62" s="10" t="s">
-        <x:v>592</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="T62" s="10" t="s">
         <x:v>32</x:v>
@@ -7872,19 +7930,19 @@
         <x:v>45246.4706365741</x:v>
       </x:c>
       <x:c r="D63" s="10" t="s">
-        <x:v>593</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="E63" s="10" t="s">
-        <x:v>594</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="F63" s="2">
         <x:v>45307.6865393519</x:v>
       </x:c>
       <x:c r="G63" s="10" t="s">
-        <x:v>594</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="H63" s="10" t="s">
-        <x:v>593</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="I63" s="10" t="s">
         <x:v>22</x:v>
@@ -7893,17 +7951,17 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K63" s="10" t="s">
-        <x:v>595</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="L63" s="10" t="s"/>
       <x:c r="M63" s="10" t="s">
-        <x:v>596</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="N63" s="10" t="s">
-        <x:v>597</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="O63" s="10" t="s">
-        <x:v>598</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="P63" s="10" t="s"/>
       <x:c r="Q63" s="10" t="s"/>
@@ -7911,7 +7969,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S63" s="10" t="s">
-        <x:v>599</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="T63" s="10" t="s">
         <x:v>32</x:v>
@@ -7928,50 +7986,50 @@
         <x:v>45246.4868634259</x:v>
       </x:c>
       <x:c r="D64" s="10" t="s">
-        <x:v>600</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="E64" s="10" t="s">
-        <x:v>601</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="F64" s="2">
         <x:v>45300.5790393518</x:v>
       </x:c>
       <x:c r="G64" s="10" t="s">
-        <x:v>601</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="H64" s="10" t="s">
-        <x:v>600</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="I64" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J64" s="10" t="s">
-        <x:v>602</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="K64" s="10" t="s">
-        <x:v>603</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="L64" s="10" t="s"/>
       <x:c r="M64" s="10" t="s">
-        <x:v>604</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="N64" s="10" t="s">
-        <x:v>605</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="O64" s="10" t="s">
-        <x:v>606</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="P64" s="10" t="s">
-        <x:v>607</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="Q64" s="10" t="s">
-        <x:v>608</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="R64" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S64" s="10" t="s">
-        <x:v>609</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="T64" s="10" t="s">
         <x:v>32</x:v>
@@ -7988,38 +8046,38 @@
         <x:v>45246.5186342593</x:v>
       </x:c>
       <x:c r="D65" s="10" t="s">
-        <x:v>610</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="E65" s="10" t="s">
-        <x:v>611</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="F65" s="2">
         <x:v>45299.707037037</x:v>
       </x:c>
       <x:c r="G65" s="10" t="s">
-        <x:v>611</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="H65" s="10" t="s">
-        <x:v>610</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="I65" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J65" s="10" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="K65" s="10" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="L65" s="10" t="s"/>
       <x:c r="M65" s="10" t="s">
-        <x:v>612</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="N65" s="10" t="s">
-        <x:v>613</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="O65" s="10" t="s">
-        <x:v>614</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="P65" s="10" t="s"/>
       <x:c r="Q65" s="10" t="s"/>
@@ -8027,7 +8085,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S65" s="10" t="s">
-        <x:v>615</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="T65" s="10" t="s">
         <x:v>32</x:v>
@@ -8044,50 +8102,50 @@
         <x:v>45246.5810763889</x:v>
       </x:c>
       <x:c r="D66" s="10" t="s">
-        <x:v>616</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="E66" s="10" t="s">
-        <x:v>617</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="F66" s="2">
         <x:v>45307.6225231481</x:v>
       </x:c>
       <x:c r="G66" s="10" t="s">
-        <x:v>617</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="H66" s="10" t="s">
-        <x:v>616</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="I66" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J66" s="10" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="K66" s="10" t="s">
-        <x:v>618</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="L66" s="10" t="s"/>
       <x:c r="M66" s="10" t="s">
-        <x:v>619</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="N66" s="10" t="s">
-        <x:v>620</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="O66" s="10" t="s">
-        <x:v>621</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="P66" s="10" t="s">
-        <x:v>622</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="Q66" s="10" t="s">
-        <x:v>623</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="R66" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S66" s="10" t="s">
-        <x:v>624</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="T66" s="10" t="s">
         <x:v>32</x:v>
@@ -8104,50 +8162,50 @@
         <x:v>45246.5814699074</x:v>
       </x:c>
       <x:c r="D67" s="10" t="s">
-        <x:v>625</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="E67" s="10" t="s">
-        <x:v>626</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F67" s="2">
-        <x:v>45308.4018865741</x:v>
+        <x:v>45308.7121180556</x:v>
       </x:c>
       <x:c r="G67" s="10" t="s">
-        <x:v>626</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="H67" s="10" t="s">
-        <x:v>625</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="I67" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J67" s="10" t="s">
-        <x:v>627</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="K67" s="10" t="s">
-        <x:v>628</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="L67" s="10" t="s"/>
       <x:c r="M67" s="10" t="s">
-        <x:v>629</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="N67" s="10" t="s">
-        <x:v>630</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="O67" s="10" t="s">
-        <x:v>631</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="P67" s="10" t="s">
-        <x:v>632</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="Q67" s="10" t="s">
-        <x:v>633</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="R67" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S67" s="10" t="s">
-        <x:v>634</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="T67" s="10" t="s">
         <x:v>32</x:v>
@@ -8164,44 +8222,44 @@
         <x:v>45246.5900925926</x:v>
       </x:c>
       <x:c r="D68" s="10" t="s">
-        <x:v>635</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E68" s="10" t="s">
-        <x:v>636</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F68" s="2"/>
       <x:c r="G68" s="10" t="s">
-        <x:v>636</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="H68" s="10" t="s">
-        <x:v>635</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="I68" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J68" s="10" t="s">
-        <x:v>637</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="K68" s="10" t="s">
-        <x:v>638</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="L68" s="10" t="s">
-        <x:v>639</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="M68" s="10" t="s">
-        <x:v>640</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="N68" s="10" t="s">
-        <x:v>641</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="O68" s="10" t="s">
-        <x:v>642</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="P68" s="10" t="s">
-        <x:v>643</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="Q68" s="10" t="s">
-        <x:v>644</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="R68" s="10" t="s">
         <x:v>30</x:v>
@@ -8220,42 +8278,42 @@
         <x:v>45246.6372916667</x:v>
       </x:c>
       <x:c r="D69" s="10" t="s">
-        <x:v>645</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="E69" s="10" t="s">
-        <x:v>646</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="F69" s="2"/>
       <x:c r="G69" s="10" t="s">
-        <x:v>647</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="H69" s="10" t="s">
-        <x:v>645</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="I69" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J69" s="10" t="s">
-        <x:v>648</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="K69" s="10" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="L69" s="10" t="s"/>
       <x:c r="M69" s="10" t="s">
-        <x:v>649</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="N69" s="10" t="s">
-        <x:v>650</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="O69" s="10" t="s">
-        <x:v>651</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="P69" s="10" t="s">
-        <x:v>652</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="Q69" s="10" t="s">
-        <x:v>653</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="R69" s="10" t="s">
         <x:v>30</x:v>
@@ -8274,50 +8332,50 @@
         <x:v>45246.6408449074</x:v>
       </x:c>
       <x:c r="D70" s="10" t="s">
-        <x:v>654</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="E70" s="10" t="s">
-        <x:v>655</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="F70" s="2">
         <x:v>45299.4253703704</x:v>
       </x:c>
       <x:c r="G70" s="10" t="s">
-        <x:v>655</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="H70" s="10" t="s">
-        <x:v>654</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="I70" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J70" s="10" t="s">
-        <x:v>656</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="K70" s="10" t="s">
-        <x:v>657</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="L70" s="10" t="s"/>
       <x:c r="M70" s="10" t="s">
-        <x:v>658</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="N70" s="10" t="s">
-        <x:v>659</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="O70" s="10" t="s">
-        <x:v>660</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="P70" s="10" t="s">
-        <x:v>661</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="Q70" s="10" t="s">
-        <x:v>662</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="R70" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S70" s="10" t="s">
-        <x:v>663</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="T70" s="10" t="s">
         <x:v>32</x:v>
@@ -8334,19 +8392,19 @@
         <x:v>45246.6424305556</x:v>
       </x:c>
       <x:c r="D71" s="10" t="s">
-        <x:v>664</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="E71" s="10" t="s">
-        <x:v>665</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="F71" s="2">
         <x:v>45307.5551736111</x:v>
       </x:c>
       <x:c r="G71" s="10" t="s">
-        <x:v>665</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="H71" s="10" t="s">
-        <x:v>664</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="I71" s="10" t="s">
         <x:v>44</x:v>
@@ -8355,17 +8413,17 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="K71" s="10" t="s">
-        <x:v>666</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="L71" s="10" t="s"/>
       <x:c r="M71" s="10" t="s">
-        <x:v>667</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="N71" s="10" t="s">
-        <x:v>668</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="O71" s="10" t="s">
-        <x:v>669</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="P71" s="10" t="s"/>
       <x:c r="Q71" s="10" t="s"/>
@@ -8373,7 +8431,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S71" s="10" t="s">
-        <x:v>670</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="T71" s="10" t="s">
         <x:v>32</x:v>
@@ -8390,50 +8448,50 @@
         <x:v>45246.6849768519</x:v>
       </x:c>
       <x:c r="D72" s="10" t="s">
-        <x:v>671</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="E72" s="10" t="s">
-        <x:v>672</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="F72" s="2">
         <x:v>45299.3490046296</x:v>
       </x:c>
       <x:c r="G72" s="10" t="s">
-        <x:v>672</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="H72" s="10" t="s">
-        <x:v>671</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="I72" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J72" s="10" t="s">
-        <x:v>673</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="K72" s="10" t="s">
-        <x:v>674</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="L72" s="10" t="s"/>
       <x:c r="M72" s="10" t="s">
-        <x:v>675</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="N72" s="10" t="s">
-        <x:v>676</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="O72" s="10" t="s">
-        <x:v>677</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="P72" s="10" t="s">
-        <x:v>678</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="Q72" s="10" t="s">
-        <x:v>679</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="R72" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S72" s="10" t="s">
-        <x:v>680</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="T72" s="10" t="s">
         <x:v>32</x:v>
@@ -8450,50 +8508,50 @@
         <x:v>45246.6879976852</x:v>
       </x:c>
       <x:c r="D73" s="10" t="s">
-        <x:v>681</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="E73" s="10" t="s">
-        <x:v>682</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="F73" s="2">
         <x:v>45307.6697453704</x:v>
       </x:c>
       <x:c r="G73" s="10" t="s">
-        <x:v>682</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="H73" s="10" t="s">
-        <x:v>681</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="I73" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J73" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K73" s="10" t="s">
-        <x:v>683</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="L73" s="10" t="s"/>
       <x:c r="M73" s="10" t="s">
-        <x:v>684</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="N73" s="10" t="s">
-        <x:v>685</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="O73" s="10" t="s">
-        <x:v>686</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="P73" s="10" t="s">
-        <x:v>687</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="Q73" s="10" t="s">
-        <x:v>688</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="R73" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S73" s="10" t="s">
-        <x:v>689</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="T73" s="10" t="s">
         <x:v>32</x:v>
@@ -8510,36 +8568,36 @@
         <x:v>45246.6920023148</x:v>
       </x:c>
       <x:c r="D74" s="10" t="s">
-        <x:v>690</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="E74" s="10" t="s">
-        <x:v>691</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="F74" s="2"/>
       <x:c r="G74" s="10" t="s">
-        <x:v>691</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="H74" s="10" t="s">
-        <x:v>690</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="I74" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J74" s="10" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="K74" s="10" t="s">
-        <x:v>692</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="L74" s="10" t="s"/>
       <x:c r="M74" s="10" t="s">
-        <x:v>693</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="N74" s="10" t="s">
-        <x:v>694</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="O74" s="10" t="s">
-        <x:v>695</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="P74" s="10" t="s"/>
       <x:c r="Q74" s="10" t="s"/>
@@ -8558,50 +8616,50 @@
         <x:v>45246.7486111111</x:v>
       </x:c>
       <x:c r="D75" s="10" t="s">
-        <x:v>696</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="E75" s="10" t="s">
-        <x:v>697</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="F75" s="2">
         <x:v>45307.6402430556</x:v>
       </x:c>
       <x:c r="G75" s="10" t="s">
-        <x:v>697</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="H75" s="10" t="s">
-        <x:v>698</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="I75" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J75" s="10" t="s">
-        <x:v>699</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="K75" s="10" t="s">
-        <x:v>700</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="L75" s="10" t="s"/>
       <x:c r="M75" s="10" t="s">
-        <x:v>701</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="N75" s="10" t="s">
-        <x:v>702</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="O75" s="10" t="s">
-        <x:v>703</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="P75" s="10" t="s">
-        <x:v>704</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="Q75" s="10" t="s">
-        <x:v>705</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="R75" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S75" s="10" t="s">
-        <x:v>706</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="T75" s="10" t="s">
         <x:v>32</x:v>
@@ -8618,50 +8676,50 @@
         <x:v>45246.7521990741</x:v>
       </x:c>
       <x:c r="D76" s="10" t="s">
-        <x:v>707</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="E76" s="10" t="s">
-        <x:v>708</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="F76" s="2">
         <x:v>45307.6250231481</x:v>
       </x:c>
       <x:c r="G76" s="10" t="s">
-        <x:v>709</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="H76" s="10" t="s">
-        <x:v>707</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="I76" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J76" s="10" t="s">
-        <x:v>710</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="K76" s="10" t="s">
-        <x:v>711</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="L76" s="10" t="s"/>
       <x:c r="M76" s="10" t="s">
-        <x:v>712</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="N76" s="10" t="s">
-        <x:v>713</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="O76" s="10" t="s">
-        <x:v>714</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="P76" s="10" t="s">
-        <x:v>715</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="Q76" s="10" t="s">
-        <x:v>716</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="R76" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S76" s="10" t="s">
-        <x:v>717</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="T76" s="10" t="s">
         <x:v>32</x:v>
@@ -8678,19 +8736,19 @@
         <x:v>45246.7540740741</x:v>
       </x:c>
       <x:c r="D77" s="10" t="s">
-        <x:v>718</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="E77" s="10" t="s">
-        <x:v>719</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="F77" s="2">
         <x:v>45299.3385648148</x:v>
       </x:c>
       <x:c r="G77" s="10" t="s">
-        <x:v>719</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="H77" s="10" t="s">
-        <x:v>718</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="I77" s="10" t="s">
         <x:v>35</x:v>
@@ -8699,29 +8757,29 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K77" s="10" t="s">
-        <x:v>720</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="L77" s="10" t="s"/>
       <x:c r="M77" s="10" t="s">
-        <x:v>721</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="N77" s="10" t="s">
-        <x:v>722</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="O77" s="10" t="s">
-        <x:v>723</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="P77" s="10" t="s">
-        <x:v>724</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="Q77" s="10" t="s">
-        <x:v>725</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="R77" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S77" s="10" t="s">
-        <x:v>726</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="T77" s="10" t="s">
         <x:v>32</x:v>
@@ -8738,50 +8796,50 @@
         <x:v>45246.7554166667</x:v>
       </x:c>
       <x:c r="D78" s="10" t="s">
-        <x:v>727</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="E78" s="10" t="s">
-        <x:v>728</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="F78" s="2">
         <x:v>45307.7866666667</x:v>
       </x:c>
       <x:c r="G78" s="10" t="s">
-        <x:v>728</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="H78" s="10" t="s">
-        <x:v>727</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="I78" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J78" s="10" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="K78" s="10" t="s">
-        <x:v>729</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="L78" s="10" t="s"/>
       <x:c r="M78" s="10" t="s">
-        <x:v>730</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="N78" s="10" t="s">
-        <x:v>731</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="O78" s="10" t="s">
-        <x:v>732</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="P78" s="10" t="s">
-        <x:v>733</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="Q78" s="10" t="s">
-        <x:v>734</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="R78" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S78" s="10" t="s">
-        <x:v>735</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="T78" s="10" t="s">
         <x:v>32</x:v>
@@ -8798,50 +8856,56 @@
         <x:v>45246.7944212963</x:v>
       </x:c>
       <x:c r="D79" s="10" t="s">
-        <x:v>736</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="E79" s="10" t="s">
-        <x:v>737</x:v>
-      </x:c>
-      <x:c r="F79" s="2"/>
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="F79" s="2">
+        <x:v>45310.7551736111</x:v>
+      </x:c>
       <x:c r="G79" s="10" t="s">
-        <x:v>737</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="H79" s="10" t="s">
-        <x:v>736</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="I79" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J79" s="10" t="s">
-        <x:v>738</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="K79" s="10" t="s">
-        <x:v>739</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="L79" s="10" t="s">
-        <x:v>740</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="M79" s="10" t="s">
-        <x:v>741</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="N79" s="10" t="s">
-        <x:v>742</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="O79" s="10" t="s">
-        <x:v>743</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="P79" s="10" t="s">
-        <x:v>744</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="Q79" s="10" t="s">
-        <x:v>745</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="R79" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="S79" s="10" t="s"/>
-      <x:c r="T79" s="10" t="s"/>
+      <x:c r="S79" s="10" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="T79" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="80" hidden="0">
       <x:c r="A80">
@@ -8854,19 +8918,19 @@
         <x:v>45246.8604861111</x:v>
       </x:c>
       <x:c r="D80" s="10" t="s">
-        <x:v>746</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="E80" s="10" t="s">
-        <x:v>747</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="F80" s="2">
-        <x:v>45307.701724537</x:v>
+        <x:v>45308.8004050926</x:v>
       </x:c>
       <x:c r="G80" s="10" t="s">
-        <x:v>747</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="H80" s="10" t="s">
-        <x:v>746</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="I80" s="10" t="s">
         <x:v>22</x:v>
@@ -8875,29 +8939,29 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K80" s="10" t="s">
-        <x:v>748</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="L80" s="10" t="s"/>
       <x:c r="M80" s="10" t="s">
-        <x:v>749</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="N80" s="10" t="s">
-        <x:v>750</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="O80" s="10" t="s">
-        <x:v>751</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="P80" s="10" t="s">
-        <x:v>752</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="Q80" s="10" t="s">
-        <x:v>753</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="R80" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S80" s="10" t="s">
-        <x:v>754</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="T80" s="10" t="s">
         <x:v>32</x:v>
@@ -8914,52 +8978,52 @@
         <x:v>45246.907962963</x:v>
       </x:c>
       <x:c r="D81" s="10" t="s">
-        <x:v>755</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="E81" s="10" t="s">
-        <x:v>756</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="F81" s="2">
         <x:v>45299.6288194444</x:v>
       </x:c>
       <x:c r="G81" s="10" t="s">
-        <x:v>756</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="H81" s="10" t="s">
-        <x:v>755</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="I81" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J81" s="10" t="s">
-        <x:v>757</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="K81" s="10" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="L81" s="10" t="s">
-        <x:v>758</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="M81" s="10" t="s">
-        <x:v>759</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="N81" s="10" t="s">
-        <x:v>760</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="O81" s="10" t="s">
-        <x:v>761</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="P81" s="10" t="s">
-        <x:v>762</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="Q81" s="10" t="s">
-        <x:v>763</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="R81" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S81" s="10" t="s">
-        <x:v>764</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="T81" s="10" t="s">
         <x:v>32</x:v>
@@ -8976,50 +9040,50 @@
         <x:v>45246.9659837963</x:v>
       </x:c>
       <x:c r="D82" s="10" t="s">
-        <x:v>765</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="E82" s="10" t="s">
-        <x:v>766</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="F82" s="2">
         <x:v>45307.6493055556</x:v>
       </x:c>
       <x:c r="G82" s="10" t="s">
-        <x:v>766</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="H82" s="10" t="s">
-        <x:v>765</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="I82" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J82" s="10" t="s">
-        <x:v>767</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K82" s="10" t="s">
-        <x:v>768</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="L82" s="10" t="s"/>
       <x:c r="M82" s="10" t="s">
-        <x:v>769</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="N82" s="10" t="s">
-        <x:v>770</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="O82" s="10" t="s">
-        <x:v>771</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="P82" s="10" t="s">
-        <x:v>772</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="Q82" s="10" t="s">
-        <x:v>773</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="R82" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S82" s="10" t="s">
-        <x:v>774</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="T82" s="10" t="s">
         <x:v>32</x:v>
@@ -9036,52 +9100,52 @@
         <x:v>45247.3825231481</x:v>
       </x:c>
       <x:c r="D83" s="10" t="s">
-        <x:v>775</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="E83" s="10" t="s">
-        <x:v>776</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="F83" s="2">
         <x:v>45299.3393981481</x:v>
       </x:c>
       <x:c r="G83" s="10" t="s">
-        <x:v>776</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="H83" s="10" t="s">
-        <x:v>775</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="I83" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="J83" s="10" t="s">
-        <x:v>777</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="K83" s="10" t="s">
-        <x:v>778</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="L83" s="10" t="s">
-        <x:v>778</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="M83" s="10" t="s">
-        <x:v>779</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="N83" s="10" t="s">
-        <x:v>780</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="O83" s="10" t="s">
-        <x:v>781</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="P83" s="10" t="s">
-        <x:v>782</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="Q83" s="10" t="s">
-        <x:v>783</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="R83" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S83" s="10" t="s">
-        <x:v>784</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="T83" s="10" t="s">
         <x:v>32</x:v>
@@ -9098,38 +9162,38 @@
         <x:v>45247.393287037</x:v>
       </x:c>
       <x:c r="D84" s="10" t="s">
-        <x:v>785</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="E84" s="10" t="s">
-        <x:v>786</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="F84" s="2">
         <x:v>45307.6422337963</x:v>
       </x:c>
       <x:c r="G84" s="10" t="s">
-        <x:v>786</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="H84" s="10" t="s">
-        <x:v>785</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="I84" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J84" s="10" t="s">
-        <x:v>787</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="K84" s="10" t="s">
-        <x:v>788</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="L84" s="10" t="s"/>
       <x:c r="M84" s="10" t="s">
-        <x:v>789</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="N84" s="10" t="s">
-        <x:v>790</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="O84" s="10" t="s">
-        <x:v>791</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="P84" s="10" t="s"/>
       <x:c r="Q84" s="10" t="s"/>
@@ -9137,7 +9201,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S84" s="10" t="s">
-        <x:v>792</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="T84" s="10" t="s">
         <x:v>32</x:v>
@@ -9154,42 +9218,42 @@
         <x:v>45247.3986111111</x:v>
       </x:c>
       <x:c r="D85" s="10" t="s">
-        <x:v>793</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="E85" s="10" t="s">
-        <x:v>794</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="F85" s="2"/>
       <x:c r="G85" s="10" t="s">
-        <x:v>795</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="H85" s="10" t="s">
-        <x:v>793</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="I85" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J85" s="10" t="s">
-        <x:v>796</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="K85" s="10" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="L85" s="10" t="s"/>
       <x:c r="M85" s="10" t="s">
-        <x:v>797</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="N85" s="10" t="s">
-        <x:v>798</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="O85" s="10" t="s">
-        <x:v>799</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="P85" s="10" t="s">
-        <x:v>800</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="Q85" s="10" t="s">
-        <x:v>801</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="R85" s="10" t="s">
         <x:v>71</x:v>
@@ -9208,50 +9272,50 @@
         <x:v>45247.4057638889</x:v>
       </x:c>
       <x:c r="D86" s="10" t="s">
-        <x:v>802</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="E86" s="10" t="s">
-        <x:v>803</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="F86" s="2">
-        <x:v>45303.6208912037</x:v>
+        <x:v>45310.7358101852</x:v>
       </x:c>
       <x:c r="G86" s="10" t="s">
-        <x:v>803</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="H86" s="10" t="s">
-        <x:v>802</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="I86" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J86" s="7" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="K86" s="10" t="s">
-        <x:v>804</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="L86" s="10" t="s"/>
       <x:c r="M86" s="10" t="s">
-        <x:v>805</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="N86" s="10" t="s">
-        <x:v>806</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="O86" s="10" t="s">
-        <x:v>807</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="P86" s="10" t="s">
-        <x:v>808</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="Q86" s="10" t="s">
-        <x:v>809</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="R86" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S86" s="10" t="s">
-        <x:v>810</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="T86" s="10" t="s">
         <x:v>32</x:v>
@@ -9268,17 +9332,19 @@
         <x:v>45247.4433333333</x:v>
       </x:c>
       <x:c r="D87" s="10" t="s">
-        <x:v>811</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="E87" s="10" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="F87" s="2"/>
+        <x:v>816</x:v>
+      </x:c>
+      <x:c r="F87" s="2">
+        <x:v>45310.4468981481</x:v>
+      </x:c>
       <x:c r="G87" s="10" t="s">
-        <x:v>812</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="H87" s="10" t="s">
-        <x:v>811</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="I87" s="10" t="s">
         <x:v>35</x:v>
@@ -9287,27 +9353,33 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K87" s="10" t="s">
-        <x:v>813</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="L87" s="10" t="s"/>
       <x:c r="M87" s="10" t="s">
-        <x:v>814</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="N87" s="10" t="s">
-        <x:v>815</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="O87" s="10" t="s">
-        <x:v>816</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="P87" s="10" t="s">
-        <x:v>817</x:v>
-      </x:c>
-      <x:c r="Q87" s="10" t="s"/>
+        <x:v>821</x:v>
+      </x:c>
+      <x:c r="Q87" s="10" t="s">
+        <x:v>822</x:v>
+      </x:c>
       <x:c r="R87" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="S87" s="10" t="s"/>
-      <x:c r="T87" s="10" t="s"/>
+      <x:c r="S87" s="10" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="T87" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="88" hidden="0">
       <x:c r="A88">
@@ -9320,50 +9392,50 @@
         <x:v>45247.456724537</x:v>
       </x:c>
       <x:c r="D88" s="10" t="s">
-        <x:v>818</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="E88" s="10" t="s">
-        <x:v>819</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="F88" s="2">
         <x:v>45307.6279166667</x:v>
       </x:c>
       <x:c r="G88" s="10" t="s">
-        <x:v>819</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="H88" s="10" t="s">
-        <x:v>818</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="I88" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J88" s="10" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="K88" s="10" t="s">
-        <x:v>820</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="L88" s="10" t="s"/>
       <x:c r="M88" s="10" t="s">
-        <x:v>821</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="N88" s="10" t="s">
-        <x:v>822</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="O88" s="10" t="s">
-        <x:v>823</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="P88" s="10" t="s">
-        <x:v>824</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="Q88" s="10" t="s">
-        <x:v>825</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="R88" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S88" s="10" t="s">
-        <x:v>826</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="T88" s="10" t="s">
         <x:v>32</x:v>
@@ -9380,38 +9452,38 @@
         <x:v>45247.462337963</x:v>
       </x:c>
       <x:c r="D89" s="10" t="s">
-        <x:v>827</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="E89" s="10" t="s">
-        <x:v>828</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="F89" s="2">
         <x:v>45300.5071759259</x:v>
       </x:c>
       <x:c r="G89" s="10" t="s">
-        <x:v>829</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="H89" s="10" t="s">
-        <x:v>827</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="I89" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J89" s="10" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="K89" s="10" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="L89" s="10" t="s"/>
       <x:c r="M89" s="10" t="s">
-        <x:v>830</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="N89" s="10" t="s">
-        <x:v>831</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="O89" s="10" t="s">
-        <x:v>832</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="P89" s="10" t="s"/>
       <x:c r="Q89" s="10" t="s"/>
@@ -9419,10 +9491,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S89" s="10" t="s">
-        <x:v>833</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="T89" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="90" hidden="0">
@@ -9436,50 +9508,50 @@
         <x:v>45247.4719328704</x:v>
       </x:c>
       <x:c r="D90" s="10" t="s">
-        <x:v>834</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="E90" s="10" t="s">
-        <x:v>835</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="F90" s="2">
         <x:v>45307.6727777778</x:v>
       </x:c>
       <x:c r="G90" s="10" t="s">
-        <x:v>835</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="H90" s="10" t="s">
-        <x:v>834</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="I90" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J90" s="10" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="K90" s="10" t="s">
-        <x:v>836</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="L90" s="10" t="s"/>
       <x:c r="M90" s="10" t="s">
-        <x:v>837</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="N90" s="10" t="s">
-        <x:v>838</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="O90" s="10" t="s">
-        <x:v>839</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="P90" s="10" t="s">
-        <x:v>840</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="Q90" s="10" t="s">
-        <x:v>841</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="R90" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S90" s="10" t="s">
-        <x:v>842</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="T90" s="10" t="s">
         <x:v>32</x:v>
@@ -9496,50 +9568,50 @@
         <x:v>45247.4734027778</x:v>
       </x:c>
       <x:c r="D91" s="10" t="s">
-        <x:v>843</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="E91" s="10" t="s">
-        <x:v>844</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="F91" s="2">
         <x:v>45300.5583449074</x:v>
       </x:c>
       <x:c r="G91" s="10" t="s">
-        <x:v>845</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="H91" s="10" t="s">
-        <x:v>843</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="I91" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J91" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K91" s="10" t="s">
-        <x:v>846</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="L91" s="10" t="s"/>
       <x:c r="M91" s="10" t="s">
-        <x:v>847</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="N91" s="10" t="s">
-        <x:v>848</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="O91" s="10" t="s">
-        <x:v>849</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="P91" s="10" t="s">
-        <x:v>850</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="Q91" s="10" t="s">
-        <x:v>851</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="R91" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S91" s="10" t="s">
-        <x:v>852</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="T91" s="10" t="s">
         <x:v>32</x:v>
@@ -9556,42 +9628,42 @@
         <x:v>45247.4735532407</x:v>
       </x:c>
       <x:c r="D92" s="10" t="s">
-        <x:v>853</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="E92" s="10" t="s">
-        <x:v>854</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="F92" s="2"/>
       <x:c r="G92" s="10" t="s">
-        <x:v>855</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="H92" s="10" t="s">
-        <x:v>853</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="I92" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J92" s="10" t="s">
-        <x:v>856</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="K92" s="10" t="s">
-        <x:v>857</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="L92" s="10" t="s"/>
       <x:c r="M92" s="10" t="s">
-        <x:v>858</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="N92" s="10" t="s">
-        <x:v>859</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="O92" s="10" t="s">
-        <x:v>860</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="P92" s="10" t="s">
-        <x:v>861</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="Q92" s="10" t="s">
-        <x:v>862</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="R92" s="10" t="s">
         <x:v>71</x:v>
@@ -9610,38 +9682,38 @@
         <x:v>45247.5034837963</x:v>
       </x:c>
       <x:c r="D93" s="10" t="s">
-        <x:v>863</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="E93" s="10" t="s">
-        <x:v>864</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="F93" s="2">
         <x:v>45299.5235648148</x:v>
       </x:c>
       <x:c r="G93" s="10" t="s">
-        <x:v>864</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="H93" s="10" t="s">
-        <x:v>863</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="I93" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J93" s="10" t="s">
-        <x:v>865</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="K93" s="10" t="s">
-        <x:v>866</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="L93" s="10" t="s"/>
       <x:c r="M93" s="10" t="s">
-        <x:v>867</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="N93" s="10" t="s">
-        <x:v>868</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="O93" s="10" t="s">
-        <x:v>869</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="P93" s="10" t="s"/>
       <x:c r="Q93" s="10" t="s"/>
@@ -9649,10 +9721,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S93" s="10" t="s">
-        <x:v>870</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="T93" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="94" hidden="0">
@@ -9666,39 +9738,39 @@
         <x:v>45247.5179398148</x:v>
       </x:c>
       <x:c r="D94" s="10" t="s">
-        <x:v>871</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="E94" s="10" t="s">
-        <x:v>872</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="F94" s="2"/>
       <x:c r="G94" s="10" t="s">
-        <x:v>873</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="H94" s="10" t="s">
-        <x:v>871</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="I94" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J94" s="10" t="s">
-        <x:v>767</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K94" s="10" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="L94" s="10" t="s"/>
       <x:c r="M94" s="10" t="s">
-        <x:v>874</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="N94" s="10" t="s">
-        <x:v>875</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="O94" s="10" t="s">
-        <x:v>876</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="P94" s="10" t="s">
-        <x:v>877</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="Q94" s="10" t="s"/>
       <x:c r="R94" s="10" t="s">
@@ -9718,38 +9790,38 @@
         <x:v>45247.5367708333</x:v>
       </x:c>
       <x:c r="D95" s="10" t="s">
-        <x:v>878</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="E95" s="10" t="s">
-        <x:v>879</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="F95" s="2">
         <x:v>45299.3695138889</x:v>
       </x:c>
       <x:c r="G95" s="10" t="s">
-        <x:v>879</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="H95" s="10" t="s">
-        <x:v>878</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="I95" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J95" s="10" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="K95" s="10" t="s">
-        <x:v>880</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="L95" s="10" t="s"/>
       <x:c r="M95" s="10" t="s">
-        <x:v>881</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="N95" s="10" t="s">
-        <x:v>882</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="O95" s="10" t="s">
-        <x:v>883</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="P95" s="10" t="s"/>
       <x:c r="Q95" s="10" t="s"/>
@@ -9757,7 +9829,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S95" s="10" t="s">
-        <x:v>884</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="T95" s="10" t="s">
         <x:v>32</x:v>
@@ -9774,40 +9846,40 @@
         <x:v>45247.5447685185</x:v>
       </x:c>
       <x:c r="D96" s="10" t="s">
-        <x:v>885</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="E96" s="10" t="s">
-        <x:v>886</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="F96" s="2">
         <x:v>45303.9379282407</x:v>
       </x:c>
       <x:c r="G96" s="10" t="s">
-        <x:v>887</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="H96" s="10" t="s">
-        <x:v>885</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="I96" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J96" s="10" t="s">
-        <x:v>888</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="K96" s="10" t="s">
-        <x:v>889</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="L96" s="10" t="s">
-        <x:v>889</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="M96" s="10" t="s">
-        <x:v>890</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="N96" s="10" t="s">
-        <x:v>891</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="O96" s="10" t="s">
-        <x:v>892</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="P96" s="10" t="s"/>
       <x:c r="Q96" s="10" t="s"/>
@@ -9815,7 +9887,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S96" s="10" t="s">
-        <x:v>893</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="T96" s="10" t="s">
         <x:v>32</x:v>
@@ -9832,53 +9904,53 @@
         <x:v>45247.5494907407</x:v>
       </x:c>
       <x:c r="D97" s="10" t="s">
-        <x:v>894</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="E97" s="10" t="s">
-        <x:v>895</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="F97" s="2">
         <x:v>45300.5089699074</x:v>
       </x:c>
       <x:c r="G97" s="10" t="s">
-        <x:v>895</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="H97" s="10" t="s">
-        <x:v>894</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="I97" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J97" s="10" t="s">
-        <x:v>896</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="K97" s="10" t="s">
-        <x:v>897</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="L97" s="10" t="s"/>
       <x:c r="M97" s="10" t="s">
-        <x:v>898</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="N97" s="10" t="s">
-        <x:v>899</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="O97" s="10" t="s">
-        <x:v>900</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="P97" s="10" t="s">
-        <x:v>901</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="Q97" s="10" t="s">
-        <x:v>902</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="R97" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S97" s="10" t="s">
-        <x:v>903</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="T97" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="98" hidden="0">
@@ -9892,36 +9964,36 @@
         <x:v>45247.5880092593</x:v>
       </x:c>
       <x:c r="D98" s="10" t="s">
-        <x:v>904</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="E98" s="10" t="s">
-        <x:v>905</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="F98" s="2"/>
       <x:c r="G98" s="10" t="s">
-        <x:v>905</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="H98" s="10" t="s">
-        <x:v>904</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="I98" s="10" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="J98" s="10" t="s">
-        <x:v>906</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="K98" s="10" t="s">
-        <x:v>907</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="L98" s="10" t="s"/>
       <x:c r="M98" s="10" t="s">
-        <x:v>908</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="N98" s="10" t="s">
-        <x:v>909</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="O98" s="10" t="s">
-        <x:v>910</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="P98" s="10" t="s"/>
       <x:c r="Q98" s="10" t="s"/>
@@ -9942,44 +10014,44 @@
         <x:v>45247.5969907407</x:v>
       </x:c>
       <x:c r="D99" s="10" t="s">
-        <x:v>911</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="E99" s="10" t="s">
-        <x:v>912</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="F99" s="2"/>
       <x:c r="G99" s="10" t="s">
-        <x:v>912</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="H99" s="10" t="s">
-        <x:v>911</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="I99" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J99" s="10" t="s">
-        <x:v>569</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="K99" s="10" t="s">
-        <x:v>913</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="L99" s="10" t="s">
-        <x:v>914</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="M99" s="10" t="s">
-        <x:v>915</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="N99" s="10" t="s">
-        <x:v>916</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="O99" s="10" t="s">
-        <x:v>917</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="P99" s="10" t="s">
-        <x:v>918</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="Q99" s="10" t="s">
-        <x:v>919</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="R99" s="10" t="s">
         <x:v>71</x:v>
@@ -9998,42 +10070,42 @@
         <x:v>45247.6238310185</x:v>
       </x:c>
       <x:c r="D100" s="10" t="s">
-        <x:v>920</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="E100" s="10" t="s">
-        <x:v>921</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="F100" s="2"/>
       <x:c r="G100" s="10" t="s">
-        <x:v>921</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="H100" s="10" t="s">
-        <x:v>920</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="I100" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J100" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K100" s="10" t="s">
-        <x:v>922</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="L100" s="10" t="s"/>
       <x:c r="M100" s="10" t="s">
-        <x:v>923</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="N100" s="10" t="s">
-        <x:v>924</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="O100" s="10" t="s">
-        <x:v>925</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="P100" s="10" t="s">
-        <x:v>926</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="Q100" s="10" t="s">
-        <x:v>927</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="R100" s="10" t="s">
         <x:v>30</x:v>
@@ -10052,50 +10124,50 @@
         <x:v>45247.648287037</x:v>
       </x:c>
       <x:c r="D101" s="10" t="s">
-        <x:v>928</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="E101" s="10" t="s">
-        <x:v>929</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="F101" s="2">
         <x:v>45300.4949189815</x:v>
       </x:c>
       <x:c r="G101" s="10" t="s">
-        <x:v>929</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="H101" s="10" t="s">
-        <x:v>928</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="I101" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J101" s="10" t="s">
-        <x:v>930</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="K101" s="10" t="s">
-        <x:v>931</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="L101" s="10" t="s"/>
       <x:c r="M101" s="10" t="s">
-        <x:v>932</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="N101" s="10" t="s">
-        <x:v>933</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="O101" s="10" t="s">
-        <x:v>934</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="P101" s="10" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="Q101" s="10" t="s">
-        <x:v>936</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="R101" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S101" s="10" t="s">
-        <x:v>937</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="T101" s="10" t="s">
         <x:v>32</x:v>
@@ -10112,50 +10184,50 @@
         <x:v>45247.6578125</x:v>
       </x:c>
       <x:c r="D102" s="10" t="s">
-        <x:v>938</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="E102" s="10" t="s">
-        <x:v>939</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="F102" s="2">
         <x:v>45302.3740277778</x:v>
       </x:c>
       <x:c r="G102" s="10" t="s">
-        <x:v>939</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="H102" s="10" t="s">
-        <x:v>938</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="I102" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J102" s="10" t="s">
-        <x:v>940</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="K102" s="10" t="s">
-        <x:v>941</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="L102" s="10" t="s"/>
       <x:c r="M102" s="10" t="s">
-        <x:v>942</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="N102" s="10" t="s">
-        <x:v>943</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="O102" s="10" t="s">
-        <x:v>944</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="P102" s="10" t="s">
-        <x:v>945</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="Q102" s="10" t="s">
-        <x:v>946</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="R102" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S102" s="10" t="s">
-        <x:v>947</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="T102" s="10" t="s">
         <x:v>32</x:v>
@@ -10172,19 +10244,19 @@
         <x:v>45247.6620601852</x:v>
       </x:c>
       <x:c r="D103" s="10" t="s">
-        <x:v>948</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="E103" s="10" t="s">
-        <x:v>949</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="F103" s="2">
         <x:v>45299.4291550926</x:v>
       </x:c>
       <x:c r="G103" s="10" t="s">
-        <x:v>950</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="H103" s="10" t="s">
-        <x:v>948</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="I103" s="10" t="s">
         <x:v>55</x:v>
@@ -10193,29 +10265,29 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="K103" s="10" t="s">
-        <x:v>951</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="L103" s="10" t="s"/>
       <x:c r="M103" s="10" t="s">
-        <x:v>952</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="N103" s="10" t="s">
-        <x:v>953</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="O103" s="10" t="s">
-        <x:v>954</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="P103" s="10" t="s">
-        <x:v>955</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="Q103" s="10" t="s">
-        <x:v>956</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="R103" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S103" s="10" t="s">
-        <x:v>957</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="T103" s="10" t="s">
         <x:v>32</x:v>
@@ -10232,53 +10304,53 @@
         <x:v>45247.6624652778</x:v>
       </x:c>
       <x:c r="D104" s="10" t="s">
-        <x:v>958</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="E104" s="10" t="s">
-        <x:v>959</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="F104" s="2">
-        <x:v>45299.4689930556</x:v>
+        <x:v>45308.4824305556</x:v>
       </x:c>
       <x:c r="G104" s="10" t="s">
-        <x:v>959</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="H104" s="10" t="s">
-        <x:v>958</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="I104" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J104" s="10" t="s">
-        <x:v>960</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="K104" s="10" t="s">
-        <x:v>961</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="L104" s="10" t="s"/>
       <x:c r="M104" s="10" t="s">
-        <x:v>962</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="N104" s="10" t="s">
-        <x:v>963</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="O104" s="10" t="s">
-        <x:v>964</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="P104" s="10" t="s">
-        <x:v>965</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="Q104" s="10" t="s">
-        <x:v>966</x:v>
+        <x:v>972</x:v>
       </x:c>
       <x:c r="R104" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S104" s="10" t="s">
-        <x:v>967</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="T104" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="105" hidden="0">
@@ -10292,48 +10364,54 @@
         <x:v>45247.664224537</x:v>
       </x:c>
       <x:c r="D105" s="10" t="s">
-        <x:v>968</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="E105" s="10" t="s">
-        <x:v>969</x:v>
-      </x:c>
-      <x:c r="F105" s="2"/>
+        <x:v>975</x:v>
+      </x:c>
+      <x:c r="F105" s="2">
+        <x:v>45310.6791898148</x:v>
+      </x:c>
       <x:c r="G105" s="10" t="s">
-        <x:v>969</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="H105" s="10" t="s">
-        <x:v>968</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="I105" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J105" s="10" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="K105" s="10" t="s">
-        <x:v>970</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="L105" s="10" t="s"/>
       <x:c r="M105" s="10" t="s">
-        <x:v>971</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="N105" s="10" t="s">
-        <x:v>972</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="O105" s="10" t="s">
-        <x:v>973</x:v>
+        <x:v>979</x:v>
       </x:c>
       <x:c r="P105" s="10" t="s">
-        <x:v>974</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="Q105" s="10" t="s">
-        <x:v>975</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="R105" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="S105" s="10" t="s"/>
-      <x:c r="T105" s="10" t="s"/>
+      <x:c r="S105" s="10" t="s">
+        <x:v>982</x:v>
+      </x:c>
+      <x:c r="T105" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="106" hidden="0">
       <x:c r="A106">
@@ -10346,48 +10424,54 @@
         <x:v>45247.6769444444</x:v>
       </x:c>
       <x:c r="D106" s="10" t="s">
-        <x:v>976</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="E106" s="10" t="s">
-        <x:v>977</x:v>
-      </x:c>
-      <x:c r="F106" s="2"/>
+        <x:v>984</x:v>
+      </x:c>
+      <x:c r="F106" s="2">
+        <x:v>45308.4330671296</x:v>
+      </x:c>
       <x:c r="G106" s="10" t="s">
-        <x:v>977</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="H106" s="10" t="s">
-        <x:v>976</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="I106" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J106" s="10" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="K106" s="10" t="s">
-        <x:v>978</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="L106" s="10" t="s"/>
       <x:c r="M106" s="10" t="s">
-        <x:v>979</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="N106" s="10" t="s">
-        <x:v>980</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="O106" s="10" t="s">
-        <x:v>981</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="P106" s="10" t="s">
-        <x:v>982</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="Q106" s="10" t="s">
-        <x:v>983</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="R106" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="S106" s="10" t="s"/>
-      <x:c r="T106" s="10" t="s"/>
+      <x:c r="S106" s="10" t="s">
+        <x:v>991</x:v>
+      </x:c>
+      <x:c r="T106" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="107" hidden="0">
       <x:c r="A107">
@@ -10400,50 +10484,50 @@
         <x:v>45247.682337963</x:v>
       </x:c>
       <x:c r="D107" s="10" t="s">
-        <x:v>984</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="E107" s="10" t="s">
-        <x:v>985</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="F107" s="2">
         <x:v>45306.8510185185</x:v>
       </x:c>
       <x:c r="G107" s="10" t="s">
-        <x:v>986</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="H107" s="10" t="s">
-        <x:v>984</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="I107" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J107" s="10" t="s">
-        <x:v>987</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="K107" s="10" t="s">
-        <x:v>988</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="L107" s="10" t="s"/>
       <x:c r="M107" s="10" t="s">
-        <x:v>989</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="N107" s="10" t="s">
-        <x:v>990</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="O107" s="10" t="s">
-        <x:v>991</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="P107" s="10" t="s">
-        <x:v>992</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="Q107" s="10" t="s">
-        <x:v>993</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="R107" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S107" s="10" t="s">
-        <x:v>994</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="T107" s="10" t="s">
         <x:v>32</x:v>
@@ -10460,38 +10544,38 @@
         <x:v>45247.6844791667</x:v>
       </x:c>
       <x:c r="D108" s="10" t="s">
-        <x:v>995</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="E108" s="10" t="s">
-        <x:v>996</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="F108" s="2">
-        <x:v>45303.6183680556</x:v>
+        <x:v>45310.3887615741</x:v>
       </x:c>
       <x:c r="G108" s="10" t="s">
-        <x:v>996</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="H108" s="10" t="s">
-        <x:v>995</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="I108" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J108" s="10" t="s">
-        <x:v>767</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K108" s="10" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="L108" s="10" t="s"/>
       <x:c r="M108" s="10" t="s">
-        <x:v>997</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="N108" s="10" t="s">
-        <x:v>998</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="O108" s="10" t="s">
-        <x:v>999</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="P108" s="10" t="s"/>
       <x:c r="Q108" s="10" t="s"/>
@@ -10499,7 +10583,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S108" s="10" t="s">
-        <x:v>1000</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="T108" s="10" t="s">
         <x:v>32</x:v>
@@ -10516,52 +10600,52 @@
         <x:v>45247.7084027778</x:v>
       </x:c>
       <x:c r="D109" s="10" t="s">
-        <x:v>1001</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="E109" s="10" t="s">
-        <x:v>1002</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="F109" s="2">
         <x:v>45307.6675694444</x:v>
       </x:c>
       <x:c r="G109" s="10" t="s">
-        <x:v>1003</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="H109" s="10" t="s">
-        <x:v>1001</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="I109" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J109" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K109" s="10" t="s">
-        <x:v>820</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="L109" s="10" t="s">
-        <x:v>618</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="M109" s="10" t="s">
-        <x:v>1004</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="N109" s="10" t="s">
-        <x:v>1005</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="O109" s="10" t="s">
-        <x:v>1006</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="P109" s="10" t="s">
-        <x:v>1007</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="Q109" s="10" t="s">
-        <x:v>1008</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="R109" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S109" s="10" t="s">
-        <x:v>1009</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="T109" s="10" t="s">
         <x:v>32</x:v>
@@ -10578,50 +10662,50 @@
         <x:v>45247.7088773148</x:v>
       </x:c>
       <x:c r="D110" s="10" t="s">
-        <x:v>1010</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="E110" s="10" t="s">
-        <x:v>1011</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="F110" s="2">
         <x:v>45303.5112847222</x:v>
       </x:c>
       <x:c r="G110" s="10" t="s">
-        <x:v>1011</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="H110" s="10" t="s">
-        <x:v>1010</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="I110" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J110" s="10" t="s">
-        <x:v>767</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K110" s="10" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="L110" s="10" t="s"/>
       <x:c r="M110" s="10" t="s">
-        <x:v>1012</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="N110" s="10" t="s">
-        <x:v>1013</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="O110" s="10" t="s">
-        <x:v>1014</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="P110" s="10" t="s">
-        <x:v>1015</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="Q110" s="10" t="s">
-        <x:v>1016</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="R110" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S110" s="10" t="s">
-        <x:v>1017</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="T110" s="10" t="s">
         <x:v>32</x:v>
@@ -10638,50 +10722,56 @@
         <x:v>45247.7262037037</x:v>
       </x:c>
       <x:c r="D111" s="10" t="s">
-        <x:v>1018</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="E111" s="10" t="s">
-        <x:v>1019</x:v>
-      </x:c>
-      <x:c r="F111" s="2"/>
+        <x:v>1027</x:v>
+      </x:c>
+      <x:c r="F111" s="2">
+        <x:v>45308.4464583333</x:v>
+      </x:c>
       <x:c r="G111" s="10" t="s">
-        <x:v>1020</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="H111" s="10" t="s">
-        <x:v>1018</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="I111" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J111" s="10" t="s">
-        <x:v>757</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="K111" s="10" t="s">
-        <x:v>692</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="L111" s="10" t="s">
-        <x:v>1021</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="M111" s="10" t="s">
-        <x:v>1022</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="N111" s="10" t="s">
-        <x:v>1023</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="O111" s="10" t="s">
-        <x:v>1024</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="P111" s="10" t="s">
-        <x:v>1025</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="Q111" s="10" t="s">
-        <x:v>1026</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="R111" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="S111" s="10" t="s"/>
-      <x:c r="T111" s="10" t="s"/>
+      <x:c r="S111" s="10" t="s">
+        <x:v>1035</x:v>
+      </x:c>
+      <x:c r="T111" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="112" hidden="0">
       <x:c r="A112">
@@ -10694,38 +10784,38 @@
         <x:v>45247.7305208333</x:v>
       </x:c>
       <x:c r="D112" s="10" t="s">
-        <x:v>1027</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="E112" s="10" t="s">
-        <x:v>1028</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="F112" s="2"/>
       <x:c r="G112" s="10" t="s">
-        <x:v>1028</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="H112" s="10" t="s">
-        <x:v>1027</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="I112" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J112" s="10" t="s">
-        <x:v>1029</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="K112" s="10" t="s">
-        <x:v>1030</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="L112" s="10" t="s">
-        <x:v>1031</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="M112" s="10" t="s">
-        <x:v>1032</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="N112" s="10" t="s">
-        <x:v>1033</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="O112" s="10" t="s">
-        <x:v>1034</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="P112" s="10" t="s"/>
       <x:c r="Q112" s="10" t="s"/>
@@ -10746,38 +10836,38 @@
         <x:v>45247.7318402778</x:v>
       </x:c>
       <x:c r="D113" s="10" t="s">
-        <x:v>1035</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="E113" s="10" t="s">
-        <x:v>1036</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="F113" s="2">
         <x:v>45300.9547685185</x:v>
       </x:c>
       <x:c r="G113" s="10" t="s">
-        <x:v>1036</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="H113" s="10" t="s">
-        <x:v>1035</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="I113" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J113" s="10" t="s">
-        <x:v>1037</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="K113" s="10" t="s">
-        <x:v>1038</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="L113" s="10" t="s"/>
       <x:c r="M113" s="10" t="s">
-        <x:v>1039</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="N113" s="10" t="s">
-        <x:v>1040</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="O113" s="10" t="s">
-        <x:v>1041</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="P113" s="10" t="s"/>
       <x:c r="Q113" s="10" t="s"/>
@@ -10785,7 +10875,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S113" s="10" t="s">
-        <x:v>1042</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="T113" s="10" t="s">
         <x:v>32</x:v>
@@ -10802,50 +10892,50 @@
         <x:v>45247.7443055556</x:v>
       </x:c>
       <x:c r="D114" s="10" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="E114" s="10" t="s">
-        <x:v>1044</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="F114" s="2">
         <x:v>45301.5876967593</x:v>
       </x:c>
       <x:c r="G114" s="10" t="s">
-        <x:v>1044</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="H114" s="10" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="I114" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J114" s="10" t="s">
-        <x:v>767</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K114" s="10" t="s">
-        <x:v>1045</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="L114" s="10" t="s"/>
       <x:c r="M114" s="10" t="s">
-        <x:v>1046</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="N114" s="10" t="s">
-        <x:v>1047</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="O114" s="10" t="s">
-        <x:v>1048</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="P114" s="10" t="s">
-        <x:v>1049</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="Q114" s="10" t="s">
-        <x:v>1050</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="R114" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S114" s="10" t="s">
-        <x:v>1051</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="T114" s="10" t="s">
         <x:v>32</x:v>
@@ -10862,44 +10952,50 @@
         <x:v>45247.7639930556</x:v>
       </x:c>
       <x:c r="D115" s="10" t="s">
-        <x:v>1052</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="E115" s="10" t="s">
-        <x:v>1053</x:v>
-      </x:c>
-      <x:c r="F115" s="2"/>
+        <x:v>1062</x:v>
+      </x:c>
+      <x:c r="F115" s="2">
+        <x:v>45308.736400463</x:v>
+      </x:c>
       <x:c r="G115" s="10" t="s">
-        <x:v>1053</x:v>
+        <x:v>1062</x:v>
       </x:c>
       <x:c r="H115" s="10" t="s">
-        <x:v>1052</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="I115" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J115" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K115" s="10" t="s">
-        <x:v>1054</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="L115" s="10" t="s"/>
       <x:c r="M115" s="10" t="s">
-        <x:v>1055</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="N115" s="10" t="s">
-        <x:v>1056</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="O115" s="10" t="s">
-        <x:v>1057</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="P115" s="10" t="s"/>
       <x:c r="Q115" s="10" t="s"/>
       <x:c r="R115" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="S115" s="10" t="s"/>
-      <x:c r="T115" s="10" t="s"/>
+      <x:c r="S115" s="10" t="s">
+        <x:v>1067</x:v>
+      </x:c>
+      <x:c r="T115" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="116" hidden="0">
       <x:c r="A116">
@@ -10912,50 +11008,50 @@
         <x:v>45247.7928125</x:v>
       </x:c>
       <x:c r="D116" s="10" t="s">
-        <x:v>1058</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="E116" s="10" t="s">
-        <x:v>1059</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="F116" s="2">
         <x:v>45304.8303240741</x:v>
       </x:c>
       <x:c r="G116" s="10" t="s">
-        <x:v>1059</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="H116" s="10" t="s">
-        <x:v>1058</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="I116" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J116" s="10" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="K116" s="10" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="L116" s="10" t="s"/>
       <x:c r="M116" s="10" t="s">
-        <x:v>1060</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="N116" s="10" t="s">
-        <x:v>1061</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="O116" s="10" t="s">
-        <x:v>1062</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="P116" s="10" t="s">
-        <x:v>1063</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="Q116" s="10" t="s">
-        <x:v>1064</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="R116" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S116" s="10" t="s">
-        <x:v>1065</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="T116" s="10" t="s">
         <x:v>32</x:v>
@@ -10972,55 +11068,55 @@
         <x:v>45247.8746643519</x:v>
       </x:c>
       <x:c r="D117" s="10" t="s">
-        <x:v>1066</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="E117" s="10" t="s">
-        <x:v>1067</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="F117" s="2">
         <x:v>45303.4652546296</x:v>
       </x:c>
       <x:c r="G117" s="10" t="s">
-        <x:v>1068</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="H117" s="10" t="s">
-        <x:v>1066</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="I117" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J117" s="10" t="s">
-        <x:v>1069</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="K117" s="10" t="s">
-        <x:v>1070</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="L117" s="10" t="s">
-        <x:v>1070</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="M117" s="10" t="s">
-        <x:v>1071</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="N117" s="10" t="s">
-        <x:v>1072</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="O117" s="10" t="s">
-        <x:v>1073</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="P117" s="10" t="s">
-        <x:v>1074</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="Q117" s="10" t="s">
-        <x:v>1075</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="R117" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S117" s="10" t="s">
-        <x:v>1076</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="T117" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="118" hidden="0">
@@ -11034,50 +11130,50 @@
         <x:v>45247.8778935185</x:v>
       </x:c>
       <x:c r="D118" s="10" t="s">
-        <x:v>1077</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="E118" s="10" t="s">
-        <x:v>1078</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="F118" s="2">
         <x:v>45303.4733680556</x:v>
       </x:c>
       <x:c r="G118" s="10" t="s">
-        <x:v>1079</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="H118" s="10" t="s">
-        <x:v>1077</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="I118" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J118" s="10" t="s">
-        <x:v>1080</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="K118" s="10" t="s">
-        <x:v>1081</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="L118" s="10" t="s"/>
       <x:c r="M118" s="10" t="s">
-        <x:v>1082</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="N118" s="10" t="s">
-        <x:v>1083</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="O118" s="10" t="s">
-        <x:v>1084</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="P118" s="10" t="s">
-        <x:v>1085</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="Q118" s="10" t="s">
-        <x:v>1086</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="R118" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S118" s="10" t="s">
-        <x:v>1087</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="T118" s="10" t="s">
         <x:v>32</x:v>
@@ -11094,50 +11190,50 @@
         <x:v>45247.894837963</x:v>
       </x:c>
       <x:c r="D119" s="10" t="s">
-        <x:v>1088</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="E119" s="10" t="s">
-        <x:v>1089</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="F119" s="2">
         <x:v>45308.3818518519</x:v>
       </x:c>
       <x:c r="G119" s="10" t="s">
-        <x:v>1089</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="H119" s="10" t="s">
-        <x:v>1088</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="I119" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J119" s="10" t="s">
-        <x:v>1090</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="K119" s="10" t="s">
-        <x:v>1091</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="L119" s="10" t="s"/>
       <x:c r="M119" s="10" t="s">
-        <x:v>1092</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="N119" s="10" t="s">
-        <x:v>1093</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="O119" s="10" t="s">
-        <x:v>1094</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="P119" s="10" t="s">
-        <x:v>1095</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="Q119" s="10" t="s">
-        <x:v>1096</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="R119" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S119" s="10" t="s">
-        <x:v>1097</x:v>
+        <x:v>1107</x:v>
       </x:c>
       <x:c r="T119" s="10" t="s">
         <x:v>32</x:v>
@@ -11154,50 +11250,50 @@
         <x:v>45247.9276736111</x:v>
       </x:c>
       <x:c r="D120" s="10" t="s">
-        <x:v>1098</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="E120" s="10" t="s">
-        <x:v>1099</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="F120" s="2">
-        <x:v>45300.4943055556</x:v>
+        <x:v>45309.6398263889</x:v>
       </x:c>
       <x:c r="G120" s="10" t="s">
-        <x:v>1100</x:v>
+        <x:v>1110</x:v>
       </x:c>
       <x:c r="H120" s="10" t="s">
-        <x:v>1098</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="I120" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J120" s="10" t="s">
-        <x:v>710</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="K120" s="10" t="s">
-        <x:v>1101</x:v>
+        <x:v>1111</x:v>
       </x:c>
       <x:c r="L120" s="10" t="s"/>
       <x:c r="M120" s="10" t="s">
-        <x:v>1102</x:v>
+        <x:v>1112</x:v>
       </x:c>
       <x:c r="N120" s="10" t="s">
-        <x:v>1103</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="O120" s="10" t="s">
-        <x:v>1104</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="P120" s="10" t="s">
-        <x:v>1105</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="Q120" s="10" t="s">
-        <x:v>1106</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="R120" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S120" s="10" t="s">
-        <x:v>1107</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="T120" s="10" t="s">
         <x:v>32</x:v>
@@ -11214,36 +11310,36 @@
         <x:v>45247.9620023148</x:v>
       </x:c>
       <x:c r="D121" s="10" t="s">
-        <x:v>1108</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="E121" s="10" t="s">
-        <x:v>1109</x:v>
+        <x:v>1119</x:v>
       </x:c>
       <x:c r="F121" s="2"/>
       <x:c r="G121" s="10" t="s">
-        <x:v>1110</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="H121" s="10" t="s">
-        <x:v>1108</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="I121" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J121" s="10" t="s">
-        <x:v>1111</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="K121" s="10" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="L121" s="10" t="s"/>
       <x:c r="M121" s="10" t="s">
-        <x:v>1112</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="N121" s="10" t="s">
-        <x:v>1113</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="O121" s="10" t="s">
-        <x:v>1114</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="P121" s="10" t="s"/>
       <x:c r="Q121" s="10" t="s"/>
@@ -11264,53 +11360,53 @@
         <x:v>45248.1603472222</x:v>
       </x:c>
       <x:c r="D122" s="10" t="s">
-        <x:v>1115</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="E122" s="10" t="s">
-        <x:v>1116</x:v>
+        <x:v>1126</x:v>
       </x:c>
       <x:c r="F122" s="2">
         <x:v>45303.7901273148</x:v>
       </x:c>
       <x:c r="G122" s="10" t="s">
-        <x:v>1116</x:v>
+        <x:v>1126</x:v>
       </x:c>
       <x:c r="H122" s="10" t="s">
-        <x:v>1115</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="I122" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J122" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K122" s="10" t="s">
-        <x:v>1117</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="L122" s="10" t="s"/>
       <x:c r="M122" s="10" t="s">
-        <x:v>1118</x:v>
+        <x:v>1128</x:v>
       </x:c>
       <x:c r="N122" s="10" t="s">
-        <x:v>1119</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="O122" s="10" t="s">
-        <x:v>1120</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="P122" s="10" t="s">
-        <x:v>1121</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="Q122" s="10" t="s">
-        <x:v>1122</x:v>
+        <x:v>1132</x:v>
       </x:c>
       <x:c r="R122" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="S122" s="10" t="s">
-        <x:v>1123</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="T122" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="123" hidden="0">
@@ -11324,50 +11420,50 @@
         <x:v>45250.478125</x:v>
       </x:c>
       <x:c r="D123" s="10" t="s">
-        <x:v>1124</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="E123" s="10" t="s">
-        <x:v>1125</x:v>
+        <x:v>1135</x:v>
       </x:c>
       <x:c r="F123" s="2">
         <x:v>45299.6027662037</x:v>
       </x:c>
       <x:c r="G123" s="10" t="s">
-        <x:v>1125</x:v>
+        <x:v>1135</x:v>
       </x:c>
       <x:c r="H123" s="10" t="s">
-        <x:v>1124</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="I123" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="J123" s="10" t="s">
-        <x:v>767</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K123" s="10" t="s">
-        <x:v>1126</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="L123" s="10" t="s"/>
       <x:c r="M123" s="10" t="s">
-        <x:v>1127</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="N123" s="10" t="s">
-        <x:v>1128</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="O123" s="10" t="s">
-        <x:v>1129</x:v>
+        <x:v>1139</x:v>
       </x:c>
       <x:c r="P123" s="10" t="s">
-        <x:v>1130</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="Q123" s="10" t="s">
-        <x:v>1131</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="R123" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S123" s="10" t="s">
-        <x:v>1132</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="T123" s="10" t="s">
         <x:v>32</x:v>
@@ -11384,36 +11480,36 @@
         <x:v>45250.5319444444</x:v>
       </x:c>
       <x:c r="D124" s="10" t="s">
-        <x:v>1133</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="E124" s="10" t="s">
-        <x:v>1134</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="F124" s="2"/>
       <x:c r="G124" s="10" t="s">
-        <x:v>1135</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="H124" s="10" t="s">
-        <x:v>1133</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="I124" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J124" s="10" t="s">
-        <x:v>757</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="K124" s="10" t="s">
-        <x:v>1136</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="L124" s="10" t="s"/>
       <x:c r="M124" s="10" t="s">
-        <x:v>1137</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="N124" s="10" t="s">
-        <x:v>1138</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="O124" s="10" t="s">
-        <x:v>1139</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="P124" s="10" t="s"/>
       <x:c r="Q124" s="10" t="s"/>
@@ -11434,38 +11530,38 @@
         <x:v>45250.6602546296</x:v>
       </x:c>
       <x:c r="D125" s="10" t="s">
-        <x:v>1140</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="E125" s="10" t="s">
-        <x:v>1141</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="F125" s="2">
         <x:v>45307.6474421296</x:v>
       </x:c>
       <x:c r="G125" s="10" t="s">
-        <x:v>1141</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="H125" s="10" t="s">
-        <x:v>1140</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="I125" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J125" s="10" t="s">
-        <x:v>1090</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="K125" s="10" t="s">
-        <x:v>1142</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="L125" s="10" t="s"/>
       <x:c r="M125" s="10" t="s">
-        <x:v>1143</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="N125" s="10" t="s">
-        <x:v>1144</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="O125" s="10" t="s">
-        <x:v>1145</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="P125" s="10" t="s"/>
       <x:c r="Q125" s="10" t="s"/>
@@ -11473,7 +11569,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S125" s="10" t="s">
-        <x:v>1146</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="T125" s="10" t="s">
         <x:v>32</x:v>
@@ -11490,44 +11586,44 @@
         <x:v>45251.5306134259</x:v>
       </x:c>
       <x:c r="D126" s="10" t="s">
-        <x:v>1147</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="E126" s="10" t="s">
-        <x:v>1148</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="F126" s="2"/>
       <x:c r="G126" s="10" t="s">
-        <x:v>1149</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="H126" s="10" t="s">
-        <x:v>1147</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="I126" s="10" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J126" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K126" s="10" t="s">
-        <x:v>1150</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="L126" s="10" t="s">
-        <x:v>1151</x:v>
+        <x:v>1161</x:v>
       </x:c>
       <x:c r="M126" s="10" t="s">
-        <x:v>1152</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="N126" s="10" t="s">
-        <x:v>1153</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="O126" s="10" t="s">
-        <x:v>1154</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="P126" s="10" t="s">
-        <x:v>1155</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="Q126" s="10" t="s">
-        <x:v>1156</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="R126" s="10" t="s">
         <x:v>30</x:v>
@@ -11546,53 +11642,53 @@
         <x:v>45251.5543518519</x:v>
       </x:c>
       <x:c r="D127" s="10" t="s">
-        <x:v>1157</x:v>
+        <x:v>1167</x:v>
       </x:c>
       <x:c r="E127" s="10" t="s">
-        <x:v>1158</x:v>
+        <x:v>1168</x:v>
       </x:c>
       <x:c r="F127" s="2">
         <x:v>45307.5459722222</x:v>
       </x:c>
       <x:c r="G127" s="10" t="s">
-        <x:v>1159</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="H127" s="10" t="s">
-        <x:v>1157</x:v>
+        <x:v>1167</x:v>
       </x:c>
       <x:c r="I127" s="10" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="J127" s="10" t="s">
-        <x:v>1160</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="K127" s="10" t="s">
-        <x:v>1161</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="L127" s="10" t="s"/>
       <x:c r="M127" s="10" t="s">
-        <x:v>1162</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="N127" s="10" t="s">
-        <x:v>1163</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="O127" s="10" t="s">
-        <x:v>1164</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="P127" s="10" t="s">
-        <x:v>1165</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="Q127" s="10" t="s">
-        <x:v>1166</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="R127" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S127" s="10" t="s">
-        <x:v>1167</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="T127" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="128" hidden="0">
@@ -11606,50 +11702,50 @@
         <x:v>45251.7044907407</x:v>
       </x:c>
       <x:c r="D128" s="10" t="s">
-        <x:v>1168</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="E128" s="10" t="s">
-        <x:v>1169</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="F128" s="2">
-        <x:v>45300.6463541667</x:v>
+        <x:v>45308.6201967593</x:v>
       </x:c>
       <x:c r="G128" s="10" t="s">
-        <x:v>1169</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="H128" s="10" t="s">
-        <x:v>1168</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="I128" s="10" t="s">
-        <x:v>1170</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J128" s="10" t="s">
-        <x:v>1171</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="K128" s="10" t="s">
-        <x:v>1172</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="L128" s="10" t="s"/>
       <x:c r="M128" s="10" t="s">
-        <x:v>1173</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="N128" s="10" t="s">
-        <x:v>1174</x:v>
+        <x:v>1183</x:v>
       </x:c>
       <x:c r="O128" s="10" t="s">
-        <x:v>1175</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="P128" s="10" t="s">
-        <x:v>1176</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="Q128" s="10" t="s">
-        <x:v>1177</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="R128" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S128" s="10" t="s">
-        <x:v>1178</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="T128" s="10" t="s">
         <x:v>32</x:v>
@@ -11666,50 +11762,50 @@
         <x:v>45252.597337963</x:v>
       </x:c>
       <x:c r="D129" s="10" t="s">
-        <x:v>1179</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="E129" s="10" t="s">
-        <x:v>1180</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="F129" s="2">
         <x:v>45303.6995023148</x:v>
       </x:c>
       <x:c r="G129" s="10" t="s">
-        <x:v>1180</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="H129" s="10" t="s">
-        <x:v>1179</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="I129" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J129" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K129" s="10" t="s">
-        <x:v>683</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="L129" s="10" t="s"/>
       <x:c r="M129" s="10" t="s">
-        <x:v>1181</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="N129" s="10" t="s">
-        <x:v>1182</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="O129" s="10" t="s">
-        <x:v>1183</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="P129" s="10" t="s">
-        <x:v>1184</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="Q129" s="10" t="s">
-        <x:v>1185</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="R129" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S129" s="10" t="s">
-        <x:v>1186</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="T129" s="10" t="s">
         <x:v>32</x:v>
@@ -11726,38 +11822,38 @@
         <x:v>45252.6137152778</x:v>
       </x:c>
       <x:c r="D130" s="10" t="s">
-        <x:v>1187</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="E130" s="10" t="s">
-        <x:v>1188</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="F130" s="2">
         <x:v>45300.7571759259</x:v>
       </x:c>
       <x:c r="G130" s="10" t="s">
-        <x:v>1188</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="H130" s="10" t="s">
-        <x:v>1187</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="I130" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J130" s="10" t="s">
-        <x:v>1189</x:v>
+        <x:v>1198</x:v>
       </x:c>
       <x:c r="K130" s="10" t="s">
-        <x:v>1190</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="L130" s="10" t="s"/>
       <x:c r="M130" s="10" t="s">
-        <x:v>1191</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="N130" s="10" t="s">
-        <x:v>1192</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="O130" s="10" t="s">
-        <x:v>1193</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="P130" s="10" t="s"/>
       <x:c r="Q130" s="10" t="s"/>
@@ -11765,7 +11861,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S130" s="10" t="s">
-        <x:v>1194</x:v>
+        <x:v>1203</x:v>
       </x:c>
       <x:c r="T130" s="10" t="s">
         <x:v>32</x:v>
@@ -11782,50 +11878,50 @@
         <x:v>45254.6999074074</x:v>
       </x:c>
       <x:c r="D131" s="10" t="s">
-        <x:v>1195</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="E131" s="10" t="s">
-        <x:v>1196</x:v>
+        <x:v>1205</x:v>
       </x:c>
       <x:c r="F131" s="2">
         <x:v>45300.5136111111</x:v>
       </x:c>
       <x:c r="G131" s="10" t="s">
-        <x:v>1196</x:v>
+        <x:v>1205</x:v>
       </x:c>
       <x:c r="H131" s="10" t="s">
-        <x:v>1195</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="I131" s="10" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="J131" s="10" t="s">
-        <x:v>1197</x:v>
+        <x:v>1206</x:v>
       </x:c>
       <x:c r="K131" s="10" t="s">
-        <x:v>1198</x:v>
+        <x:v>1207</x:v>
       </x:c>
       <x:c r="L131" s="10" t="s"/>
       <x:c r="M131" s="10" t="s">
-        <x:v>1199</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="N131" s="10" t="s">
-        <x:v>1200</x:v>
+        <x:v>1209</x:v>
       </x:c>
       <x:c r="O131" s="10" t="s">
-        <x:v>1201</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="P131" s="10" t="s">
-        <x:v>1202</x:v>
+        <x:v>1211</x:v>
       </x:c>
       <x:c r="Q131" s="10" t="s">
-        <x:v>1203</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="R131" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S131" s="10" t="s">
-        <x:v>1204</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="T131" s="10" t="s">
         <x:v>32</x:v>
@@ -11842,17 +11938,17 @@
         <x:v>45259.6701273148</x:v>
       </x:c>
       <x:c r="D132" s="10" t="s">
-        <x:v>1205</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="E132" s="10" t="s">
-        <x:v>1206</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="F132" s="2"/>
       <x:c r="G132" s="10" t="s">
-        <x:v>1206</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="H132" s="10" t="s">
-        <x:v>1205</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="I132" s="10" t="s">
         <x:v>22</x:v>
@@ -11861,17 +11957,17 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K132" s="10" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="L132" s="10" t="s"/>
       <x:c r="M132" s="10" t="s">
-        <x:v>1207</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="N132" s="10" t="s">
-        <x:v>1208</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="O132" s="10" t="s">
-        <x:v>1209</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="P132" s="10" t="s"/>
       <x:c r="Q132" s="10" t="s"/>
@@ -11892,51 +11988,53 @@
         <x:v>45267.6642476852</x:v>
       </x:c>
       <x:c r="D133" s="10" t="s">
-        <x:v>1210</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="E133" s="10" t="s">
-        <x:v>1211</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="F133" s="2">
-        <x:v>45303.4558449074</x:v>
+        <x:v>45308.4748611111</x:v>
       </x:c>
       <x:c r="G133" s="10" t="s">
-        <x:v>1212</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="H133" s="10" t="s">
-        <x:v>1210</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="I133" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J133" s="10" t="s">
-        <x:v>1213</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="K133" s="10" t="s">
-        <x:v>1214</x:v>
+        <x:v>1223</x:v>
       </x:c>
       <x:c r="L133" s="10" t="s"/>
       <x:c r="M133" s="10" t="s">
-        <x:v>1215</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="N133" s="10" t="s">
-        <x:v>1216</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="O133" s="10" t="s">
-        <x:v>1217</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="P133" s="10" t="s">
-        <x:v>1218</x:v>
-      </x:c>
-      <x:c r="Q133" s="10" t="s"/>
+        <x:v>1227</x:v>
+      </x:c>
+      <x:c r="Q133" s="10" t="s">
+        <x:v>1228</x:v>
+      </x:c>
       <x:c r="R133" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S133" s="10" t="s">
-        <x:v>1219</x:v>
+        <x:v>1229</x:v>
       </x:c>
       <x:c r="T133" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="134" hidden="0">
@@ -11950,42 +12048,42 @@
         <x:v>45267.9442013889</x:v>
       </x:c>
       <x:c r="D134" s="10" t="s">
-        <x:v>1220</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="E134" s="10" t="s">
-        <x:v>1221</x:v>
+        <x:v>1231</x:v>
       </x:c>
       <x:c r="F134" s="2"/>
       <x:c r="G134" s="10" t="s">
-        <x:v>1221</x:v>
+        <x:v>1231</x:v>
       </x:c>
       <x:c r="H134" s="10" t="s">
-        <x:v>1220</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="I134" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J134" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K134" s="10" t="s">
-        <x:v>1222</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="L134" s="10" t="s"/>
       <x:c r="M134" s="10" t="s">
-        <x:v>1223</x:v>
+        <x:v>1233</x:v>
       </x:c>
       <x:c r="N134" s="10" t="s">
-        <x:v>1224</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="O134" s="10" t="s">
-        <x:v>1225</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="P134" s="10" t="s">
-        <x:v>1226</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="Q134" s="10" t="s">
-        <x:v>1227</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="R134" s="10" t="s">
         <x:v>30</x:v>
@@ -12004,53 +12102,53 @@
         <x:v>45268.5514467593</x:v>
       </x:c>
       <x:c r="D135" s="10" t="s">
-        <x:v>1228</x:v>
+        <x:v>1238</x:v>
       </x:c>
       <x:c r="E135" s="10" t="s">
-        <x:v>1229</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="F135" s="2">
-        <x:v>45299.4879050926</x:v>
+        <x:v>45309.5087268518</x:v>
       </x:c>
       <x:c r="G135" s="10" t="s">
-        <x:v>1229</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="H135" s="10" t="s">
-        <x:v>1228</x:v>
+        <x:v>1238</x:v>
       </x:c>
       <x:c r="I135" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J135" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="K135" s="10" t="s">
-        <x:v>1230</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="L135" s="10" t="s"/>
       <x:c r="M135" s="10" t="s">
-        <x:v>1231</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="N135" s="10" t="s">
-        <x:v>1232</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="O135" s="10" t="s">
-        <x:v>1233</x:v>
+        <x:v>1243</x:v>
       </x:c>
       <x:c r="P135" s="10" t="s">
-        <x:v>1234</x:v>
+        <x:v>1244</x:v>
       </x:c>
       <x:c r="Q135" s="10" t="s">
-        <x:v>1235</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="R135" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S135" s="10" t="s">
-        <x:v>1236</x:v>
+        <x:v>1246</x:v>
       </x:c>
       <x:c r="T135" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="136" hidden="0">
@@ -12064,50 +12162,50 @@
         <x:v>45268.5756481481</x:v>
       </x:c>
       <x:c r="D136" s="10" t="s">
-        <x:v>1237</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="E136" s="10" t="s">
-        <x:v>1238</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="F136" s="2">
         <x:v>45299.4368287037</x:v>
       </x:c>
       <x:c r="G136" s="10" t="s">
-        <x:v>1238</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="H136" s="10" t="s">
-        <x:v>1237</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="I136" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J136" s="10" t="s">
-        <x:v>1239</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="K136" s="10" t="s">
-        <x:v>1190</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="L136" s="10" t="s"/>
       <x:c r="M136" s="10" t="s">
-        <x:v>1240</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="N136" s="10" t="s">
-        <x:v>1241</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="O136" s="10" t="s">
-        <x:v>1242</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="P136" s="10" t="s">
-        <x:v>1243</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="Q136" s="10" t="s">
-        <x:v>1244</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="R136" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S136" s="10" t="s">
-        <x:v>1245</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="T136" s="10" t="s">
         <x:v>32</x:v>
@@ -12124,38 +12222,38 @@
         <x:v>45268.695462963</x:v>
       </x:c>
       <x:c r="D137" s="10" t="s">
-        <x:v>1246</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="E137" s="10" t="s">
-        <x:v>1247</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="F137" s="2">
         <x:v>45303.7058333333</x:v>
       </x:c>
       <x:c r="G137" s="10" t="s">
-        <x:v>1247</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="H137" s="10" t="s">
-        <x:v>1246</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="I137" s="10" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J137" s="10" t="s">
-        <x:v>1248</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="K137" s="10" t="s">
-        <x:v>1249</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="L137" s="10" t="s"/>
       <x:c r="M137" s="10" t="s">
-        <x:v>1250</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="N137" s="10" t="s">
-        <x:v>1251</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="O137" s="10" t="s">
-        <x:v>1252</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="P137" s="10" t="s"/>
       <x:c r="Q137" s="10" t="s"/>
@@ -12163,7 +12261,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S137" s="10" t="s">
-        <x:v>1253</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="T137" s="10" t="s">
         <x:v>32</x:v>
@@ -12180,60 +12278,60 @@
         <x:v>45303.995787037</x:v>
       </x:c>
       <x:c r="D138" s="10" t="s">
-        <x:v>1254</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="E138" s="10" t="s">
-        <x:v>1255</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="F138" s="2">
         <x:v>45304.9828240741</x:v>
       </x:c>
       <x:c r="G138" s="10" t="s">
-        <x:v>1256</x:v>
+        <x:v>1266</x:v>
       </x:c>
       <x:c r="H138" s="10" t="s">
-        <x:v>1254</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="I138" s="10" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="J138" s="10" t="s">
-        <x:v>1257</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="K138" s="10" t="s">
-        <x:v>1258</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="L138" s="10" t="s"/>
       <x:c r="M138" s="10" t="s">
-        <x:v>1259</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="N138" s="10" t="s">
-        <x:v>1260</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="O138" s="10" t="s">
-        <x:v>1261</x:v>
+        <x:v>1271</x:v>
       </x:c>
       <x:c r="P138" s="10" t="s">
-        <x:v>1262</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="Q138" s="10" t="s">
-        <x:v>1263</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="R138" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="S138" s="10" t="s">
-        <x:v>1264</x:v>
+        <x:v>1274</x:v>
       </x:c>
       <x:c r="T138" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rbb82defc76af480a"/>
+    <x:tablePart r:id="Rdc910c7f64bf45f2"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/responses.xlsx
+++ b/responses.xlsx
@@ -2425,7 +2425,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B4E179A0B-9F2A-4544-8011-C98850F365D6%7D&amp;file=Refs_SPritzl_Stefanie%20Pritzl.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BC8624DD9-05EF-4093-986A-4B66149D4A6F%7D&amp;file=bookletDebye_description_SPritzl_Stefanie%20Pritzl.doc&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B856906CD-48ED-4210-96E4-BEED26E0E551%7D&amp;file=references_template-2_Alptug%20Ulug%C3%B6l.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B6FB4DB87-9CC7-4C27-9645-D5E18A4310B2%7D&amp;file=au%20booklet%20Debye%202%201_Alptug%20Ulug%C3%B6l.doc&amp;action=default&amp;mobileredirect=true</t>
+    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B6FB4DB87-9CC7-4C27-9645-D5E18A4310B2%7D&amp;file=au%20booklet%20Debye%202%201_Alptug%20Ulug%C3%B6l.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0586CBF4-6898-4B1B-936D-F7C7A1E9187D%7D&amp;file=references-AU_Alptug%20Ulug%C3%B6l.xlsx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B365A71D8-E0C5-4B62-A77C-D117EA514519%7D&amp;file=Booklet%20Debye_AV_2023_project_description_Auke%20Vlasblom.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B951DA361-59E8-424D-ABF9-8A1C60CE05EE%7D&amp;file=Booklet%20Debye_AV_2023_references_Auke%20Vlasblom.xlsx&amp;action=default&amp;mobileredirect=true</t>
@@ -2464,7 +2464,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B560CCAED-17D3-43B3-B310-014FA38E4F10%7D&amp;file=List%20of%20references%20Debye%20booklet%20Thomas%20Dezai_Thomas%20Dezaire.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B67579782-ABC3-46E4-898B-640FFFC6E4F1%7D&amp;file=Booklet%20Debye%202023%20contribution%20Thomas%20Dezair_Thomas%20Dezaire%201.docx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B15751114-F5F7-402C-8E59-7212B8382657%7D&amp;file=Karan%20Kotalgi%20-%20Debye%20booklet_Karan%20Kotalgi.doc&amp;action=default&amp;mobileredirect=true</t>
+    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BEEBAE88C-8DAF-4BAD-AC77-48DA92BDEA7D%7D&amp;file=Karan_References_Karan%20Kotalgi.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B344B3E79-420C-4B46-BABB-33272ECCE577%7D&amp;file=Karan%20Kotalgi%20-%20Debye%20booklet_Karan%20Kotalgi%201.doc&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BEE5A7CBB-8A40-40BC-B43D-02DB149DF8B9%7D&amp;file=Disha_Debye_booklet_Disha%20Jain.doc&amp;action=default&amp;mobileredirect=true</t>
@@ -10836,7 +10836,7 @@
         <v>273</v>
       </c>
       <c r="F118" s="2">
-        <v>45303.47336805556</v>
+        <v>45313.73528935185</v>
       </c>
       <c r="G118" t="s">
         <v>318</v>
@@ -11555,7 +11555,7 @@
         <v>286</v>
       </c>
       <c r="F131" s="2">
-        <v>45300.51361111111</v>
+        <v>45315.64042824074</v>
       </c>
       <c r="G131" t="s">
         <v>286</v>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1296">
   <si>
     <t>Start time</t>
   </si>
@@ -1663,9 +1663,6 @@
     <t>Matteo Monai</t>
   </si>
   <si>
-    <t>Dr., Prof. dr., Prof dr. ir.</t>
-  </si>
-  <si>
     <t>../manual_files/Inorganic Chemistry and Catalysis (ICC)/KirstenSiebers_Kirsten Siebers.jpg</t>
   </si>
   <si>
@@ -2299,7 +2296,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0B2AD7DB-2CF0-447F-B3CB-B938C1A3E2F4%7D&amp;file=R.Vogel%20Debye%20Booklet%20V2_Robin%20Vogel.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BB93DC545-2527-4F67-881F-C8691E6D9934%7D&amp;file=references_R.Vogel_Robin%20Vogel.xlsx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BAB694C26-5D8A-4856-AC51-ECB4F795BD02%7D&amp;file=references_template_Li%20Mengwei%202.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B62D045ED-0ED0-4EB3-9F9E-F62044D0B9DC%7D&amp;file=For%20booklet%20Debye%20Mengwei_Li%20Mengwei%202.doc&amp;action=default&amp;mobileredirect=true</t>
+    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B62D045ED-0ED0-4EB3-9F9E-F62044D0B9DC%7D&amp;file=For%20booklet%20Debye%20Mengwei_Li%20Mengwei%202.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0B89AE94-81BF-4A17-98B0-C623C94BECF9%7D&amp;file=references_Mengwei%20Li_Li%20Mengwei.xlsx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BB02D8196-AB94-4CFE-A917-7A24C5E49898%7D&amp;file=ProjectDescription_JesseSteenhoff_Jesse%20Steenhoff.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2A1813F9-20D3-4C4A-8D42-F2891A472F7D%7D&amp;file=DebyeBooklet_References_JesseSteenhoff_Jesse%20Steenhoff.xlsx&amp;action=default&amp;mobileredirect=true</t>
@@ -2371,7 +2368,7 @@
     <t>../manual_files/Inorganic Chemistry and Catalysis (ICC)/project_description 98 Sibylle Schwartmann.docx</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B59079D10-ADA0-4D7B-8C38-6D8EF03069E4%7D&amp;file=DebyeBooklet_SJWVonk_Sander%20Vonk.docx&amp;action=default&amp;mobileredirect=true</t>
+    <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/project_description 99 Sander Vonk.docx;../manual_files/Soft Condensed Matter and Biophysics (SCMB)/references 99 Sander Vonk.xlsx</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BD0729A63-10A8-4FC5-91C5-59983427AF5E%7D&amp;file=Debye%20Booklet%202023_Luke%20Riddell.docx&amp;action=default&amp;mobileredirect=true</t>
@@ -2419,7 +2416,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B8E0117A0-8316-4C09-8F0D-0C7BB3ABEC68%7D&amp;file=Project%20description_Debyebooklet_MOL_Maialen%20Ortego%20Larra.docx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0C7187CA-9248-423F-B9BF-79C3C832CDD4%7D&amp;file=reference_Yi-Yun%20Lin.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2766DC7A-2DC4-4074-BAF7-F970D50E00D7%7D&amp;file=kkk_Yi-Yun%20Lin.docx&amp;action=default&amp;mobileredirect=true</t>
+    <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/project_description 115 Yi-Yun Lin.docx;../manual_files/Soft Condensed Matter and Biophysics (SCMB)/references 115 Yi-Yun Lin.xlsx</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B4E179A0B-9F2A-4544-8011-C98850F365D6%7D&amp;file=Refs_SPritzl_Stefanie%20Pritzl.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BC8624DD9-05EF-4093-986A-4B66149D4A6F%7D&amp;file=bookletDebye_description_SPritzl_Stefanie%20Pritzl.doc&amp;action=default&amp;mobileredirect=true</t>
@@ -3292,7 +3289,7 @@
     <t>Figure 1: Project inspiration. From left to right, the white scarab beetle, a scanning electron micrograph from its shield and an anisotropic bijel reflecting light. White scarab beetle picture and micrograph reproduced from [3].</t>
   </si>
   <si>
-    <t>: a)-b) Section and top view of a liquid crystal skyrmion in a system of hard banana particles. c) Hexagonal lattice of half skyrmions in a system of hard banana particles.</t>
+    <t>a)-b) Section and top view of a liquid crystal skyrmion in a system of hard banana particles. c) Hexagonal lattice of half skyrmions in a system of hard banana particles.</t>
   </si>
   <si>
     <t>Figure 1: a) designed cascade filtration setup for MNP separation b) AFM topography of polystyrene reference sample (diameter=400 nm) on alumina filter with pore size of 375 nm</t>
@@ -3779,6 +3776,9 @@
   </si>
   <si>
     <t>Monitoring the Electrooxidation of Lignin Model Compounds with *in situ* ATR-IR spectroscopy</t>
+  </si>
+  <si>
+    <t>Investigating Blinking in Colloidal Quantum Dots: Insights and Strategies for Controlled Emission</t>
   </si>
   <si>
     <t>Mapping Lignin Property Space through Molecular Size Selection and Chemical Modification</t>
@@ -4385,19 +4385,19 @@
         <v>535</v>
       </c>
       <c r="M2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="R2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="T2" t="s">
         <v>1292</v>
@@ -4438,19 +4438,19 @@
         <v>418</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T3" t="s">
         <v>1292</v>
@@ -4491,25 +4491,25 @@
         <v>419</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Q4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="T4" t="s">
         <v>1292</v>
@@ -4550,25 +4550,25 @@
         <v>420</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="T5" t="s">
         <v>1292</v>
@@ -4609,19 +4609,19 @@
         <v>421</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="R6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T6" t="s">
         <v>1292</v>
@@ -4659,19 +4659,19 @@
         <v>422</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="T7" t="s">
         <v>1292</v>
@@ -4712,19 +4712,19 @@
         <v>423</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="R8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="T8" t="s">
         <v>1292</v>
@@ -4768,25 +4768,25 @@
         <v>536</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="R9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="T9" t="s">
         <v>1292</v>
@@ -4827,25 +4827,25 @@
         <v>422</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q10" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="T10" t="s">
         <v>1292</v>
@@ -4889,19 +4889,19 @@
         <v>537</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="R11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="T11" t="s">
         <v>1292</v>
@@ -4942,19 +4942,19 @@
         <v>426</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="R12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="T12" t="s">
         <v>1292</v>
@@ -4995,25 +4995,25 @@
         <v>427</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Q13" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="T13" t="s">
         <v>1292</v>
@@ -5054,19 +5054,19 @@
         <v>428</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="R14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S14" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="T14" t="s">
         <v>1292</v>
@@ -5107,25 +5107,25 @@
         <v>429</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q15" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R15" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="T15" t="s">
         <v>1293</v>
@@ -5166,25 +5166,25 @@
         <v>430</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O16" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q16" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="R16" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="T16" t="s">
         <v>1292</v>
@@ -5225,25 +5225,25 @@
         <v>431</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="R17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S17" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="T17" t="s">
         <v>1292</v>
@@ -5284,19 +5284,19 @@
         <v>432</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="R18" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S18" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="T18" t="s">
         <v>1292</v>
@@ -5337,25 +5337,25 @@
         <v>433</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="R19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="T19" t="s">
         <v>1293</v>
@@ -5396,25 +5396,25 @@
         <v>434</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="T20" t="s">
         <v>1292</v>
@@ -5455,19 +5455,19 @@
         <v>435</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="T21" t="s">
         <v>1292</v>
@@ -5508,25 +5508,25 @@
         <v>436</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q22" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R22" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S22" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="T22" t="s">
         <v>1292</v>
@@ -5570,25 +5570,25 @@
         <v>437</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="R23" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S23" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="T23" t="s">
         <v>1292</v>
@@ -5629,25 +5629,25 @@
         <v>438</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="R24" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S24" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="T24" t="s">
         <v>1292</v>
@@ -5688,25 +5688,25 @@
         <v>439</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O25" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q25" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="R25" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="T25" t="s">
         <v>1292</v>
@@ -5747,19 +5747,19 @@
         <v>439</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S26" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="T26" t="s">
         <v>1292</v>
@@ -5800,25 +5800,25 @@
         <v>440</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O27" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q27" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="R27" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S27" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="T27" t="s">
         <v>1292</v>
@@ -5859,25 +5859,25 @@
         <v>441</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="R28" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S28" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="T28" t="s">
         <v>1292</v>
@@ -5921,19 +5921,19 @@
         <v>538</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="R29" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S29" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="T29" t="s">
         <v>1292</v>
@@ -5974,25 +5974,25 @@
         <v>443</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q30" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="R30" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S30" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="T30" t="s">
         <v>1292</v>
@@ -6033,25 +6033,25 @@
         <v>444</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O31" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Q31" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="R31" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S31" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="T31" t="s">
         <v>1292</v>
@@ -6092,25 +6092,25 @@
         <v>445</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q32" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="R32" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="T32" t="s">
         <v>1292</v>
@@ -6151,25 +6151,25 @@
         <v>446</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q33" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="R33" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S33" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="T33" t="s">
         <v>1292</v>
@@ -6210,19 +6210,19 @@
         <v>447</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="O34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R34" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S34" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="T34" t="s">
         <v>1292</v>
@@ -6260,25 +6260,25 @@
         <v>448</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="O35" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="Q35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="R35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="T35" t="s">
         <v>1292</v>
@@ -6325,25 +6325,25 @@
         <v>539</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q36" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="R36" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S36" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T36" t="s">
         <v>1292</v>
@@ -6384,22 +6384,22 @@
         <v>449</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O37" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R37" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S37" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T37" t="s">
         <v>1293</v>
@@ -6440,25 +6440,25 @@
         <v>450</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O38" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="Q38" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R38" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T38" t="s">
         <v>1292</v>
@@ -6499,25 +6499,25 @@
         <v>451</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="R39" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="T39" t="s">
         <v>1292</v>
@@ -6558,25 +6558,25 @@
         <v>452</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O40" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Q40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="R40" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="T40" t="s">
         <v>1292</v>
@@ -6617,25 +6617,25 @@
         <v>453</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O41" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="Q41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="R41" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S41" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="T41" t="s">
         <v>1292</v>
@@ -6676,19 +6676,19 @@
         <v>418</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R42" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S42" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="T42" t="s">
         <v>1292</v>
@@ -6729,25 +6729,25 @@
         <v>454</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O43" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="R43" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S43" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="T43" t="s">
         <v>1292</v>
@@ -6788,19 +6788,19 @@
         <v>455</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O44" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="R44" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S44" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="T44" t="s">
         <v>1292</v>
@@ -6844,19 +6844,19 @@
         <v>529</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O45" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="R45" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S45" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="s">
         <v>1292</v>
@@ -6897,25 +6897,25 @@
         <v>457</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O46" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q46" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R46" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S46" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="T46" t="s">
         <v>1293</v>
@@ -6956,25 +6956,25 @@
         <v>458</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Q47" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R47" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="T47" t="s">
         <v>1292</v>
@@ -7015,31 +7015,31 @@
         <v>459</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N48" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O48" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P48" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q48" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="R48" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S48" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="T48" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7077,25 +7077,25 @@
         <v>540</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O49" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R49" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="T49" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7130,31 +7130,31 @@
         <v>461</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q50" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S50" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="T50" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7189,25 +7189,25 @@
         <v>462</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O51" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="R51" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S51" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="T51" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7242,31 +7242,31 @@
         <v>463</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O52" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q52" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="R52" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S52" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="T52" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7304,31 +7304,31 @@
         <v>541</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O53" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q53" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R53" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S53" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="T53" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7363,31 +7363,31 @@
         <v>465</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O54" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="Q54" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R54" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S54" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="T54" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7419,34 +7419,31 @@
         <v>466</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N55" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O55" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q55" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R55" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S55" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="T55" t="s">
         <v>1293</v>
       </c>
-      <c r="U55" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7478,31 +7475,31 @@
         <v>467</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N56" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O56" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="Q56" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R56" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S56" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="T56" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7537,31 +7534,31 @@
         <v>468</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O57" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q57" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R57" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S57" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="T57" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7596,31 +7593,31 @@
         <v>469</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O58" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="Q58" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R58" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S58" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="T58" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7658,31 +7655,31 @@
         <v>542</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O59" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q59" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S59" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="T59" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7717,25 +7714,25 @@
         <v>529</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O60" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R60" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S60" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="T60" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7770,34 +7767,31 @@
         <v>439</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N61" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O61" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q61" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="R61" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S61" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="T61" t="s">
         <v>1292</v>
       </c>
-      <c r="U61" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7832,31 +7826,31 @@
         <v>472</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O62" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Q62" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R62" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S62" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="T62" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7891,25 +7885,25 @@
         <v>473</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O63" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="R63" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S63" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="T63" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7944,25 +7938,25 @@
         <v>474</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O64" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="Q64" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="R64" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S64" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="T64" t="s">
         <v>1292</v>
@@ -8003,19 +7997,19 @@
         <v>464</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O65" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R65" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S65" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="T65" t="s">
         <v>1292</v>
@@ -8056,25 +8050,25 @@
         <v>475</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O66" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="Q66" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="R66" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S66" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="T66" t="s">
         <v>1292</v>
@@ -8115,25 +8109,25 @@
         <v>476</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O67" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q67" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="R67" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S67" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="T67" t="s">
         <v>1292</v>
@@ -8177,25 +8171,25 @@
         <v>543</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O68" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q68" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R68" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S68" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="T68" t="s">
         <v>1292</v>
@@ -8217,6 +8211,9 @@
       <c r="E69" t="s">
         <v>225</v>
       </c>
+      <c r="F69" s="2">
+        <v>45320.95388888889</v>
+      </c>
       <c r="G69" t="s">
         <v>306</v>
       </c>
@@ -8233,25 +8230,25 @@
         <v>422</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N69" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O69" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q69" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R69" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S69" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="T69" t="s">
         <v>1292</v>
@@ -8292,25 +8289,25 @@
         <v>478</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O70" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="Q70" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R70" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S70" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="T70" t="s">
         <v>1292</v>
@@ -8351,19 +8348,19 @@
         <v>479</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O71" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R71" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S71" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="T71" t="s">
         <v>1292</v>
@@ -8404,25 +8401,25 @@
         <v>480</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O72" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q72" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="R72" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S72" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="T72" t="s">
         <v>1292</v>
@@ -8463,25 +8460,25 @@
         <v>481</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O73" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q73" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="R73" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S73" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="T73" t="s">
         <v>1292</v>
@@ -8522,19 +8519,19 @@
         <v>482</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O74" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="R74" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S74" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="T74" t="s">
         <v>1293</v>
@@ -8575,25 +8572,25 @@
         <v>483</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O75" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q75" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="R75" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S75" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="T75" t="s">
         <v>1292</v>
@@ -8616,7 +8613,7 @@
         <v>232</v>
       </c>
       <c r="F76" s="2">
-        <v>45307.62502314815</v>
+        <v>45320.94511574074</v>
       </c>
       <c r="G76" t="s">
         <v>307</v>
@@ -8634,25 +8631,25 @@
         <v>484</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O76" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q76" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R76" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S76" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="T76" t="s">
         <v>1292</v>
@@ -8693,25 +8690,25 @@
         <v>485</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O77" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q77" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R77" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S77" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="T77" t="s">
         <v>1292</v>
@@ -8752,25 +8749,25 @@
         <v>486</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O78" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Q78" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R78" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S78" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="T78" t="s">
         <v>1292</v>
@@ -8814,25 +8811,25 @@
         <v>544</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N79" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O79" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Q79" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R79" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S79" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="T79" t="s">
         <v>1292</v>
@@ -8873,31 +8870,31 @@
         <v>488</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O80" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q80" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="R80" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S80" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T80" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8935,31 +8932,31 @@
         <v>545</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O81" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Q81" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R81" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S81" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="T81" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8994,31 +8991,31 @@
         <v>489</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O82" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Q82" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="R82" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S82" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="T82" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -9056,31 +9053,31 @@
         <v>490</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O83" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Q83" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="R83" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S83" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="T83" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9115,25 +9112,25 @@
         <v>491</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O84" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="R84" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S84" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="T84" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9165,31 +9162,31 @@
         <v>464</v>
       </c>
       <c r="M85" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N85" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O85" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="P85" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Q85" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="R85" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S85" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="T85" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9224,31 +9221,31 @@
         <v>492</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O86" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q86" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="R86" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S86" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="T86" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9283,31 +9280,31 @@
         <v>493</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O87" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Q87" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="R87" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S87" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="T87" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9342,31 +9339,31 @@
         <v>494</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O88" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Q88" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R88" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S88" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="T88" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9401,25 +9398,25 @@
         <v>464</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O89" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="R89" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S89" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="T89" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9454,31 +9451,31 @@
         <v>495</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O90" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Q90" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="R90" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S90" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="T90" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9513,31 +9510,31 @@
         <v>496</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O91" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Q91" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="R91" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S91" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="T91" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9572,34 +9569,31 @@
         <v>497</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N92" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O92" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q92" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="R92" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S92" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="T92" t="s">
         <v>1293</v>
       </c>
-      <c r="U92" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9634,25 +9628,25 @@
         <v>498</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O93" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="R93" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S93" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="T93" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9687,28 +9681,28 @@
         <v>464</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O94" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="R94" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S94" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="T94" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9743,28 +9737,28 @@
         <v>499</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N95" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O95" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="R95" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S95" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="T95" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9802,19 +9796,19 @@
         <v>500</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O96" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="R96" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S96" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="T96" t="s">
         <v>1292</v>
@@ -9855,25 +9849,25 @@
         <v>501</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O97" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q97" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="R97" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S97" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="T97" t="s">
         <v>1293</v>
@@ -9911,16 +9905,16 @@
         <v>502</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O98" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="R98" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -9955,25 +9949,25 @@
         <v>546</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N99" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O99" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Q99" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="R99" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S99" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="T99" t="s">
         <v>1292</v>
@@ -10011,22 +10005,28 @@
         <v>504</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>785</v>
+        <v>647</v>
+      </c>
+      <c r="N100" t="s">
+        <v>784</v>
       </c>
       <c r="O100" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Q100" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="R100" t="s">
-        <v>1156</v>
+        <v>1155</v>
+      </c>
+      <c r="S100" t="s">
+        <v>1254</v>
+      </c>
+      <c r="T100" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -10064,22 +10064,22 @@
         <v>505</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O101" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q101" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R101" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S101" t="s">
         <v>1255</v>
@@ -10123,22 +10123,22 @@
         <v>506</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O102" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q102" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="R102" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S102" t="s">
         <v>1256</v>
@@ -10182,22 +10182,22 @@
         <v>507</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N103" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O103" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q103" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R103" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S103" t="s">
         <v>1257</v>
@@ -10241,22 +10241,22 @@
         <v>508</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O104" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Q104" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="R104" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S104" t="s">
         <v>1258</v>
@@ -10300,22 +10300,22 @@
         <v>509</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O105" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Q105" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="R105" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S105" t="s">
         <v>1259</v>
@@ -10359,22 +10359,22 @@
         <v>510</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O106" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Q106" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="R106" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S106" t="s">
         <v>1260</v>
@@ -10418,22 +10418,22 @@
         <v>511</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q107" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="R107" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S107" t="s">
         <v>1261</v>
@@ -10477,16 +10477,16 @@
         <v>464</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O108" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="R108" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S108" t="s">
         <v>1262</v>
@@ -10533,22 +10533,22 @@
         <v>475</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O109" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q109" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R109" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S109" t="s">
         <v>1263</v>
@@ -10592,22 +10592,22 @@
         <v>434</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O110" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Q110" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R110" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S110" t="s">
         <v>1264</v>
@@ -10654,22 +10654,22 @@
         <v>547</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O111" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q111" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R111" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S111" t="s">
         <v>1265</v>
@@ -10713,16 +10713,16 @@
         <v>548</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N112" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O112" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="R112" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S112" t="s">
         <v>1266</v>
@@ -10766,16 +10766,16 @@
         <v>513</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O113" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="R113" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S113" t="s">
         <v>1267</v>
@@ -10819,22 +10819,22 @@
         <v>514</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O114" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q114" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R114" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S114" t="s">
         <v>1268</v>
@@ -10878,16 +10878,16 @@
         <v>515</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O115" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="R115" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S115" t="s">
         <v>1269</v>
@@ -10913,7 +10913,7 @@
         <v>272</v>
       </c>
       <c r="F116" s="2">
-        <v>45304.83032407407</v>
+        <v>45320.73202546296</v>
       </c>
       <c r="G116" t="s">
         <v>272</v>
@@ -10931,22 +10931,22 @@
         <v>434</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>801</v>
+        <v>663</v>
+      </c>
+      <c r="N116" t="s">
+        <v>800</v>
       </c>
       <c r="O116" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q116" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R116" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S116" t="s">
         <v>1270</v>
@@ -10993,22 +10993,22 @@
         <v>516</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O117" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Q117" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="R117" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S117" t="s">
         <v>1271</v>
@@ -11052,22 +11052,22 @@
         <v>517</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O118" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Q118" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="R118" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S118" t="s">
         <v>1272</v>
@@ -11111,22 +11111,22 @@
         <v>518</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O119" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Q119" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="R119" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S119" t="s">
         <v>1273</v>
@@ -11170,22 +11170,22 @@
         <v>519</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O120" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="Q120" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="R120" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S120" t="s">
         <v>1274</v>
@@ -11226,16 +11226,16 @@
         <v>449</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N121" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O121" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="R121" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S121" t="s">
         <v>1275</v>
@@ -11279,22 +11279,22 @@
         <v>520</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O122" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="Q122" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="R122" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S122" t="s">
         <v>1276</v>
@@ -11338,22 +11338,22 @@
         <v>521</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O123" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="Q123" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R123" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S123" t="s">
         <v>1277</v>
@@ -11394,16 +11394,16 @@
         <v>522</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N124" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O124" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="R124" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S124" t="s">
         <v>1278</v>
@@ -11447,16 +11447,16 @@
         <v>523</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O125" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="R125" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S125" t="s">
         <v>1279</v>
@@ -11499,26 +11499,23 @@
       <c r="K126" t="s">
         <v>524</v>
       </c>
-      <c r="L126" t="s">
-        <v>549</v>
-      </c>
       <c r="M126" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O126" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q126" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R126" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S126" t="s">
         <v>1280</v>
@@ -11562,22 +11559,22 @@
         <v>525</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O127" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Q127" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R127" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S127" t="s">
         <v>1281</v>
@@ -11603,7 +11600,7 @@
         <v>284</v>
       </c>
       <c r="F128" s="2">
-        <v>45308.62019675926</v>
+        <v>45320.74107638889</v>
       </c>
       <c r="G128" t="s">
         <v>284</v>
@@ -11621,22 +11618,22 @@
         <v>526</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N128" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O128" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Q128" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="R128" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S128" t="s">
         <v>1282</v>
@@ -11680,22 +11677,22 @@
         <v>481</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O129" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Q129" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R129" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S129" t="s">
         <v>1283</v>
@@ -11739,16 +11736,16 @@
         <v>527</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O130" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R130" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S130" t="s">
         <v>1284</v>
@@ -11792,22 +11789,22 @@
         <v>528</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O131" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P131" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q131" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R131" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S131" t="s">
         <v>1285</v>
@@ -11851,16 +11848,16 @@
         <v>529</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N132" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O132" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="R132" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S132" t="s">
         <v>1286</v>
@@ -11904,22 +11901,22 @@
         <v>530</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O133" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q133" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R133" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S133" t="s">
         <v>1287</v>
@@ -11960,22 +11957,22 @@
         <v>531</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Q134" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R134" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -12013,22 +12010,22 @@
         <v>532</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O135" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="Q135" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R135" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S135" t="s">
         <v>1288</v>
@@ -12072,22 +12069,22 @@
         <v>527</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O136" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Q136" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R136" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S136" t="s">
         <v>1289</v>
@@ -12131,16 +12128,16 @@
         <v>533</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O137" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R137" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S137" t="s">
         <v>1290</v>
@@ -12184,22 +12181,22 @@
         <v>534</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O138" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Q138" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R138" t="s">
         <v>1155</v>
-      </c>
-      <c r="R138" t="s">
-        <v>1156</v>
       </c>
       <c r="S138" t="s">
         <v>1291</v>
@@ -12455,105 +12452,103 @@
     <hyperlink ref="M99" r:id="rId243"/>
     <hyperlink ref="P99" r:id="rId244"/>
     <hyperlink ref="M100" r:id="rId245"/>
-    <hyperlink ref="N100" r:id="rId246"/>
-    <hyperlink ref="P100" r:id="rId247"/>
-    <hyperlink ref="M101" r:id="rId248"/>
-    <hyperlink ref="N101" r:id="rId249"/>
-    <hyperlink ref="P101" r:id="rId250"/>
-    <hyperlink ref="M102" r:id="rId251"/>
-    <hyperlink ref="N102" r:id="rId252"/>
-    <hyperlink ref="P102" r:id="rId253"/>
-    <hyperlink ref="M103" r:id="rId254"/>
-    <hyperlink ref="P103" r:id="rId255"/>
-    <hyperlink ref="M104" r:id="rId256"/>
-    <hyperlink ref="N104" r:id="rId257"/>
-    <hyperlink ref="P104" r:id="rId258"/>
-    <hyperlink ref="M105" r:id="rId259"/>
-    <hyperlink ref="N105" r:id="rId260"/>
-    <hyperlink ref="P105" r:id="rId261"/>
-    <hyperlink ref="M106" r:id="rId262"/>
-    <hyperlink ref="N106" r:id="rId263"/>
-    <hyperlink ref="P106" r:id="rId264"/>
-    <hyperlink ref="M107" r:id="rId265"/>
-    <hyperlink ref="N107" r:id="rId266"/>
-    <hyperlink ref="P107" r:id="rId267"/>
-    <hyperlink ref="M108" r:id="rId268"/>
-    <hyperlink ref="N108" r:id="rId269"/>
-    <hyperlink ref="M109" r:id="rId270"/>
-    <hyperlink ref="N109" r:id="rId271"/>
-    <hyperlink ref="P109" r:id="rId272"/>
-    <hyperlink ref="M110" r:id="rId273"/>
-    <hyperlink ref="N110" r:id="rId274"/>
-    <hyperlink ref="P110" r:id="rId275"/>
-    <hyperlink ref="M111" r:id="rId276"/>
-    <hyperlink ref="N111" r:id="rId277"/>
-    <hyperlink ref="P111" r:id="rId278"/>
-    <hyperlink ref="M112" r:id="rId279"/>
-    <hyperlink ref="M113" r:id="rId280"/>
-    <hyperlink ref="N113" r:id="rId281"/>
-    <hyperlink ref="M114" r:id="rId282"/>
-    <hyperlink ref="N114" r:id="rId283"/>
-    <hyperlink ref="P114" r:id="rId284"/>
-    <hyperlink ref="M115" r:id="rId285"/>
-    <hyperlink ref="N115" r:id="rId286"/>
-    <hyperlink ref="M116" r:id="rId287"/>
-    <hyperlink ref="N116" r:id="rId288"/>
-    <hyperlink ref="P116" r:id="rId289"/>
-    <hyperlink ref="M117" r:id="rId290"/>
-    <hyperlink ref="N117" r:id="rId291"/>
-    <hyperlink ref="P117" r:id="rId292"/>
-    <hyperlink ref="M118" r:id="rId293"/>
-    <hyperlink ref="N118" r:id="rId294"/>
-    <hyperlink ref="P118" r:id="rId295"/>
-    <hyperlink ref="M119" r:id="rId296"/>
-    <hyperlink ref="N119" r:id="rId297"/>
-    <hyperlink ref="P119" r:id="rId298"/>
-    <hyperlink ref="M120" r:id="rId299"/>
-    <hyperlink ref="N120" r:id="rId300"/>
-    <hyperlink ref="P120" r:id="rId301"/>
-    <hyperlink ref="M121" r:id="rId302"/>
-    <hyperlink ref="M122" r:id="rId303"/>
-    <hyperlink ref="N122" r:id="rId304"/>
-    <hyperlink ref="P122" r:id="rId305"/>
-    <hyperlink ref="M123" r:id="rId306"/>
-    <hyperlink ref="N123" r:id="rId307"/>
-    <hyperlink ref="P123" r:id="rId308"/>
-    <hyperlink ref="M124" r:id="rId309"/>
-    <hyperlink ref="M125" r:id="rId310"/>
-    <hyperlink ref="N125" r:id="rId311"/>
-    <hyperlink ref="M126" r:id="rId312"/>
-    <hyperlink ref="N126" r:id="rId313"/>
-    <hyperlink ref="P126" r:id="rId314"/>
-    <hyperlink ref="M127" r:id="rId315"/>
-    <hyperlink ref="N127" r:id="rId316"/>
-    <hyperlink ref="P127" r:id="rId317"/>
-    <hyperlink ref="M128" r:id="rId318"/>
-    <hyperlink ref="P128" r:id="rId319"/>
-    <hyperlink ref="M129" r:id="rId320"/>
-    <hyperlink ref="N129" r:id="rId321"/>
-    <hyperlink ref="P129" r:id="rId322"/>
-    <hyperlink ref="M130" r:id="rId323"/>
-    <hyperlink ref="N130" r:id="rId324"/>
-    <hyperlink ref="M131" r:id="rId325"/>
-    <hyperlink ref="N131" r:id="rId326"/>
-    <hyperlink ref="M132" r:id="rId327"/>
-    <hyperlink ref="M133" r:id="rId328"/>
-    <hyperlink ref="N133" r:id="rId329"/>
-    <hyperlink ref="P133" r:id="rId330"/>
-    <hyperlink ref="M134" r:id="rId331"/>
-    <hyperlink ref="N134" r:id="rId332"/>
-    <hyperlink ref="P134" r:id="rId333"/>
-    <hyperlink ref="M135" r:id="rId334"/>
-    <hyperlink ref="N135" r:id="rId335"/>
-    <hyperlink ref="P135" r:id="rId336"/>
-    <hyperlink ref="M136" r:id="rId337"/>
-    <hyperlink ref="N136" r:id="rId338"/>
-    <hyperlink ref="P136" r:id="rId339"/>
-    <hyperlink ref="M137" r:id="rId340"/>
-    <hyperlink ref="N137" r:id="rId341"/>
-    <hyperlink ref="M138" r:id="rId342"/>
-    <hyperlink ref="N138" r:id="rId343"/>
-    <hyperlink ref="P138" r:id="rId344"/>
+    <hyperlink ref="P100" r:id="rId246"/>
+    <hyperlink ref="M101" r:id="rId247"/>
+    <hyperlink ref="N101" r:id="rId248"/>
+    <hyperlink ref="P101" r:id="rId249"/>
+    <hyperlink ref="M102" r:id="rId250"/>
+    <hyperlink ref="N102" r:id="rId251"/>
+    <hyperlink ref="P102" r:id="rId252"/>
+    <hyperlink ref="M103" r:id="rId253"/>
+    <hyperlink ref="P103" r:id="rId254"/>
+    <hyperlink ref="M104" r:id="rId255"/>
+    <hyperlink ref="N104" r:id="rId256"/>
+    <hyperlink ref="P104" r:id="rId257"/>
+    <hyperlink ref="M105" r:id="rId258"/>
+    <hyperlink ref="N105" r:id="rId259"/>
+    <hyperlink ref="P105" r:id="rId260"/>
+    <hyperlink ref="M106" r:id="rId261"/>
+    <hyperlink ref="N106" r:id="rId262"/>
+    <hyperlink ref="P106" r:id="rId263"/>
+    <hyperlink ref="M107" r:id="rId264"/>
+    <hyperlink ref="N107" r:id="rId265"/>
+    <hyperlink ref="P107" r:id="rId266"/>
+    <hyperlink ref="M108" r:id="rId267"/>
+    <hyperlink ref="N108" r:id="rId268"/>
+    <hyperlink ref="M109" r:id="rId269"/>
+    <hyperlink ref="N109" r:id="rId270"/>
+    <hyperlink ref="P109" r:id="rId271"/>
+    <hyperlink ref="M110" r:id="rId272"/>
+    <hyperlink ref="N110" r:id="rId273"/>
+    <hyperlink ref="P110" r:id="rId274"/>
+    <hyperlink ref="M111" r:id="rId275"/>
+    <hyperlink ref="N111" r:id="rId276"/>
+    <hyperlink ref="P111" r:id="rId277"/>
+    <hyperlink ref="M112" r:id="rId278"/>
+    <hyperlink ref="M113" r:id="rId279"/>
+    <hyperlink ref="N113" r:id="rId280"/>
+    <hyperlink ref="M114" r:id="rId281"/>
+    <hyperlink ref="N114" r:id="rId282"/>
+    <hyperlink ref="P114" r:id="rId283"/>
+    <hyperlink ref="M115" r:id="rId284"/>
+    <hyperlink ref="N115" r:id="rId285"/>
+    <hyperlink ref="M116" r:id="rId286"/>
+    <hyperlink ref="P116" r:id="rId287"/>
+    <hyperlink ref="M117" r:id="rId288"/>
+    <hyperlink ref="N117" r:id="rId289"/>
+    <hyperlink ref="P117" r:id="rId290"/>
+    <hyperlink ref="M118" r:id="rId291"/>
+    <hyperlink ref="N118" r:id="rId292"/>
+    <hyperlink ref="P118" r:id="rId293"/>
+    <hyperlink ref="M119" r:id="rId294"/>
+    <hyperlink ref="N119" r:id="rId295"/>
+    <hyperlink ref="P119" r:id="rId296"/>
+    <hyperlink ref="M120" r:id="rId297"/>
+    <hyperlink ref="N120" r:id="rId298"/>
+    <hyperlink ref="P120" r:id="rId299"/>
+    <hyperlink ref="M121" r:id="rId300"/>
+    <hyperlink ref="M122" r:id="rId301"/>
+    <hyperlink ref="N122" r:id="rId302"/>
+    <hyperlink ref="P122" r:id="rId303"/>
+    <hyperlink ref="M123" r:id="rId304"/>
+    <hyperlink ref="N123" r:id="rId305"/>
+    <hyperlink ref="P123" r:id="rId306"/>
+    <hyperlink ref="M124" r:id="rId307"/>
+    <hyperlink ref="M125" r:id="rId308"/>
+    <hyperlink ref="N125" r:id="rId309"/>
+    <hyperlink ref="M126" r:id="rId310"/>
+    <hyperlink ref="N126" r:id="rId311"/>
+    <hyperlink ref="P126" r:id="rId312"/>
+    <hyperlink ref="M127" r:id="rId313"/>
+    <hyperlink ref="N127" r:id="rId314"/>
+    <hyperlink ref="P127" r:id="rId315"/>
+    <hyperlink ref="M128" r:id="rId316"/>
+    <hyperlink ref="P128" r:id="rId317"/>
+    <hyperlink ref="M129" r:id="rId318"/>
+    <hyperlink ref="N129" r:id="rId319"/>
+    <hyperlink ref="P129" r:id="rId320"/>
+    <hyperlink ref="M130" r:id="rId321"/>
+    <hyperlink ref="N130" r:id="rId322"/>
+    <hyperlink ref="M131" r:id="rId323"/>
+    <hyperlink ref="N131" r:id="rId324"/>
+    <hyperlink ref="M132" r:id="rId325"/>
+    <hyperlink ref="M133" r:id="rId326"/>
+    <hyperlink ref="N133" r:id="rId327"/>
+    <hyperlink ref="P133" r:id="rId328"/>
+    <hyperlink ref="M134" r:id="rId329"/>
+    <hyperlink ref="N134" r:id="rId330"/>
+    <hyperlink ref="P134" r:id="rId331"/>
+    <hyperlink ref="M135" r:id="rId332"/>
+    <hyperlink ref="N135" r:id="rId333"/>
+    <hyperlink ref="P135" r:id="rId334"/>
+    <hyperlink ref="M136" r:id="rId335"/>
+    <hyperlink ref="N136" r:id="rId336"/>
+    <hyperlink ref="P136" r:id="rId337"/>
+    <hyperlink ref="M137" r:id="rId338"/>
+    <hyperlink ref="N137" r:id="rId339"/>
+    <hyperlink ref="M138" r:id="rId340"/>
+    <hyperlink ref="N138" r:id="rId341"/>
+    <hyperlink ref="P138" r:id="rId342"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1297">
   <si>
     <t>Start time</t>
   </si>
@@ -3896,6 +3896,9 @@
   </si>
   <si>
     <t>Postdoc</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
   <si>
     <t>Main steps in methane decomposition. 1) Carbon supply: Methane adsorption and dissociation. Hz gas is released. 2) Carbon transport: C-atoms diffuse through or over the catalyst. 3) Formation: carbon nanostructures are formed. 4) Deactivation: formation of defective carbon lavers at the surface.</t>
@@ -4402,6 +4405,9 @@
       <c r="T2" t="s">
         <v>1292</v>
       </c>
+      <c r="U2" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
@@ -4455,6 +4461,9 @@
       <c r="T3" t="s">
         <v>1292</v>
       </c>
+      <c r="U3" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
@@ -4514,6 +4523,9 @@
       <c r="T4" t="s">
         <v>1292</v>
       </c>
+      <c r="U4" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
@@ -4573,6 +4585,9 @@
       <c r="T5" t="s">
         <v>1292</v>
       </c>
+      <c r="U5" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
@@ -4626,6 +4641,9 @@
       <c r="T6" t="s">
         <v>1292</v>
       </c>
+      <c r="U6" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
@@ -4676,6 +4694,9 @@
       <c r="T7" t="s">
         <v>1292</v>
       </c>
+      <c r="U7" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
@@ -4729,6 +4750,9 @@
       <c r="T8" t="s">
         <v>1292</v>
       </c>
+      <c r="U8" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
@@ -4791,6 +4815,9 @@
       <c r="T9" t="s">
         <v>1292</v>
       </c>
+      <c r="U9" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
@@ -4850,6 +4877,9 @@
       <c r="T10" t="s">
         <v>1292</v>
       </c>
+      <c r="U10" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
@@ -4906,6 +4936,9 @@
       <c r="T11" t="s">
         <v>1292</v>
       </c>
+      <c r="U11" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
@@ -4959,6 +4992,9 @@
       <c r="T12" t="s">
         <v>1292</v>
       </c>
+      <c r="U12" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
@@ -5018,6 +5054,9 @@
       <c r="T13" t="s">
         <v>1292</v>
       </c>
+      <c r="U13" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
@@ -5071,6 +5110,9 @@
       <c r="T14" t="s">
         <v>1292</v>
       </c>
+      <c r="U14" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
@@ -5130,6 +5172,9 @@
       <c r="T15" t="s">
         <v>1293</v>
       </c>
+      <c r="U15" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
@@ -5189,6 +5234,9 @@
       <c r="T16" t="s">
         <v>1292</v>
       </c>
+      <c r="U16" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1">
@@ -5248,6 +5296,9 @@
       <c r="T17" t="s">
         <v>1292</v>
       </c>
+      <c r="U17" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1">
@@ -5301,6 +5352,9 @@
       <c r="T18" t="s">
         <v>1292</v>
       </c>
+      <c r="U18" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1">
@@ -5360,6 +5414,9 @@
       <c r="T19" t="s">
         <v>1293</v>
       </c>
+      <c r="U19" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1">
@@ -5419,6 +5476,9 @@
       <c r="T20" t="s">
         <v>1292</v>
       </c>
+      <c r="U20" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1">
@@ -5472,6 +5532,9 @@
       <c r="T21" t="s">
         <v>1292</v>
       </c>
+      <c r="U21" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1">
@@ -5532,7 +5595,7 @@
         <v>1292</v>
       </c>
       <c r="U22" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -5593,6 +5656,9 @@
       <c r="T23" t="s">
         <v>1292</v>
       </c>
+      <c r="U23" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1">
@@ -5652,6 +5718,9 @@
       <c r="T24" t="s">
         <v>1292</v>
       </c>
+      <c r="U24" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1">
@@ -5711,6 +5780,9 @@
       <c r="T25" t="s">
         <v>1292</v>
       </c>
+      <c r="U25" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1">
@@ -5764,6 +5836,9 @@
       <c r="T26" t="s">
         <v>1292</v>
       </c>
+      <c r="U26" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1">
@@ -5823,6 +5898,9 @@
       <c r="T27" t="s">
         <v>1292</v>
       </c>
+      <c r="U27" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1">
@@ -5882,6 +5960,9 @@
       <c r="T28" t="s">
         <v>1292</v>
       </c>
+      <c r="U28" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1">
@@ -5938,6 +6019,9 @@
       <c r="T29" t="s">
         <v>1292</v>
       </c>
+      <c r="U29" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1">
@@ -5997,6 +6081,9 @@
       <c r="T30" t="s">
         <v>1292</v>
       </c>
+      <c r="U30" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1">
@@ -6056,6 +6143,9 @@
       <c r="T31" t="s">
         <v>1292</v>
       </c>
+      <c r="U31" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1">
@@ -6115,6 +6205,9 @@
       <c r="T32" t="s">
         <v>1292</v>
       </c>
+      <c r="U32" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1">
@@ -6174,6 +6267,9 @@
       <c r="T33" t="s">
         <v>1292</v>
       </c>
+      <c r="U33" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1">
@@ -6227,6 +6323,9 @@
       <c r="T34" t="s">
         <v>1292</v>
       </c>
+      <c r="U34" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1">
@@ -6284,7 +6383,7 @@
         <v>1292</v>
       </c>
       <c r="U35" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -6348,6 +6447,9 @@
       <c r="T36" t="s">
         <v>1292</v>
       </c>
+      <c r="U36" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1">
@@ -6404,6 +6506,9 @@
       <c r="T37" t="s">
         <v>1293</v>
       </c>
+      <c r="U37" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1">
@@ -6463,6 +6568,9 @@
       <c r="T38" t="s">
         <v>1292</v>
       </c>
+      <c r="U38" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1">
@@ -6522,6 +6630,9 @@
       <c r="T39" t="s">
         <v>1292</v>
       </c>
+      <c r="U39" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1">
@@ -6581,6 +6692,9 @@
       <c r="T40" t="s">
         <v>1292</v>
       </c>
+      <c r="U40" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1">
@@ -6640,6 +6754,9 @@
       <c r="T41" t="s">
         <v>1292</v>
       </c>
+      <c r="U41" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1">
@@ -6693,6 +6810,9 @@
       <c r="T42" t="s">
         <v>1292</v>
       </c>
+      <c r="U42" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1">
@@ -6752,6 +6872,9 @@
       <c r="T43" t="s">
         <v>1292</v>
       </c>
+      <c r="U43" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1">
@@ -6805,6 +6928,9 @@
       <c r="T44" t="s">
         <v>1292</v>
       </c>
+      <c r="U44" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1">
@@ -6861,6 +6987,9 @@
       <c r="T45" t="s">
         <v>1292</v>
       </c>
+      <c r="U45" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1">
@@ -6920,6 +7049,9 @@
       <c r="T46" t="s">
         <v>1293</v>
       </c>
+      <c r="U46" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1">
@@ -6979,6 +7111,9 @@
       <c r="T47" t="s">
         <v>1292</v>
       </c>
+      <c r="U47" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1">
@@ -7038,8 +7173,11 @@
       <c r="T48" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7094,8 +7232,11 @@
       <c r="T49" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7153,8 +7294,11 @@
       <c r="T50" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7206,8 +7350,11 @@
       <c r="T51" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7265,8 +7412,11 @@
       <c r="T52" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7327,8 +7477,11 @@
       <c r="T53" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7386,8 +7539,11 @@
       <c r="T54" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7442,8 +7598,11 @@
       <c r="T55" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7498,8 +7657,11 @@
       <c r="T56" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7557,8 +7719,11 @@
       <c r="T57" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7616,8 +7781,11 @@
       <c r="T58" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7678,8 +7846,11 @@
       <c r="T59" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7731,8 +7902,11 @@
       <c r="T60" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7790,8 +7964,11 @@
       <c r="T61" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7849,8 +8026,11 @@
       <c r="T62" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7902,8 +8082,11 @@
       <c r="T63" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7961,8 +8144,11 @@
       <c r="T64" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8014,8 +8200,11 @@
       <c r="T65" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8073,8 +8262,11 @@
       <c r="T66" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8132,8 +8324,11 @@
       <c r="T67" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="U67" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8194,8 +8389,11 @@
       <c r="T68" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="U68" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8253,8 +8451,11 @@
       <c r="T69" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8312,8 +8513,11 @@
       <c r="T70" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8365,8 +8569,11 @@
       <c r="T71" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8424,8 +8631,11 @@
       <c r="T72" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8483,8 +8693,11 @@
       <c r="T73" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8536,8 +8749,11 @@
       <c r="T74" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8595,8 +8811,11 @@
       <c r="T75" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8654,8 +8873,11 @@
       <c r="T76" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8713,8 +8935,11 @@
       <c r="T77" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="U77" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8772,8 +8997,11 @@
       <c r="T78" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8834,8 +9062,11 @@
       <c r="T79" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8893,8 +9124,11 @@
       <c r="T80" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8955,8 +9189,11 @@
       <c r="T81" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -9014,8 +9251,11 @@
       <c r="T82" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -9076,8 +9316,11 @@
       <c r="T83" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="U83" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9129,8 +9372,11 @@
       <c r="T84" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="U84" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9185,8 +9431,11 @@
       <c r="T85" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9244,8 +9493,11 @@
       <c r="T86" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="U86" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9303,8 +9555,11 @@
       <c r="T87" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="U87" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9362,8 +9617,11 @@
       <c r="T88" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9415,8 +9673,11 @@
       <c r="T89" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9474,8 +9735,11 @@
       <c r="T90" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="U90" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9533,8 +9797,11 @@
       <c r="T91" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="U91" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9592,8 +9859,11 @@
       <c r="T92" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9645,8 +9915,11 @@
       <c r="T93" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="U93" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9701,8 +9974,11 @@
       <c r="T94" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U94" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9757,8 +10033,11 @@
       <c r="T95" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="U95" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9813,8 +10092,11 @@
       <c r="T96" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="U96" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9872,8 +10154,11 @@
       <c r="T97" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="U97" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9916,8 +10201,11 @@
       <c r="R98" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="99" spans="1:20">
+      <c r="U98" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9972,8 +10260,11 @@
       <c r="T99" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="U99" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10028,8 +10319,11 @@
       <c r="T100" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10087,8 +10381,11 @@
       <c r="T101" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="U101" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10146,8 +10443,11 @@
       <c r="T102" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="U102" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10205,8 +10505,11 @@
       <c r="T103" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="U103" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10264,8 +10567,11 @@
       <c r="T104" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="U104" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10323,8 +10629,11 @@
       <c r="T105" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="U105" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10382,8 +10691,11 @@
       <c r="T106" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="107" spans="1:20">
+      <c r="U106" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10441,8 +10753,11 @@
       <c r="T107" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="108" spans="1:20">
+      <c r="U107" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10494,8 +10809,11 @@
       <c r="T108" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="109" spans="1:20">
+      <c r="U108" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10556,8 +10874,11 @@
       <c r="T109" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="U109" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10615,8 +10936,11 @@
       <c r="T110" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="111" spans="1:20">
+      <c r="U110" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10677,8 +11001,11 @@
       <c r="T111" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="112" spans="1:20">
+      <c r="U111" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10730,8 +11057,11 @@
       <c r="T112" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="113" spans="1:20">
+      <c r="U112" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -10783,8 +11113,11 @@
       <c r="T113" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="114" spans="1:20">
+      <c r="U113" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -10842,8 +11175,11 @@
       <c r="T114" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="115" spans="1:20">
+      <c r="U114" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -10895,8 +11231,11 @@
       <c r="T115" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="116" spans="1:20">
+      <c r="U115" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -10954,8 +11293,11 @@
       <c r="T116" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="117" spans="1:20">
+      <c r="U116" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11016,8 +11358,11 @@
       <c r="T117" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="118" spans="1:20">
+      <c r="U117" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11075,8 +11420,11 @@
       <c r="T118" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="119" spans="1:20">
+      <c r="U118" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11134,8 +11482,11 @@
       <c r="T119" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="120" spans="1:20">
+      <c r="U119" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11193,8 +11544,11 @@
       <c r="T120" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="121" spans="1:20">
+      <c r="U120" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11243,8 +11597,11 @@
       <c r="T121" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="122" spans="1:20">
+      <c r="U121" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11302,8 +11659,11 @@
       <c r="T122" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="123" spans="1:20">
+      <c r="U122" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11361,8 +11721,11 @@
       <c r="T123" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="124" spans="1:20">
+      <c r="U123" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11411,8 +11774,11 @@
       <c r="T124" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="U124" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11464,8 +11830,11 @@
       <c r="T125" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="U125" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11482,7 +11851,7 @@
         <v>282</v>
       </c>
       <c r="F126" s="2">
-        <v>45317.51082175926</v>
+        <v>45322.66873842593</v>
       </c>
       <c r="G126" t="s">
         <v>323</v>
@@ -11523,8 +11892,11 @@
       <c r="T126" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="127" spans="1:20">
+      <c r="U126" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11582,8 +11954,11 @@
       <c r="T127" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="128" spans="1:20">
+      <c r="U127" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11641,8 +12016,11 @@
       <c r="T128" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="129" spans="1:20">
+      <c r="U128" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -11700,8 +12078,11 @@
       <c r="T129" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="130" spans="1:20">
+      <c r="U129" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -11753,8 +12134,11 @@
       <c r="T130" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="131" spans="1:20">
+      <c r="U130" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -11812,8 +12196,11 @@
       <c r="T131" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="132" spans="1:20">
+      <c r="U131" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -11865,8 +12252,11 @@
       <c r="T132" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="133" spans="1:20">
+      <c r="U132" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -11924,8 +12314,11 @@
       <c r="T133" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="134" spans="1:20">
+      <c r="U133" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -11974,8 +12367,11 @@
       <c r="R134" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="135" spans="1:20">
+      <c r="U134" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12033,8 +12429,11 @@
       <c r="T135" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="136" spans="1:20">
+      <c r="U135" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12092,8 +12491,11 @@
       <c r="T136" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="137" spans="1:20">
+      <c r="U136" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12145,8 +12547,11 @@
       <c r="T137" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="138" spans="1:20">
+      <c r="U137" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12203,6 +12608,9 @@
       </c>
       <c r="T138" t="s">
         <v>1293</v>
+      </c>
+      <c r="U138" t="s">
+        <v>1294</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1296">
   <si>
     <t>Start time</t>
   </si>
@@ -1789,7 +1789,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Diogo%20Saraiva,%20photo_Diogo%20Vieira%20Pedro%20M.tiff</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/photo%20Marianne%20-%20Copy_Marianne%20Bijl.jpg</t>
+    <t>../manual_files/Materials Chemistry and Catalysis (MCC)/portrait 43 Marianne Bijl.jpg</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/2023_S.%20Ferwerda-01-01-1_Sofie%20Ferwerda.tiff</t>
@@ -1834,7 +1834,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Picture_Roy-Hoitink-01_Roy%20Hoitink.tiff</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/profile%20photo_Jesse%20B%C3%BCckmann%201.jpg</t>
+    <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/portrait 58 Jesse Buckmann.jpg</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Debye%20booklet%20foto-01_Jelle%20Kranenborg.jpg</t>
@@ -2137,7 +2137,7 @@
     <t>../manual_files/Materials Chemistry and Catalysis (MCC)/project_description 21 Suzan Schoemaker.docx;../manual_files/Materials Chemistry and Catalysis (MCC)/references 21 Suzan Schoemaker.xlsx</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B8A4578AA-98DD-4035-8DA7-6F9D51E53D54%7D&amp;file=Debye_booklet_2023_JVliem_v2_Jara%20Vliem.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BB45EE125-5090-4E80-BF9B-B71FD8574F05%7D&amp;file=bibtex_references_debyebooklet_2023_Jara%20Vliem.docx&amp;action=default&amp;mobileredirect=true</t>
+    <t>../manual_files/Condensed Matter and Interfaces (CMI)/project_description 22 Jara Vliem.docx;../manual_files/Condensed Matter and Interfaces (CMI)/references 22 Jara Vliem.docx</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B70815227-DC58-454D-9FA6-ED962F5636A0%7D&amp;file=DebyeBookletRefs_Ayla%20Dekker.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BDA17FF6F-A6DC-464F-BBCA-FEA7F5218103%7D&amp;file=DebyeBookletAD_Ayla%20Dekker%201.docx&amp;action=default&amp;mobileredirect=true</t>
@@ -3896,9 +3896,6 @@
   </si>
   <si>
     <t>Postdoc</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>Main steps in methane decomposition. 1) Carbon supply: Methane adsorption and dissociation. Hz gas is released. 2) Carbon transport: C-atoms diffuse through or over the catalyst. 3) Formation: carbon nanostructures are formed. 4) Deactivation: formation of defective carbon lavers at the surface.</t>
@@ -4405,9 +4402,6 @@
       <c r="T2" t="s">
         <v>1292</v>
       </c>
-      <c r="U2" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
@@ -4461,9 +4455,6 @@
       <c r="T3" t="s">
         <v>1292</v>
       </c>
-      <c r="U3" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
@@ -4523,9 +4514,6 @@
       <c r="T4" t="s">
         <v>1292</v>
       </c>
-      <c r="U4" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
@@ -4585,9 +4573,6 @@
       <c r="T5" t="s">
         <v>1292</v>
       </c>
-      <c r="U5" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
@@ -4641,9 +4626,6 @@
       <c r="T6" t="s">
         <v>1292</v>
       </c>
-      <c r="U6" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
@@ -4694,9 +4676,6 @@
       <c r="T7" t="s">
         <v>1292</v>
       </c>
-      <c r="U7" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
@@ -4750,9 +4729,6 @@
       <c r="T8" t="s">
         <v>1292</v>
       </c>
-      <c r="U8" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
@@ -4815,9 +4791,6 @@
       <c r="T9" t="s">
         <v>1292</v>
       </c>
-      <c r="U9" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
@@ -4877,9 +4850,6 @@
       <c r="T10" t="s">
         <v>1292</v>
       </c>
-      <c r="U10" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
@@ -4936,9 +4906,6 @@
       <c r="T11" t="s">
         <v>1292</v>
       </c>
-      <c r="U11" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
@@ -4992,9 +4959,6 @@
       <c r="T12" t="s">
         <v>1292</v>
       </c>
-      <c r="U12" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
@@ -5054,9 +5018,6 @@
       <c r="T13" t="s">
         <v>1292</v>
       </c>
-      <c r="U13" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
@@ -5110,9 +5071,6 @@
       <c r="T14" t="s">
         <v>1292</v>
       </c>
-      <c r="U14" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
@@ -5172,9 +5130,6 @@
       <c r="T15" t="s">
         <v>1293</v>
       </c>
-      <c r="U15" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
@@ -5234,9 +5189,6 @@
       <c r="T16" t="s">
         <v>1292</v>
       </c>
-      <c r="U16" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1">
@@ -5296,9 +5248,6 @@
       <c r="T17" t="s">
         <v>1292</v>
       </c>
-      <c r="U17" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1">
@@ -5352,9 +5301,6 @@
       <c r="T18" t="s">
         <v>1292</v>
       </c>
-      <c r="U18" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1">
@@ -5414,9 +5360,6 @@
       <c r="T19" t="s">
         <v>1293</v>
       </c>
-      <c r="U19" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1">
@@ -5476,9 +5419,6 @@
       <c r="T20" t="s">
         <v>1292</v>
       </c>
-      <c r="U20" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1">
@@ -5532,9 +5472,6 @@
       <c r="T21" t="s">
         <v>1292</v>
       </c>
-      <c r="U21" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1">
@@ -5595,7 +5532,7 @@
         <v>1292</v>
       </c>
       <c r="U22" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -5635,7 +5572,7 @@
       <c r="M23" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" t="s">
         <v>707</v>
       </c>
       <c r="O23" t="s">
@@ -5655,9 +5592,6 @@
       </c>
       <c r="T23" t="s">
         <v>1292</v>
-      </c>
-      <c r="U23" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -5718,9 +5652,6 @@
       <c r="T24" t="s">
         <v>1292</v>
       </c>
-      <c r="U24" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1">
@@ -5780,9 +5711,6 @@
       <c r="T25" t="s">
         <v>1292</v>
       </c>
-      <c r="U25" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1">
@@ -5836,9 +5764,6 @@
       <c r="T26" t="s">
         <v>1292</v>
       </c>
-      <c r="U26" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1">
@@ -5898,9 +5823,6 @@
       <c r="T27" t="s">
         <v>1292</v>
       </c>
-      <c r="U27" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1">
@@ -5960,9 +5882,6 @@
       <c r="T28" t="s">
         <v>1292</v>
       </c>
-      <c r="U28" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1">
@@ -6019,9 +5938,6 @@
       <c r="T29" t="s">
         <v>1292</v>
       </c>
-      <c r="U29" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1">
@@ -6081,9 +5997,6 @@
       <c r="T30" t="s">
         <v>1292</v>
       </c>
-      <c r="U30" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1">
@@ -6143,9 +6056,6 @@
       <c r="T31" t="s">
         <v>1292</v>
       </c>
-      <c r="U31" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1">
@@ -6205,9 +6115,6 @@
       <c r="T32" t="s">
         <v>1292</v>
       </c>
-      <c r="U32" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1">
@@ -6267,9 +6174,6 @@
       <c r="T33" t="s">
         <v>1292</v>
       </c>
-      <c r="U33" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1">
@@ -6323,9 +6227,6 @@
       <c r="T34" t="s">
         <v>1292</v>
       </c>
-      <c r="U34" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1">
@@ -6383,7 +6284,7 @@
         <v>1292</v>
       </c>
       <c r="U35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -6447,9 +6348,6 @@
       <c r="T36" t="s">
         <v>1292</v>
       </c>
-      <c r="U36" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1">
@@ -6506,9 +6404,6 @@
       <c r="T37" t="s">
         <v>1293</v>
       </c>
-      <c r="U37" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1">
@@ -6568,9 +6463,6 @@
       <c r="T38" t="s">
         <v>1292</v>
       </c>
-      <c r="U38" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1">
@@ -6630,9 +6522,6 @@
       <c r="T39" t="s">
         <v>1292</v>
       </c>
-      <c r="U39" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1">
@@ -6692,9 +6581,6 @@
       <c r="T40" t="s">
         <v>1292</v>
       </c>
-      <c r="U40" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1">
@@ -6754,9 +6640,6 @@
       <c r="T41" t="s">
         <v>1292</v>
       </c>
-      <c r="U41" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1">
@@ -6810,9 +6693,6 @@
       <c r="T42" t="s">
         <v>1292</v>
       </c>
-      <c r="U42" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1">
@@ -6872,9 +6752,6 @@
       <c r="T43" t="s">
         <v>1292</v>
       </c>
-      <c r="U43" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1">
@@ -6910,7 +6787,7 @@
       <c r="K44" t="s">
         <v>455</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" t="s">
         <v>591</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -6927,9 +6804,6 @@
       </c>
       <c r="T44" t="s">
         <v>1292</v>
-      </c>
-      <c r="U44" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -6987,9 +6861,6 @@
       <c r="T45" t="s">
         <v>1292</v>
       </c>
-      <c r="U45" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1">
@@ -7049,9 +6920,6 @@
       <c r="T46" t="s">
         <v>1293</v>
       </c>
-      <c r="U46" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1">
@@ -7111,9 +6979,6 @@
       <c r="T47" t="s">
         <v>1292</v>
       </c>
-      <c r="U47" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1">
@@ -7173,11 +7038,8 @@
       <c r="T48" t="s">
         <v>1293</v>
       </c>
-      <c r="U48" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7232,11 +7094,8 @@
       <c r="T49" t="s">
         <v>1292</v>
       </c>
-      <c r="U49" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7294,11 +7153,8 @@
       <c r="T50" t="s">
         <v>1292</v>
       </c>
-      <c r="U50" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7350,11 +7206,8 @@
       <c r="T51" t="s">
         <v>1292</v>
       </c>
-      <c r="U51" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7412,11 +7265,8 @@
       <c r="T52" t="s">
         <v>1292</v>
       </c>
-      <c r="U52" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7477,11 +7327,8 @@
       <c r="T53" t="s">
         <v>1292</v>
       </c>
-      <c r="U53" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7539,11 +7386,8 @@
       <c r="T54" t="s">
         <v>1293</v>
       </c>
-      <c r="U54" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7598,11 +7442,8 @@
       <c r="T55" t="s">
         <v>1293</v>
       </c>
-      <c r="U55" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7657,11 +7498,8 @@
       <c r="T56" t="s">
         <v>1292</v>
       </c>
-      <c r="U56" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7719,11 +7557,8 @@
       <c r="T57" t="s">
         <v>1292</v>
       </c>
-      <c r="U57" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7781,11 +7616,8 @@
       <c r="T58" t="s">
         <v>1292</v>
       </c>
-      <c r="U58" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7822,7 +7654,7 @@
       <c r="L59" t="s">
         <v>542</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M59" t="s">
         <v>606</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -7846,11 +7678,8 @@
       <c r="T59" t="s">
         <v>1292</v>
       </c>
-      <c r="U59" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7902,11 +7731,8 @@
       <c r="T60" t="s">
         <v>1292</v>
       </c>
-      <c r="U60" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7964,11 +7790,8 @@
       <c r="T61" t="s">
         <v>1292</v>
       </c>
-      <c r="U61" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8026,11 +7849,8 @@
       <c r="T62" t="s">
         <v>1292</v>
       </c>
-      <c r="U62" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8082,11 +7902,8 @@
       <c r="T63" t="s">
         <v>1292</v>
       </c>
-      <c r="U63" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8144,11 +7961,8 @@
       <c r="T64" t="s">
         <v>1292</v>
       </c>
-      <c r="U64" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8200,11 +8014,8 @@
       <c r="T65" t="s">
         <v>1292</v>
       </c>
-      <c r="U65" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8262,11 +8073,8 @@
       <c r="T66" t="s">
         <v>1292</v>
       </c>
-      <c r="U66" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8324,11 +8132,8 @@
       <c r="T67" t="s">
         <v>1292</v>
       </c>
-      <c r="U67" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8389,11 +8194,8 @@
       <c r="T68" t="s">
         <v>1292</v>
       </c>
-      <c r="U68" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8451,11 +8253,8 @@
       <c r="T69" t="s">
         <v>1292</v>
       </c>
-      <c r="U69" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8513,11 +8312,8 @@
       <c r="T70" t="s">
         <v>1292</v>
       </c>
-      <c r="U70" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8569,11 +8365,8 @@
       <c r="T71" t="s">
         <v>1292</v>
       </c>
-      <c r="U71" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8631,11 +8424,8 @@
       <c r="T72" t="s">
         <v>1292</v>
       </c>
-      <c r="U72" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8693,11 +8483,8 @@
       <c r="T73" t="s">
         <v>1292</v>
       </c>
-      <c r="U73" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8749,11 +8536,8 @@
       <c r="T74" t="s">
         <v>1293</v>
       </c>
-      <c r="U74" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8811,11 +8595,8 @@
       <c r="T75" t="s">
         <v>1292</v>
       </c>
-      <c r="U75" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8873,11 +8654,8 @@
       <c r="T76" t="s">
         <v>1292</v>
       </c>
-      <c r="U76" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8935,11 +8713,8 @@
       <c r="T77" t="s">
         <v>1292</v>
       </c>
-      <c r="U77" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8997,11 +8772,8 @@
       <c r="T78" t="s">
         <v>1292</v>
       </c>
-      <c r="U78" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9062,11 +8834,8 @@
       <c r="T79" t="s">
         <v>1292</v>
       </c>
-      <c r="U79" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -9124,11 +8893,8 @@
       <c r="T80" t="s">
         <v>1292</v>
       </c>
-      <c r="U80" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -9189,11 +8955,8 @@
       <c r="T81" t="s">
         <v>1292</v>
       </c>
-      <c r="U81" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -9251,11 +9014,8 @@
       <c r="T82" t="s">
         <v>1292</v>
       </c>
-      <c r="U82" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -9316,11 +9076,8 @@
       <c r="T83" t="s">
         <v>1292</v>
       </c>
-      <c r="U83" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9372,11 +9129,8 @@
       <c r="T84" t="s">
         <v>1292</v>
       </c>
-      <c r="U84" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9431,11 +9185,8 @@
       <c r="T85" t="s">
         <v>1293</v>
       </c>
-      <c r="U85" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9493,11 +9244,8 @@
       <c r="T86" t="s">
         <v>1292</v>
       </c>
-      <c r="U86" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9555,11 +9303,8 @@
       <c r="T87" t="s">
         <v>1292</v>
       </c>
-      <c r="U87" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9617,11 +9362,8 @@
       <c r="T88" t="s">
         <v>1292</v>
       </c>
-      <c r="U88" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9673,11 +9415,8 @@
       <c r="T89" t="s">
         <v>1293</v>
       </c>
-      <c r="U89" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9735,11 +9474,8 @@
       <c r="T90" t="s">
         <v>1292</v>
       </c>
-      <c r="U90" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9797,11 +9533,8 @@
       <c r="T91" t="s">
         <v>1292</v>
       </c>
-      <c r="U91" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9859,11 +9592,8 @@
       <c r="T92" t="s">
         <v>1293</v>
       </c>
-      <c r="U92" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9915,11 +9645,8 @@
       <c r="T93" t="s">
         <v>1293</v>
       </c>
-      <c r="U93" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9974,11 +9701,8 @@
       <c r="T94" t="s">
         <v>1292</v>
       </c>
-      <c r="U94" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10033,11 +9757,8 @@
       <c r="T95" t="s">
         <v>1292</v>
       </c>
-      <c r="U95" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10092,11 +9813,8 @@
       <c r="T96" t="s">
         <v>1292</v>
       </c>
-      <c r="U96" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10154,11 +9872,8 @@
       <c r="T97" t="s">
         <v>1293</v>
       </c>
-      <c r="U97" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10201,11 +9916,8 @@
       <c r="R98" t="s">
         <v>1156</v>
       </c>
-      <c r="U98" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10260,11 +9972,8 @@
       <c r="T99" t="s">
         <v>1292</v>
       </c>
-      <c r="U99" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10319,11 +10028,8 @@
       <c r="T100" t="s">
         <v>1292</v>
       </c>
-      <c r="U100" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10381,11 +10087,8 @@
       <c r="T101" t="s">
         <v>1292</v>
       </c>
-      <c r="U101" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10443,11 +10146,8 @@
       <c r="T102" t="s">
         <v>1292</v>
       </c>
-      <c r="U102" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10505,11 +10205,8 @@
       <c r="T103" t="s">
         <v>1292</v>
       </c>
-      <c r="U103" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10567,11 +10264,8 @@
       <c r="T104" t="s">
         <v>1293</v>
       </c>
-      <c r="U104" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10629,11 +10323,8 @@
       <c r="T105" t="s">
         <v>1292</v>
       </c>
-      <c r="U105" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10691,11 +10382,8 @@
       <c r="T106" t="s">
         <v>1292</v>
       </c>
-      <c r="U106" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10753,11 +10441,8 @@
       <c r="T107" t="s">
         <v>1292</v>
       </c>
-      <c r="U107" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10809,11 +10494,8 @@
       <c r="T108" t="s">
         <v>1292</v>
       </c>
-      <c r="U108" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10874,11 +10556,8 @@
       <c r="T109" t="s">
         <v>1292</v>
       </c>
-      <c r="U109" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10936,11 +10615,8 @@
       <c r="T110" t="s">
         <v>1292</v>
       </c>
-      <c r="U110" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11001,11 +10677,8 @@
       <c r="T111" t="s">
         <v>1292</v>
       </c>
-      <c r="U111" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11057,11 +10730,8 @@
       <c r="T112" t="s">
         <v>1292</v>
       </c>
-      <c r="U112" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11113,11 +10783,8 @@
       <c r="T113" t="s">
         <v>1292</v>
       </c>
-      <c r="U113" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11175,11 +10842,8 @@
       <c r="T114" t="s">
         <v>1292</v>
       </c>
-      <c r="U114" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21">
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11231,11 +10895,8 @@
       <c r="T115" t="s">
         <v>1292</v>
       </c>
-      <c r="U115" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21">
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11293,11 +10954,8 @@
       <c r="T116" t="s">
         <v>1292</v>
       </c>
-      <c r="U116" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11358,11 +11016,8 @@
       <c r="T117" t="s">
         <v>1293</v>
       </c>
-      <c r="U117" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21">
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11420,11 +11075,8 @@
       <c r="T118" t="s">
         <v>1292</v>
       </c>
-      <c r="U118" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21">
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11482,11 +11134,8 @@
       <c r="T119" t="s">
         <v>1292</v>
       </c>
-      <c r="U119" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21">
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11544,11 +11193,8 @@
       <c r="T120" t="s">
         <v>1292</v>
       </c>
-      <c r="U120" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21">
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11597,11 +11243,8 @@
       <c r="T121" t="s">
         <v>1293</v>
       </c>
-      <c r="U121" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21">
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11659,11 +11302,8 @@
       <c r="T122" t="s">
         <v>1293</v>
       </c>
-      <c r="U122" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21">
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11721,11 +11361,8 @@
       <c r="T123" t="s">
         <v>1292</v>
       </c>
-      <c r="U123" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21">
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11774,11 +11411,8 @@
       <c r="T124" t="s">
         <v>1292</v>
       </c>
-      <c r="U124" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21">
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11830,11 +11464,8 @@
       <c r="T125" t="s">
         <v>1292</v>
       </c>
-      <c r="U125" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21">
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11892,11 +11523,8 @@
       <c r="T126" t="s">
         <v>1292</v>
       </c>
-      <c r="U126" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21">
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11954,11 +11582,8 @@
       <c r="T127" t="s">
         <v>1293</v>
       </c>
-      <c r="U127" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21">
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12016,11 +11641,8 @@
       <c r="T128" t="s">
         <v>1292</v>
       </c>
-      <c r="U128" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21">
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12078,11 +11700,8 @@
       <c r="T129" t="s">
         <v>1292</v>
       </c>
-      <c r="U129" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12134,11 +11753,8 @@
       <c r="T130" t="s">
         <v>1292</v>
       </c>
-      <c r="U130" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12196,11 +11812,8 @@
       <c r="T131" t="s">
         <v>1292</v>
       </c>
-      <c r="U131" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21">
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12252,11 +11865,8 @@
       <c r="T132" t="s">
         <v>1293</v>
       </c>
-      <c r="U132" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12314,11 +11924,8 @@
       <c r="T133" t="s">
         <v>1293</v>
       </c>
-      <c r="U133" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21">
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12367,11 +11974,8 @@
       <c r="R134" t="s">
         <v>1155</v>
       </c>
-      <c r="U134" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21">
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12429,11 +12033,8 @@
       <c r="T135" t="s">
         <v>1293</v>
       </c>
-      <c r="U135" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12491,11 +12092,8 @@
       <c r="T136" t="s">
         <v>1292</v>
       </c>
-      <c r="U136" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21">
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12547,11 +12145,8 @@
       <c r="T137" t="s">
         <v>1292</v>
       </c>
-      <c r="U137" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21">
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12608,9 +12203,6 @@
       </c>
       <c r="T138" t="s">
         <v>1293</v>
-      </c>
-      <c r="U138" t="s">
-        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -12663,300 +12255,297 @@
     <hyperlink ref="M22" r:id="rId46"/>
     <hyperlink ref="P22" r:id="rId47"/>
     <hyperlink ref="M23" r:id="rId48"/>
-    <hyperlink ref="N23" r:id="rId49"/>
-    <hyperlink ref="P23" r:id="rId50"/>
-    <hyperlink ref="M24" r:id="rId51"/>
-    <hyperlink ref="N24" r:id="rId52"/>
-    <hyperlink ref="P24" r:id="rId53"/>
-    <hyperlink ref="M25" r:id="rId54"/>
-    <hyperlink ref="N25" r:id="rId55"/>
-    <hyperlink ref="P25" r:id="rId56"/>
-    <hyperlink ref="M26" r:id="rId57"/>
-    <hyperlink ref="N26" r:id="rId58"/>
-    <hyperlink ref="M27" r:id="rId59"/>
-    <hyperlink ref="N27" r:id="rId60"/>
-    <hyperlink ref="P27" r:id="rId61"/>
-    <hyperlink ref="M28" r:id="rId62"/>
-    <hyperlink ref="N28" r:id="rId63"/>
-    <hyperlink ref="P28" r:id="rId64"/>
-    <hyperlink ref="M29" r:id="rId65"/>
-    <hyperlink ref="N29" r:id="rId66"/>
-    <hyperlink ref="M30" r:id="rId67"/>
-    <hyperlink ref="N30" r:id="rId68"/>
-    <hyperlink ref="P30" r:id="rId69"/>
-    <hyperlink ref="M31" r:id="rId70"/>
-    <hyperlink ref="N31" r:id="rId71"/>
-    <hyperlink ref="P31" r:id="rId72"/>
-    <hyperlink ref="M32" r:id="rId73"/>
-    <hyperlink ref="N32" r:id="rId74"/>
-    <hyperlink ref="P32" r:id="rId75"/>
-    <hyperlink ref="M33" r:id="rId76"/>
-    <hyperlink ref="N33" r:id="rId77"/>
-    <hyperlink ref="P33" r:id="rId78"/>
-    <hyperlink ref="M34" r:id="rId79"/>
-    <hyperlink ref="N34" r:id="rId80"/>
-    <hyperlink ref="M35" r:id="rId81"/>
-    <hyperlink ref="P35" r:id="rId82"/>
-    <hyperlink ref="M36" r:id="rId83"/>
-    <hyperlink ref="N36" r:id="rId84"/>
-    <hyperlink ref="P36" r:id="rId85"/>
-    <hyperlink ref="M37" r:id="rId86"/>
-    <hyperlink ref="N37" r:id="rId87"/>
-    <hyperlink ref="P37" r:id="rId88"/>
-    <hyperlink ref="M38" r:id="rId89"/>
-    <hyperlink ref="N38" r:id="rId90"/>
-    <hyperlink ref="P38" r:id="rId91"/>
-    <hyperlink ref="M39" r:id="rId92"/>
-    <hyperlink ref="P39" r:id="rId93"/>
-    <hyperlink ref="M40" r:id="rId94"/>
-    <hyperlink ref="N40" r:id="rId95"/>
-    <hyperlink ref="P40" r:id="rId96"/>
-    <hyperlink ref="M41" r:id="rId97"/>
-    <hyperlink ref="N41" r:id="rId98"/>
-    <hyperlink ref="P41" r:id="rId99"/>
-    <hyperlink ref="M42" r:id="rId100"/>
-    <hyperlink ref="N42" r:id="rId101"/>
-    <hyperlink ref="M43" r:id="rId102"/>
-    <hyperlink ref="N43" r:id="rId103"/>
-    <hyperlink ref="P43" r:id="rId104"/>
-    <hyperlink ref="M44" r:id="rId105"/>
-    <hyperlink ref="N44" r:id="rId106"/>
-    <hyperlink ref="M45" r:id="rId107"/>
-    <hyperlink ref="N45" r:id="rId108"/>
-    <hyperlink ref="M46" r:id="rId109"/>
-    <hyperlink ref="N46" r:id="rId110"/>
-    <hyperlink ref="P46" r:id="rId111"/>
-    <hyperlink ref="M47" r:id="rId112"/>
-    <hyperlink ref="N47" r:id="rId113"/>
-    <hyperlink ref="P47" r:id="rId114"/>
-    <hyperlink ref="M48" r:id="rId115"/>
-    <hyperlink ref="M49" r:id="rId116"/>
-    <hyperlink ref="N49" r:id="rId117"/>
-    <hyperlink ref="M50" r:id="rId118"/>
-    <hyperlink ref="N50" r:id="rId119"/>
-    <hyperlink ref="P50" r:id="rId120"/>
-    <hyperlink ref="M51" r:id="rId121"/>
-    <hyperlink ref="N51" r:id="rId122"/>
-    <hyperlink ref="M52" r:id="rId123"/>
-    <hyperlink ref="N52" r:id="rId124"/>
-    <hyperlink ref="P52" r:id="rId125"/>
-    <hyperlink ref="M53" r:id="rId126"/>
-    <hyperlink ref="N53" r:id="rId127"/>
-    <hyperlink ref="P53" r:id="rId128"/>
-    <hyperlink ref="M54" r:id="rId129"/>
-    <hyperlink ref="N54" r:id="rId130"/>
-    <hyperlink ref="P54" r:id="rId131"/>
-    <hyperlink ref="M55" r:id="rId132"/>
-    <hyperlink ref="P55" r:id="rId133"/>
-    <hyperlink ref="M56" r:id="rId134"/>
-    <hyperlink ref="P56" r:id="rId135"/>
-    <hyperlink ref="M57" r:id="rId136"/>
-    <hyperlink ref="N57" r:id="rId137"/>
-    <hyperlink ref="P57" r:id="rId138"/>
-    <hyperlink ref="M58" r:id="rId139"/>
-    <hyperlink ref="N58" r:id="rId140"/>
-    <hyperlink ref="P58" r:id="rId141"/>
-    <hyperlink ref="M59" r:id="rId142"/>
-    <hyperlink ref="N59" r:id="rId143"/>
-    <hyperlink ref="P59" r:id="rId144"/>
-    <hyperlink ref="M60" r:id="rId145"/>
-    <hyperlink ref="N60" r:id="rId146"/>
-    <hyperlink ref="M61" r:id="rId147"/>
-    <hyperlink ref="P61" r:id="rId148"/>
-    <hyperlink ref="M62" r:id="rId149"/>
-    <hyperlink ref="N62" r:id="rId150"/>
-    <hyperlink ref="P62" r:id="rId151"/>
-    <hyperlink ref="M63" r:id="rId152"/>
-    <hyperlink ref="N63" r:id="rId153"/>
-    <hyperlink ref="M64" r:id="rId154"/>
-    <hyperlink ref="N64" r:id="rId155"/>
-    <hyperlink ref="P64" r:id="rId156"/>
-    <hyperlink ref="M65" r:id="rId157"/>
-    <hyperlink ref="N65" r:id="rId158"/>
-    <hyperlink ref="M66" r:id="rId159"/>
-    <hyperlink ref="N66" r:id="rId160"/>
-    <hyperlink ref="P66" r:id="rId161"/>
-    <hyperlink ref="M67" r:id="rId162"/>
-    <hyperlink ref="N67" r:id="rId163"/>
-    <hyperlink ref="P67" r:id="rId164"/>
-    <hyperlink ref="M68" r:id="rId165"/>
-    <hyperlink ref="N68" r:id="rId166"/>
-    <hyperlink ref="P68" r:id="rId167"/>
-    <hyperlink ref="M69" r:id="rId168"/>
-    <hyperlink ref="P69" r:id="rId169"/>
-    <hyperlink ref="M70" r:id="rId170"/>
-    <hyperlink ref="N70" r:id="rId171"/>
-    <hyperlink ref="P70" r:id="rId172"/>
-    <hyperlink ref="M71" r:id="rId173"/>
-    <hyperlink ref="N71" r:id="rId174"/>
-    <hyperlink ref="M72" r:id="rId175"/>
-    <hyperlink ref="N72" r:id="rId176"/>
-    <hyperlink ref="P72" r:id="rId177"/>
-    <hyperlink ref="M73" r:id="rId178"/>
-    <hyperlink ref="N73" r:id="rId179"/>
-    <hyperlink ref="P73" r:id="rId180"/>
-    <hyperlink ref="M74" r:id="rId181"/>
-    <hyperlink ref="N74" r:id="rId182"/>
-    <hyperlink ref="M75" r:id="rId183"/>
-    <hyperlink ref="N75" r:id="rId184"/>
-    <hyperlink ref="P75" r:id="rId185"/>
-    <hyperlink ref="M76" r:id="rId186"/>
-    <hyperlink ref="N76" r:id="rId187"/>
-    <hyperlink ref="P76" r:id="rId188"/>
-    <hyperlink ref="M77" r:id="rId189"/>
-    <hyperlink ref="N77" r:id="rId190"/>
-    <hyperlink ref="P77" r:id="rId191"/>
-    <hyperlink ref="M78" r:id="rId192"/>
-    <hyperlink ref="N78" r:id="rId193"/>
-    <hyperlink ref="P78" r:id="rId194"/>
-    <hyperlink ref="M79" r:id="rId195"/>
-    <hyperlink ref="P79" r:id="rId196"/>
-    <hyperlink ref="M80" r:id="rId197"/>
-    <hyperlink ref="N80" r:id="rId198"/>
-    <hyperlink ref="P80" r:id="rId199"/>
-    <hyperlink ref="M81" r:id="rId200"/>
-    <hyperlink ref="N81" r:id="rId201"/>
-    <hyperlink ref="P81" r:id="rId202"/>
-    <hyperlink ref="M82" r:id="rId203"/>
-    <hyperlink ref="N82" r:id="rId204"/>
-    <hyperlink ref="P82" r:id="rId205"/>
-    <hyperlink ref="M83" r:id="rId206"/>
-    <hyperlink ref="N83" r:id="rId207"/>
-    <hyperlink ref="P83" r:id="rId208"/>
-    <hyperlink ref="M84" r:id="rId209"/>
-    <hyperlink ref="N84" r:id="rId210"/>
-    <hyperlink ref="M86" r:id="rId211"/>
-    <hyperlink ref="N86" r:id="rId212"/>
-    <hyperlink ref="P86" r:id="rId213"/>
-    <hyperlink ref="M87" r:id="rId214"/>
-    <hyperlink ref="P87" r:id="rId215"/>
-    <hyperlink ref="M88" r:id="rId216"/>
-    <hyperlink ref="N88" r:id="rId217"/>
-    <hyperlink ref="P88" r:id="rId218"/>
-    <hyperlink ref="M89" r:id="rId219"/>
-    <hyperlink ref="N89" r:id="rId220"/>
-    <hyperlink ref="M90" r:id="rId221"/>
-    <hyperlink ref="N90" r:id="rId222"/>
-    <hyperlink ref="P90" r:id="rId223"/>
-    <hyperlink ref="M91" r:id="rId224"/>
-    <hyperlink ref="N91" r:id="rId225"/>
-    <hyperlink ref="P91" r:id="rId226"/>
-    <hyperlink ref="M92" r:id="rId227"/>
-    <hyperlink ref="P92" r:id="rId228"/>
-    <hyperlink ref="M93" r:id="rId229"/>
-    <hyperlink ref="N93" r:id="rId230"/>
-    <hyperlink ref="M94" r:id="rId231"/>
-    <hyperlink ref="N94" r:id="rId232"/>
-    <hyperlink ref="P94" r:id="rId233"/>
-    <hyperlink ref="M95" r:id="rId234"/>
-    <hyperlink ref="P95" r:id="rId235"/>
-    <hyperlink ref="M96" r:id="rId236"/>
-    <hyperlink ref="N96" r:id="rId237"/>
-    <hyperlink ref="M97" r:id="rId238"/>
-    <hyperlink ref="N97" r:id="rId239"/>
-    <hyperlink ref="P97" r:id="rId240"/>
-    <hyperlink ref="M98" r:id="rId241"/>
-    <hyperlink ref="N98" r:id="rId242"/>
-    <hyperlink ref="M99" r:id="rId243"/>
-    <hyperlink ref="P99" r:id="rId244"/>
-    <hyperlink ref="M100" r:id="rId245"/>
-    <hyperlink ref="P100" r:id="rId246"/>
-    <hyperlink ref="M101" r:id="rId247"/>
-    <hyperlink ref="N101" r:id="rId248"/>
-    <hyperlink ref="P101" r:id="rId249"/>
-    <hyperlink ref="M102" r:id="rId250"/>
-    <hyperlink ref="N102" r:id="rId251"/>
-    <hyperlink ref="P102" r:id="rId252"/>
-    <hyperlink ref="M103" r:id="rId253"/>
-    <hyperlink ref="P103" r:id="rId254"/>
-    <hyperlink ref="M104" r:id="rId255"/>
-    <hyperlink ref="N104" r:id="rId256"/>
-    <hyperlink ref="P104" r:id="rId257"/>
-    <hyperlink ref="M105" r:id="rId258"/>
-    <hyperlink ref="N105" r:id="rId259"/>
-    <hyperlink ref="P105" r:id="rId260"/>
-    <hyperlink ref="M106" r:id="rId261"/>
-    <hyperlink ref="N106" r:id="rId262"/>
-    <hyperlink ref="P106" r:id="rId263"/>
-    <hyperlink ref="M107" r:id="rId264"/>
-    <hyperlink ref="N107" r:id="rId265"/>
-    <hyperlink ref="P107" r:id="rId266"/>
-    <hyperlink ref="M108" r:id="rId267"/>
-    <hyperlink ref="N108" r:id="rId268"/>
-    <hyperlink ref="M109" r:id="rId269"/>
-    <hyperlink ref="N109" r:id="rId270"/>
-    <hyperlink ref="P109" r:id="rId271"/>
-    <hyperlink ref="M110" r:id="rId272"/>
-    <hyperlink ref="N110" r:id="rId273"/>
-    <hyperlink ref="P110" r:id="rId274"/>
-    <hyperlink ref="M111" r:id="rId275"/>
-    <hyperlink ref="N111" r:id="rId276"/>
-    <hyperlink ref="P111" r:id="rId277"/>
-    <hyperlink ref="M112" r:id="rId278"/>
-    <hyperlink ref="M113" r:id="rId279"/>
-    <hyperlink ref="N113" r:id="rId280"/>
-    <hyperlink ref="M114" r:id="rId281"/>
-    <hyperlink ref="N114" r:id="rId282"/>
-    <hyperlink ref="P114" r:id="rId283"/>
-    <hyperlink ref="M115" r:id="rId284"/>
-    <hyperlink ref="N115" r:id="rId285"/>
-    <hyperlink ref="M116" r:id="rId286"/>
-    <hyperlink ref="P116" r:id="rId287"/>
-    <hyperlink ref="M117" r:id="rId288"/>
-    <hyperlink ref="N117" r:id="rId289"/>
-    <hyperlink ref="P117" r:id="rId290"/>
-    <hyperlink ref="M118" r:id="rId291"/>
-    <hyperlink ref="N118" r:id="rId292"/>
-    <hyperlink ref="P118" r:id="rId293"/>
-    <hyperlink ref="M119" r:id="rId294"/>
-    <hyperlink ref="N119" r:id="rId295"/>
-    <hyperlink ref="P119" r:id="rId296"/>
-    <hyperlink ref="M120" r:id="rId297"/>
-    <hyperlink ref="N120" r:id="rId298"/>
-    <hyperlink ref="P120" r:id="rId299"/>
-    <hyperlink ref="M121" r:id="rId300"/>
-    <hyperlink ref="M122" r:id="rId301"/>
-    <hyperlink ref="N122" r:id="rId302"/>
-    <hyperlink ref="P122" r:id="rId303"/>
-    <hyperlink ref="M123" r:id="rId304"/>
-    <hyperlink ref="N123" r:id="rId305"/>
-    <hyperlink ref="P123" r:id="rId306"/>
-    <hyperlink ref="M124" r:id="rId307"/>
-    <hyperlink ref="M125" r:id="rId308"/>
-    <hyperlink ref="N125" r:id="rId309"/>
-    <hyperlink ref="M126" r:id="rId310"/>
-    <hyperlink ref="N126" r:id="rId311"/>
-    <hyperlink ref="P126" r:id="rId312"/>
-    <hyperlink ref="M127" r:id="rId313"/>
-    <hyperlink ref="N127" r:id="rId314"/>
-    <hyperlink ref="P127" r:id="rId315"/>
-    <hyperlink ref="M128" r:id="rId316"/>
-    <hyperlink ref="P128" r:id="rId317"/>
-    <hyperlink ref="M129" r:id="rId318"/>
-    <hyperlink ref="N129" r:id="rId319"/>
-    <hyperlink ref="P129" r:id="rId320"/>
-    <hyperlink ref="M130" r:id="rId321"/>
-    <hyperlink ref="N130" r:id="rId322"/>
-    <hyperlink ref="M131" r:id="rId323"/>
-    <hyperlink ref="N131" r:id="rId324"/>
-    <hyperlink ref="M132" r:id="rId325"/>
-    <hyperlink ref="M133" r:id="rId326"/>
-    <hyperlink ref="N133" r:id="rId327"/>
-    <hyperlink ref="P133" r:id="rId328"/>
-    <hyperlink ref="M134" r:id="rId329"/>
-    <hyperlink ref="N134" r:id="rId330"/>
-    <hyperlink ref="P134" r:id="rId331"/>
-    <hyperlink ref="M135" r:id="rId332"/>
-    <hyperlink ref="N135" r:id="rId333"/>
-    <hyperlink ref="P135" r:id="rId334"/>
-    <hyperlink ref="M136" r:id="rId335"/>
-    <hyperlink ref="N136" r:id="rId336"/>
-    <hyperlink ref="P136" r:id="rId337"/>
-    <hyperlink ref="M137" r:id="rId338"/>
-    <hyperlink ref="N137" r:id="rId339"/>
-    <hyperlink ref="M138" r:id="rId340"/>
-    <hyperlink ref="N138" r:id="rId341"/>
-    <hyperlink ref="P138" r:id="rId342"/>
+    <hyperlink ref="P23" r:id="rId49"/>
+    <hyperlink ref="M24" r:id="rId50"/>
+    <hyperlink ref="N24" r:id="rId51"/>
+    <hyperlink ref="P24" r:id="rId52"/>
+    <hyperlink ref="M25" r:id="rId53"/>
+    <hyperlink ref="N25" r:id="rId54"/>
+    <hyperlink ref="P25" r:id="rId55"/>
+    <hyperlink ref="M26" r:id="rId56"/>
+    <hyperlink ref="N26" r:id="rId57"/>
+    <hyperlink ref="M27" r:id="rId58"/>
+    <hyperlink ref="N27" r:id="rId59"/>
+    <hyperlink ref="P27" r:id="rId60"/>
+    <hyperlink ref="M28" r:id="rId61"/>
+    <hyperlink ref="N28" r:id="rId62"/>
+    <hyperlink ref="P28" r:id="rId63"/>
+    <hyperlink ref="M29" r:id="rId64"/>
+    <hyperlink ref="N29" r:id="rId65"/>
+    <hyperlink ref="M30" r:id="rId66"/>
+    <hyperlink ref="N30" r:id="rId67"/>
+    <hyperlink ref="P30" r:id="rId68"/>
+    <hyperlink ref="M31" r:id="rId69"/>
+    <hyperlink ref="N31" r:id="rId70"/>
+    <hyperlink ref="P31" r:id="rId71"/>
+    <hyperlink ref="M32" r:id="rId72"/>
+    <hyperlink ref="N32" r:id="rId73"/>
+    <hyperlink ref="P32" r:id="rId74"/>
+    <hyperlink ref="M33" r:id="rId75"/>
+    <hyperlink ref="N33" r:id="rId76"/>
+    <hyperlink ref="P33" r:id="rId77"/>
+    <hyperlink ref="M34" r:id="rId78"/>
+    <hyperlink ref="N34" r:id="rId79"/>
+    <hyperlink ref="M35" r:id="rId80"/>
+    <hyperlink ref="P35" r:id="rId81"/>
+    <hyperlink ref="M36" r:id="rId82"/>
+    <hyperlink ref="N36" r:id="rId83"/>
+    <hyperlink ref="P36" r:id="rId84"/>
+    <hyperlink ref="M37" r:id="rId85"/>
+    <hyperlink ref="N37" r:id="rId86"/>
+    <hyperlink ref="P37" r:id="rId87"/>
+    <hyperlink ref="M38" r:id="rId88"/>
+    <hyperlink ref="N38" r:id="rId89"/>
+    <hyperlink ref="P38" r:id="rId90"/>
+    <hyperlink ref="M39" r:id="rId91"/>
+    <hyperlink ref="P39" r:id="rId92"/>
+    <hyperlink ref="M40" r:id="rId93"/>
+    <hyperlink ref="N40" r:id="rId94"/>
+    <hyperlink ref="P40" r:id="rId95"/>
+    <hyperlink ref="M41" r:id="rId96"/>
+    <hyperlink ref="N41" r:id="rId97"/>
+    <hyperlink ref="P41" r:id="rId98"/>
+    <hyperlink ref="M42" r:id="rId99"/>
+    <hyperlink ref="N42" r:id="rId100"/>
+    <hyperlink ref="M43" r:id="rId101"/>
+    <hyperlink ref="N43" r:id="rId102"/>
+    <hyperlink ref="P43" r:id="rId103"/>
+    <hyperlink ref="N44" r:id="rId104"/>
+    <hyperlink ref="M45" r:id="rId105"/>
+    <hyperlink ref="N45" r:id="rId106"/>
+    <hyperlink ref="M46" r:id="rId107"/>
+    <hyperlink ref="N46" r:id="rId108"/>
+    <hyperlink ref="P46" r:id="rId109"/>
+    <hyperlink ref="M47" r:id="rId110"/>
+    <hyperlink ref="N47" r:id="rId111"/>
+    <hyperlink ref="P47" r:id="rId112"/>
+    <hyperlink ref="M48" r:id="rId113"/>
+    <hyperlink ref="M49" r:id="rId114"/>
+    <hyperlink ref="N49" r:id="rId115"/>
+    <hyperlink ref="M50" r:id="rId116"/>
+    <hyperlink ref="N50" r:id="rId117"/>
+    <hyperlink ref="P50" r:id="rId118"/>
+    <hyperlink ref="M51" r:id="rId119"/>
+    <hyperlink ref="N51" r:id="rId120"/>
+    <hyperlink ref="M52" r:id="rId121"/>
+    <hyperlink ref="N52" r:id="rId122"/>
+    <hyperlink ref="P52" r:id="rId123"/>
+    <hyperlink ref="M53" r:id="rId124"/>
+    <hyperlink ref="N53" r:id="rId125"/>
+    <hyperlink ref="P53" r:id="rId126"/>
+    <hyperlink ref="M54" r:id="rId127"/>
+    <hyperlink ref="N54" r:id="rId128"/>
+    <hyperlink ref="P54" r:id="rId129"/>
+    <hyperlink ref="M55" r:id="rId130"/>
+    <hyperlink ref="P55" r:id="rId131"/>
+    <hyperlink ref="M56" r:id="rId132"/>
+    <hyperlink ref="P56" r:id="rId133"/>
+    <hyperlink ref="M57" r:id="rId134"/>
+    <hyperlink ref="N57" r:id="rId135"/>
+    <hyperlink ref="P57" r:id="rId136"/>
+    <hyperlink ref="M58" r:id="rId137"/>
+    <hyperlink ref="N58" r:id="rId138"/>
+    <hyperlink ref="P58" r:id="rId139"/>
+    <hyperlink ref="N59" r:id="rId140"/>
+    <hyperlink ref="P59" r:id="rId141"/>
+    <hyperlink ref="M60" r:id="rId142"/>
+    <hyperlink ref="N60" r:id="rId143"/>
+    <hyperlink ref="M61" r:id="rId144"/>
+    <hyperlink ref="P61" r:id="rId145"/>
+    <hyperlink ref="M62" r:id="rId146"/>
+    <hyperlink ref="N62" r:id="rId147"/>
+    <hyperlink ref="P62" r:id="rId148"/>
+    <hyperlink ref="M63" r:id="rId149"/>
+    <hyperlink ref="N63" r:id="rId150"/>
+    <hyperlink ref="M64" r:id="rId151"/>
+    <hyperlink ref="N64" r:id="rId152"/>
+    <hyperlink ref="P64" r:id="rId153"/>
+    <hyperlink ref="M65" r:id="rId154"/>
+    <hyperlink ref="N65" r:id="rId155"/>
+    <hyperlink ref="M66" r:id="rId156"/>
+    <hyperlink ref="N66" r:id="rId157"/>
+    <hyperlink ref="P66" r:id="rId158"/>
+    <hyperlink ref="M67" r:id="rId159"/>
+    <hyperlink ref="N67" r:id="rId160"/>
+    <hyperlink ref="P67" r:id="rId161"/>
+    <hyperlink ref="M68" r:id="rId162"/>
+    <hyperlink ref="N68" r:id="rId163"/>
+    <hyperlink ref="P68" r:id="rId164"/>
+    <hyperlink ref="M69" r:id="rId165"/>
+    <hyperlink ref="P69" r:id="rId166"/>
+    <hyperlink ref="M70" r:id="rId167"/>
+    <hyperlink ref="N70" r:id="rId168"/>
+    <hyperlink ref="P70" r:id="rId169"/>
+    <hyperlink ref="M71" r:id="rId170"/>
+    <hyperlink ref="N71" r:id="rId171"/>
+    <hyperlink ref="M72" r:id="rId172"/>
+    <hyperlink ref="N72" r:id="rId173"/>
+    <hyperlink ref="P72" r:id="rId174"/>
+    <hyperlink ref="M73" r:id="rId175"/>
+    <hyperlink ref="N73" r:id="rId176"/>
+    <hyperlink ref="P73" r:id="rId177"/>
+    <hyperlink ref="M74" r:id="rId178"/>
+    <hyperlink ref="N74" r:id="rId179"/>
+    <hyperlink ref="M75" r:id="rId180"/>
+    <hyperlink ref="N75" r:id="rId181"/>
+    <hyperlink ref="P75" r:id="rId182"/>
+    <hyperlink ref="M76" r:id="rId183"/>
+    <hyperlink ref="N76" r:id="rId184"/>
+    <hyperlink ref="P76" r:id="rId185"/>
+    <hyperlink ref="M77" r:id="rId186"/>
+    <hyperlink ref="N77" r:id="rId187"/>
+    <hyperlink ref="P77" r:id="rId188"/>
+    <hyperlink ref="M78" r:id="rId189"/>
+    <hyperlink ref="N78" r:id="rId190"/>
+    <hyperlink ref="P78" r:id="rId191"/>
+    <hyperlink ref="M79" r:id="rId192"/>
+    <hyperlink ref="P79" r:id="rId193"/>
+    <hyperlink ref="M80" r:id="rId194"/>
+    <hyperlink ref="N80" r:id="rId195"/>
+    <hyperlink ref="P80" r:id="rId196"/>
+    <hyperlink ref="M81" r:id="rId197"/>
+    <hyperlink ref="N81" r:id="rId198"/>
+    <hyperlink ref="P81" r:id="rId199"/>
+    <hyperlink ref="M82" r:id="rId200"/>
+    <hyperlink ref="N82" r:id="rId201"/>
+    <hyperlink ref="P82" r:id="rId202"/>
+    <hyperlink ref="M83" r:id="rId203"/>
+    <hyperlink ref="N83" r:id="rId204"/>
+    <hyperlink ref="P83" r:id="rId205"/>
+    <hyperlink ref="M84" r:id="rId206"/>
+    <hyperlink ref="N84" r:id="rId207"/>
+    <hyperlink ref="M86" r:id="rId208"/>
+    <hyperlink ref="N86" r:id="rId209"/>
+    <hyperlink ref="P86" r:id="rId210"/>
+    <hyperlink ref="M87" r:id="rId211"/>
+    <hyperlink ref="P87" r:id="rId212"/>
+    <hyperlink ref="M88" r:id="rId213"/>
+    <hyperlink ref="N88" r:id="rId214"/>
+    <hyperlink ref="P88" r:id="rId215"/>
+    <hyperlink ref="M89" r:id="rId216"/>
+    <hyperlink ref="N89" r:id="rId217"/>
+    <hyperlink ref="M90" r:id="rId218"/>
+    <hyperlink ref="N90" r:id="rId219"/>
+    <hyperlink ref="P90" r:id="rId220"/>
+    <hyperlink ref="M91" r:id="rId221"/>
+    <hyperlink ref="N91" r:id="rId222"/>
+    <hyperlink ref="P91" r:id="rId223"/>
+    <hyperlink ref="M92" r:id="rId224"/>
+    <hyperlink ref="P92" r:id="rId225"/>
+    <hyperlink ref="M93" r:id="rId226"/>
+    <hyperlink ref="N93" r:id="rId227"/>
+    <hyperlink ref="M94" r:id="rId228"/>
+    <hyperlink ref="N94" r:id="rId229"/>
+    <hyperlink ref="P94" r:id="rId230"/>
+    <hyperlink ref="M95" r:id="rId231"/>
+    <hyperlink ref="P95" r:id="rId232"/>
+    <hyperlink ref="M96" r:id="rId233"/>
+    <hyperlink ref="N96" r:id="rId234"/>
+    <hyperlink ref="M97" r:id="rId235"/>
+    <hyperlink ref="N97" r:id="rId236"/>
+    <hyperlink ref="P97" r:id="rId237"/>
+    <hyperlink ref="M98" r:id="rId238"/>
+    <hyperlink ref="N98" r:id="rId239"/>
+    <hyperlink ref="M99" r:id="rId240"/>
+    <hyperlink ref="P99" r:id="rId241"/>
+    <hyperlink ref="M100" r:id="rId242"/>
+    <hyperlink ref="P100" r:id="rId243"/>
+    <hyperlink ref="M101" r:id="rId244"/>
+    <hyperlink ref="N101" r:id="rId245"/>
+    <hyperlink ref="P101" r:id="rId246"/>
+    <hyperlink ref="M102" r:id="rId247"/>
+    <hyperlink ref="N102" r:id="rId248"/>
+    <hyperlink ref="P102" r:id="rId249"/>
+    <hyperlink ref="M103" r:id="rId250"/>
+    <hyperlink ref="P103" r:id="rId251"/>
+    <hyperlink ref="M104" r:id="rId252"/>
+    <hyperlink ref="N104" r:id="rId253"/>
+    <hyperlink ref="P104" r:id="rId254"/>
+    <hyperlink ref="M105" r:id="rId255"/>
+    <hyperlink ref="N105" r:id="rId256"/>
+    <hyperlink ref="P105" r:id="rId257"/>
+    <hyperlink ref="M106" r:id="rId258"/>
+    <hyperlink ref="N106" r:id="rId259"/>
+    <hyperlink ref="P106" r:id="rId260"/>
+    <hyperlink ref="M107" r:id="rId261"/>
+    <hyperlink ref="N107" r:id="rId262"/>
+    <hyperlink ref="P107" r:id="rId263"/>
+    <hyperlink ref="M108" r:id="rId264"/>
+    <hyperlink ref="N108" r:id="rId265"/>
+    <hyperlink ref="M109" r:id="rId266"/>
+    <hyperlink ref="N109" r:id="rId267"/>
+    <hyperlink ref="P109" r:id="rId268"/>
+    <hyperlink ref="M110" r:id="rId269"/>
+    <hyperlink ref="N110" r:id="rId270"/>
+    <hyperlink ref="P110" r:id="rId271"/>
+    <hyperlink ref="M111" r:id="rId272"/>
+    <hyperlink ref="N111" r:id="rId273"/>
+    <hyperlink ref="P111" r:id="rId274"/>
+    <hyperlink ref="M112" r:id="rId275"/>
+    <hyperlink ref="M113" r:id="rId276"/>
+    <hyperlink ref="N113" r:id="rId277"/>
+    <hyperlink ref="M114" r:id="rId278"/>
+    <hyperlink ref="N114" r:id="rId279"/>
+    <hyperlink ref="P114" r:id="rId280"/>
+    <hyperlink ref="M115" r:id="rId281"/>
+    <hyperlink ref="N115" r:id="rId282"/>
+    <hyperlink ref="M116" r:id="rId283"/>
+    <hyperlink ref="P116" r:id="rId284"/>
+    <hyperlink ref="M117" r:id="rId285"/>
+    <hyperlink ref="N117" r:id="rId286"/>
+    <hyperlink ref="P117" r:id="rId287"/>
+    <hyperlink ref="M118" r:id="rId288"/>
+    <hyperlink ref="N118" r:id="rId289"/>
+    <hyperlink ref="P118" r:id="rId290"/>
+    <hyperlink ref="M119" r:id="rId291"/>
+    <hyperlink ref="N119" r:id="rId292"/>
+    <hyperlink ref="P119" r:id="rId293"/>
+    <hyperlink ref="M120" r:id="rId294"/>
+    <hyperlink ref="N120" r:id="rId295"/>
+    <hyperlink ref="P120" r:id="rId296"/>
+    <hyperlink ref="M121" r:id="rId297"/>
+    <hyperlink ref="M122" r:id="rId298"/>
+    <hyperlink ref="N122" r:id="rId299"/>
+    <hyperlink ref="P122" r:id="rId300"/>
+    <hyperlink ref="M123" r:id="rId301"/>
+    <hyperlink ref="N123" r:id="rId302"/>
+    <hyperlink ref="P123" r:id="rId303"/>
+    <hyperlink ref="M124" r:id="rId304"/>
+    <hyperlink ref="M125" r:id="rId305"/>
+    <hyperlink ref="N125" r:id="rId306"/>
+    <hyperlink ref="M126" r:id="rId307"/>
+    <hyperlink ref="N126" r:id="rId308"/>
+    <hyperlink ref="P126" r:id="rId309"/>
+    <hyperlink ref="M127" r:id="rId310"/>
+    <hyperlink ref="N127" r:id="rId311"/>
+    <hyperlink ref="P127" r:id="rId312"/>
+    <hyperlink ref="M128" r:id="rId313"/>
+    <hyperlink ref="P128" r:id="rId314"/>
+    <hyperlink ref="M129" r:id="rId315"/>
+    <hyperlink ref="N129" r:id="rId316"/>
+    <hyperlink ref="P129" r:id="rId317"/>
+    <hyperlink ref="M130" r:id="rId318"/>
+    <hyperlink ref="N130" r:id="rId319"/>
+    <hyperlink ref="M131" r:id="rId320"/>
+    <hyperlink ref="N131" r:id="rId321"/>
+    <hyperlink ref="M132" r:id="rId322"/>
+    <hyperlink ref="M133" r:id="rId323"/>
+    <hyperlink ref="N133" r:id="rId324"/>
+    <hyperlink ref="P133" r:id="rId325"/>
+    <hyperlink ref="M134" r:id="rId326"/>
+    <hyperlink ref="N134" r:id="rId327"/>
+    <hyperlink ref="P134" r:id="rId328"/>
+    <hyperlink ref="M135" r:id="rId329"/>
+    <hyperlink ref="N135" r:id="rId330"/>
+    <hyperlink ref="P135" r:id="rId331"/>
+    <hyperlink ref="M136" r:id="rId332"/>
+    <hyperlink ref="N136" r:id="rId333"/>
+    <hyperlink ref="P136" r:id="rId334"/>
+    <hyperlink ref="M137" r:id="rId335"/>
+    <hyperlink ref="N137" r:id="rId336"/>
+    <hyperlink ref="M138" r:id="rId337"/>
+    <hyperlink ref="N138" r:id="rId338"/>
+    <hyperlink ref="P138" r:id="rId339"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -1702,7 +1702,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/IMG_Debye-01_Roos%20Grote.jpg</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/07%20(2)_Komal%20Patil.jpg</t>
+    <t>../manual_files/Materials Chemistry and Catalysis (MCC)/portrait 14 Komal N. Patil.jpg</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Foto-Matt-Peerlings-goed_2_Matt%20Peerlings.jpg</t>
@@ -2050,7 +2050,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Thomas%20Dezaire%20foto%20UU%20-%20Debye%20Booklet_Thomas%20Dezaire.jpg</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Image_for_Debye_Booklet_Karan%20Kotalgi.jpg</t>
+    <t>../manual_files/Materials Chemistry and Catalysis (MCC)/portrait 130 Karan Kotalgi.jpg</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Disha_DB_Disha%20Jain.tiff</t>
@@ -5106,7 +5106,7 @@
       <c r="K15" t="s">
         <v>429</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" t="s">
         <v>562</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -11788,7 +11788,7 @@
       <c r="K131" t="s">
         <v>528</v>
       </c>
-      <c r="M131" s="3" t="s">
+      <c r="M131" t="s">
         <v>678</v>
       </c>
       <c r="N131" s="3" t="s">
@@ -12234,318 +12234,316 @@
     <hyperlink ref="P13" r:id="rId25"/>
     <hyperlink ref="M14" r:id="rId26"/>
     <hyperlink ref="N14" r:id="rId27"/>
-    <hyperlink ref="M15" r:id="rId28"/>
-    <hyperlink ref="N15" r:id="rId29"/>
-    <hyperlink ref="M16" r:id="rId30"/>
-    <hyperlink ref="N16" r:id="rId31"/>
-    <hyperlink ref="P16" r:id="rId32"/>
-    <hyperlink ref="M17" r:id="rId33"/>
-    <hyperlink ref="N17" r:id="rId34"/>
-    <hyperlink ref="P17" r:id="rId35"/>
-    <hyperlink ref="M18" r:id="rId36"/>
-    <hyperlink ref="N18" r:id="rId37"/>
-    <hyperlink ref="M19" r:id="rId38"/>
-    <hyperlink ref="N19" r:id="rId39"/>
-    <hyperlink ref="P19" r:id="rId40"/>
-    <hyperlink ref="M20" r:id="rId41"/>
-    <hyperlink ref="N20" r:id="rId42"/>
-    <hyperlink ref="P20" r:id="rId43"/>
-    <hyperlink ref="M21" r:id="rId44"/>
-    <hyperlink ref="N21" r:id="rId45"/>
-    <hyperlink ref="M22" r:id="rId46"/>
-    <hyperlink ref="P22" r:id="rId47"/>
-    <hyperlink ref="M23" r:id="rId48"/>
-    <hyperlink ref="P23" r:id="rId49"/>
-    <hyperlink ref="M24" r:id="rId50"/>
-    <hyperlink ref="N24" r:id="rId51"/>
-    <hyperlink ref="P24" r:id="rId52"/>
-    <hyperlink ref="M25" r:id="rId53"/>
-    <hyperlink ref="N25" r:id="rId54"/>
-    <hyperlink ref="P25" r:id="rId55"/>
-    <hyperlink ref="M26" r:id="rId56"/>
-    <hyperlink ref="N26" r:id="rId57"/>
-    <hyperlink ref="M27" r:id="rId58"/>
-    <hyperlink ref="N27" r:id="rId59"/>
-    <hyperlink ref="P27" r:id="rId60"/>
-    <hyperlink ref="M28" r:id="rId61"/>
-    <hyperlink ref="N28" r:id="rId62"/>
-    <hyperlink ref="P28" r:id="rId63"/>
-    <hyperlink ref="M29" r:id="rId64"/>
-    <hyperlink ref="N29" r:id="rId65"/>
-    <hyperlink ref="M30" r:id="rId66"/>
-    <hyperlink ref="N30" r:id="rId67"/>
-    <hyperlink ref="P30" r:id="rId68"/>
-    <hyperlink ref="M31" r:id="rId69"/>
-    <hyperlink ref="N31" r:id="rId70"/>
-    <hyperlink ref="P31" r:id="rId71"/>
-    <hyperlink ref="M32" r:id="rId72"/>
-    <hyperlink ref="N32" r:id="rId73"/>
-    <hyperlink ref="P32" r:id="rId74"/>
-    <hyperlink ref="M33" r:id="rId75"/>
-    <hyperlink ref="N33" r:id="rId76"/>
-    <hyperlink ref="P33" r:id="rId77"/>
-    <hyperlink ref="M34" r:id="rId78"/>
-    <hyperlink ref="N34" r:id="rId79"/>
-    <hyperlink ref="M35" r:id="rId80"/>
-    <hyperlink ref="P35" r:id="rId81"/>
-    <hyperlink ref="M36" r:id="rId82"/>
-    <hyperlink ref="N36" r:id="rId83"/>
-    <hyperlink ref="P36" r:id="rId84"/>
-    <hyperlink ref="M37" r:id="rId85"/>
-    <hyperlink ref="N37" r:id="rId86"/>
-    <hyperlink ref="P37" r:id="rId87"/>
-    <hyperlink ref="M38" r:id="rId88"/>
-    <hyperlink ref="N38" r:id="rId89"/>
-    <hyperlink ref="P38" r:id="rId90"/>
-    <hyperlink ref="M39" r:id="rId91"/>
-    <hyperlink ref="P39" r:id="rId92"/>
-    <hyperlink ref="M40" r:id="rId93"/>
-    <hyperlink ref="N40" r:id="rId94"/>
-    <hyperlink ref="P40" r:id="rId95"/>
-    <hyperlink ref="M41" r:id="rId96"/>
-    <hyperlink ref="N41" r:id="rId97"/>
-    <hyperlink ref="P41" r:id="rId98"/>
-    <hyperlink ref="M42" r:id="rId99"/>
-    <hyperlink ref="N42" r:id="rId100"/>
-    <hyperlink ref="M43" r:id="rId101"/>
-    <hyperlink ref="N43" r:id="rId102"/>
-    <hyperlink ref="P43" r:id="rId103"/>
-    <hyperlink ref="N44" r:id="rId104"/>
-    <hyperlink ref="M45" r:id="rId105"/>
-    <hyperlink ref="N45" r:id="rId106"/>
-    <hyperlink ref="M46" r:id="rId107"/>
-    <hyperlink ref="N46" r:id="rId108"/>
-    <hyperlink ref="P46" r:id="rId109"/>
-    <hyperlink ref="M47" r:id="rId110"/>
-    <hyperlink ref="N47" r:id="rId111"/>
-    <hyperlink ref="P47" r:id="rId112"/>
-    <hyperlink ref="M48" r:id="rId113"/>
-    <hyperlink ref="M49" r:id="rId114"/>
-    <hyperlink ref="N49" r:id="rId115"/>
-    <hyperlink ref="M50" r:id="rId116"/>
-    <hyperlink ref="N50" r:id="rId117"/>
-    <hyperlink ref="P50" r:id="rId118"/>
-    <hyperlink ref="M51" r:id="rId119"/>
-    <hyperlink ref="N51" r:id="rId120"/>
-    <hyperlink ref="M52" r:id="rId121"/>
-    <hyperlink ref="N52" r:id="rId122"/>
-    <hyperlink ref="P52" r:id="rId123"/>
-    <hyperlink ref="M53" r:id="rId124"/>
-    <hyperlink ref="N53" r:id="rId125"/>
-    <hyperlink ref="P53" r:id="rId126"/>
-    <hyperlink ref="M54" r:id="rId127"/>
-    <hyperlink ref="N54" r:id="rId128"/>
-    <hyperlink ref="P54" r:id="rId129"/>
-    <hyperlink ref="M55" r:id="rId130"/>
-    <hyperlink ref="P55" r:id="rId131"/>
-    <hyperlink ref="M56" r:id="rId132"/>
-    <hyperlink ref="P56" r:id="rId133"/>
-    <hyperlink ref="M57" r:id="rId134"/>
-    <hyperlink ref="N57" r:id="rId135"/>
-    <hyperlink ref="P57" r:id="rId136"/>
-    <hyperlink ref="M58" r:id="rId137"/>
-    <hyperlink ref="N58" r:id="rId138"/>
-    <hyperlink ref="P58" r:id="rId139"/>
-    <hyperlink ref="N59" r:id="rId140"/>
-    <hyperlink ref="P59" r:id="rId141"/>
-    <hyperlink ref="M60" r:id="rId142"/>
-    <hyperlink ref="N60" r:id="rId143"/>
-    <hyperlink ref="M61" r:id="rId144"/>
-    <hyperlink ref="P61" r:id="rId145"/>
-    <hyperlink ref="M62" r:id="rId146"/>
-    <hyperlink ref="N62" r:id="rId147"/>
-    <hyperlink ref="P62" r:id="rId148"/>
-    <hyperlink ref="M63" r:id="rId149"/>
-    <hyperlink ref="N63" r:id="rId150"/>
-    <hyperlink ref="M64" r:id="rId151"/>
-    <hyperlink ref="N64" r:id="rId152"/>
-    <hyperlink ref="P64" r:id="rId153"/>
-    <hyperlink ref="M65" r:id="rId154"/>
-    <hyperlink ref="N65" r:id="rId155"/>
-    <hyperlink ref="M66" r:id="rId156"/>
-    <hyperlink ref="N66" r:id="rId157"/>
-    <hyperlink ref="P66" r:id="rId158"/>
-    <hyperlink ref="M67" r:id="rId159"/>
-    <hyperlink ref="N67" r:id="rId160"/>
-    <hyperlink ref="P67" r:id="rId161"/>
-    <hyperlink ref="M68" r:id="rId162"/>
-    <hyperlink ref="N68" r:id="rId163"/>
-    <hyperlink ref="P68" r:id="rId164"/>
-    <hyperlink ref="M69" r:id="rId165"/>
-    <hyperlink ref="P69" r:id="rId166"/>
-    <hyperlink ref="M70" r:id="rId167"/>
-    <hyperlink ref="N70" r:id="rId168"/>
-    <hyperlink ref="P70" r:id="rId169"/>
-    <hyperlink ref="M71" r:id="rId170"/>
-    <hyperlink ref="N71" r:id="rId171"/>
-    <hyperlink ref="M72" r:id="rId172"/>
-    <hyperlink ref="N72" r:id="rId173"/>
-    <hyperlink ref="P72" r:id="rId174"/>
-    <hyperlink ref="M73" r:id="rId175"/>
-    <hyperlink ref="N73" r:id="rId176"/>
-    <hyperlink ref="P73" r:id="rId177"/>
-    <hyperlink ref="M74" r:id="rId178"/>
-    <hyperlink ref="N74" r:id="rId179"/>
-    <hyperlink ref="M75" r:id="rId180"/>
-    <hyperlink ref="N75" r:id="rId181"/>
-    <hyperlink ref="P75" r:id="rId182"/>
-    <hyperlink ref="M76" r:id="rId183"/>
-    <hyperlink ref="N76" r:id="rId184"/>
-    <hyperlink ref="P76" r:id="rId185"/>
-    <hyperlink ref="M77" r:id="rId186"/>
-    <hyperlink ref="N77" r:id="rId187"/>
-    <hyperlink ref="P77" r:id="rId188"/>
-    <hyperlink ref="M78" r:id="rId189"/>
-    <hyperlink ref="N78" r:id="rId190"/>
-    <hyperlink ref="P78" r:id="rId191"/>
-    <hyperlink ref="M79" r:id="rId192"/>
-    <hyperlink ref="P79" r:id="rId193"/>
-    <hyperlink ref="M80" r:id="rId194"/>
-    <hyperlink ref="N80" r:id="rId195"/>
-    <hyperlink ref="P80" r:id="rId196"/>
-    <hyperlink ref="M81" r:id="rId197"/>
-    <hyperlink ref="N81" r:id="rId198"/>
-    <hyperlink ref="P81" r:id="rId199"/>
-    <hyperlink ref="M82" r:id="rId200"/>
-    <hyperlink ref="N82" r:id="rId201"/>
-    <hyperlink ref="P82" r:id="rId202"/>
-    <hyperlink ref="M83" r:id="rId203"/>
-    <hyperlink ref="N83" r:id="rId204"/>
-    <hyperlink ref="P83" r:id="rId205"/>
-    <hyperlink ref="M84" r:id="rId206"/>
-    <hyperlink ref="N84" r:id="rId207"/>
-    <hyperlink ref="M86" r:id="rId208"/>
-    <hyperlink ref="N86" r:id="rId209"/>
-    <hyperlink ref="P86" r:id="rId210"/>
-    <hyperlink ref="M87" r:id="rId211"/>
-    <hyperlink ref="P87" r:id="rId212"/>
-    <hyperlink ref="M88" r:id="rId213"/>
-    <hyperlink ref="N88" r:id="rId214"/>
-    <hyperlink ref="P88" r:id="rId215"/>
-    <hyperlink ref="M89" r:id="rId216"/>
-    <hyperlink ref="N89" r:id="rId217"/>
-    <hyperlink ref="M90" r:id="rId218"/>
-    <hyperlink ref="N90" r:id="rId219"/>
-    <hyperlink ref="P90" r:id="rId220"/>
-    <hyperlink ref="M91" r:id="rId221"/>
-    <hyperlink ref="N91" r:id="rId222"/>
-    <hyperlink ref="P91" r:id="rId223"/>
-    <hyperlink ref="M92" r:id="rId224"/>
-    <hyperlink ref="P92" r:id="rId225"/>
-    <hyperlink ref="M93" r:id="rId226"/>
-    <hyperlink ref="N93" r:id="rId227"/>
-    <hyperlink ref="M94" r:id="rId228"/>
-    <hyperlink ref="N94" r:id="rId229"/>
-    <hyperlink ref="P94" r:id="rId230"/>
-    <hyperlink ref="M95" r:id="rId231"/>
-    <hyperlink ref="P95" r:id="rId232"/>
-    <hyperlink ref="M96" r:id="rId233"/>
-    <hyperlink ref="N96" r:id="rId234"/>
-    <hyperlink ref="M97" r:id="rId235"/>
-    <hyperlink ref="N97" r:id="rId236"/>
-    <hyperlink ref="P97" r:id="rId237"/>
-    <hyperlink ref="M98" r:id="rId238"/>
-    <hyperlink ref="N98" r:id="rId239"/>
-    <hyperlink ref="M99" r:id="rId240"/>
-    <hyperlink ref="P99" r:id="rId241"/>
-    <hyperlink ref="M100" r:id="rId242"/>
-    <hyperlink ref="P100" r:id="rId243"/>
-    <hyperlink ref="M101" r:id="rId244"/>
-    <hyperlink ref="N101" r:id="rId245"/>
-    <hyperlink ref="P101" r:id="rId246"/>
-    <hyperlink ref="M102" r:id="rId247"/>
-    <hyperlink ref="N102" r:id="rId248"/>
-    <hyperlink ref="P102" r:id="rId249"/>
-    <hyperlink ref="M103" r:id="rId250"/>
-    <hyperlink ref="P103" r:id="rId251"/>
-    <hyperlink ref="M104" r:id="rId252"/>
-    <hyperlink ref="N104" r:id="rId253"/>
-    <hyperlink ref="P104" r:id="rId254"/>
-    <hyperlink ref="M105" r:id="rId255"/>
-    <hyperlink ref="N105" r:id="rId256"/>
-    <hyperlink ref="P105" r:id="rId257"/>
-    <hyperlink ref="M106" r:id="rId258"/>
-    <hyperlink ref="N106" r:id="rId259"/>
-    <hyperlink ref="P106" r:id="rId260"/>
-    <hyperlink ref="M107" r:id="rId261"/>
-    <hyperlink ref="N107" r:id="rId262"/>
-    <hyperlink ref="P107" r:id="rId263"/>
-    <hyperlink ref="M108" r:id="rId264"/>
-    <hyperlink ref="N108" r:id="rId265"/>
-    <hyperlink ref="M109" r:id="rId266"/>
-    <hyperlink ref="N109" r:id="rId267"/>
-    <hyperlink ref="P109" r:id="rId268"/>
-    <hyperlink ref="M110" r:id="rId269"/>
-    <hyperlink ref="N110" r:id="rId270"/>
-    <hyperlink ref="P110" r:id="rId271"/>
-    <hyperlink ref="M111" r:id="rId272"/>
-    <hyperlink ref="N111" r:id="rId273"/>
-    <hyperlink ref="P111" r:id="rId274"/>
-    <hyperlink ref="M112" r:id="rId275"/>
-    <hyperlink ref="M113" r:id="rId276"/>
-    <hyperlink ref="N113" r:id="rId277"/>
-    <hyperlink ref="M114" r:id="rId278"/>
-    <hyperlink ref="N114" r:id="rId279"/>
-    <hyperlink ref="P114" r:id="rId280"/>
-    <hyperlink ref="M115" r:id="rId281"/>
-    <hyperlink ref="N115" r:id="rId282"/>
-    <hyperlink ref="M116" r:id="rId283"/>
-    <hyperlink ref="P116" r:id="rId284"/>
-    <hyperlink ref="M117" r:id="rId285"/>
-    <hyperlink ref="N117" r:id="rId286"/>
-    <hyperlink ref="P117" r:id="rId287"/>
-    <hyperlink ref="M118" r:id="rId288"/>
-    <hyperlink ref="N118" r:id="rId289"/>
-    <hyperlink ref="P118" r:id="rId290"/>
-    <hyperlink ref="M119" r:id="rId291"/>
-    <hyperlink ref="N119" r:id="rId292"/>
-    <hyperlink ref="P119" r:id="rId293"/>
-    <hyperlink ref="M120" r:id="rId294"/>
-    <hyperlink ref="N120" r:id="rId295"/>
-    <hyperlink ref="P120" r:id="rId296"/>
-    <hyperlink ref="M121" r:id="rId297"/>
-    <hyperlink ref="M122" r:id="rId298"/>
-    <hyperlink ref="N122" r:id="rId299"/>
-    <hyperlink ref="P122" r:id="rId300"/>
-    <hyperlink ref="M123" r:id="rId301"/>
-    <hyperlink ref="N123" r:id="rId302"/>
-    <hyperlink ref="P123" r:id="rId303"/>
-    <hyperlink ref="M124" r:id="rId304"/>
-    <hyperlink ref="M125" r:id="rId305"/>
-    <hyperlink ref="N125" r:id="rId306"/>
-    <hyperlink ref="M126" r:id="rId307"/>
-    <hyperlink ref="N126" r:id="rId308"/>
-    <hyperlink ref="P126" r:id="rId309"/>
-    <hyperlink ref="M127" r:id="rId310"/>
-    <hyperlink ref="N127" r:id="rId311"/>
-    <hyperlink ref="P127" r:id="rId312"/>
-    <hyperlink ref="M128" r:id="rId313"/>
-    <hyperlink ref="P128" r:id="rId314"/>
-    <hyperlink ref="M129" r:id="rId315"/>
-    <hyperlink ref="N129" r:id="rId316"/>
-    <hyperlink ref="P129" r:id="rId317"/>
-    <hyperlink ref="M130" r:id="rId318"/>
-    <hyperlink ref="N130" r:id="rId319"/>
-    <hyperlink ref="M131" r:id="rId320"/>
-    <hyperlink ref="N131" r:id="rId321"/>
-    <hyperlink ref="M132" r:id="rId322"/>
-    <hyperlink ref="M133" r:id="rId323"/>
-    <hyperlink ref="N133" r:id="rId324"/>
-    <hyperlink ref="P133" r:id="rId325"/>
-    <hyperlink ref="M134" r:id="rId326"/>
-    <hyperlink ref="N134" r:id="rId327"/>
-    <hyperlink ref="P134" r:id="rId328"/>
-    <hyperlink ref="M135" r:id="rId329"/>
-    <hyperlink ref="N135" r:id="rId330"/>
-    <hyperlink ref="P135" r:id="rId331"/>
-    <hyperlink ref="M136" r:id="rId332"/>
-    <hyperlink ref="N136" r:id="rId333"/>
-    <hyperlink ref="P136" r:id="rId334"/>
-    <hyperlink ref="M137" r:id="rId335"/>
-    <hyperlink ref="N137" r:id="rId336"/>
-    <hyperlink ref="M138" r:id="rId337"/>
-    <hyperlink ref="N138" r:id="rId338"/>
-    <hyperlink ref="P138" r:id="rId339"/>
+    <hyperlink ref="N15" r:id="rId28"/>
+    <hyperlink ref="M16" r:id="rId29"/>
+    <hyperlink ref="N16" r:id="rId30"/>
+    <hyperlink ref="P16" r:id="rId31"/>
+    <hyperlink ref="M17" r:id="rId32"/>
+    <hyperlink ref="N17" r:id="rId33"/>
+    <hyperlink ref="P17" r:id="rId34"/>
+    <hyperlink ref="M18" r:id="rId35"/>
+    <hyperlink ref="N18" r:id="rId36"/>
+    <hyperlink ref="M19" r:id="rId37"/>
+    <hyperlink ref="N19" r:id="rId38"/>
+    <hyperlink ref="P19" r:id="rId39"/>
+    <hyperlink ref="M20" r:id="rId40"/>
+    <hyperlink ref="N20" r:id="rId41"/>
+    <hyperlink ref="P20" r:id="rId42"/>
+    <hyperlink ref="M21" r:id="rId43"/>
+    <hyperlink ref="N21" r:id="rId44"/>
+    <hyperlink ref="M22" r:id="rId45"/>
+    <hyperlink ref="P22" r:id="rId46"/>
+    <hyperlink ref="M23" r:id="rId47"/>
+    <hyperlink ref="P23" r:id="rId48"/>
+    <hyperlink ref="M24" r:id="rId49"/>
+    <hyperlink ref="N24" r:id="rId50"/>
+    <hyperlink ref="P24" r:id="rId51"/>
+    <hyperlink ref="M25" r:id="rId52"/>
+    <hyperlink ref="N25" r:id="rId53"/>
+    <hyperlink ref="P25" r:id="rId54"/>
+    <hyperlink ref="M26" r:id="rId55"/>
+    <hyperlink ref="N26" r:id="rId56"/>
+    <hyperlink ref="M27" r:id="rId57"/>
+    <hyperlink ref="N27" r:id="rId58"/>
+    <hyperlink ref="P27" r:id="rId59"/>
+    <hyperlink ref="M28" r:id="rId60"/>
+    <hyperlink ref="N28" r:id="rId61"/>
+    <hyperlink ref="P28" r:id="rId62"/>
+    <hyperlink ref="M29" r:id="rId63"/>
+    <hyperlink ref="N29" r:id="rId64"/>
+    <hyperlink ref="M30" r:id="rId65"/>
+    <hyperlink ref="N30" r:id="rId66"/>
+    <hyperlink ref="P30" r:id="rId67"/>
+    <hyperlink ref="M31" r:id="rId68"/>
+    <hyperlink ref="N31" r:id="rId69"/>
+    <hyperlink ref="P31" r:id="rId70"/>
+    <hyperlink ref="M32" r:id="rId71"/>
+    <hyperlink ref="N32" r:id="rId72"/>
+    <hyperlink ref="P32" r:id="rId73"/>
+    <hyperlink ref="M33" r:id="rId74"/>
+    <hyperlink ref="N33" r:id="rId75"/>
+    <hyperlink ref="P33" r:id="rId76"/>
+    <hyperlink ref="M34" r:id="rId77"/>
+    <hyperlink ref="N34" r:id="rId78"/>
+    <hyperlink ref="M35" r:id="rId79"/>
+    <hyperlink ref="P35" r:id="rId80"/>
+    <hyperlink ref="M36" r:id="rId81"/>
+    <hyperlink ref="N36" r:id="rId82"/>
+    <hyperlink ref="P36" r:id="rId83"/>
+    <hyperlink ref="M37" r:id="rId84"/>
+    <hyperlink ref="N37" r:id="rId85"/>
+    <hyperlink ref="P37" r:id="rId86"/>
+    <hyperlink ref="M38" r:id="rId87"/>
+    <hyperlink ref="N38" r:id="rId88"/>
+    <hyperlink ref="P38" r:id="rId89"/>
+    <hyperlink ref="M39" r:id="rId90"/>
+    <hyperlink ref="P39" r:id="rId91"/>
+    <hyperlink ref="M40" r:id="rId92"/>
+    <hyperlink ref="N40" r:id="rId93"/>
+    <hyperlink ref="P40" r:id="rId94"/>
+    <hyperlink ref="M41" r:id="rId95"/>
+    <hyperlink ref="N41" r:id="rId96"/>
+    <hyperlink ref="P41" r:id="rId97"/>
+    <hyperlink ref="M42" r:id="rId98"/>
+    <hyperlink ref="N42" r:id="rId99"/>
+    <hyperlink ref="M43" r:id="rId100"/>
+    <hyperlink ref="N43" r:id="rId101"/>
+    <hyperlink ref="P43" r:id="rId102"/>
+    <hyperlink ref="N44" r:id="rId103"/>
+    <hyperlink ref="M45" r:id="rId104"/>
+    <hyperlink ref="N45" r:id="rId105"/>
+    <hyperlink ref="M46" r:id="rId106"/>
+    <hyperlink ref="N46" r:id="rId107"/>
+    <hyperlink ref="P46" r:id="rId108"/>
+    <hyperlink ref="M47" r:id="rId109"/>
+    <hyperlink ref="N47" r:id="rId110"/>
+    <hyperlink ref="P47" r:id="rId111"/>
+    <hyperlink ref="M48" r:id="rId112"/>
+    <hyperlink ref="M49" r:id="rId113"/>
+    <hyperlink ref="N49" r:id="rId114"/>
+    <hyperlink ref="M50" r:id="rId115"/>
+    <hyperlink ref="N50" r:id="rId116"/>
+    <hyperlink ref="P50" r:id="rId117"/>
+    <hyperlink ref="M51" r:id="rId118"/>
+    <hyperlink ref="N51" r:id="rId119"/>
+    <hyperlink ref="M52" r:id="rId120"/>
+    <hyperlink ref="N52" r:id="rId121"/>
+    <hyperlink ref="P52" r:id="rId122"/>
+    <hyperlink ref="M53" r:id="rId123"/>
+    <hyperlink ref="N53" r:id="rId124"/>
+    <hyperlink ref="P53" r:id="rId125"/>
+    <hyperlink ref="M54" r:id="rId126"/>
+    <hyperlink ref="N54" r:id="rId127"/>
+    <hyperlink ref="P54" r:id="rId128"/>
+    <hyperlink ref="M55" r:id="rId129"/>
+    <hyperlink ref="P55" r:id="rId130"/>
+    <hyperlink ref="M56" r:id="rId131"/>
+    <hyperlink ref="P56" r:id="rId132"/>
+    <hyperlink ref="M57" r:id="rId133"/>
+    <hyperlink ref="N57" r:id="rId134"/>
+    <hyperlink ref="P57" r:id="rId135"/>
+    <hyperlink ref="M58" r:id="rId136"/>
+    <hyperlink ref="N58" r:id="rId137"/>
+    <hyperlink ref="P58" r:id="rId138"/>
+    <hyperlink ref="N59" r:id="rId139"/>
+    <hyperlink ref="P59" r:id="rId140"/>
+    <hyperlink ref="M60" r:id="rId141"/>
+    <hyperlink ref="N60" r:id="rId142"/>
+    <hyperlink ref="M61" r:id="rId143"/>
+    <hyperlink ref="P61" r:id="rId144"/>
+    <hyperlink ref="M62" r:id="rId145"/>
+    <hyperlink ref="N62" r:id="rId146"/>
+    <hyperlink ref="P62" r:id="rId147"/>
+    <hyperlink ref="M63" r:id="rId148"/>
+    <hyperlink ref="N63" r:id="rId149"/>
+    <hyperlink ref="M64" r:id="rId150"/>
+    <hyperlink ref="N64" r:id="rId151"/>
+    <hyperlink ref="P64" r:id="rId152"/>
+    <hyperlink ref="M65" r:id="rId153"/>
+    <hyperlink ref="N65" r:id="rId154"/>
+    <hyperlink ref="M66" r:id="rId155"/>
+    <hyperlink ref="N66" r:id="rId156"/>
+    <hyperlink ref="P66" r:id="rId157"/>
+    <hyperlink ref="M67" r:id="rId158"/>
+    <hyperlink ref="N67" r:id="rId159"/>
+    <hyperlink ref="P67" r:id="rId160"/>
+    <hyperlink ref="M68" r:id="rId161"/>
+    <hyperlink ref="N68" r:id="rId162"/>
+    <hyperlink ref="P68" r:id="rId163"/>
+    <hyperlink ref="M69" r:id="rId164"/>
+    <hyperlink ref="P69" r:id="rId165"/>
+    <hyperlink ref="M70" r:id="rId166"/>
+    <hyperlink ref="N70" r:id="rId167"/>
+    <hyperlink ref="P70" r:id="rId168"/>
+    <hyperlink ref="M71" r:id="rId169"/>
+    <hyperlink ref="N71" r:id="rId170"/>
+    <hyperlink ref="M72" r:id="rId171"/>
+    <hyperlink ref="N72" r:id="rId172"/>
+    <hyperlink ref="P72" r:id="rId173"/>
+    <hyperlink ref="M73" r:id="rId174"/>
+    <hyperlink ref="N73" r:id="rId175"/>
+    <hyperlink ref="P73" r:id="rId176"/>
+    <hyperlink ref="M74" r:id="rId177"/>
+    <hyperlink ref="N74" r:id="rId178"/>
+    <hyperlink ref="M75" r:id="rId179"/>
+    <hyperlink ref="N75" r:id="rId180"/>
+    <hyperlink ref="P75" r:id="rId181"/>
+    <hyperlink ref="M76" r:id="rId182"/>
+    <hyperlink ref="N76" r:id="rId183"/>
+    <hyperlink ref="P76" r:id="rId184"/>
+    <hyperlink ref="M77" r:id="rId185"/>
+    <hyperlink ref="N77" r:id="rId186"/>
+    <hyperlink ref="P77" r:id="rId187"/>
+    <hyperlink ref="M78" r:id="rId188"/>
+    <hyperlink ref="N78" r:id="rId189"/>
+    <hyperlink ref="P78" r:id="rId190"/>
+    <hyperlink ref="M79" r:id="rId191"/>
+    <hyperlink ref="P79" r:id="rId192"/>
+    <hyperlink ref="M80" r:id="rId193"/>
+    <hyperlink ref="N80" r:id="rId194"/>
+    <hyperlink ref="P80" r:id="rId195"/>
+    <hyperlink ref="M81" r:id="rId196"/>
+    <hyperlink ref="N81" r:id="rId197"/>
+    <hyperlink ref="P81" r:id="rId198"/>
+    <hyperlink ref="M82" r:id="rId199"/>
+    <hyperlink ref="N82" r:id="rId200"/>
+    <hyperlink ref="P82" r:id="rId201"/>
+    <hyperlink ref="M83" r:id="rId202"/>
+    <hyperlink ref="N83" r:id="rId203"/>
+    <hyperlink ref="P83" r:id="rId204"/>
+    <hyperlink ref="M84" r:id="rId205"/>
+    <hyperlink ref="N84" r:id="rId206"/>
+    <hyperlink ref="M86" r:id="rId207"/>
+    <hyperlink ref="N86" r:id="rId208"/>
+    <hyperlink ref="P86" r:id="rId209"/>
+    <hyperlink ref="M87" r:id="rId210"/>
+    <hyperlink ref="P87" r:id="rId211"/>
+    <hyperlink ref="M88" r:id="rId212"/>
+    <hyperlink ref="N88" r:id="rId213"/>
+    <hyperlink ref="P88" r:id="rId214"/>
+    <hyperlink ref="M89" r:id="rId215"/>
+    <hyperlink ref="N89" r:id="rId216"/>
+    <hyperlink ref="M90" r:id="rId217"/>
+    <hyperlink ref="N90" r:id="rId218"/>
+    <hyperlink ref="P90" r:id="rId219"/>
+    <hyperlink ref="M91" r:id="rId220"/>
+    <hyperlink ref="N91" r:id="rId221"/>
+    <hyperlink ref="P91" r:id="rId222"/>
+    <hyperlink ref="M92" r:id="rId223"/>
+    <hyperlink ref="P92" r:id="rId224"/>
+    <hyperlink ref="M93" r:id="rId225"/>
+    <hyperlink ref="N93" r:id="rId226"/>
+    <hyperlink ref="M94" r:id="rId227"/>
+    <hyperlink ref="N94" r:id="rId228"/>
+    <hyperlink ref="P94" r:id="rId229"/>
+    <hyperlink ref="M95" r:id="rId230"/>
+    <hyperlink ref="P95" r:id="rId231"/>
+    <hyperlink ref="M96" r:id="rId232"/>
+    <hyperlink ref="N96" r:id="rId233"/>
+    <hyperlink ref="M97" r:id="rId234"/>
+    <hyperlink ref="N97" r:id="rId235"/>
+    <hyperlink ref="P97" r:id="rId236"/>
+    <hyperlink ref="M98" r:id="rId237"/>
+    <hyperlink ref="N98" r:id="rId238"/>
+    <hyperlink ref="M99" r:id="rId239"/>
+    <hyperlink ref="P99" r:id="rId240"/>
+    <hyperlink ref="M100" r:id="rId241"/>
+    <hyperlink ref="P100" r:id="rId242"/>
+    <hyperlink ref="M101" r:id="rId243"/>
+    <hyperlink ref="N101" r:id="rId244"/>
+    <hyperlink ref="P101" r:id="rId245"/>
+    <hyperlink ref="M102" r:id="rId246"/>
+    <hyperlink ref="N102" r:id="rId247"/>
+    <hyperlink ref="P102" r:id="rId248"/>
+    <hyperlink ref="M103" r:id="rId249"/>
+    <hyperlink ref="P103" r:id="rId250"/>
+    <hyperlink ref="M104" r:id="rId251"/>
+    <hyperlink ref="N104" r:id="rId252"/>
+    <hyperlink ref="P104" r:id="rId253"/>
+    <hyperlink ref="M105" r:id="rId254"/>
+    <hyperlink ref="N105" r:id="rId255"/>
+    <hyperlink ref="P105" r:id="rId256"/>
+    <hyperlink ref="M106" r:id="rId257"/>
+    <hyperlink ref="N106" r:id="rId258"/>
+    <hyperlink ref="P106" r:id="rId259"/>
+    <hyperlink ref="M107" r:id="rId260"/>
+    <hyperlink ref="N107" r:id="rId261"/>
+    <hyperlink ref="P107" r:id="rId262"/>
+    <hyperlink ref="M108" r:id="rId263"/>
+    <hyperlink ref="N108" r:id="rId264"/>
+    <hyperlink ref="M109" r:id="rId265"/>
+    <hyperlink ref="N109" r:id="rId266"/>
+    <hyperlink ref="P109" r:id="rId267"/>
+    <hyperlink ref="M110" r:id="rId268"/>
+    <hyperlink ref="N110" r:id="rId269"/>
+    <hyperlink ref="P110" r:id="rId270"/>
+    <hyperlink ref="M111" r:id="rId271"/>
+    <hyperlink ref="N111" r:id="rId272"/>
+    <hyperlink ref="P111" r:id="rId273"/>
+    <hyperlink ref="M112" r:id="rId274"/>
+    <hyperlink ref="M113" r:id="rId275"/>
+    <hyperlink ref="N113" r:id="rId276"/>
+    <hyperlink ref="M114" r:id="rId277"/>
+    <hyperlink ref="N114" r:id="rId278"/>
+    <hyperlink ref="P114" r:id="rId279"/>
+    <hyperlink ref="M115" r:id="rId280"/>
+    <hyperlink ref="N115" r:id="rId281"/>
+    <hyperlink ref="M116" r:id="rId282"/>
+    <hyperlink ref="P116" r:id="rId283"/>
+    <hyperlink ref="M117" r:id="rId284"/>
+    <hyperlink ref="N117" r:id="rId285"/>
+    <hyperlink ref="P117" r:id="rId286"/>
+    <hyperlink ref="M118" r:id="rId287"/>
+    <hyperlink ref="N118" r:id="rId288"/>
+    <hyperlink ref="P118" r:id="rId289"/>
+    <hyperlink ref="M119" r:id="rId290"/>
+    <hyperlink ref="N119" r:id="rId291"/>
+    <hyperlink ref="P119" r:id="rId292"/>
+    <hyperlink ref="M120" r:id="rId293"/>
+    <hyperlink ref="N120" r:id="rId294"/>
+    <hyperlink ref="P120" r:id="rId295"/>
+    <hyperlink ref="M121" r:id="rId296"/>
+    <hyperlink ref="M122" r:id="rId297"/>
+    <hyperlink ref="N122" r:id="rId298"/>
+    <hyperlink ref="P122" r:id="rId299"/>
+    <hyperlink ref="M123" r:id="rId300"/>
+    <hyperlink ref="N123" r:id="rId301"/>
+    <hyperlink ref="P123" r:id="rId302"/>
+    <hyperlink ref="M124" r:id="rId303"/>
+    <hyperlink ref="M125" r:id="rId304"/>
+    <hyperlink ref="N125" r:id="rId305"/>
+    <hyperlink ref="M126" r:id="rId306"/>
+    <hyperlink ref="N126" r:id="rId307"/>
+    <hyperlink ref="P126" r:id="rId308"/>
+    <hyperlink ref="M127" r:id="rId309"/>
+    <hyperlink ref="N127" r:id="rId310"/>
+    <hyperlink ref="P127" r:id="rId311"/>
+    <hyperlink ref="M128" r:id="rId312"/>
+    <hyperlink ref="P128" r:id="rId313"/>
+    <hyperlink ref="M129" r:id="rId314"/>
+    <hyperlink ref="N129" r:id="rId315"/>
+    <hyperlink ref="P129" r:id="rId316"/>
+    <hyperlink ref="M130" r:id="rId317"/>
+    <hyperlink ref="N130" r:id="rId318"/>
+    <hyperlink ref="N131" r:id="rId319"/>
+    <hyperlink ref="M132" r:id="rId320"/>
+    <hyperlink ref="M133" r:id="rId321"/>
+    <hyperlink ref="N133" r:id="rId322"/>
+    <hyperlink ref="P133" r:id="rId323"/>
+    <hyperlink ref="M134" r:id="rId324"/>
+    <hyperlink ref="N134" r:id="rId325"/>
+    <hyperlink ref="P134" r:id="rId326"/>
+    <hyperlink ref="M135" r:id="rId327"/>
+    <hyperlink ref="N135" r:id="rId328"/>
+    <hyperlink ref="P135" r:id="rId329"/>
+    <hyperlink ref="M136" r:id="rId330"/>
+    <hyperlink ref="N136" r:id="rId331"/>
+    <hyperlink ref="P136" r:id="rId332"/>
+    <hyperlink ref="M137" r:id="rId333"/>
+    <hyperlink ref="N137" r:id="rId334"/>
+    <hyperlink ref="M138" r:id="rId335"/>
+    <hyperlink ref="N138" r:id="rId336"/>
+    <hyperlink ref="P138" r:id="rId337"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -2230,7 +2230,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0EA8942E-E5BA-4020-9137-6722DB437764%7D&amp;file=references_template_Rodolfo%20Subert.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B25BC6C8D-CF45-4BCC-BCEC-515D7661999F%7D&amp;file=Booklet_Subert_Rodolfo%20Subert.docx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BC8FE9EED-3CFA-4DCE-8BAD-F4BBAC3B28F0%7D&amp;file=booklet%202_Sepideh%20Hadidimasoul.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B3D5E93FA-19DD-49BF-8AE1-7AD1FA2CB9BC%7D&amp;file=references_RH_Sepideh%20Hadidimasoul.xlsx&amp;action=default&amp;mobileredirect=true</t>
+    <t>../manual_files/Inorganic Chemistry and Catalysis (ICC)/project_description 53 Sepideh Hadidimasouleh.doc;../manual_files/Inorganic Chemistry and Catalysis (ICC)/references 53 Sepideh Hadidimasouleh.xlsx</t>
   </si>
   <si>
     <t>../manual_files/Inorganic Chemistry and Catalysis (ICC)/project_description 54 Bettina Baumgartner.doc</t>
@@ -2242,7 +2242,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B4D138CD3-412F-4664-A6C9-781EDE629B09%7D&amp;file=References_KD_Koen%20Draijer.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B4421CFB7-216F-4663-99C6-8714DF5AD293%7D&amp;file=2023-Debye%20Booklet%20Koen%20Draijer-final_Koen%20Draijer%201.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B7782BF5B-B657-4113-AA80-BA9A38066AF7%7D&amp;file=2023-Project%20Description%20-%20Koen%20Draijer_Koen%20Draijer.docx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BE8AE728A-91EE-4855-843A-D3E4025DB60F%7D&amp;file=Text-Debye-booklet-Roy-Hoitink-flat-text_Roy%20Hoitink.docx&amp;action=default&amp;mobileredirect=true</t>
+    <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/project_description 57 Roy Hoitink.docx;../manual_files/Soft Condensed Matter and Biophysics (SCMB)/references 57 Roy Hoitink.xlsx</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B200C544C-6AF0-4EF8-9F8E-4ABDD245F4A8%7D&amp;file=Debye%20Booklet%20Jesse_Jesse%20B%C3%BCckmann%202.doc&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B3670CF35-A960-46B5-8A88-9A0C19999489%7D&amp;file=references%20debye%20booklet%20Jesse_Jesse%20B%C3%BCckmann.xlsx&amp;action=default&amp;mobileredirect=true</t>
@@ -2449,7 +2449,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B0F0C9EAC-896E-4189-A082-348BDB72C1FB%7D&amp;file=references_debyebooklet_Vincent%20Benning.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B81C777A3-2733-455C-AC4F-8D48696EC48E%7D&amp;file=DebyeBookletDiscription_Vincent%20Benning.docx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BBE351876-B797-4A2F-A2B4-2BBF2069EC9F%7D&amp;file=Debye%20booklet%20abstract_2_It%C4%B1r%20Bak%C4%B1%C5%9F%20Dogru%20Y%C3%BCk.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B9602A9CA-F601-453F-8C3F-2CE0A73EE216%7D&amp;file=reference_It%C4%B1r%20Bak%C4%B1%C5%9F%20Dogru%20Y%C3%BCk.docx&amp;action=default&amp;mobileredirect=true</t>
+    <t>../manual_files/Nanophotonics (NP)/project_description 126 Itir Bakis Dogru Yuksel.docx;../manual_files/Nanophotonics (NP)/references 126 Itir Bakis Dogru Yuksel.docx</t>
   </si>
   <si>
     <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/project_description 127 Tjom Arens.docx;../manual_files/Soft Condensed Matter and Biophysics (SCMB)/references 127 Tjom Arens.xlsx</t>
@@ -7365,7 +7365,7 @@
       <c r="M54" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" t="s">
         <v>738</v>
       </c>
       <c r="O54" t="s">
@@ -7595,7 +7595,7 @@
       <c r="M58" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" t="s">
         <v>742</v>
       </c>
       <c r="O58" t="s">
@@ -11561,7 +11561,7 @@
       <c r="M127" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="N127" s="3" t="s">
+      <c r="N127" t="s">
         <v>811</v>
       </c>
       <c r="O127" t="s">
@@ -12333,217 +12333,214 @@
     <hyperlink ref="N53" r:id="rId124"/>
     <hyperlink ref="P53" r:id="rId125"/>
     <hyperlink ref="M54" r:id="rId126"/>
-    <hyperlink ref="N54" r:id="rId127"/>
-    <hyperlink ref="P54" r:id="rId128"/>
-    <hyperlink ref="M55" r:id="rId129"/>
-    <hyperlink ref="P55" r:id="rId130"/>
-    <hyperlink ref="M56" r:id="rId131"/>
-    <hyperlink ref="P56" r:id="rId132"/>
-    <hyperlink ref="M57" r:id="rId133"/>
-    <hyperlink ref="N57" r:id="rId134"/>
-    <hyperlink ref="P57" r:id="rId135"/>
-    <hyperlink ref="M58" r:id="rId136"/>
-    <hyperlink ref="N58" r:id="rId137"/>
-    <hyperlink ref="P58" r:id="rId138"/>
-    <hyperlink ref="N59" r:id="rId139"/>
-    <hyperlink ref="P59" r:id="rId140"/>
-    <hyperlink ref="M60" r:id="rId141"/>
-    <hyperlink ref="N60" r:id="rId142"/>
-    <hyperlink ref="M61" r:id="rId143"/>
-    <hyperlink ref="P61" r:id="rId144"/>
-    <hyperlink ref="M62" r:id="rId145"/>
-    <hyperlink ref="N62" r:id="rId146"/>
-    <hyperlink ref="P62" r:id="rId147"/>
-    <hyperlink ref="M63" r:id="rId148"/>
-    <hyperlink ref="N63" r:id="rId149"/>
-    <hyperlink ref="M64" r:id="rId150"/>
-    <hyperlink ref="N64" r:id="rId151"/>
-    <hyperlink ref="P64" r:id="rId152"/>
-    <hyperlink ref="M65" r:id="rId153"/>
-    <hyperlink ref="N65" r:id="rId154"/>
-    <hyperlink ref="M66" r:id="rId155"/>
-    <hyperlink ref="N66" r:id="rId156"/>
-    <hyperlink ref="P66" r:id="rId157"/>
-    <hyperlink ref="M67" r:id="rId158"/>
-    <hyperlink ref="N67" r:id="rId159"/>
-    <hyperlink ref="P67" r:id="rId160"/>
-    <hyperlink ref="M68" r:id="rId161"/>
-    <hyperlink ref="N68" r:id="rId162"/>
-    <hyperlink ref="P68" r:id="rId163"/>
-    <hyperlink ref="M69" r:id="rId164"/>
-    <hyperlink ref="P69" r:id="rId165"/>
-    <hyperlink ref="M70" r:id="rId166"/>
-    <hyperlink ref="N70" r:id="rId167"/>
-    <hyperlink ref="P70" r:id="rId168"/>
-    <hyperlink ref="M71" r:id="rId169"/>
-    <hyperlink ref="N71" r:id="rId170"/>
-    <hyperlink ref="M72" r:id="rId171"/>
-    <hyperlink ref="N72" r:id="rId172"/>
-    <hyperlink ref="P72" r:id="rId173"/>
-    <hyperlink ref="M73" r:id="rId174"/>
-    <hyperlink ref="N73" r:id="rId175"/>
-    <hyperlink ref="P73" r:id="rId176"/>
-    <hyperlink ref="M74" r:id="rId177"/>
-    <hyperlink ref="N74" r:id="rId178"/>
-    <hyperlink ref="M75" r:id="rId179"/>
-    <hyperlink ref="N75" r:id="rId180"/>
-    <hyperlink ref="P75" r:id="rId181"/>
-    <hyperlink ref="M76" r:id="rId182"/>
-    <hyperlink ref="N76" r:id="rId183"/>
-    <hyperlink ref="P76" r:id="rId184"/>
-    <hyperlink ref="M77" r:id="rId185"/>
-    <hyperlink ref="N77" r:id="rId186"/>
-    <hyperlink ref="P77" r:id="rId187"/>
-    <hyperlink ref="M78" r:id="rId188"/>
-    <hyperlink ref="N78" r:id="rId189"/>
-    <hyperlink ref="P78" r:id="rId190"/>
-    <hyperlink ref="M79" r:id="rId191"/>
-    <hyperlink ref="P79" r:id="rId192"/>
-    <hyperlink ref="M80" r:id="rId193"/>
-    <hyperlink ref="N80" r:id="rId194"/>
-    <hyperlink ref="P80" r:id="rId195"/>
-    <hyperlink ref="M81" r:id="rId196"/>
-    <hyperlink ref="N81" r:id="rId197"/>
-    <hyperlink ref="P81" r:id="rId198"/>
-    <hyperlink ref="M82" r:id="rId199"/>
-    <hyperlink ref="N82" r:id="rId200"/>
-    <hyperlink ref="P82" r:id="rId201"/>
-    <hyperlink ref="M83" r:id="rId202"/>
-    <hyperlink ref="N83" r:id="rId203"/>
-    <hyperlink ref="P83" r:id="rId204"/>
-    <hyperlink ref="M84" r:id="rId205"/>
-    <hyperlink ref="N84" r:id="rId206"/>
-    <hyperlink ref="M86" r:id="rId207"/>
-    <hyperlink ref="N86" r:id="rId208"/>
-    <hyperlink ref="P86" r:id="rId209"/>
-    <hyperlink ref="M87" r:id="rId210"/>
-    <hyperlink ref="P87" r:id="rId211"/>
-    <hyperlink ref="M88" r:id="rId212"/>
-    <hyperlink ref="N88" r:id="rId213"/>
-    <hyperlink ref="P88" r:id="rId214"/>
-    <hyperlink ref="M89" r:id="rId215"/>
-    <hyperlink ref="N89" r:id="rId216"/>
-    <hyperlink ref="M90" r:id="rId217"/>
-    <hyperlink ref="N90" r:id="rId218"/>
-    <hyperlink ref="P90" r:id="rId219"/>
-    <hyperlink ref="M91" r:id="rId220"/>
-    <hyperlink ref="N91" r:id="rId221"/>
-    <hyperlink ref="P91" r:id="rId222"/>
-    <hyperlink ref="M92" r:id="rId223"/>
-    <hyperlink ref="P92" r:id="rId224"/>
-    <hyperlink ref="M93" r:id="rId225"/>
-    <hyperlink ref="N93" r:id="rId226"/>
-    <hyperlink ref="M94" r:id="rId227"/>
-    <hyperlink ref="N94" r:id="rId228"/>
-    <hyperlink ref="P94" r:id="rId229"/>
-    <hyperlink ref="M95" r:id="rId230"/>
-    <hyperlink ref="P95" r:id="rId231"/>
-    <hyperlink ref="M96" r:id="rId232"/>
-    <hyperlink ref="N96" r:id="rId233"/>
-    <hyperlink ref="M97" r:id="rId234"/>
-    <hyperlink ref="N97" r:id="rId235"/>
-    <hyperlink ref="P97" r:id="rId236"/>
-    <hyperlink ref="M98" r:id="rId237"/>
-    <hyperlink ref="N98" r:id="rId238"/>
-    <hyperlink ref="M99" r:id="rId239"/>
-    <hyperlink ref="P99" r:id="rId240"/>
-    <hyperlink ref="M100" r:id="rId241"/>
-    <hyperlink ref="P100" r:id="rId242"/>
-    <hyperlink ref="M101" r:id="rId243"/>
-    <hyperlink ref="N101" r:id="rId244"/>
-    <hyperlink ref="P101" r:id="rId245"/>
-    <hyperlink ref="M102" r:id="rId246"/>
-    <hyperlink ref="N102" r:id="rId247"/>
-    <hyperlink ref="P102" r:id="rId248"/>
-    <hyperlink ref="M103" r:id="rId249"/>
-    <hyperlink ref="P103" r:id="rId250"/>
-    <hyperlink ref="M104" r:id="rId251"/>
-    <hyperlink ref="N104" r:id="rId252"/>
-    <hyperlink ref="P104" r:id="rId253"/>
-    <hyperlink ref="M105" r:id="rId254"/>
-    <hyperlink ref="N105" r:id="rId255"/>
-    <hyperlink ref="P105" r:id="rId256"/>
-    <hyperlink ref="M106" r:id="rId257"/>
-    <hyperlink ref="N106" r:id="rId258"/>
-    <hyperlink ref="P106" r:id="rId259"/>
-    <hyperlink ref="M107" r:id="rId260"/>
-    <hyperlink ref="N107" r:id="rId261"/>
-    <hyperlink ref="P107" r:id="rId262"/>
-    <hyperlink ref="M108" r:id="rId263"/>
-    <hyperlink ref="N108" r:id="rId264"/>
-    <hyperlink ref="M109" r:id="rId265"/>
-    <hyperlink ref="N109" r:id="rId266"/>
-    <hyperlink ref="P109" r:id="rId267"/>
-    <hyperlink ref="M110" r:id="rId268"/>
-    <hyperlink ref="N110" r:id="rId269"/>
-    <hyperlink ref="P110" r:id="rId270"/>
-    <hyperlink ref="M111" r:id="rId271"/>
-    <hyperlink ref="N111" r:id="rId272"/>
-    <hyperlink ref="P111" r:id="rId273"/>
-    <hyperlink ref="M112" r:id="rId274"/>
-    <hyperlink ref="M113" r:id="rId275"/>
-    <hyperlink ref="N113" r:id="rId276"/>
-    <hyperlink ref="M114" r:id="rId277"/>
-    <hyperlink ref="N114" r:id="rId278"/>
-    <hyperlink ref="P114" r:id="rId279"/>
-    <hyperlink ref="M115" r:id="rId280"/>
-    <hyperlink ref="N115" r:id="rId281"/>
-    <hyperlink ref="M116" r:id="rId282"/>
-    <hyperlink ref="P116" r:id="rId283"/>
-    <hyperlink ref="M117" r:id="rId284"/>
-    <hyperlink ref="N117" r:id="rId285"/>
-    <hyperlink ref="P117" r:id="rId286"/>
-    <hyperlink ref="M118" r:id="rId287"/>
-    <hyperlink ref="N118" r:id="rId288"/>
-    <hyperlink ref="P118" r:id="rId289"/>
-    <hyperlink ref="M119" r:id="rId290"/>
-    <hyperlink ref="N119" r:id="rId291"/>
-    <hyperlink ref="P119" r:id="rId292"/>
-    <hyperlink ref="M120" r:id="rId293"/>
-    <hyperlink ref="N120" r:id="rId294"/>
-    <hyperlink ref="P120" r:id="rId295"/>
-    <hyperlink ref="M121" r:id="rId296"/>
-    <hyperlink ref="M122" r:id="rId297"/>
-    <hyperlink ref="N122" r:id="rId298"/>
-    <hyperlink ref="P122" r:id="rId299"/>
-    <hyperlink ref="M123" r:id="rId300"/>
-    <hyperlink ref="N123" r:id="rId301"/>
-    <hyperlink ref="P123" r:id="rId302"/>
-    <hyperlink ref="M124" r:id="rId303"/>
-    <hyperlink ref="M125" r:id="rId304"/>
-    <hyperlink ref="N125" r:id="rId305"/>
-    <hyperlink ref="M126" r:id="rId306"/>
-    <hyperlink ref="N126" r:id="rId307"/>
-    <hyperlink ref="P126" r:id="rId308"/>
-    <hyperlink ref="M127" r:id="rId309"/>
-    <hyperlink ref="N127" r:id="rId310"/>
-    <hyperlink ref="P127" r:id="rId311"/>
-    <hyperlink ref="M128" r:id="rId312"/>
-    <hyperlink ref="P128" r:id="rId313"/>
-    <hyperlink ref="M129" r:id="rId314"/>
-    <hyperlink ref="N129" r:id="rId315"/>
-    <hyperlink ref="P129" r:id="rId316"/>
-    <hyperlink ref="M130" r:id="rId317"/>
-    <hyperlink ref="N130" r:id="rId318"/>
-    <hyperlink ref="N131" r:id="rId319"/>
-    <hyperlink ref="M132" r:id="rId320"/>
-    <hyperlink ref="M133" r:id="rId321"/>
-    <hyperlink ref="N133" r:id="rId322"/>
-    <hyperlink ref="P133" r:id="rId323"/>
-    <hyperlink ref="M134" r:id="rId324"/>
-    <hyperlink ref="N134" r:id="rId325"/>
-    <hyperlink ref="P134" r:id="rId326"/>
-    <hyperlink ref="M135" r:id="rId327"/>
-    <hyperlink ref="N135" r:id="rId328"/>
-    <hyperlink ref="P135" r:id="rId329"/>
-    <hyperlink ref="M136" r:id="rId330"/>
-    <hyperlink ref="N136" r:id="rId331"/>
-    <hyperlink ref="P136" r:id="rId332"/>
-    <hyperlink ref="M137" r:id="rId333"/>
-    <hyperlink ref="N137" r:id="rId334"/>
-    <hyperlink ref="M138" r:id="rId335"/>
-    <hyperlink ref="N138" r:id="rId336"/>
-    <hyperlink ref="P138" r:id="rId337"/>
+    <hyperlink ref="P54" r:id="rId127"/>
+    <hyperlink ref="M55" r:id="rId128"/>
+    <hyperlink ref="P55" r:id="rId129"/>
+    <hyperlink ref="M56" r:id="rId130"/>
+    <hyperlink ref="P56" r:id="rId131"/>
+    <hyperlink ref="M57" r:id="rId132"/>
+    <hyperlink ref="N57" r:id="rId133"/>
+    <hyperlink ref="P57" r:id="rId134"/>
+    <hyperlink ref="M58" r:id="rId135"/>
+    <hyperlink ref="P58" r:id="rId136"/>
+    <hyperlink ref="N59" r:id="rId137"/>
+    <hyperlink ref="P59" r:id="rId138"/>
+    <hyperlink ref="M60" r:id="rId139"/>
+    <hyperlink ref="N60" r:id="rId140"/>
+    <hyperlink ref="M61" r:id="rId141"/>
+    <hyperlink ref="P61" r:id="rId142"/>
+    <hyperlink ref="M62" r:id="rId143"/>
+    <hyperlink ref="N62" r:id="rId144"/>
+    <hyperlink ref="P62" r:id="rId145"/>
+    <hyperlink ref="M63" r:id="rId146"/>
+    <hyperlink ref="N63" r:id="rId147"/>
+    <hyperlink ref="M64" r:id="rId148"/>
+    <hyperlink ref="N64" r:id="rId149"/>
+    <hyperlink ref="P64" r:id="rId150"/>
+    <hyperlink ref="M65" r:id="rId151"/>
+    <hyperlink ref="N65" r:id="rId152"/>
+    <hyperlink ref="M66" r:id="rId153"/>
+    <hyperlink ref="N66" r:id="rId154"/>
+    <hyperlink ref="P66" r:id="rId155"/>
+    <hyperlink ref="M67" r:id="rId156"/>
+    <hyperlink ref="N67" r:id="rId157"/>
+    <hyperlink ref="P67" r:id="rId158"/>
+    <hyperlink ref="M68" r:id="rId159"/>
+    <hyperlink ref="N68" r:id="rId160"/>
+    <hyperlink ref="P68" r:id="rId161"/>
+    <hyperlink ref="M69" r:id="rId162"/>
+    <hyperlink ref="P69" r:id="rId163"/>
+    <hyperlink ref="M70" r:id="rId164"/>
+    <hyperlink ref="N70" r:id="rId165"/>
+    <hyperlink ref="P70" r:id="rId166"/>
+    <hyperlink ref="M71" r:id="rId167"/>
+    <hyperlink ref="N71" r:id="rId168"/>
+    <hyperlink ref="M72" r:id="rId169"/>
+    <hyperlink ref="N72" r:id="rId170"/>
+    <hyperlink ref="P72" r:id="rId171"/>
+    <hyperlink ref="M73" r:id="rId172"/>
+    <hyperlink ref="N73" r:id="rId173"/>
+    <hyperlink ref="P73" r:id="rId174"/>
+    <hyperlink ref="M74" r:id="rId175"/>
+    <hyperlink ref="N74" r:id="rId176"/>
+    <hyperlink ref="M75" r:id="rId177"/>
+    <hyperlink ref="N75" r:id="rId178"/>
+    <hyperlink ref="P75" r:id="rId179"/>
+    <hyperlink ref="M76" r:id="rId180"/>
+    <hyperlink ref="N76" r:id="rId181"/>
+    <hyperlink ref="P76" r:id="rId182"/>
+    <hyperlink ref="M77" r:id="rId183"/>
+    <hyperlink ref="N77" r:id="rId184"/>
+    <hyperlink ref="P77" r:id="rId185"/>
+    <hyperlink ref="M78" r:id="rId186"/>
+    <hyperlink ref="N78" r:id="rId187"/>
+    <hyperlink ref="P78" r:id="rId188"/>
+    <hyperlink ref="M79" r:id="rId189"/>
+    <hyperlink ref="P79" r:id="rId190"/>
+    <hyperlink ref="M80" r:id="rId191"/>
+    <hyperlink ref="N80" r:id="rId192"/>
+    <hyperlink ref="P80" r:id="rId193"/>
+    <hyperlink ref="M81" r:id="rId194"/>
+    <hyperlink ref="N81" r:id="rId195"/>
+    <hyperlink ref="P81" r:id="rId196"/>
+    <hyperlink ref="M82" r:id="rId197"/>
+    <hyperlink ref="N82" r:id="rId198"/>
+    <hyperlink ref="P82" r:id="rId199"/>
+    <hyperlink ref="M83" r:id="rId200"/>
+    <hyperlink ref="N83" r:id="rId201"/>
+    <hyperlink ref="P83" r:id="rId202"/>
+    <hyperlink ref="M84" r:id="rId203"/>
+    <hyperlink ref="N84" r:id="rId204"/>
+    <hyperlink ref="M86" r:id="rId205"/>
+    <hyperlink ref="N86" r:id="rId206"/>
+    <hyperlink ref="P86" r:id="rId207"/>
+    <hyperlink ref="M87" r:id="rId208"/>
+    <hyperlink ref="P87" r:id="rId209"/>
+    <hyperlink ref="M88" r:id="rId210"/>
+    <hyperlink ref="N88" r:id="rId211"/>
+    <hyperlink ref="P88" r:id="rId212"/>
+    <hyperlink ref="M89" r:id="rId213"/>
+    <hyperlink ref="N89" r:id="rId214"/>
+    <hyperlink ref="M90" r:id="rId215"/>
+    <hyperlink ref="N90" r:id="rId216"/>
+    <hyperlink ref="P90" r:id="rId217"/>
+    <hyperlink ref="M91" r:id="rId218"/>
+    <hyperlink ref="N91" r:id="rId219"/>
+    <hyperlink ref="P91" r:id="rId220"/>
+    <hyperlink ref="M92" r:id="rId221"/>
+    <hyperlink ref="P92" r:id="rId222"/>
+    <hyperlink ref="M93" r:id="rId223"/>
+    <hyperlink ref="N93" r:id="rId224"/>
+    <hyperlink ref="M94" r:id="rId225"/>
+    <hyperlink ref="N94" r:id="rId226"/>
+    <hyperlink ref="P94" r:id="rId227"/>
+    <hyperlink ref="M95" r:id="rId228"/>
+    <hyperlink ref="P95" r:id="rId229"/>
+    <hyperlink ref="M96" r:id="rId230"/>
+    <hyperlink ref="N96" r:id="rId231"/>
+    <hyperlink ref="M97" r:id="rId232"/>
+    <hyperlink ref="N97" r:id="rId233"/>
+    <hyperlink ref="P97" r:id="rId234"/>
+    <hyperlink ref="M98" r:id="rId235"/>
+    <hyperlink ref="N98" r:id="rId236"/>
+    <hyperlink ref="M99" r:id="rId237"/>
+    <hyperlink ref="P99" r:id="rId238"/>
+    <hyperlink ref="M100" r:id="rId239"/>
+    <hyperlink ref="P100" r:id="rId240"/>
+    <hyperlink ref="M101" r:id="rId241"/>
+    <hyperlink ref="N101" r:id="rId242"/>
+    <hyperlink ref="P101" r:id="rId243"/>
+    <hyperlink ref="M102" r:id="rId244"/>
+    <hyperlink ref="N102" r:id="rId245"/>
+    <hyperlink ref="P102" r:id="rId246"/>
+    <hyperlink ref="M103" r:id="rId247"/>
+    <hyperlink ref="P103" r:id="rId248"/>
+    <hyperlink ref="M104" r:id="rId249"/>
+    <hyperlink ref="N104" r:id="rId250"/>
+    <hyperlink ref="P104" r:id="rId251"/>
+    <hyperlink ref="M105" r:id="rId252"/>
+    <hyperlink ref="N105" r:id="rId253"/>
+    <hyperlink ref="P105" r:id="rId254"/>
+    <hyperlink ref="M106" r:id="rId255"/>
+    <hyperlink ref="N106" r:id="rId256"/>
+    <hyperlink ref="P106" r:id="rId257"/>
+    <hyperlink ref="M107" r:id="rId258"/>
+    <hyperlink ref="N107" r:id="rId259"/>
+    <hyperlink ref="P107" r:id="rId260"/>
+    <hyperlink ref="M108" r:id="rId261"/>
+    <hyperlink ref="N108" r:id="rId262"/>
+    <hyperlink ref="M109" r:id="rId263"/>
+    <hyperlink ref="N109" r:id="rId264"/>
+    <hyperlink ref="P109" r:id="rId265"/>
+    <hyperlink ref="M110" r:id="rId266"/>
+    <hyperlink ref="N110" r:id="rId267"/>
+    <hyperlink ref="P110" r:id="rId268"/>
+    <hyperlink ref="M111" r:id="rId269"/>
+    <hyperlink ref="N111" r:id="rId270"/>
+    <hyperlink ref="P111" r:id="rId271"/>
+    <hyperlink ref="M112" r:id="rId272"/>
+    <hyperlink ref="M113" r:id="rId273"/>
+    <hyperlink ref="N113" r:id="rId274"/>
+    <hyperlink ref="M114" r:id="rId275"/>
+    <hyperlink ref="N114" r:id="rId276"/>
+    <hyperlink ref="P114" r:id="rId277"/>
+    <hyperlink ref="M115" r:id="rId278"/>
+    <hyperlink ref="N115" r:id="rId279"/>
+    <hyperlink ref="M116" r:id="rId280"/>
+    <hyperlink ref="P116" r:id="rId281"/>
+    <hyperlink ref="M117" r:id="rId282"/>
+    <hyperlink ref="N117" r:id="rId283"/>
+    <hyperlink ref="P117" r:id="rId284"/>
+    <hyperlink ref="M118" r:id="rId285"/>
+    <hyperlink ref="N118" r:id="rId286"/>
+    <hyperlink ref="P118" r:id="rId287"/>
+    <hyperlink ref="M119" r:id="rId288"/>
+    <hyperlink ref="N119" r:id="rId289"/>
+    <hyperlink ref="P119" r:id="rId290"/>
+    <hyperlink ref="M120" r:id="rId291"/>
+    <hyperlink ref="N120" r:id="rId292"/>
+    <hyperlink ref="P120" r:id="rId293"/>
+    <hyperlink ref="M121" r:id="rId294"/>
+    <hyperlink ref="M122" r:id="rId295"/>
+    <hyperlink ref="N122" r:id="rId296"/>
+    <hyperlink ref="P122" r:id="rId297"/>
+    <hyperlink ref="M123" r:id="rId298"/>
+    <hyperlink ref="N123" r:id="rId299"/>
+    <hyperlink ref="P123" r:id="rId300"/>
+    <hyperlink ref="M124" r:id="rId301"/>
+    <hyperlink ref="M125" r:id="rId302"/>
+    <hyperlink ref="N125" r:id="rId303"/>
+    <hyperlink ref="M126" r:id="rId304"/>
+    <hyperlink ref="N126" r:id="rId305"/>
+    <hyperlink ref="P126" r:id="rId306"/>
+    <hyperlink ref="M127" r:id="rId307"/>
+    <hyperlink ref="P127" r:id="rId308"/>
+    <hyperlink ref="M128" r:id="rId309"/>
+    <hyperlink ref="P128" r:id="rId310"/>
+    <hyperlink ref="M129" r:id="rId311"/>
+    <hyperlink ref="N129" r:id="rId312"/>
+    <hyperlink ref="P129" r:id="rId313"/>
+    <hyperlink ref="M130" r:id="rId314"/>
+    <hyperlink ref="N130" r:id="rId315"/>
+    <hyperlink ref="N131" r:id="rId316"/>
+    <hyperlink ref="M132" r:id="rId317"/>
+    <hyperlink ref="M133" r:id="rId318"/>
+    <hyperlink ref="N133" r:id="rId319"/>
+    <hyperlink ref="P133" r:id="rId320"/>
+    <hyperlink ref="M134" r:id="rId321"/>
+    <hyperlink ref="N134" r:id="rId322"/>
+    <hyperlink ref="P134" r:id="rId323"/>
+    <hyperlink ref="M135" r:id="rId324"/>
+    <hyperlink ref="N135" r:id="rId325"/>
+    <hyperlink ref="P135" r:id="rId326"/>
+    <hyperlink ref="M136" r:id="rId327"/>
+    <hyperlink ref="N136" r:id="rId328"/>
+    <hyperlink ref="P136" r:id="rId329"/>
+    <hyperlink ref="M137" r:id="rId330"/>
+    <hyperlink ref="N137" r:id="rId331"/>
+    <hyperlink ref="M138" r:id="rId332"/>
+    <hyperlink ref="N138" r:id="rId333"/>
+    <hyperlink ref="P138" r:id="rId334"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -3061,7 +3061,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/sls%20data-Qijun_Qijun%20Che.jpg</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/Figure%20Nicolette%20Maaskant_Debye%20Booklet_Nicolette%20Maaskant.ai</t>
+    <t>../manual_files/Inorganic Chemistry and Catalysis (ICC)/figure 79 Nicolette Maaskant.pdf</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question%202/figure_Chaohong%20Wang.pdf</t>
@@ -8878,7 +8878,7 @@
       <c r="O80" t="s">
         <v>901</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="P80" t="s">
         <v>1015</v>
       </c>
       <c r="Q80" t="s">
@@ -12399,148 +12399,147 @@
     <hyperlink ref="P79" r:id="rId190"/>
     <hyperlink ref="M80" r:id="rId191"/>
     <hyperlink ref="N80" r:id="rId192"/>
-    <hyperlink ref="P80" r:id="rId193"/>
-    <hyperlink ref="M81" r:id="rId194"/>
-    <hyperlink ref="N81" r:id="rId195"/>
-    <hyperlink ref="P81" r:id="rId196"/>
-    <hyperlink ref="M82" r:id="rId197"/>
-    <hyperlink ref="N82" r:id="rId198"/>
-    <hyperlink ref="P82" r:id="rId199"/>
-    <hyperlink ref="M83" r:id="rId200"/>
-    <hyperlink ref="N83" r:id="rId201"/>
-    <hyperlink ref="P83" r:id="rId202"/>
-    <hyperlink ref="M84" r:id="rId203"/>
-    <hyperlink ref="N84" r:id="rId204"/>
-    <hyperlink ref="M86" r:id="rId205"/>
-    <hyperlink ref="N86" r:id="rId206"/>
-    <hyperlink ref="P86" r:id="rId207"/>
-    <hyperlink ref="M87" r:id="rId208"/>
-    <hyperlink ref="P87" r:id="rId209"/>
-    <hyperlink ref="M88" r:id="rId210"/>
-    <hyperlink ref="N88" r:id="rId211"/>
-    <hyperlink ref="P88" r:id="rId212"/>
-    <hyperlink ref="M89" r:id="rId213"/>
-    <hyperlink ref="N89" r:id="rId214"/>
-    <hyperlink ref="M90" r:id="rId215"/>
-    <hyperlink ref="N90" r:id="rId216"/>
-    <hyperlink ref="P90" r:id="rId217"/>
-    <hyperlink ref="M91" r:id="rId218"/>
-    <hyperlink ref="N91" r:id="rId219"/>
-    <hyperlink ref="P91" r:id="rId220"/>
-    <hyperlink ref="M92" r:id="rId221"/>
-    <hyperlink ref="P92" r:id="rId222"/>
-    <hyperlink ref="M93" r:id="rId223"/>
-    <hyperlink ref="N93" r:id="rId224"/>
-    <hyperlink ref="M94" r:id="rId225"/>
-    <hyperlink ref="N94" r:id="rId226"/>
-    <hyperlink ref="P94" r:id="rId227"/>
-    <hyperlink ref="M95" r:id="rId228"/>
-    <hyperlink ref="P95" r:id="rId229"/>
-    <hyperlink ref="M96" r:id="rId230"/>
-    <hyperlink ref="N96" r:id="rId231"/>
-    <hyperlink ref="M97" r:id="rId232"/>
-    <hyperlink ref="N97" r:id="rId233"/>
-    <hyperlink ref="P97" r:id="rId234"/>
-    <hyperlink ref="M98" r:id="rId235"/>
-    <hyperlink ref="N98" r:id="rId236"/>
-    <hyperlink ref="M99" r:id="rId237"/>
-    <hyperlink ref="P99" r:id="rId238"/>
-    <hyperlink ref="M100" r:id="rId239"/>
-    <hyperlink ref="P100" r:id="rId240"/>
-    <hyperlink ref="M101" r:id="rId241"/>
-    <hyperlink ref="N101" r:id="rId242"/>
-    <hyperlink ref="P101" r:id="rId243"/>
-    <hyperlink ref="M102" r:id="rId244"/>
-    <hyperlink ref="N102" r:id="rId245"/>
-    <hyperlink ref="P102" r:id="rId246"/>
-    <hyperlink ref="M103" r:id="rId247"/>
-    <hyperlink ref="P103" r:id="rId248"/>
-    <hyperlink ref="M104" r:id="rId249"/>
-    <hyperlink ref="N104" r:id="rId250"/>
-    <hyperlink ref="P104" r:id="rId251"/>
-    <hyperlink ref="M105" r:id="rId252"/>
-    <hyperlink ref="N105" r:id="rId253"/>
-    <hyperlink ref="P105" r:id="rId254"/>
-    <hyperlink ref="M106" r:id="rId255"/>
-    <hyperlink ref="N106" r:id="rId256"/>
-    <hyperlink ref="P106" r:id="rId257"/>
-    <hyperlink ref="M107" r:id="rId258"/>
-    <hyperlink ref="N107" r:id="rId259"/>
-    <hyperlink ref="P107" r:id="rId260"/>
-    <hyperlink ref="M108" r:id="rId261"/>
-    <hyperlink ref="N108" r:id="rId262"/>
-    <hyperlink ref="M109" r:id="rId263"/>
-    <hyperlink ref="N109" r:id="rId264"/>
-    <hyperlink ref="P109" r:id="rId265"/>
-    <hyperlink ref="M110" r:id="rId266"/>
-    <hyperlink ref="N110" r:id="rId267"/>
-    <hyperlink ref="P110" r:id="rId268"/>
-    <hyperlink ref="M111" r:id="rId269"/>
-    <hyperlink ref="N111" r:id="rId270"/>
-    <hyperlink ref="P111" r:id="rId271"/>
-    <hyperlink ref="M112" r:id="rId272"/>
-    <hyperlink ref="M113" r:id="rId273"/>
-    <hyperlink ref="N113" r:id="rId274"/>
-    <hyperlink ref="M114" r:id="rId275"/>
-    <hyperlink ref="N114" r:id="rId276"/>
-    <hyperlink ref="P114" r:id="rId277"/>
-    <hyperlink ref="M115" r:id="rId278"/>
-    <hyperlink ref="N115" r:id="rId279"/>
-    <hyperlink ref="M116" r:id="rId280"/>
-    <hyperlink ref="P116" r:id="rId281"/>
-    <hyperlink ref="M117" r:id="rId282"/>
-    <hyperlink ref="N117" r:id="rId283"/>
-    <hyperlink ref="P117" r:id="rId284"/>
-    <hyperlink ref="M118" r:id="rId285"/>
-    <hyperlink ref="N118" r:id="rId286"/>
-    <hyperlink ref="P118" r:id="rId287"/>
-    <hyperlink ref="M119" r:id="rId288"/>
-    <hyperlink ref="N119" r:id="rId289"/>
-    <hyperlink ref="P119" r:id="rId290"/>
-    <hyperlink ref="M120" r:id="rId291"/>
-    <hyperlink ref="N120" r:id="rId292"/>
-    <hyperlink ref="P120" r:id="rId293"/>
-    <hyperlink ref="M121" r:id="rId294"/>
-    <hyperlink ref="M122" r:id="rId295"/>
-    <hyperlink ref="N122" r:id="rId296"/>
-    <hyperlink ref="P122" r:id="rId297"/>
-    <hyperlink ref="M123" r:id="rId298"/>
-    <hyperlink ref="N123" r:id="rId299"/>
-    <hyperlink ref="P123" r:id="rId300"/>
-    <hyperlink ref="M124" r:id="rId301"/>
-    <hyperlink ref="M125" r:id="rId302"/>
-    <hyperlink ref="N125" r:id="rId303"/>
-    <hyperlink ref="M126" r:id="rId304"/>
-    <hyperlink ref="N126" r:id="rId305"/>
-    <hyperlink ref="P126" r:id="rId306"/>
-    <hyperlink ref="M127" r:id="rId307"/>
-    <hyperlink ref="P127" r:id="rId308"/>
-    <hyperlink ref="M128" r:id="rId309"/>
-    <hyperlink ref="P128" r:id="rId310"/>
-    <hyperlink ref="M129" r:id="rId311"/>
-    <hyperlink ref="N129" r:id="rId312"/>
-    <hyperlink ref="P129" r:id="rId313"/>
-    <hyperlink ref="M130" r:id="rId314"/>
-    <hyperlink ref="N130" r:id="rId315"/>
-    <hyperlink ref="N131" r:id="rId316"/>
-    <hyperlink ref="M132" r:id="rId317"/>
-    <hyperlink ref="M133" r:id="rId318"/>
-    <hyperlink ref="N133" r:id="rId319"/>
-    <hyperlink ref="P133" r:id="rId320"/>
-    <hyperlink ref="M134" r:id="rId321"/>
-    <hyperlink ref="N134" r:id="rId322"/>
-    <hyperlink ref="P134" r:id="rId323"/>
-    <hyperlink ref="M135" r:id="rId324"/>
-    <hyperlink ref="N135" r:id="rId325"/>
-    <hyperlink ref="P135" r:id="rId326"/>
-    <hyperlink ref="M136" r:id="rId327"/>
-    <hyperlink ref="N136" r:id="rId328"/>
-    <hyperlink ref="P136" r:id="rId329"/>
-    <hyperlink ref="M137" r:id="rId330"/>
-    <hyperlink ref="N137" r:id="rId331"/>
-    <hyperlink ref="M138" r:id="rId332"/>
-    <hyperlink ref="N138" r:id="rId333"/>
-    <hyperlink ref="P138" r:id="rId334"/>
+    <hyperlink ref="M81" r:id="rId193"/>
+    <hyperlink ref="N81" r:id="rId194"/>
+    <hyperlink ref="P81" r:id="rId195"/>
+    <hyperlink ref="M82" r:id="rId196"/>
+    <hyperlink ref="N82" r:id="rId197"/>
+    <hyperlink ref="P82" r:id="rId198"/>
+    <hyperlink ref="M83" r:id="rId199"/>
+    <hyperlink ref="N83" r:id="rId200"/>
+    <hyperlink ref="P83" r:id="rId201"/>
+    <hyperlink ref="M84" r:id="rId202"/>
+    <hyperlink ref="N84" r:id="rId203"/>
+    <hyperlink ref="M86" r:id="rId204"/>
+    <hyperlink ref="N86" r:id="rId205"/>
+    <hyperlink ref="P86" r:id="rId206"/>
+    <hyperlink ref="M87" r:id="rId207"/>
+    <hyperlink ref="P87" r:id="rId208"/>
+    <hyperlink ref="M88" r:id="rId209"/>
+    <hyperlink ref="N88" r:id="rId210"/>
+    <hyperlink ref="P88" r:id="rId211"/>
+    <hyperlink ref="M89" r:id="rId212"/>
+    <hyperlink ref="N89" r:id="rId213"/>
+    <hyperlink ref="M90" r:id="rId214"/>
+    <hyperlink ref="N90" r:id="rId215"/>
+    <hyperlink ref="P90" r:id="rId216"/>
+    <hyperlink ref="M91" r:id="rId217"/>
+    <hyperlink ref="N91" r:id="rId218"/>
+    <hyperlink ref="P91" r:id="rId219"/>
+    <hyperlink ref="M92" r:id="rId220"/>
+    <hyperlink ref="P92" r:id="rId221"/>
+    <hyperlink ref="M93" r:id="rId222"/>
+    <hyperlink ref="N93" r:id="rId223"/>
+    <hyperlink ref="M94" r:id="rId224"/>
+    <hyperlink ref="N94" r:id="rId225"/>
+    <hyperlink ref="P94" r:id="rId226"/>
+    <hyperlink ref="M95" r:id="rId227"/>
+    <hyperlink ref="P95" r:id="rId228"/>
+    <hyperlink ref="M96" r:id="rId229"/>
+    <hyperlink ref="N96" r:id="rId230"/>
+    <hyperlink ref="M97" r:id="rId231"/>
+    <hyperlink ref="N97" r:id="rId232"/>
+    <hyperlink ref="P97" r:id="rId233"/>
+    <hyperlink ref="M98" r:id="rId234"/>
+    <hyperlink ref="N98" r:id="rId235"/>
+    <hyperlink ref="M99" r:id="rId236"/>
+    <hyperlink ref="P99" r:id="rId237"/>
+    <hyperlink ref="M100" r:id="rId238"/>
+    <hyperlink ref="P100" r:id="rId239"/>
+    <hyperlink ref="M101" r:id="rId240"/>
+    <hyperlink ref="N101" r:id="rId241"/>
+    <hyperlink ref="P101" r:id="rId242"/>
+    <hyperlink ref="M102" r:id="rId243"/>
+    <hyperlink ref="N102" r:id="rId244"/>
+    <hyperlink ref="P102" r:id="rId245"/>
+    <hyperlink ref="M103" r:id="rId246"/>
+    <hyperlink ref="P103" r:id="rId247"/>
+    <hyperlink ref="M104" r:id="rId248"/>
+    <hyperlink ref="N104" r:id="rId249"/>
+    <hyperlink ref="P104" r:id="rId250"/>
+    <hyperlink ref="M105" r:id="rId251"/>
+    <hyperlink ref="N105" r:id="rId252"/>
+    <hyperlink ref="P105" r:id="rId253"/>
+    <hyperlink ref="M106" r:id="rId254"/>
+    <hyperlink ref="N106" r:id="rId255"/>
+    <hyperlink ref="P106" r:id="rId256"/>
+    <hyperlink ref="M107" r:id="rId257"/>
+    <hyperlink ref="N107" r:id="rId258"/>
+    <hyperlink ref="P107" r:id="rId259"/>
+    <hyperlink ref="M108" r:id="rId260"/>
+    <hyperlink ref="N108" r:id="rId261"/>
+    <hyperlink ref="M109" r:id="rId262"/>
+    <hyperlink ref="N109" r:id="rId263"/>
+    <hyperlink ref="P109" r:id="rId264"/>
+    <hyperlink ref="M110" r:id="rId265"/>
+    <hyperlink ref="N110" r:id="rId266"/>
+    <hyperlink ref="P110" r:id="rId267"/>
+    <hyperlink ref="M111" r:id="rId268"/>
+    <hyperlink ref="N111" r:id="rId269"/>
+    <hyperlink ref="P111" r:id="rId270"/>
+    <hyperlink ref="M112" r:id="rId271"/>
+    <hyperlink ref="M113" r:id="rId272"/>
+    <hyperlink ref="N113" r:id="rId273"/>
+    <hyperlink ref="M114" r:id="rId274"/>
+    <hyperlink ref="N114" r:id="rId275"/>
+    <hyperlink ref="P114" r:id="rId276"/>
+    <hyperlink ref="M115" r:id="rId277"/>
+    <hyperlink ref="N115" r:id="rId278"/>
+    <hyperlink ref="M116" r:id="rId279"/>
+    <hyperlink ref="P116" r:id="rId280"/>
+    <hyperlink ref="M117" r:id="rId281"/>
+    <hyperlink ref="N117" r:id="rId282"/>
+    <hyperlink ref="P117" r:id="rId283"/>
+    <hyperlink ref="M118" r:id="rId284"/>
+    <hyperlink ref="N118" r:id="rId285"/>
+    <hyperlink ref="P118" r:id="rId286"/>
+    <hyperlink ref="M119" r:id="rId287"/>
+    <hyperlink ref="N119" r:id="rId288"/>
+    <hyperlink ref="P119" r:id="rId289"/>
+    <hyperlink ref="M120" r:id="rId290"/>
+    <hyperlink ref="N120" r:id="rId291"/>
+    <hyperlink ref="P120" r:id="rId292"/>
+    <hyperlink ref="M121" r:id="rId293"/>
+    <hyperlink ref="M122" r:id="rId294"/>
+    <hyperlink ref="N122" r:id="rId295"/>
+    <hyperlink ref="P122" r:id="rId296"/>
+    <hyperlink ref="M123" r:id="rId297"/>
+    <hyperlink ref="N123" r:id="rId298"/>
+    <hyperlink ref="P123" r:id="rId299"/>
+    <hyperlink ref="M124" r:id="rId300"/>
+    <hyperlink ref="M125" r:id="rId301"/>
+    <hyperlink ref="N125" r:id="rId302"/>
+    <hyperlink ref="M126" r:id="rId303"/>
+    <hyperlink ref="N126" r:id="rId304"/>
+    <hyperlink ref="P126" r:id="rId305"/>
+    <hyperlink ref="M127" r:id="rId306"/>
+    <hyperlink ref="P127" r:id="rId307"/>
+    <hyperlink ref="M128" r:id="rId308"/>
+    <hyperlink ref="P128" r:id="rId309"/>
+    <hyperlink ref="M129" r:id="rId310"/>
+    <hyperlink ref="N129" r:id="rId311"/>
+    <hyperlink ref="P129" r:id="rId312"/>
+    <hyperlink ref="M130" r:id="rId313"/>
+    <hyperlink ref="N130" r:id="rId314"/>
+    <hyperlink ref="N131" r:id="rId315"/>
+    <hyperlink ref="M132" r:id="rId316"/>
+    <hyperlink ref="M133" r:id="rId317"/>
+    <hyperlink ref="N133" r:id="rId318"/>
+    <hyperlink ref="P133" r:id="rId319"/>
+    <hyperlink ref="M134" r:id="rId320"/>
+    <hyperlink ref="N134" r:id="rId321"/>
+    <hyperlink ref="P134" r:id="rId322"/>
+    <hyperlink ref="M135" r:id="rId323"/>
+    <hyperlink ref="N135" r:id="rId324"/>
+    <hyperlink ref="P135" r:id="rId325"/>
+    <hyperlink ref="M136" r:id="rId326"/>
+    <hyperlink ref="N136" r:id="rId327"/>
+    <hyperlink ref="P136" r:id="rId328"/>
+    <hyperlink ref="M137" r:id="rId329"/>
+    <hyperlink ref="N137" r:id="rId330"/>
+    <hyperlink ref="M138" r:id="rId331"/>
+    <hyperlink ref="N138" r:id="rId332"/>
+    <hyperlink ref="P138" r:id="rId333"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -1816,7 +1816,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/me_Geert%20Schulpen.tiff</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/photo_booklet_subert_Rodolfo%20Subert.tiff</t>
+    <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/portrait 52 Rodolfo Subert.jpg</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/Documents/Apps/Microsoft%20Forms/Untitled%20form/Question/Sepideh_Sepideh%20Hadidimasoul.jpg</t>
@@ -2167,7 +2167,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B2B180557-94D8-4F28-AD96-EABF0E83AFF4%7D&amp;file=Debye%20booklet%20project%20description%20Marnix%20Vreu_Marnix%20Vreugdenhil%201.docx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B93FCE7B4-9545-4131-9FD7-93B896B69876%7D&amp;file=Debye%20booklet%20Jim%20de%20Ruiter_Jim%20de%20Ruiter%201.docx&amp;action=default&amp;mobileredirect=true</t>
+    <t>../manual_files/Inorganic Chemistry and Catalysis (ICC)/project_description 32 Jim de Ruiter.docx;../manual_files/Inorganic Chemistry and Catalysis (ICC)/references 32 Jim de Ruiter.xlsx</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B296A8F7B-004B-43B4-A043-E6A82E0E8CB5%7D&amp;file=debye%20booklet%20refs_Bas%20den%20Hartigh.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BC4032AC1-2102-45BA-82BE-B568D9D57A0A%7D&amp;file=Debye%20Booklet_Bas%20den%20Hartigh.docx&amp;action=default&amp;mobileredirect=true</t>
@@ -2323,7 +2323,7 @@
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B026C3063-1BEA-46A8-9260-096B3A112D0A%7D&amp;file=BookletCMI2023_Riccardo%20Reho%202.docx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B247AB3F8-E8AA-449B-B87D-B484FBAA44D7%7D&amp;file=RR_references2023_Riccardo%20Reho%202.xlsx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/project_description 84 Susana Marin Aguilar.docx</t>
+    <t>../manual_files/Soft Condensed Matter and Biophysics (SCMB)/project_description 84 Susana Marin Aguilar.docx;../manual_files/Soft Condensed Matter and Biophysics (SCMB)/references 84 Susana Marin Aguilar.xlsx</t>
   </si>
   <si>
     <t>https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7BF7D1792F-DFEB-4B4C-804A-902E4178A849%7D&amp;file=References%20debye%20booklet_Luuk%20Stringer%201.xlsx&amp;action=default&amp;mobileredirect=true; https://solisservices-my.sharepoint.com/personal/b_verreussel_uu_nl/_layouts/15/Doc.aspx?sourcedoc=%7B46E50FE4-7812-4C27-B2E7-A77CD7FA599F%7D&amp;file=Debye%20text%20only_Luuk%20Stringer.docx&amp;action=default&amp;mobileredirect=true</t>
@@ -6153,7 +6153,7 @@
       <c r="M33" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" t="s">
         <v>717</v>
       </c>
       <c r="O33" t="s">
@@ -7303,7 +7303,7 @@
       <c r="L53" t="s">
         <v>541</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" t="s">
         <v>600</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -12281,265 +12281,263 @@
     <hyperlink ref="N32" r:id="rId72"/>
     <hyperlink ref="P32" r:id="rId73"/>
     <hyperlink ref="M33" r:id="rId74"/>
-    <hyperlink ref="N33" r:id="rId75"/>
-    <hyperlink ref="P33" r:id="rId76"/>
-    <hyperlink ref="M34" r:id="rId77"/>
-    <hyperlink ref="N34" r:id="rId78"/>
-    <hyperlink ref="M35" r:id="rId79"/>
-    <hyperlink ref="P35" r:id="rId80"/>
-    <hyperlink ref="M36" r:id="rId81"/>
-    <hyperlink ref="N36" r:id="rId82"/>
-    <hyperlink ref="P36" r:id="rId83"/>
-    <hyperlink ref="M37" r:id="rId84"/>
-    <hyperlink ref="N37" r:id="rId85"/>
-    <hyperlink ref="P37" r:id="rId86"/>
-    <hyperlink ref="M38" r:id="rId87"/>
-    <hyperlink ref="N38" r:id="rId88"/>
-    <hyperlink ref="P38" r:id="rId89"/>
-    <hyperlink ref="M39" r:id="rId90"/>
-    <hyperlink ref="P39" r:id="rId91"/>
-    <hyperlink ref="M40" r:id="rId92"/>
-    <hyperlink ref="N40" r:id="rId93"/>
-    <hyperlink ref="P40" r:id="rId94"/>
-    <hyperlink ref="M41" r:id="rId95"/>
-    <hyperlink ref="N41" r:id="rId96"/>
-    <hyperlink ref="P41" r:id="rId97"/>
-    <hyperlink ref="M42" r:id="rId98"/>
-    <hyperlink ref="N42" r:id="rId99"/>
-    <hyperlink ref="M43" r:id="rId100"/>
-    <hyperlink ref="N43" r:id="rId101"/>
-    <hyperlink ref="P43" r:id="rId102"/>
-    <hyperlink ref="N44" r:id="rId103"/>
-    <hyperlink ref="M45" r:id="rId104"/>
-    <hyperlink ref="N45" r:id="rId105"/>
-    <hyperlink ref="M46" r:id="rId106"/>
-    <hyperlink ref="N46" r:id="rId107"/>
-    <hyperlink ref="P46" r:id="rId108"/>
-    <hyperlink ref="M47" r:id="rId109"/>
-    <hyperlink ref="N47" r:id="rId110"/>
-    <hyperlink ref="P47" r:id="rId111"/>
-    <hyperlink ref="M48" r:id="rId112"/>
-    <hyperlink ref="M49" r:id="rId113"/>
-    <hyperlink ref="N49" r:id="rId114"/>
-    <hyperlink ref="M50" r:id="rId115"/>
-    <hyperlink ref="N50" r:id="rId116"/>
-    <hyperlink ref="P50" r:id="rId117"/>
-    <hyperlink ref="M51" r:id="rId118"/>
-    <hyperlink ref="N51" r:id="rId119"/>
-    <hyperlink ref="M52" r:id="rId120"/>
-    <hyperlink ref="N52" r:id="rId121"/>
-    <hyperlink ref="P52" r:id="rId122"/>
-    <hyperlink ref="M53" r:id="rId123"/>
-    <hyperlink ref="N53" r:id="rId124"/>
-    <hyperlink ref="P53" r:id="rId125"/>
-    <hyperlink ref="M54" r:id="rId126"/>
-    <hyperlink ref="P54" r:id="rId127"/>
-    <hyperlink ref="M55" r:id="rId128"/>
-    <hyperlink ref="P55" r:id="rId129"/>
-    <hyperlink ref="M56" r:id="rId130"/>
-    <hyperlink ref="P56" r:id="rId131"/>
-    <hyperlink ref="M57" r:id="rId132"/>
-    <hyperlink ref="N57" r:id="rId133"/>
-    <hyperlink ref="P57" r:id="rId134"/>
-    <hyperlink ref="M58" r:id="rId135"/>
-    <hyperlink ref="P58" r:id="rId136"/>
-    <hyperlink ref="N59" r:id="rId137"/>
-    <hyperlink ref="P59" r:id="rId138"/>
-    <hyperlink ref="M60" r:id="rId139"/>
-    <hyperlink ref="N60" r:id="rId140"/>
-    <hyperlink ref="M61" r:id="rId141"/>
-    <hyperlink ref="P61" r:id="rId142"/>
-    <hyperlink ref="M62" r:id="rId143"/>
-    <hyperlink ref="N62" r:id="rId144"/>
-    <hyperlink ref="P62" r:id="rId145"/>
-    <hyperlink ref="M63" r:id="rId146"/>
-    <hyperlink ref="N63" r:id="rId147"/>
-    <hyperlink ref="M64" r:id="rId148"/>
-    <hyperlink ref="N64" r:id="rId149"/>
-    <hyperlink ref="P64" r:id="rId150"/>
-    <hyperlink ref="M65" r:id="rId151"/>
-    <hyperlink ref="N65" r:id="rId152"/>
-    <hyperlink ref="M66" r:id="rId153"/>
-    <hyperlink ref="N66" r:id="rId154"/>
-    <hyperlink ref="P66" r:id="rId155"/>
-    <hyperlink ref="M67" r:id="rId156"/>
-    <hyperlink ref="N67" r:id="rId157"/>
-    <hyperlink ref="P67" r:id="rId158"/>
-    <hyperlink ref="M68" r:id="rId159"/>
-    <hyperlink ref="N68" r:id="rId160"/>
-    <hyperlink ref="P68" r:id="rId161"/>
-    <hyperlink ref="M69" r:id="rId162"/>
-    <hyperlink ref="P69" r:id="rId163"/>
-    <hyperlink ref="M70" r:id="rId164"/>
-    <hyperlink ref="N70" r:id="rId165"/>
-    <hyperlink ref="P70" r:id="rId166"/>
-    <hyperlink ref="M71" r:id="rId167"/>
-    <hyperlink ref="N71" r:id="rId168"/>
-    <hyperlink ref="M72" r:id="rId169"/>
-    <hyperlink ref="N72" r:id="rId170"/>
-    <hyperlink ref="P72" r:id="rId171"/>
-    <hyperlink ref="M73" r:id="rId172"/>
-    <hyperlink ref="N73" r:id="rId173"/>
-    <hyperlink ref="P73" r:id="rId174"/>
-    <hyperlink ref="M74" r:id="rId175"/>
-    <hyperlink ref="N74" r:id="rId176"/>
-    <hyperlink ref="M75" r:id="rId177"/>
-    <hyperlink ref="N75" r:id="rId178"/>
-    <hyperlink ref="P75" r:id="rId179"/>
-    <hyperlink ref="M76" r:id="rId180"/>
-    <hyperlink ref="N76" r:id="rId181"/>
-    <hyperlink ref="P76" r:id="rId182"/>
-    <hyperlink ref="M77" r:id="rId183"/>
-    <hyperlink ref="N77" r:id="rId184"/>
-    <hyperlink ref="P77" r:id="rId185"/>
-    <hyperlink ref="M78" r:id="rId186"/>
-    <hyperlink ref="N78" r:id="rId187"/>
-    <hyperlink ref="P78" r:id="rId188"/>
-    <hyperlink ref="M79" r:id="rId189"/>
-    <hyperlink ref="P79" r:id="rId190"/>
-    <hyperlink ref="M80" r:id="rId191"/>
-    <hyperlink ref="N80" r:id="rId192"/>
-    <hyperlink ref="M81" r:id="rId193"/>
-    <hyperlink ref="N81" r:id="rId194"/>
-    <hyperlink ref="P81" r:id="rId195"/>
-    <hyperlink ref="M82" r:id="rId196"/>
-    <hyperlink ref="N82" r:id="rId197"/>
-    <hyperlink ref="P82" r:id="rId198"/>
-    <hyperlink ref="M83" r:id="rId199"/>
-    <hyperlink ref="N83" r:id="rId200"/>
-    <hyperlink ref="P83" r:id="rId201"/>
-    <hyperlink ref="M84" r:id="rId202"/>
-    <hyperlink ref="N84" r:id="rId203"/>
-    <hyperlink ref="M86" r:id="rId204"/>
-    <hyperlink ref="N86" r:id="rId205"/>
-    <hyperlink ref="P86" r:id="rId206"/>
-    <hyperlink ref="M87" r:id="rId207"/>
-    <hyperlink ref="P87" r:id="rId208"/>
-    <hyperlink ref="M88" r:id="rId209"/>
-    <hyperlink ref="N88" r:id="rId210"/>
-    <hyperlink ref="P88" r:id="rId211"/>
-    <hyperlink ref="M89" r:id="rId212"/>
-    <hyperlink ref="N89" r:id="rId213"/>
-    <hyperlink ref="M90" r:id="rId214"/>
-    <hyperlink ref="N90" r:id="rId215"/>
-    <hyperlink ref="P90" r:id="rId216"/>
-    <hyperlink ref="M91" r:id="rId217"/>
-    <hyperlink ref="N91" r:id="rId218"/>
-    <hyperlink ref="P91" r:id="rId219"/>
-    <hyperlink ref="M92" r:id="rId220"/>
-    <hyperlink ref="P92" r:id="rId221"/>
-    <hyperlink ref="M93" r:id="rId222"/>
-    <hyperlink ref="N93" r:id="rId223"/>
-    <hyperlink ref="M94" r:id="rId224"/>
-    <hyperlink ref="N94" r:id="rId225"/>
-    <hyperlink ref="P94" r:id="rId226"/>
-    <hyperlink ref="M95" r:id="rId227"/>
-    <hyperlink ref="P95" r:id="rId228"/>
-    <hyperlink ref="M96" r:id="rId229"/>
-    <hyperlink ref="N96" r:id="rId230"/>
-    <hyperlink ref="M97" r:id="rId231"/>
-    <hyperlink ref="N97" r:id="rId232"/>
-    <hyperlink ref="P97" r:id="rId233"/>
-    <hyperlink ref="M98" r:id="rId234"/>
-    <hyperlink ref="N98" r:id="rId235"/>
-    <hyperlink ref="M99" r:id="rId236"/>
-    <hyperlink ref="P99" r:id="rId237"/>
-    <hyperlink ref="M100" r:id="rId238"/>
-    <hyperlink ref="P100" r:id="rId239"/>
-    <hyperlink ref="M101" r:id="rId240"/>
-    <hyperlink ref="N101" r:id="rId241"/>
-    <hyperlink ref="P101" r:id="rId242"/>
-    <hyperlink ref="M102" r:id="rId243"/>
-    <hyperlink ref="N102" r:id="rId244"/>
-    <hyperlink ref="P102" r:id="rId245"/>
-    <hyperlink ref="M103" r:id="rId246"/>
-    <hyperlink ref="P103" r:id="rId247"/>
-    <hyperlink ref="M104" r:id="rId248"/>
-    <hyperlink ref="N104" r:id="rId249"/>
-    <hyperlink ref="P104" r:id="rId250"/>
-    <hyperlink ref="M105" r:id="rId251"/>
-    <hyperlink ref="N105" r:id="rId252"/>
-    <hyperlink ref="P105" r:id="rId253"/>
-    <hyperlink ref="M106" r:id="rId254"/>
-    <hyperlink ref="N106" r:id="rId255"/>
-    <hyperlink ref="P106" r:id="rId256"/>
-    <hyperlink ref="M107" r:id="rId257"/>
-    <hyperlink ref="N107" r:id="rId258"/>
-    <hyperlink ref="P107" r:id="rId259"/>
-    <hyperlink ref="M108" r:id="rId260"/>
-    <hyperlink ref="N108" r:id="rId261"/>
-    <hyperlink ref="M109" r:id="rId262"/>
-    <hyperlink ref="N109" r:id="rId263"/>
-    <hyperlink ref="P109" r:id="rId264"/>
-    <hyperlink ref="M110" r:id="rId265"/>
-    <hyperlink ref="N110" r:id="rId266"/>
-    <hyperlink ref="P110" r:id="rId267"/>
-    <hyperlink ref="M111" r:id="rId268"/>
-    <hyperlink ref="N111" r:id="rId269"/>
-    <hyperlink ref="P111" r:id="rId270"/>
-    <hyperlink ref="M112" r:id="rId271"/>
-    <hyperlink ref="M113" r:id="rId272"/>
-    <hyperlink ref="N113" r:id="rId273"/>
-    <hyperlink ref="M114" r:id="rId274"/>
-    <hyperlink ref="N114" r:id="rId275"/>
-    <hyperlink ref="P114" r:id="rId276"/>
-    <hyperlink ref="M115" r:id="rId277"/>
-    <hyperlink ref="N115" r:id="rId278"/>
-    <hyperlink ref="M116" r:id="rId279"/>
-    <hyperlink ref="P116" r:id="rId280"/>
-    <hyperlink ref="M117" r:id="rId281"/>
-    <hyperlink ref="N117" r:id="rId282"/>
-    <hyperlink ref="P117" r:id="rId283"/>
-    <hyperlink ref="M118" r:id="rId284"/>
-    <hyperlink ref="N118" r:id="rId285"/>
-    <hyperlink ref="P118" r:id="rId286"/>
-    <hyperlink ref="M119" r:id="rId287"/>
-    <hyperlink ref="N119" r:id="rId288"/>
-    <hyperlink ref="P119" r:id="rId289"/>
-    <hyperlink ref="M120" r:id="rId290"/>
-    <hyperlink ref="N120" r:id="rId291"/>
-    <hyperlink ref="P120" r:id="rId292"/>
-    <hyperlink ref="M121" r:id="rId293"/>
-    <hyperlink ref="M122" r:id="rId294"/>
-    <hyperlink ref="N122" r:id="rId295"/>
-    <hyperlink ref="P122" r:id="rId296"/>
-    <hyperlink ref="M123" r:id="rId297"/>
-    <hyperlink ref="N123" r:id="rId298"/>
-    <hyperlink ref="P123" r:id="rId299"/>
-    <hyperlink ref="M124" r:id="rId300"/>
-    <hyperlink ref="M125" r:id="rId301"/>
-    <hyperlink ref="N125" r:id="rId302"/>
-    <hyperlink ref="M126" r:id="rId303"/>
-    <hyperlink ref="N126" r:id="rId304"/>
-    <hyperlink ref="P126" r:id="rId305"/>
-    <hyperlink ref="M127" r:id="rId306"/>
-    <hyperlink ref="P127" r:id="rId307"/>
-    <hyperlink ref="M128" r:id="rId308"/>
-    <hyperlink ref="P128" r:id="rId309"/>
-    <hyperlink ref="M129" r:id="rId310"/>
-    <hyperlink ref="N129" r:id="rId311"/>
-    <hyperlink ref="P129" r:id="rId312"/>
-    <hyperlink ref="M130" r:id="rId313"/>
-    <hyperlink ref="N130" r:id="rId314"/>
-    <hyperlink ref="N131" r:id="rId315"/>
-    <hyperlink ref="M132" r:id="rId316"/>
-    <hyperlink ref="M133" r:id="rId317"/>
-    <hyperlink ref="N133" r:id="rId318"/>
-    <hyperlink ref="P133" r:id="rId319"/>
-    <hyperlink ref="M134" r:id="rId320"/>
-    <hyperlink ref="N134" r:id="rId321"/>
-    <hyperlink ref="P134" r:id="rId322"/>
-    <hyperlink ref="M135" r:id="rId323"/>
-    <hyperlink ref="N135" r:id="rId324"/>
-    <hyperlink ref="P135" r:id="rId325"/>
-    <hyperlink ref="M136" r:id="rId326"/>
-    <hyperlink ref="N136" r:id="rId327"/>
-    <hyperlink ref="P136" r:id="rId328"/>
-    <hyperlink ref="M137" r:id="rId329"/>
-    <hyperlink ref="N137" r:id="rId330"/>
-    <hyperlink ref="M138" r:id="rId331"/>
-    <hyperlink ref="N138" r:id="rId332"/>
-    <hyperlink ref="P138" r:id="rId333"/>
+    <hyperlink ref="P33" r:id="rId75"/>
+    <hyperlink ref="M34" r:id="rId76"/>
+    <hyperlink ref="N34" r:id="rId77"/>
+    <hyperlink ref="M35" r:id="rId78"/>
+    <hyperlink ref="P35" r:id="rId79"/>
+    <hyperlink ref="M36" r:id="rId80"/>
+    <hyperlink ref="N36" r:id="rId81"/>
+    <hyperlink ref="P36" r:id="rId82"/>
+    <hyperlink ref="M37" r:id="rId83"/>
+    <hyperlink ref="N37" r:id="rId84"/>
+    <hyperlink ref="P37" r:id="rId85"/>
+    <hyperlink ref="M38" r:id="rId86"/>
+    <hyperlink ref="N38" r:id="rId87"/>
+    <hyperlink ref="P38" r:id="rId88"/>
+    <hyperlink ref="M39" r:id="rId89"/>
+    <hyperlink ref="P39" r:id="rId90"/>
+    <hyperlink ref="M40" r:id="rId91"/>
+    <hyperlink ref="N40" r:id="rId92"/>
+    <hyperlink ref="P40" r:id="rId93"/>
+    <hyperlink ref="M41" r:id="rId94"/>
+    <hyperlink ref="N41" r:id="rId95"/>
+    <hyperlink ref="P41" r:id="rId96"/>
+    <hyperlink ref="M42" r:id="rId97"/>
+    <hyperlink ref="N42" r:id="rId98"/>
+    <hyperlink ref="M43" r:id="rId99"/>
+    <hyperlink ref="N43" r:id="rId100"/>
+    <hyperlink ref="P43" r:id="rId101"/>
+    <hyperlink ref="N44" r:id="rId102"/>
+    <hyperlink ref="M45" r:id="rId103"/>
+    <hyperlink ref="N45" r:id="rId104"/>
+    <hyperlink ref="M46" r:id="rId105"/>
+    <hyperlink ref="N46" r:id="rId106"/>
+    <hyperlink ref="P46" r:id="rId107"/>
+    <hyperlink ref="M47" r:id="rId108"/>
+    <hyperlink ref="N47" r:id="rId109"/>
+    <hyperlink ref="P47" r:id="rId110"/>
+    <hyperlink ref="M48" r:id="rId111"/>
+    <hyperlink ref="M49" r:id="rId112"/>
+    <hyperlink ref="N49" r:id="rId113"/>
+    <hyperlink ref="M50" r:id="rId114"/>
+    <hyperlink ref="N50" r:id="rId115"/>
+    <hyperlink ref="P50" r:id="rId116"/>
+    <hyperlink ref="M51" r:id="rId117"/>
+    <hyperlink ref="N51" r:id="rId118"/>
+    <hyperlink ref="M52" r:id="rId119"/>
+    <hyperlink ref="N52" r:id="rId120"/>
+    <hyperlink ref="P52" r:id="rId121"/>
+    <hyperlink ref="N53" r:id="rId122"/>
+    <hyperlink ref="P53" r:id="rId123"/>
+    <hyperlink ref="M54" r:id="rId124"/>
+    <hyperlink ref="P54" r:id="rId125"/>
+    <hyperlink ref="M55" r:id="rId126"/>
+    <hyperlink ref="P55" r:id="rId127"/>
+    <hyperlink ref="M56" r:id="rId128"/>
+    <hyperlink ref="P56" r:id="rId129"/>
+    <hyperlink ref="M57" r:id="rId130"/>
+    <hyperlink ref="N57" r:id="rId131"/>
+    <hyperlink ref="P57" r:id="rId132"/>
+    <hyperlink ref="M58" r:id="rId133"/>
+    <hyperlink ref="P58" r:id="rId134"/>
+    <hyperlink ref="N59" r:id="rId135"/>
+    <hyperlink ref="P59" r:id="rId136"/>
+    <hyperlink ref="M60" r:id="rId137"/>
+    <hyperlink ref="N60" r:id="rId138"/>
+    <hyperlink ref="M61" r:id="rId139"/>
+    <hyperlink ref="P61" r:id="rId140"/>
+    <hyperlink ref="M62" r:id="rId141"/>
+    <hyperlink ref="N62" r:id="rId142"/>
+    <hyperlink ref="P62" r:id="rId143"/>
+    <hyperlink ref="M63" r:id="rId144"/>
+    <hyperlink ref="N63" r:id="rId145"/>
+    <hyperlink ref="M64" r:id="rId146"/>
+    <hyperlink ref="N64" r:id="rId147"/>
+    <hyperlink ref="P64" r:id="rId148"/>
+    <hyperlink ref="M65" r:id="rId149"/>
+    <hyperlink ref="N65" r:id="rId150"/>
+    <hyperlink ref="M66" r:id="rId151"/>
+    <hyperlink ref="N66" r:id="rId152"/>
+    <hyperlink ref="P66" r:id="rId153"/>
+    <hyperlink ref="M67" r:id="rId154"/>
+    <hyperlink ref="N67" r:id="rId155"/>
+    <hyperlink ref="P67" r:id="rId156"/>
+    <hyperlink ref="M68" r:id="rId157"/>
+    <hyperlink ref="N68" r:id="rId158"/>
+    <hyperlink ref="P68" r:id="rId159"/>
+    <hyperlink ref="M69" r:id="rId160"/>
+    <hyperlink ref="P69" r:id="rId161"/>
+    <hyperlink ref="M70" r:id="rId162"/>
+    <hyperlink ref="N70" r:id="rId163"/>
+    <hyperlink ref="P70" r:id="rId164"/>
+    <hyperlink ref="M71" r:id="rId165"/>
+    <hyperlink ref="N71" r:id="rId166"/>
+    <hyperlink ref="M72" r:id="rId167"/>
+    <hyperlink ref="N72" r:id="rId168"/>
+    <hyperlink ref="P72" r:id="rId169"/>
+    <hyperlink ref="M73" r:id="rId170"/>
+    <hyperlink ref="N73" r:id="rId171"/>
+    <hyperlink ref="P73" r:id="rId172"/>
+    <hyperlink ref="M74" r:id="rId173"/>
+    <hyperlink ref="N74" r:id="rId174"/>
+    <hyperlink ref="M75" r:id="rId175"/>
+    <hyperlink ref="N75" r:id="rId176"/>
+    <hyperlink ref="P75" r:id="rId177"/>
+    <hyperlink ref="M76" r:id="rId178"/>
+    <hyperlink ref="N76" r:id="rId179"/>
+    <hyperlink ref="P76" r:id="rId180"/>
+    <hyperlink ref="M77" r:id="rId181"/>
+    <hyperlink ref="N77" r:id="rId182"/>
+    <hyperlink ref="P77" r:id="rId183"/>
+    <hyperlink ref="M78" r:id="rId184"/>
+    <hyperlink ref="N78" r:id="rId185"/>
+    <hyperlink ref="P78" r:id="rId186"/>
+    <hyperlink ref="M79" r:id="rId187"/>
+    <hyperlink ref="P79" r:id="rId188"/>
+    <hyperlink ref="M80" r:id="rId189"/>
+    <hyperlink ref="N80" r:id="rId190"/>
+    <hyperlink ref="M81" r:id="rId191"/>
+    <hyperlink ref="N81" r:id="rId192"/>
+    <hyperlink ref="P81" r:id="rId193"/>
+    <hyperlink ref="M82" r:id="rId194"/>
+    <hyperlink ref="N82" r:id="rId195"/>
+    <hyperlink ref="P82" r:id="rId196"/>
+    <hyperlink ref="M83" r:id="rId197"/>
+    <hyperlink ref="N83" r:id="rId198"/>
+    <hyperlink ref="P83" r:id="rId199"/>
+    <hyperlink ref="M84" r:id="rId200"/>
+    <hyperlink ref="N84" r:id="rId201"/>
+    <hyperlink ref="M86" r:id="rId202"/>
+    <hyperlink ref="N86" r:id="rId203"/>
+    <hyperlink ref="P86" r:id="rId204"/>
+    <hyperlink ref="M87" r:id="rId205"/>
+    <hyperlink ref="P87" r:id="rId206"/>
+    <hyperlink ref="M88" r:id="rId207"/>
+    <hyperlink ref="N88" r:id="rId208"/>
+    <hyperlink ref="P88" r:id="rId209"/>
+    <hyperlink ref="M89" r:id="rId210"/>
+    <hyperlink ref="N89" r:id="rId211"/>
+    <hyperlink ref="M90" r:id="rId212"/>
+    <hyperlink ref="N90" r:id="rId213"/>
+    <hyperlink ref="P90" r:id="rId214"/>
+    <hyperlink ref="M91" r:id="rId215"/>
+    <hyperlink ref="N91" r:id="rId216"/>
+    <hyperlink ref="P91" r:id="rId217"/>
+    <hyperlink ref="M92" r:id="rId218"/>
+    <hyperlink ref="P92" r:id="rId219"/>
+    <hyperlink ref="M93" r:id="rId220"/>
+    <hyperlink ref="N93" r:id="rId221"/>
+    <hyperlink ref="M94" r:id="rId222"/>
+    <hyperlink ref="N94" r:id="rId223"/>
+    <hyperlink ref="P94" r:id="rId224"/>
+    <hyperlink ref="M95" r:id="rId225"/>
+    <hyperlink ref="P95" r:id="rId226"/>
+    <hyperlink ref="M96" r:id="rId227"/>
+    <hyperlink ref="N96" r:id="rId228"/>
+    <hyperlink ref="M97" r:id="rId229"/>
+    <hyperlink ref="N97" r:id="rId230"/>
+    <hyperlink ref="P97" r:id="rId231"/>
+    <hyperlink ref="M98" r:id="rId232"/>
+    <hyperlink ref="N98" r:id="rId233"/>
+    <hyperlink ref="M99" r:id="rId234"/>
+    <hyperlink ref="P99" r:id="rId235"/>
+    <hyperlink ref="M100" r:id="rId236"/>
+    <hyperlink ref="P100" r:id="rId237"/>
+    <hyperlink ref="M101" r:id="rId238"/>
+    <hyperlink ref="N101" r:id="rId239"/>
+    <hyperlink ref="P101" r:id="rId240"/>
+    <hyperlink ref="M102" r:id="rId241"/>
+    <hyperlink ref="N102" r:id="rId242"/>
+    <hyperlink ref="P102" r:id="rId243"/>
+    <hyperlink ref="M103" r:id="rId244"/>
+    <hyperlink ref="P103" r:id="rId245"/>
+    <hyperlink ref="M104" r:id="rId246"/>
+    <hyperlink ref="N104" r:id="rId247"/>
+    <hyperlink ref="P104" r:id="rId248"/>
+    <hyperlink ref="M105" r:id="rId249"/>
+    <hyperlink ref="N105" r:id="rId250"/>
+    <hyperlink ref="P105" r:id="rId251"/>
+    <hyperlink ref="M106" r:id="rId252"/>
+    <hyperlink ref="N106" r:id="rId253"/>
+    <hyperlink ref="P106" r:id="rId254"/>
+    <hyperlink ref="M107" r:id="rId255"/>
+    <hyperlink ref="N107" r:id="rId256"/>
+    <hyperlink ref="P107" r:id="rId257"/>
+    <hyperlink ref="M108" r:id="rId258"/>
+    <hyperlink ref="N108" r:id="rId259"/>
+    <hyperlink ref="M109" r:id="rId260"/>
+    <hyperlink ref="N109" r:id="rId261"/>
+    <hyperlink ref="P109" r:id="rId262"/>
+    <hyperlink ref="M110" r:id="rId263"/>
+    <hyperlink ref="N110" r:id="rId264"/>
+    <hyperlink ref="P110" r:id="rId265"/>
+    <hyperlink ref="M111" r:id="rId266"/>
+    <hyperlink ref="N111" r:id="rId267"/>
+    <hyperlink ref="P111" r:id="rId268"/>
+    <hyperlink ref="M112" r:id="rId269"/>
+    <hyperlink ref="M113" r:id="rId270"/>
+    <hyperlink ref="N113" r:id="rId271"/>
+    <hyperlink ref="M114" r:id="rId272"/>
+    <hyperlink ref="N114" r:id="rId273"/>
+    <hyperlink ref="P114" r:id="rId274"/>
+    <hyperlink ref="M115" r:id="rId275"/>
+    <hyperlink ref="N115" r:id="rId276"/>
+    <hyperlink ref="M116" r:id="rId277"/>
+    <hyperlink ref="P116" r:id="rId278"/>
+    <hyperlink ref="M117" r:id="rId279"/>
+    <hyperlink ref="N117" r:id="rId280"/>
+    <hyperlink ref="P117" r:id="rId281"/>
+    <hyperlink ref="M118" r:id="rId282"/>
+    <hyperlink ref="N118" r:id="rId283"/>
+    <hyperlink ref="P118" r:id="rId284"/>
+    <hyperlink ref="M119" r:id="rId285"/>
+    <hyperlink ref="N119" r:id="rId286"/>
+    <hyperlink ref="P119" r:id="rId287"/>
+    <hyperlink ref="M120" r:id="rId288"/>
+    <hyperlink ref="N120" r:id="rId289"/>
+    <hyperlink ref="P120" r:id="rId290"/>
+    <hyperlink ref="M121" r:id="rId291"/>
+    <hyperlink ref="M122" r:id="rId292"/>
+    <hyperlink ref="N122" r:id="rId293"/>
+    <hyperlink ref="P122" r:id="rId294"/>
+    <hyperlink ref="M123" r:id="rId295"/>
+    <hyperlink ref="N123" r:id="rId296"/>
+    <hyperlink ref="P123" r:id="rId297"/>
+    <hyperlink ref="M124" r:id="rId298"/>
+    <hyperlink ref="M125" r:id="rId299"/>
+    <hyperlink ref="N125" r:id="rId300"/>
+    <hyperlink ref="M126" r:id="rId301"/>
+    <hyperlink ref="N126" r:id="rId302"/>
+    <hyperlink ref="P126" r:id="rId303"/>
+    <hyperlink ref="M127" r:id="rId304"/>
+    <hyperlink ref="P127" r:id="rId305"/>
+    <hyperlink ref="M128" r:id="rId306"/>
+    <hyperlink ref="P128" r:id="rId307"/>
+    <hyperlink ref="M129" r:id="rId308"/>
+    <hyperlink ref="N129" r:id="rId309"/>
+    <hyperlink ref="P129" r:id="rId310"/>
+    <hyperlink ref="M130" r:id="rId311"/>
+    <hyperlink ref="N130" r:id="rId312"/>
+    <hyperlink ref="N131" r:id="rId313"/>
+    <hyperlink ref="M132" r:id="rId314"/>
+    <hyperlink ref="M133" r:id="rId315"/>
+    <hyperlink ref="N133" r:id="rId316"/>
+    <hyperlink ref="P133" r:id="rId317"/>
+    <hyperlink ref="M134" r:id="rId318"/>
+    <hyperlink ref="N134" r:id="rId319"/>
+    <hyperlink ref="P134" r:id="rId320"/>
+    <hyperlink ref="M135" r:id="rId321"/>
+    <hyperlink ref="N135" r:id="rId322"/>
+    <hyperlink ref="P135" r:id="rId323"/>
+    <hyperlink ref="M136" r:id="rId324"/>
+    <hyperlink ref="N136" r:id="rId325"/>
+    <hyperlink ref="P136" r:id="rId326"/>
+    <hyperlink ref="M137" r:id="rId327"/>
+    <hyperlink ref="N137" r:id="rId328"/>
+    <hyperlink ref="M138" r:id="rId329"/>
+    <hyperlink ref="N138" r:id="rId330"/>
+    <hyperlink ref="P138" r:id="rId331"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
